--- a/UHA.xlsx
+++ b/UHA.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="0" windowWidth="13170" windowHeight="1125" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="0" windowWidth="13170" windowHeight="1185"/>
   </bookViews>
   <sheets>
     <sheet name="UHA meas values" sheetId="1" r:id="rId1"/>
@@ -12,12 +12,12 @@
     <sheet name="TECHM_STATUS" sheetId="3" r:id="rId3"/>
     <sheet name="Buttons&amp;Lights" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="298">
   <si>
     <t>dec</t>
   </si>
@@ -899,6 +899,18 @@
   </si>
   <si>
     <t>CMD_BALANCE_INFO</t>
+  </si>
+  <si>
+    <t>VAR_METEO_WIND_BURST</t>
+  </si>
+  <si>
+    <t>VAR_METEO_WIND_AVG</t>
+  </si>
+  <si>
+    <t>VAR_METEO_WIND_POW</t>
+  </si>
+  <si>
+    <t>VAR_METEO_WIND_ENERGY</t>
   </si>
 </sst>
 </file>
@@ -1417,8 +1429,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B3:P259"/>
   <sheetViews>
-    <sheetView topLeftCell="E40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N64" sqref="N64:N81"/>
+    <sheetView tabSelected="1" topLeftCell="E126" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N165" sqref="N165:N168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2930,7 +2942,7 @@
         <v>UpdateScanList(VAR_CONS_AC3KW_WH, 3000);</v>
       </c>
       <c r="N65" t="str">
-        <f t="shared" ref="N65:N81" si="7">CONCATENATE("COM_AddStreamedVariable(",E65, ", 1000);")</f>
+        <f t="shared" ref="N65:N128" si="7">CONCATENATE("COM_AddStreamedVariable(",E65, ", 1000);")</f>
         <v>COM_AddStreamedVariable(VAR_CONS_AC3KW_WH, 1000);</v>
       </c>
       <c r="P65" t="str">
@@ -3465,6 +3477,10 @@
         <f t="shared" si="9"/>
         <v>public const byte VAR_POW_KITCHEN_A_W = 78;</v>
       </c>
+      <c r="N82" t="str">
+        <f t="shared" si="7"/>
+        <v>COM_AddStreamedVariable(VAR_POW_KITCHEN_A_W, 1000);</v>
+      </c>
     </row>
     <row r="83" spans="2:16">
       <c r="B83" s="15"/>
@@ -3486,6 +3502,10 @@
         <f t="shared" si="9"/>
         <v>public const byte VAR_POW_KITCHEN_B_W = 79;</v>
       </c>
+      <c r="N83" t="str">
+        <f t="shared" si="7"/>
+        <v>COM_AddStreamedVariable(VAR_POW_KITCHEN_B_W, 1000);</v>
+      </c>
     </row>
     <row r="84" spans="2:16">
       <c r="B84" s="15"/>
@@ -3511,6 +3531,10 @@
         <f t="shared" ref="L84:L131" si="12">CONCATENATE("UpdateScanList(",E84, ", 3000);")</f>
         <v>UpdateScanList(VAR_EL_HEATER_STATUS, 3000);</v>
       </c>
+      <c r="N84" t="str">
+        <f t="shared" si="7"/>
+        <v>COM_AddStreamedVariable(VAR_EL_HEATER_STATUS, 1000);</v>
+      </c>
       <c r="P84" t="str">
         <f t="shared" ref="P84:P131" si="13">CONCATENATE("cJSON_AddItemToObject(Uha, ","""",E84,"""",", cJSON_CreateNumber(mVars[",C84,"]));")</f>
         <v>cJSON_AddItemToObject(Uha, "VAR_EL_HEATER_STATUS", cJSON_CreateNumber(mVars[80]));</v>
@@ -3540,6 +3564,10 @@
         <f t="shared" si="12"/>
         <v>UpdateScanList(VAR_EL_HEATER_POWER, 3000);</v>
       </c>
+      <c r="N85" t="str">
+        <f t="shared" si="7"/>
+        <v>COM_AddStreamedVariable(VAR_EL_HEATER_POWER, 1000);</v>
+      </c>
       <c r="P85" t="str">
         <f t="shared" si="13"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_EL_HEATER_POWER", cJSON_CreateNumber(mVars[81]));</v>
@@ -3569,6 +3597,10 @@
         <f t="shared" si="12"/>
         <v>UpdateScanList(VAR_EL_HEATER_CURRENT, 3000);</v>
       </c>
+      <c r="N86" t="str">
+        <f t="shared" si="7"/>
+        <v>COM_AddStreamedVariable(VAR_EL_HEATER_CURRENT, 1000);</v>
+      </c>
       <c r="P86" t="str">
         <f t="shared" si="13"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_EL_HEATER_CURRENT", cJSON_CreateNumber(mVars[82]));</v>
@@ -3598,6 +3630,10 @@
         <f t="shared" si="12"/>
         <v>UpdateScanList(VAR_EL_HEATER_CONS, 3000);</v>
       </c>
+      <c r="N87" t="str">
+        <f t="shared" si="7"/>
+        <v>COM_AddStreamedVariable(VAR_EL_HEATER_CONS, 1000);</v>
+      </c>
       <c r="P87" t="str">
         <f t="shared" si="13"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_EL_HEATER_CONS", cJSON_CreateNumber(mVars[83]));</v>
@@ -3620,6 +3656,10 @@
         <f t="shared" si="9"/>
         <v>public const byte  = 84;</v>
       </c>
+      <c r="N88" t="str">
+        <f t="shared" si="7"/>
+        <v>COM_AddStreamedVariable(, 1000);</v>
+      </c>
     </row>
     <row r="89" spans="2:16">
       <c r="B89" s="15"/>
@@ -3645,6 +3685,10 @@
         <f t="shared" si="12"/>
         <v>UpdateScanList(VAR_HEAT_TOTAL_WH, 3000);</v>
       </c>
+      <c r="N89" t="str">
+        <f t="shared" si="7"/>
+        <v>COM_AddStreamedVariable(VAR_HEAT_TOTAL_WH, 1000);</v>
+      </c>
       <c r="P89" t="str">
         <f t="shared" si="13"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_HEAT_TOTAL_WH", cJSON_CreateNumber(mVars[85]));</v>
@@ -3674,6 +3718,10 @@
         <f t="shared" si="12"/>
         <v>UpdateScanList(VAR_HEAT_HEATING_WH, 3000);</v>
       </c>
+      <c r="N90" t="str">
+        <f t="shared" si="7"/>
+        <v>COM_AddStreamedVariable(VAR_HEAT_HEATING_WH, 1000);</v>
+      </c>
       <c r="P90" t="str">
         <f t="shared" si="13"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_HEAT_HEATING_WH", cJSON_CreateNumber(mVars[86]));</v>
@@ -3696,6 +3744,10 @@
         <f t="shared" si="9"/>
         <v>public const byte  = 87;</v>
       </c>
+      <c r="N91" t="str">
+        <f t="shared" si="7"/>
+        <v>COM_AddStreamedVariable(, 1000);</v>
+      </c>
     </row>
     <row r="92" spans="2:16">
       <c r="B92" s="15"/>
@@ -3714,6 +3766,10 @@
         <f t="shared" si="9"/>
         <v>public const byte  = 88;</v>
       </c>
+      <c r="N92" t="str">
+        <f t="shared" si="7"/>
+        <v>COM_AddStreamedVariable(, 1000);</v>
+      </c>
     </row>
     <row r="93" spans="2:16">
       <c r="B93" s="15"/>
@@ -3732,6 +3788,10 @@
         <f t="shared" si="9"/>
         <v>public const byte  = 89;</v>
       </c>
+      <c r="N93" t="str">
+        <f t="shared" si="7"/>
+        <v>COM_AddStreamedVariable(, 1000);</v>
+      </c>
     </row>
     <row r="94" spans="2:16">
       <c r="B94" s="15"/>
@@ -3757,6 +3817,10 @@
         <f t="shared" si="12"/>
         <v>UpdateScanList(VAR_FLOW_COLD, 3000);</v>
       </c>
+      <c r="N94" t="str">
+        <f t="shared" si="7"/>
+        <v>COM_AddStreamedVariable(VAR_FLOW_COLD, 1000);</v>
+      </c>
       <c r="P94" t="str">
         <f t="shared" si="13"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_FLOW_COLD", cJSON_CreateNumber(mVars[90]));</v>
@@ -3786,6 +3850,10 @@
         <f t="shared" si="12"/>
         <v>UpdateScanList(VAR_FLOW_HOT, 3000);</v>
       </c>
+      <c r="N95" t="str">
+        <f t="shared" si="7"/>
+        <v>COM_AddStreamedVariable(VAR_FLOW_HOT, 1000);</v>
+      </c>
       <c r="P95" t="str">
         <f t="shared" si="13"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_FLOW_HOT", cJSON_CreateNumber(mVars[91]));</v>
@@ -3815,6 +3883,10 @@
         <f t="shared" si="12"/>
         <v>UpdateScanList(VAR_CONS_COLD, 3000);</v>
       </c>
+      <c r="N96" t="str">
+        <f t="shared" si="7"/>
+        <v>COM_AddStreamedVariable(VAR_CONS_COLD, 1000);</v>
+      </c>
       <c r="P96" t="str">
         <f t="shared" si="13"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_CONS_COLD", cJSON_CreateNumber(mVars[92]));</v>
@@ -3844,6 +3916,10 @@
         <f t="shared" si="12"/>
         <v>UpdateScanList(VAR_CONS_HOT, 3000);</v>
       </c>
+      <c r="N97" t="str">
+        <f t="shared" si="7"/>
+        <v>COM_AddStreamedVariable(VAR_CONS_HOT, 1000);</v>
+      </c>
       <c r="P97" t="str">
         <f t="shared" si="13"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_CONS_HOT", cJSON_CreateNumber(mVars[93]));</v>
@@ -3866,6 +3942,10 @@
         <f t="shared" si="9"/>
         <v>public const byte  = 94;</v>
       </c>
+      <c r="N98" t="str">
+        <f t="shared" si="7"/>
+        <v>COM_AddStreamedVariable(, 1000);</v>
+      </c>
     </row>
     <row r="99" spans="2:16">
       <c r="B99" s="15"/>
@@ -3884,6 +3964,10 @@
         <f t="shared" si="9"/>
         <v>public const byte  = 95;</v>
       </c>
+      <c r="N99" t="str">
+        <f t="shared" si="7"/>
+        <v>COM_AddStreamedVariable(, 1000);</v>
+      </c>
     </row>
     <row r="100" spans="2:16">
       <c r="B100" s="15"/>
@@ -3902,6 +3986,10 @@
         <f t="shared" si="9"/>
         <v>public const byte  = 96;</v>
       </c>
+      <c r="N100" t="str">
+        <f t="shared" si="7"/>
+        <v>COM_AddStreamedVariable(, 1000);</v>
+      </c>
     </row>
     <row r="101" spans="2:16">
       <c r="B101" s="15"/>
@@ -3920,6 +4008,10 @@
         <f t="shared" si="9"/>
         <v>public const byte  = 97;</v>
       </c>
+      <c r="N101" t="str">
+        <f t="shared" si="7"/>
+        <v>COM_AddStreamedVariable(, 1000);</v>
+      </c>
     </row>
     <row r="102" spans="2:16">
       <c r="B102" s="15"/>
@@ -3945,6 +4037,10 @@
         <f t="shared" si="12"/>
         <v>UpdateScanList(VAR_BOILER_POWER, 3000);</v>
       </c>
+      <c r="N102" t="str">
+        <f t="shared" si="7"/>
+        <v>COM_AddStreamedVariable(VAR_BOILER_POWER, 1000);</v>
+      </c>
       <c r="P102" t="str">
         <f t="shared" si="13"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_BOILER_POWER", cJSON_CreateNumber(mVars[98]));</v>
@@ -3974,6 +4070,10 @@
         <f t="shared" si="12"/>
         <v>UpdateScanList(VAR_BOILER_HEAT, 3000);</v>
       </c>
+      <c r="N103" t="str">
+        <f t="shared" si="7"/>
+        <v>COM_AddStreamedVariable(VAR_BOILER_HEAT, 1000);</v>
+      </c>
       <c r="P103" t="str">
         <f t="shared" si="13"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_BOILER_HEAT", cJSON_CreateNumber(mVars[99]));</v>
@@ -4014,6 +4114,10 @@
       <c r="L104" t="str">
         <f t="shared" si="12"/>
         <v>UpdateScanList(VAR_TEMP_BOILER, 3000);</v>
+      </c>
+      <c r="N104" t="str">
+        <f t="shared" si="7"/>
+        <v>COM_AddStreamedVariable(VAR_TEMP_BOILER, 1000);</v>
       </c>
       <c r="P104" t="str">
         <f t="shared" si="13"/>
@@ -4054,6 +4158,10 @@
         <f t="shared" si="12"/>
         <v>UpdateScanList(VAR_TEMP_BOILER_IN, 3000);</v>
       </c>
+      <c r="N105" t="str">
+        <f t="shared" si="7"/>
+        <v>COM_AddStreamedVariable(VAR_TEMP_BOILER_IN, 1000);</v>
+      </c>
       <c r="P105" t="str">
         <f t="shared" si="13"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_TEMP_BOILER_IN", cJSON_CreateNumber(mVars[101]));</v>
@@ -4093,6 +4201,10 @@
         <f t="shared" si="12"/>
         <v>UpdateScanList(VAR_TEMP_BOILER_OUT, 3000);</v>
       </c>
+      <c r="N106" t="str">
+        <f t="shared" si="7"/>
+        <v>COM_AddStreamedVariable(VAR_TEMP_BOILER_OUT, 1000);</v>
+      </c>
       <c r="P106" t="str">
         <f t="shared" si="13"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_TEMP_BOILER_OUT", cJSON_CreateNumber(mVars[102]));</v>
@@ -4132,6 +4244,10 @@
         <f t="shared" si="12"/>
         <v>UpdateScanList(VAR_TEMP_TANK_IN_H, 3000);</v>
       </c>
+      <c r="N107" t="str">
+        <f t="shared" si="7"/>
+        <v>COM_AddStreamedVariable(VAR_TEMP_TANK_IN_H, 1000);</v>
+      </c>
       <c r="P107" t="str">
         <f t="shared" si="13"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_TEMP_TANK_IN_H", cJSON_CreateNumber(mVars[103]));</v>
@@ -4171,6 +4287,10 @@
         <f t="shared" si="12"/>
         <v>UpdateScanList(VAR_TEMP_TANK_OUT_H, 3000);</v>
       </c>
+      <c r="N108" t="str">
+        <f t="shared" si="7"/>
+        <v>COM_AddStreamedVariable(VAR_TEMP_TANK_OUT_H, 1000);</v>
+      </c>
       <c r="P108" t="str">
         <f t="shared" si="13"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_TEMP_TANK_OUT_H", cJSON_CreateNumber(mVars[104]));</v>
@@ -4210,6 +4330,10 @@
         <f t="shared" si="12"/>
         <v>UpdateScanList(VAR_TEMP_TANK_1, 3000);</v>
       </c>
+      <c r="N109" t="str">
+        <f t="shared" si="7"/>
+        <v>COM_AddStreamedVariable(VAR_TEMP_TANK_1, 1000);</v>
+      </c>
       <c r="P109" t="str">
         <f t="shared" si="13"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_TEMP_TANK_1", cJSON_CreateNumber(mVars[105]));</v>
@@ -4249,6 +4373,10 @@
         <f t="shared" si="12"/>
         <v>UpdateScanList(VAR_TEMP_TANK_2, 3000);</v>
       </c>
+      <c r="N110" t="str">
+        <f t="shared" si="7"/>
+        <v>COM_AddStreamedVariable(VAR_TEMP_TANK_2, 1000);</v>
+      </c>
       <c r="P110" t="str">
         <f t="shared" si="13"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_TEMP_TANK_2", cJSON_CreateNumber(mVars[106]));</v>
@@ -4288,6 +4416,10 @@
         <f t="shared" si="12"/>
         <v>UpdateScanList(VAR_TEMP_TANK_3, 3000);</v>
       </c>
+      <c r="N111" t="str">
+        <f t="shared" si="7"/>
+        <v>COM_AddStreamedVariable(VAR_TEMP_TANK_3, 1000);</v>
+      </c>
       <c r="P111" t="str">
         <f t="shared" si="13"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_TEMP_TANK_3", cJSON_CreateNumber(mVars[107]));</v>
@@ -4327,6 +4459,10 @@
         <f t="shared" si="12"/>
         <v>UpdateScanList(VAR_TEMP_TANK_4, 3000);</v>
       </c>
+      <c r="N112" t="str">
+        <f t="shared" si="7"/>
+        <v>COM_AddStreamedVariable(VAR_TEMP_TANK_4, 1000);</v>
+      </c>
       <c r="P112" t="str">
         <f t="shared" si="13"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_TEMP_TANK_4", cJSON_CreateNumber(mVars[108]));</v>
@@ -4366,6 +4502,10 @@
         <f t="shared" si="12"/>
         <v>UpdateScanList(VAR_TEMP_TANK_5, 3000);</v>
       </c>
+      <c r="N113" t="str">
+        <f t="shared" si="7"/>
+        <v>COM_AddStreamedVariable(VAR_TEMP_TANK_5, 1000);</v>
+      </c>
       <c r="P113" t="str">
         <f t="shared" si="13"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_TEMP_TANK_5", cJSON_CreateNumber(mVars[109]));</v>
@@ -4405,6 +4545,10 @@
         <f t="shared" si="12"/>
         <v>UpdateScanList(VAR_TEMP_TANK_6, 3000);</v>
       </c>
+      <c r="N114" t="str">
+        <f t="shared" si="7"/>
+        <v>COM_AddStreamedVariable(VAR_TEMP_TANK_6, 1000);</v>
+      </c>
       <c r="P114" t="str">
         <f t="shared" si="13"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_TEMP_TANK_6", cJSON_CreateNumber(mVars[110]));</v>
@@ -4444,6 +4588,10 @@
         <f t="shared" si="12"/>
         <v>UpdateScanList(VAR_TEMP_WALL_IN, 3000);</v>
       </c>
+      <c r="N115" t="str">
+        <f t="shared" si="7"/>
+        <v>COM_AddStreamedVariable(VAR_TEMP_WALL_IN, 1000);</v>
+      </c>
       <c r="P115" t="str">
         <f t="shared" si="13"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_TEMP_WALL_IN", cJSON_CreateNumber(mVars[111]));</v>
@@ -4483,6 +4631,10 @@
         <f t="shared" si="12"/>
         <v>UpdateScanList(VAR_TEMP_WALL_OUT, 3000);</v>
       </c>
+      <c r="N116" t="str">
+        <f t="shared" si="7"/>
+        <v>COM_AddStreamedVariable(VAR_TEMP_WALL_OUT, 1000);</v>
+      </c>
       <c r="P116" t="str">
         <f t="shared" si="13"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_TEMP_WALL_OUT", cJSON_CreateNumber(mVars[112]));</v>
@@ -4519,6 +4671,10 @@
         <f t="shared" si="12"/>
         <v>UpdateScanList(VAR_TEMP_BOILER_EXHAUST, 3000);</v>
       </c>
+      <c r="N117" t="str">
+        <f t="shared" si="7"/>
+        <v>COM_AddStreamedVariable(VAR_TEMP_BOILER_EXHAUST, 1000);</v>
+      </c>
       <c r="P117" t="str">
         <f t="shared" si="13"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_TEMP_BOILER_EXHAUST", cJSON_CreateNumber(mVars[113]));</v>
@@ -4558,6 +4714,10 @@
         <f t="shared" si="12"/>
         <v>UpdateScanList(VAR_TEMP_RAD_H, 3000);</v>
       </c>
+      <c r="N118" t="str">
+        <f t="shared" si="7"/>
+        <v>COM_AddStreamedVariable(VAR_TEMP_RAD_H, 1000);</v>
+      </c>
       <c r="P118" t="str">
         <f t="shared" si="13"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_TEMP_RAD_H", cJSON_CreateNumber(mVars[114]));</v>
@@ -4597,6 +4757,10 @@
         <f t="shared" si="12"/>
         <v>UpdateScanList(VAR_TEMP_RAD_C, 3000);</v>
       </c>
+      <c r="N119" t="str">
+        <f t="shared" si="7"/>
+        <v>COM_AddStreamedVariable(VAR_TEMP_RAD_C, 1000);</v>
+      </c>
       <c r="P119" t="str">
         <f t="shared" si="13"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_TEMP_RAD_C", cJSON_CreateNumber(mVars[115]));</v>
@@ -4636,6 +4800,10 @@
         <f t="shared" si="12"/>
         <v>UpdateScanList(VAR_TEMP_TANK_IN_C, 3000);</v>
       </c>
+      <c r="N120" t="str">
+        <f t="shared" si="7"/>
+        <v>COM_AddStreamedVariable(VAR_TEMP_TANK_IN_C, 1000);</v>
+      </c>
       <c r="P120" t="str">
         <f t="shared" si="13"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_TEMP_TANK_IN_C", cJSON_CreateNumber(mVars[116]));</v>
@@ -4675,6 +4843,10 @@
         <f t="shared" si="12"/>
         <v>UpdateScanList(VAR_TEMP_TANK_OUT_C, 3000);</v>
       </c>
+      <c r="N121" t="str">
+        <f t="shared" si="7"/>
+        <v>COM_AddStreamedVariable(VAR_TEMP_TANK_OUT_C, 1000);</v>
+      </c>
       <c r="P121" t="str">
         <f t="shared" si="13"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_TEMP_TANK_OUT_C", cJSON_CreateNumber(mVars[117]));</v>
@@ -4689,6 +4861,10 @@
         <f t="shared" si="10"/>
         <v>76</v>
       </c>
+      <c r="N122" t="str">
+        <f t="shared" si="7"/>
+        <v>COM_AddStreamedVariable(, 1000);</v>
+      </c>
       <c r="P122" t="str">
         <f t="shared" si="13"/>
         <v>cJSON_AddItemToObject(Uha, "", cJSON_CreateNumber(mVars[118]));</v>
@@ -4703,6 +4879,10 @@
         <f t="shared" si="10"/>
         <v>77</v>
       </c>
+      <c r="N123" t="str">
+        <f t="shared" si="7"/>
+        <v>COM_AddStreamedVariable(, 1000);</v>
+      </c>
       <c r="P123" t="str">
         <f t="shared" si="13"/>
         <v>cJSON_AddItemToObject(Uha, "", cJSON_CreateNumber(mVars[119]));</v>
@@ -4739,6 +4919,10 @@
         <f t="shared" si="12"/>
         <v>UpdateScanList(VAR_TEMP_TECHM_BOARD, 3000);</v>
       </c>
+      <c r="N124" t="str">
+        <f t="shared" si="7"/>
+        <v>COM_AddStreamedVariable(VAR_TEMP_TECHM_BOARD, 1000);</v>
+      </c>
       <c r="P124" t="str">
         <f t="shared" si="13"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_TEMP_TECHM_BOARD", cJSON_CreateNumber(mVars[120]));</v>
@@ -4778,6 +4962,10 @@
         <f t="shared" si="12"/>
         <v>UpdateScanList(VAR_TEMP_IOBOARD_D, 3000);</v>
       </c>
+      <c r="N125" t="str">
+        <f t="shared" si="7"/>
+        <v>COM_AddStreamedVariable(VAR_TEMP_IOBOARD_D, 1000);</v>
+      </c>
       <c r="P125" t="str">
         <f t="shared" si="13"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_TEMP_IOBOARD_D", cJSON_CreateNumber(mVars[121]));</v>
@@ -4817,6 +5005,10 @@
         <f t="shared" si="12"/>
         <v>UpdateScanList(VAR_TEMP_IOBOARD_U, 3000);</v>
       </c>
+      <c r="N126" t="str">
+        <f t="shared" si="7"/>
+        <v>COM_AddStreamedVariable(VAR_TEMP_IOBOARD_U, 1000);</v>
+      </c>
       <c r="P126" t="str">
         <f t="shared" si="13"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_TEMP_IOBOARD_U", cJSON_CreateNumber(mVars[122]));</v>
@@ -4856,6 +5048,10 @@
         <f t="shared" si="12"/>
         <v>UpdateScanList(VAR_TEMP_ELECON_BOARD, 3000);</v>
       </c>
+      <c r="N127" t="str">
+        <f t="shared" si="7"/>
+        <v>COM_AddStreamedVariable(VAR_TEMP_ELECON_BOARD, 1000);</v>
+      </c>
       <c r="P127" t="str">
         <f t="shared" si="13"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_TEMP_ELECON_BOARD", cJSON_CreateNumber(mVars[123]));</v>
@@ -4895,6 +5091,10 @@
         <f t="shared" si="12"/>
         <v>UpdateScanList(VAR_TEMP_DOWNSTAIRS, 3000);</v>
       </c>
+      <c r="N128" t="str">
+        <f t="shared" si="7"/>
+        <v>COM_AddStreamedVariable(VAR_TEMP_DOWNSTAIRS, 1000);</v>
+      </c>
       <c r="P128" t="str">
         <f t="shared" si="13"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_TEMP_DOWNSTAIRS", cJSON_CreateNumber(mVars[124]));</v>
@@ -4934,6 +5134,10 @@
         <f t="shared" si="12"/>
         <v>UpdateScanList(VAR_TEMP_OFFICE, 3000);</v>
       </c>
+      <c r="N129" t="str">
+        <f t="shared" ref="N129:N169" si="19">CONCATENATE("COM_AddStreamedVariable(",E129, ", 1000);")</f>
+        <v>COM_AddStreamedVariable(VAR_TEMP_OFFICE, 1000);</v>
+      </c>
       <c r="P129" t="str">
         <f t="shared" si="13"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_TEMP_OFFICE", cJSON_CreateNumber(mVars[125]));</v>
@@ -4973,6 +5177,10 @@
         <f t="shared" si="12"/>
         <v>UpdateScanList(VAR_TEMP_KIDROOM, 3000);</v>
       </c>
+      <c r="N130" t="str">
+        <f t="shared" si="19"/>
+        <v>COM_AddStreamedVariable(VAR_TEMP_KIDROOM, 1000);</v>
+      </c>
       <c r="P130" t="str">
         <f t="shared" si="13"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_TEMP_KIDROOM", cJSON_CreateNumber(mVars[126]));</v>
@@ -5012,6 +5220,10 @@
         <f t="shared" si="12"/>
         <v>UpdateScanList(VAR_TEMP_OUTSIDE, 3000);</v>
       </c>
+      <c r="N131" t="str">
+        <f t="shared" si="19"/>
+        <v>COM_AddStreamedVariable(VAR_TEMP_OUTSIDE, 1000);</v>
+      </c>
       <c r="P131" t="str">
         <f t="shared" si="13"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_TEMP_OUTSIDE", cJSON_CreateNumber(mVars[127]));</v>
@@ -5033,7 +5245,7 @@
         <v>129</v>
       </c>
       <c r="D133" s="1" t="str">
-        <f t="shared" ref="D133:D196" si="19">DEC2HEX(C133,2)</f>
+        <f t="shared" ref="D133:D196" si="20">DEC2HEX(C133,2)</f>
         <v>81</v>
       </c>
     </row>
@@ -5043,7 +5255,7 @@
         <v>130</v>
       </c>
       <c r="D134" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>82</v>
       </c>
     </row>
@@ -5053,7 +5265,7 @@
         <v>131</v>
       </c>
       <c r="D135" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>83</v>
       </c>
     </row>
@@ -5063,7 +5275,7 @@
         <v>132</v>
       </c>
       <c r="D136" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>84</v>
       </c>
     </row>
@@ -5073,7 +5285,7 @@
         <v>133</v>
       </c>
       <c r="D137" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>85</v>
       </c>
     </row>
@@ -5083,7 +5295,7 @@
         <v>134</v>
       </c>
       <c r="D138" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>86</v>
       </c>
     </row>
@@ -5093,7 +5305,7 @@
         <v>135</v>
       </c>
       <c r="D139" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>87</v>
       </c>
     </row>
@@ -5103,7 +5315,7 @@
         <v>136</v>
       </c>
       <c r="D140" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>88</v>
       </c>
     </row>
@@ -5113,7 +5325,7 @@
         <v>137</v>
       </c>
       <c r="D141" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>89</v>
       </c>
     </row>
@@ -5123,7 +5335,7 @@
         <v>138</v>
       </c>
       <c r="D142" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>8A</v>
       </c>
     </row>
@@ -5133,7 +5345,7 @@
         <v>139</v>
       </c>
       <c r="D143" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>8B</v>
       </c>
     </row>
@@ -5143,7 +5355,7 @@
         <v>140</v>
       </c>
       <c r="D144" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>8C</v>
       </c>
     </row>
@@ -5153,7 +5365,7 @@
         <v>141</v>
       </c>
       <c r="D145" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>8D</v>
       </c>
     </row>
@@ -5163,7 +5375,7 @@
         <v>142</v>
       </c>
       <c r="D146" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>8E</v>
       </c>
     </row>
@@ -5173,7 +5385,7 @@
         <v>143</v>
       </c>
       <c r="D147" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>8F</v>
       </c>
     </row>
@@ -5183,7 +5395,7 @@
         <v>144</v>
       </c>
       <c r="D148" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>90</v>
       </c>
     </row>
@@ -5193,7 +5405,7 @@
         <v>145</v>
       </c>
       <c r="D149" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>91</v>
       </c>
     </row>
@@ -5203,7 +5415,7 @@
         <v>146</v>
       </c>
       <c r="D150" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>92</v>
       </c>
     </row>
@@ -5213,7 +5425,7 @@
         <v>147</v>
       </c>
       <c r="D151" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>93</v>
       </c>
     </row>
@@ -5223,7 +5435,7 @@
         <v>148</v>
       </c>
       <c r="D152" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>94</v>
       </c>
     </row>
@@ -5233,7 +5445,7 @@
         <v>149</v>
       </c>
       <c r="D153" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>95</v>
       </c>
     </row>
@@ -5243,7 +5455,7 @@
         <v>150</v>
       </c>
       <c r="D154" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>96</v>
       </c>
     </row>
@@ -5255,7 +5467,7 @@
         <v>151</v>
       </c>
       <c r="D155" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>97</v>
       </c>
     </row>
@@ -5265,7 +5477,7 @@
         <v>152</v>
       </c>
       <c r="D156" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>98</v>
       </c>
     </row>
@@ -5275,7 +5487,7 @@
         <v>153</v>
       </c>
       <c r="D157" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>99</v>
       </c>
     </row>
@@ -5285,7 +5497,7 @@
         <v>154</v>
       </c>
       <c r="D158" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>9A</v>
       </c>
     </row>
@@ -5295,7 +5507,7 @@
         <v>155</v>
       </c>
       <c r="D159" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>9B</v>
       </c>
     </row>
@@ -5305,155 +5517,263 @@
         <v>156</v>
       </c>
       <c r="D160" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>9C</v>
       </c>
     </row>
-    <row r="161" spans="2:4">
+    <row r="161" spans="2:16">
       <c r="B161" s="15"/>
       <c r="C161" s="1">
         <v>157</v>
       </c>
       <c r="D161" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>9D</v>
       </c>
     </row>
-    <row r="162" spans="2:4">
+    <row r="162" spans="2:16">
       <c r="B162" s="15"/>
       <c r="C162" s="1">
         <v>158</v>
       </c>
       <c r="D162" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>9E</v>
       </c>
     </row>
-    <row r="163" spans="2:4">
+    <row r="163" spans="2:16">
       <c r="B163" s="15"/>
       <c r="C163" s="1">
         <v>159</v>
       </c>
       <c r="D163" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>9F</v>
       </c>
     </row>
-    <row r="164" spans="2:4">
+    <row r="164" spans="2:16">
       <c r="B164" s="15"/>
       <c r="C164" s="1">
         <v>160</v>
       </c>
       <c r="D164" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>A0</v>
       </c>
     </row>
-    <row r="165" spans="2:4">
+    <row r="165" spans="2:16">
       <c r="C165" s="1">
         <v>161</v>
       </c>
       <c r="D165" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>A1</v>
+      </c>
+      <c r="E165" t="s">
+        <v>294</v>
+      </c>
+      <c r="H165" t="str">
+        <f t="shared" ref="H165:H183" si="21">CONCATENATE("#define  ",E165,"  ",C165)</f>
+        <v>#define  VAR_METEO_WIND_BURST  161</v>
+      </c>
+      <c r="I165" t="str">
+        <f t="shared" ref="I165:I183" si="22">CONCATENATE("public const byte ",E165," = ",C165,";")</f>
+        <v>public const byte VAR_METEO_WIND_BURST = 161;</v>
+      </c>
+      <c r="L165" t="str">
+        <f t="shared" ref="L165:L183" si="23">CONCATENATE("UpdateScanList(",E165, ", 3000);")</f>
+        <v>UpdateScanList(VAR_METEO_WIND_BURST, 3000);</v>
+      </c>
+      <c r="M165" t="str">
+        <f t="shared" ref="M165:M183" si="24">CONCATENATE("VAR_SetVariable(",E165,", Cells[",J165,"].Voltage_mV", ", validflag);")</f>
+        <v>VAR_SetVariable(VAR_METEO_WIND_BURST, Cells[].Voltage_mV, validflag);</v>
+      </c>
+      <c r="N165" t="str">
         <f t="shared" si="19"/>
-        <v>A1</v>
-      </c>
-    </row>
-    <row r="166" spans="2:4">
+        <v>COM_AddStreamedVariable(VAR_METEO_WIND_BURST, 1000);</v>
+      </c>
+      <c r="P165" t="str">
+        <f t="shared" ref="P165:P183" si="25">CONCATENATE("cJSON_AddItemToObject(Uha, ","""",E165,"""",", cJSON_CreateNumber(mVars[",C165,"]));")</f>
+        <v>cJSON_AddItemToObject(Uha, "VAR_METEO_WIND_BURST", cJSON_CreateNumber(mVars[161]));</v>
+      </c>
+    </row>
+    <row r="166" spans="2:16">
       <c r="C166" s="1">
         <v>162</v>
       </c>
       <c r="D166" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>A2</v>
+      </c>
+      <c r="E166" t="s">
+        <v>295</v>
+      </c>
+      <c r="H166" t="str">
+        <f t="shared" si="21"/>
+        <v>#define  VAR_METEO_WIND_AVG  162</v>
+      </c>
+      <c r="I166" t="str">
+        <f t="shared" si="22"/>
+        <v>public const byte VAR_METEO_WIND_AVG = 162;</v>
+      </c>
+      <c r="L166" t="str">
+        <f t="shared" si="23"/>
+        <v>UpdateScanList(VAR_METEO_WIND_AVG, 3000);</v>
+      </c>
+      <c r="M166" t="str">
+        <f t="shared" si="24"/>
+        <v>VAR_SetVariable(VAR_METEO_WIND_AVG, Cells[].Voltage_mV, validflag);</v>
+      </c>
+      <c r="N166" t="str">
         <f t="shared" si="19"/>
-        <v>A2</v>
-      </c>
-    </row>
-    <row r="167" spans="2:4">
+        <v>COM_AddStreamedVariable(VAR_METEO_WIND_AVG, 1000);</v>
+      </c>
+      <c r="P166" t="str">
+        <f t="shared" si="25"/>
+        <v>cJSON_AddItemToObject(Uha, "VAR_METEO_WIND_AVG", cJSON_CreateNumber(mVars[162]));</v>
+      </c>
+    </row>
+    <row r="167" spans="2:16">
       <c r="C167" s="1">
         <v>163</v>
       </c>
       <c r="D167" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>A3</v>
+      </c>
+      <c r="E167" t="s">
+        <v>296</v>
+      </c>
+      <c r="H167" t="str">
+        <f t="shared" si="21"/>
+        <v>#define  VAR_METEO_WIND_POW  163</v>
+      </c>
+      <c r="I167" t="str">
+        <f t="shared" si="22"/>
+        <v>public const byte VAR_METEO_WIND_POW = 163;</v>
+      </c>
+      <c r="L167" t="str">
+        <f t="shared" si="23"/>
+        <v>UpdateScanList(VAR_METEO_WIND_POW, 3000);</v>
+      </c>
+      <c r="M167" t="str">
+        <f t="shared" si="24"/>
+        <v>VAR_SetVariable(VAR_METEO_WIND_POW, Cells[].Voltage_mV, validflag);</v>
+      </c>
+      <c r="N167" t="str">
         <f t="shared" si="19"/>
-        <v>A3</v>
-      </c>
-    </row>
-    <row r="168" spans="2:4">
+        <v>COM_AddStreamedVariable(VAR_METEO_WIND_POW, 1000);</v>
+      </c>
+      <c r="P167" t="str">
+        <f t="shared" si="25"/>
+        <v>cJSON_AddItemToObject(Uha, "VAR_METEO_WIND_POW", cJSON_CreateNumber(mVars[163]));</v>
+      </c>
+    </row>
+    <row r="168" spans="2:16">
       <c r="C168" s="1">
         <v>164</v>
       </c>
       <c r="D168" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>A4</v>
+      </c>
+      <c r="E168" t="s">
+        <v>297</v>
+      </c>
+      <c r="H168" t="str">
+        <f t="shared" si="21"/>
+        <v>#define  VAR_METEO_WIND_ENERGY  164</v>
+      </c>
+      <c r="I168" t="str">
+        <f t="shared" si="22"/>
+        <v>public const byte VAR_METEO_WIND_ENERGY = 164;</v>
+      </c>
+      <c r="L168" t="str">
+        <f t="shared" si="23"/>
+        <v>UpdateScanList(VAR_METEO_WIND_ENERGY, 3000);</v>
+      </c>
+      <c r="M168" t="str">
+        <f t="shared" si="24"/>
+        <v>VAR_SetVariable(VAR_METEO_WIND_ENERGY, Cells[].Voltage_mV, validflag);</v>
+      </c>
+      <c r="N168" t="str">
         <f t="shared" si="19"/>
-        <v>A4</v>
-      </c>
-    </row>
-    <row r="169" spans="2:4">
+        <v>COM_AddStreamedVariable(VAR_METEO_WIND_ENERGY, 1000);</v>
+      </c>
+      <c r="P168" t="str">
+        <f t="shared" si="25"/>
+        <v>cJSON_AddItemToObject(Uha, "VAR_METEO_WIND_ENERGY", cJSON_CreateNumber(mVars[164]));</v>
+      </c>
+    </row>
+    <row r="169" spans="2:16">
       <c r="C169" s="1">
         <v>165</v>
       </c>
       <c r="D169" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>A5</v>
       </c>
     </row>
-    <row r="170" spans="2:4">
+    <row r="170" spans="2:16">
       <c r="C170" s="1">
         <v>166</v>
       </c>
       <c r="D170" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>A6</v>
       </c>
     </row>
-    <row r="171" spans="2:4">
+    <row r="171" spans="2:16">
       <c r="C171" s="1">
         <v>167</v>
       </c>
       <c r="D171" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>A7</v>
       </c>
     </row>
-    <row r="172" spans="2:4">
+    <row r="172" spans="2:16">
       <c r="C172" s="1">
         <v>168</v>
       </c>
       <c r="D172" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>A8</v>
       </c>
     </row>
-    <row r="173" spans="2:4">
+    <row r="173" spans="2:16">
       <c r="C173" s="1">
         <v>169</v>
       </c>
       <c r="D173" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>A9</v>
       </c>
     </row>
-    <row r="174" spans="2:4">
+    <row r="174" spans="2:16">
       <c r="C174" s="1">
         <v>170</v>
       </c>
       <c r="D174" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>AA</v>
       </c>
     </row>
-    <row r="175" spans="2:4">
+    <row r="175" spans="2:16">
       <c r="C175" s="1">
         <v>171</v>
       </c>
       <c r="D175" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>AB</v>
       </c>
     </row>
-    <row r="176" spans="2:4">
+    <row r="176" spans="2:16">
       <c r="C176" s="1">
         <v>172</v>
       </c>
       <c r="D176" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>AC</v>
       </c>
     </row>
@@ -5462,7 +5782,7 @@
         <v>173</v>
       </c>
       <c r="D177" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>AD</v>
       </c>
     </row>
@@ -5471,7 +5791,7 @@
         <v>174</v>
       </c>
       <c r="D178" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>AE</v>
       </c>
     </row>
@@ -5480,7 +5800,7 @@
         <v>175</v>
       </c>
       <c r="D179" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>AF</v>
       </c>
     </row>
@@ -5489,7 +5809,7 @@
         <v>176</v>
       </c>
       <c r="D180" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>B0</v>
       </c>
     </row>
@@ -5498,7 +5818,7 @@
         <v>177</v>
       </c>
       <c r="D181" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>B1</v>
       </c>
     </row>
@@ -5507,7 +5827,7 @@
         <v>178</v>
       </c>
       <c r="D182" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>B2</v>
       </c>
     </row>
@@ -5516,7 +5836,7 @@
         <v>179</v>
       </c>
       <c r="D183" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>B3</v>
       </c>
     </row>
@@ -5525,25 +5845,25 @@
         <v>180</v>
       </c>
       <c r="D184" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>B4</v>
       </c>
       <c r="E184" t="s">
         <v>189</v>
       </c>
       <c r="H184" t="str">
-        <f t="shared" ref="H184:H195" si="20">CONCATENATE("#define  ",E184,"  ",C184)</f>
+        <f t="shared" ref="H184:H195" si="26">CONCATENATE("#define  ",E184,"  ",C184)</f>
         <v>#define  VAR_BMS1_CELL1_MV  180</v>
       </c>
       <c r="I184" t="str">
-        <f t="shared" ref="I184:I195" si="21">CONCATENATE("public const byte ",E184," = ",C184,";")</f>
+        <f t="shared" ref="I184:I195" si="27">CONCATENATE("public const byte ",E184," = ",C184,";")</f>
         <v>public const byte VAR_BMS1_CELL1_MV = 180;</v>
       </c>
       <c r="J184">
         <v>0</v>
       </c>
       <c r="L184" t="str">
-        <f t="shared" ref="L184:L206" si="22">CONCATENATE("UpdateScanList(",E184, ", 3000);")</f>
+        <f t="shared" ref="L184:L206" si="28">CONCATENATE("UpdateScanList(",E184, ", 3000);")</f>
         <v>UpdateScanList(VAR_BMS1_CELL1_MV, 3000);</v>
       </c>
       <c r="M184" t="str">
@@ -5551,7 +5871,7 @@
         <v>VAR_SetVariable(VAR_BMS1_CELL1_MV, Cells[0].Voltage_mV, validflag);</v>
       </c>
       <c r="P184" t="str">
-        <f t="shared" ref="P184:P206" si="23">CONCATENATE("cJSON_AddItemToObject(Uha, ","""",E184,"""",", cJSON_CreateNumber(mVars[",C184,"]));")</f>
+        <f t="shared" ref="P184:P206" si="29">CONCATENATE("cJSON_AddItemToObject(Uha, ","""",E184,"""",", cJSON_CreateNumber(mVars[",C184,"]));")</f>
         <v>cJSON_AddItemToObject(Uha, "VAR_BMS1_CELL1_MV", cJSON_CreateNumber(mVars[180]));</v>
       </c>
     </row>
@@ -5560,33 +5880,33 @@
         <v>181</v>
       </c>
       <c r="D185" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>B5</v>
       </c>
       <c r="E185" t="s">
         <v>190</v>
       </c>
       <c r="H185" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>#define  VAR_BMS1_CELL2_MV  181</v>
       </c>
       <c r="I185" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>public const byte VAR_BMS1_CELL2_MV = 181;</v>
       </c>
       <c r="J185">
         <v>1</v>
       </c>
       <c r="L185" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>UpdateScanList(VAR_BMS1_CELL2_MV, 3000);</v>
       </c>
       <c r="M185" t="str">
-        <f t="shared" ref="M185:M239" si="24">CONCATENATE("VAR_SetVariable(",E185,", Cells[",J185,"].Voltage_mV", ", validflag);")</f>
+        <f t="shared" ref="M185:M239" si="30">CONCATENATE("VAR_SetVariable(",E185,", Cells[",J185,"].Voltage_mV", ", validflag);")</f>
         <v>VAR_SetVariable(VAR_BMS1_CELL2_MV, Cells[1].Voltage_mV, validflag);</v>
       </c>
       <c r="P185" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_BMS1_CELL2_MV", cJSON_CreateNumber(mVars[181]));</v>
       </c>
     </row>
@@ -5595,33 +5915,33 @@
         <v>182</v>
       </c>
       <c r="D186" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>B6</v>
       </c>
       <c r="E186" t="s">
         <v>191</v>
       </c>
       <c r="H186" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>#define  VAR_BMS1_CELL3_MV  182</v>
       </c>
       <c r="I186" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>public const byte VAR_BMS1_CELL3_MV = 182;</v>
       </c>
       <c r="J186">
         <v>2</v>
       </c>
       <c r="L186" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>UpdateScanList(VAR_BMS1_CELL3_MV, 3000);</v>
       </c>
       <c r="M186" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>VAR_SetVariable(VAR_BMS1_CELL3_MV, Cells[2].Voltage_mV, validflag);</v>
       </c>
       <c r="P186" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_BMS1_CELL3_MV", cJSON_CreateNumber(mVars[182]));</v>
       </c>
     </row>
@@ -5630,33 +5950,33 @@
         <v>183</v>
       </c>
       <c r="D187" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>B7</v>
       </c>
       <c r="E187" t="s">
         <v>192</v>
       </c>
       <c r="H187" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>#define  VAR_BMS1_CELL4_MV  183</v>
       </c>
       <c r="I187" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>public const byte VAR_BMS1_CELL4_MV = 183;</v>
       </c>
       <c r="J187">
         <v>3</v>
       </c>
       <c r="L187" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>UpdateScanList(VAR_BMS1_CELL4_MV, 3000);</v>
       </c>
       <c r="M187" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>VAR_SetVariable(VAR_BMS1_CELL4_MV, Cells[3].Voltage_mV, validflag);</v>
       </c>
       <c r="P187" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_BMS1_CELL4_MV", cJSON_CreateNumber(mVars[183]));</v>
       </c>
     </row>
@@ -5665,33 +5985,33 @@
         <v>184</v>
       </c>
       <c r="D188" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>B8</v>
       </c>
       <c r="E188" t="s">
         <v>193</v>
       </c>
       <c r="H188" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>#define  VAR_BMS1_CELL5_MV  184</v>
       </c>
       <c r="I188" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>public const byte VAR_BMS1_CELL5_MV = 184;</v>
       </c>
       <c r="J188">
         <v>4</v>
       </c>
       <c r="L188" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>UpdateScanList(VAR_BMS1_CELL5_MV, 3000);</v>
       </c>
       <c r="M188" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>VAR_SetVariable(VAR_BMS1_CELL5_MV, Cells[4].Voltage_mV, validflag);</v>
       </c>
       <c r="P188" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_BMS1_CELL5_MV", cJSON_CreateNumber(mVars[184]));</v>
       </c>
     </row>
@@ -5700,33 +6020,33 @@
         <v>185</v>
       </c>
       <c r="D189" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>B9</v>
       </c>
       <c r="E189" t="s">
         <v>194</v>
       </c>
       <c r="H189" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>#define  VAR_BMS1_CELL6_MV  185</v>
       </c>
       <c r="I189" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>public const byte VAR_BMS1_CELL6_MV = 185;</v>
       </c>
       <c r="J189">
         <v>5</v>
       </c>
       <c r="L189" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>UpdateScanList(VAR_BMS1_CELL6_MV, 3000);</v>
       </c>
       <c r="M189" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>VAR_SetVariable(VAR_BMS1_CELL6_MV, Cells[5].Voltage_mV, validflag);</v>
       </c>
       <c r="P189" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_BMS1_CELL6_MV", cJSON_CreateNumber(mVars[185]));</v>
       </c>
     </row>
@@ -5735,33 +6055,33 @@
         <v>186</v>
       </c>
       <c r="D190" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>BA</v>
       </c>
       <c r="E190" t="s">
         <v>195</v>
       </c>
       <c r="H190" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>#define  VAR_BMS1_CELL7_MV  186</v>
       </c>
       <c r="I190" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>public const byte VAR_BMS1_CELL7_MV = 186;</v>
       </c>
       <c r="J190">
         <v>6</v>
       </c>
       <c r="L190" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>UpdateScanList(VAR_BMS1_CELL7_MV, 3000);</v>
       </c>
       <c r="M190" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>VAR_SetVariable(VAR_BMS1_CELL7_MV, Cells[6].Voltage_mV, validflag);</v>
       </c>
       <c r="P190" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_BMS1_CELL7_MV", cJSON_CreateNumber(mVars[186]));</v>
       </c>
     </row>
@@ -5770,33 +6090,33 @@
         <v>187</v>
       </c>
       <c r="D191" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>BB</v>
       </c>
       <c r="E191" t="s">
         <v>196</v>
       </c>
       <c r="H191" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>#define  VAR_BMS1_CELL8_MV  187</v>
       </c>
       <c r="I191" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>public const byte VAR_BMS1_CELL8_MV = 187;</v>
       </c>
       <c r="J191">
         <v>7</v>
       </c>
       <c r="L191" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>UpdateScanList(VAR_BMS1_CELL8_MV, 3000);</v>
       </c>
       <c r="M191" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>VAR_SetVariable(VAR_BMS1_CELL8_MV, Cells[7].Voltage_mV, validflag);</v>
       </c>
       <c r="P191" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_BMS1_CELL8_MV", cJSON_CreateNumber(mVars[187]));</v>
       </c>
     </row>
@@ -5805,33 +6125,33 @@
         <v>188</v>
       </c>
       <c r="D192" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>BC</v>
       </c>
       <c r="E192" t="s">
         <v>197</v>
       </c>
       <c r="H192" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>#define  VAR_BMS1_CELL9_MV  188</v>
       </c>
       <c r="I192" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>public const byte VAR_BMS1_CELL9_MV = 188;</v>
       </c>
       <c r="J192">
         <v>8</v>
       </c>
       <c r="L192" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>UpdateScanList(VAR_BMS1_CELL9_MV, 3000);</v>
       </c>
       <c r="M192" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>VAR_SetVariable(VAR_BMS1_CELL9_MV, Cells[8].Voltage_mV, validflag);</v>
       </c>
       <c r="P192" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_BMS1_CELL9_MV", cJSON_CreateNumber(mVars[188]));</v>
       </c>
     </row>
@@ -5840,33 +6160,33 @@
         <v>189</v>
       </c>
       <c r="D193" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>BD</v>
       </c>
       <c r="E193" t="s">
         <v>198</v>
       </c>
       <c r="H193" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>#define  VAR_BMS1_CELL10_MV  189</v>
       </c>
       <c r="I193" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>public const byte VAR_BMS1_CELL10_MV = 189;</v>
       </c>
       <c r="J193">
         <v>9</v>
       </c>
       <c r="L193" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>UpdateScanList(VAR_BMS1_CELL10_MV, 3000);</v>
       </c>
       <c r="M193" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>VAR_SetVariable(VAR_BMS1_CELL10_MV, Cells[9].Voltage_mV, validflag);</v>
       </c>
       <c r="P193" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_BMS1_CELL10_MV", cJSON_CreateNumber(mVars[189]));</v>
       </c>
     </row>
@@ -5875,33 +6195,33 @@
         <v>190</v>
       </c>
       <c r="D194" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>BE</v>
       </c>
       <c r="E194" t="s">
         <v>199</v>
       </c>
       <c r="H194" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>#define  VAR_BMS1_CELL11_MV  190</v>
       </c>
       <c r="I194" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>public const byte VAR_BMS1_CELL11_MV = 190;</v>
       </c>
       <c r="J194">
         <v>10</v>
       </c>
       <c r="L194" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>UpdateScanList(VAR_BMS1_CELL11_MV, 3000);</v>
       </c>
       <c r="M194" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>VAR_SetVariable(VAR_BMS1_CELL11_MV, Cells[10].Voltage_mV, validflag);</v>
       </c>
       <c r="P194" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_BMS1_CELL11_MV", cJSON_CreateNumber(mVars[190]));</v>
       </c>
     </row>
@@ -5910,33 +6230,33 @@
         <v>191</v>
       </c>
       <c r="D195" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>BF</v>
       </c>
       <c r="E195" t="s">
         <v>200</v>
       </c>
       <c r="H195" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>#define  VAR_BMS1_CELL12_MV  191</v>
       </c>
       <c r="I195" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>public const byte VAR_BMS1_CELL12_MV = 191;</v>
       </c>
       <c r="J195">
         <v>11</v>
       </c>
       <c r="L195" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>UpdateScanList(VAR_BMS1_CELL12_MV, 3000);</v>
       </c>
       <c r="M195" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>VAR_SetVariable(VAR_BMS1_CELL12_MV, Cells[11].Voltage_mV, validflag);</v>
       </c>
       <c r="P195" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_BMS1_CELL12_MV", cJSON_CreateNumber(mVars[191]));</v>
       </c>
     </row>
@@ -5945,33 +6265,33 @@
         <v>192</v>
       </c>
       <c r="D196" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>C0</v>
       </c>
       <c r="E196" t="s">
         <v>201</v>
       </c>
       <c r="H196" t="str">
-        <f t="shared" ref="H196:H255" si="25">CONCATENATE("#define  ",E196,"  ",C196)</f>
+        <f t="shared" ref="H196:H255" si="31">CONCATENATE("#define  ",E196,"  ",C196)</f>
         <v>#define  VAR_BMS1_CELL13_MV  192</v>
       </c>
       <c r="I196" t="str">
-        <f t="shared" ref="I196:I255" si="26">CONCATENATE("public const byte ",E196," = ",C196,";")</f>
+        <f t="shared" ref="I196:I255" si="32">CONCATENATE("public const byte ",E196," = ",C196,";")</f>
         <v>public const byte VAR_BMS1_CELL13_MV = 192;</v>
       </c>
       <c r="J196">
         <v>12</v>
       </c>
       <c r="L196" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>UpdateScanList(VAR_BMS1_CELL13_MV, 3000);</v>
       </c>
       <c r="M196" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>VAR_SetVariable(VAR_BMS1_CELL13_MV, Cells[12].Voltage_mV, validflag);</v>
       </c>
       <c r="P196" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_BMS1_CELL13_MV", cJSON_CreateNumber(mVars[192]));</v>
       </c>
     </row>
@@ -5980,33 +6300,33 @@
         <v>193</v>
       </c>
       <c r="D197" s="1" t="str">
-        <f t="shared" ref="D197:D259" si="27">DEC2HEX(C197,2)</f>
+        <f t="shared" ref="D197:D259" si="33">DEC2HEX(C197,2)</f>
         <v>C1</v>
       </c>
       <c r="E197" t="s">
         <v>202</v>
       </c>
       <c r="H197" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>#define  VAR_BMS1_CELL14_MV  193</v>
       </c>
       <c r="I197" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>public const byte VAR_BMS1_CELL14_MV = 193;</v>
       </c>
       <c r="J197">
         <v>13</v>
       </c>
       <c r="L197" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>UpdateScanList(VAR_BMS1_CELL14_MV, 3000);</v>
       </c>
       <c r="M197" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>VAR_SetVariable(VAR_BMS1_CELL14_MV, Cells[13].Voltage_mV, validflag);</v>
       </c>
       <c r="P197" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_BMS1_CELL14_MV", cJSON_CreateNumber(mVars[193]));</v>
       </c>
     </row>
@@ -6015,33 +6335,33 @@
         <v>194</v>
       </c>
       <c r="D198" s="1" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>C2</v>
       </c>
       <c r="E198" t="s">
         <v>203</v>
       </c>
       <c r="H198" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>#define  VAR_BMS1_CELL15_MV  194</v>
       </c>
       <c r="I198" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>public const byte VAR_BMS1_CELL15_MV = 194;</v>
       </c>
       <c r="J198">
         <v>14</v>
       </c>
       <c r="L198" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>UpdateScanList(VAR_BMS1_CELL15_MV, 3000);</v>
       </c>
       <c r="M198" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>VAR_SetVariable(VAR_BMS1_CELL15_MV, Cells[14].Voltage_mV, validflag);</v>
       </c>
       <c r="P198" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_BMS1_CELL15_MV", cJSON_CreateNumber(mVars[194]));</v>
       </c>
     </row>
@@ -6050,33 +6370,33 @@
         <v>195</v>
       </c>
       <c r="D199" s="1" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>C3</v>
       </c>
       <c r="E199" t="s">
         <v>204</v>
       </c>
       <c r="H199" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>#define  VAR_BMS1_CELL16_MV  195</v>
       </c>
       <c r="I199" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>public const byte VAR_BMS1_CELL16_MV = 195;</v>
       </c>
       <c r="J199">
         <v>15</v>
       </c>
       <c r="L199" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>UpdateScanList(VAR_BMS1_CELL16_MV, 3000);</v>
       </c>
       <c r="M199" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>VAR_SetVariable(VAR_BMS1_CELL16_MV, Cells[15].Voltage_mV, validflag);</v>
       </c>
       <c r="P199" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_BMS1_CELL16_MV", cJSON_CreateNumber(mVars[195]));</v>
       </c>
     </row>
@@ -6085,25 +6405,25 @@
         <v>196</v>
       </c>
       <c r="D200" s="1" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>C4</v>
       </c>
       <c r="E200" t="s">
         <v>221</v>
       </c>
       <c r="H200" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>#define  VAR_BMS1_CELL1_C  196</v>
       </c>
       <c r="I200" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>public const byte VAR_BMS1_CELL1_C = 196;</v>
       </c>
       <c r="J200">
         <v>0</v>
       </c>
       <c r="L200" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>UpdateScanList(VAR_BMS1_CELL1_C, 3000);</v>
       </c>
       <c r="M200" t="str">
@@ -6111,7 +6431,7 @@
         <v>VAR_SetVariable(VAR_BMS1_CELL1_C, Cells[0].Temp_C, validflag);</v>
       </c>
       <c r="P200" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_BMS1_CELL1_C", cJSON_CreateNumber(mVars[196]));</v>
       </c>
     </row>
@@ -6120,33 +6440,33 @@
         <v>197</v>
       </c>
       <c r="D201" s="1" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>C5</v>
       </c>
       <c r="E201" t="s">
         <v>222</v>
       </c>
       <c r="H201" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>#define  VAR_BMS1_CELL2_C  197</v>
       </c>
       <c r="I201" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>public const byte VAR_BMS1_CELL2_C = 197;</v>
       </c>
       <c r="J201">
         <v>1</v>
       </c>
       <c r="L201" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>UpdateScanList(VAR_BMS1_CELL2_C, 3000);</v>
       </c>
       <c r="M201" t="str">
-        <f t="shared" ref="M201:M215" si="28">CONCATENATE("VAR_SetVariable(",E201,", Cells[",J201,"].Temp_C", ", validflag);")</f>
+        <f t="shared" ref="M201:M215" si="34">CONCATENATE("VAR_SetVariable(",E201,", Cells[",J201,"].Temp_C", ", validflag);")</f>
         <v>VAR_SetVariable(VAR_BMS1_CELL2_C, Cells[1].Temp_C, validflag);</v>
       </c>
       <c r="P201" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_BMS1_CELL2_C", cJSON_CreateNumber(mVars[197]));</v>
       </c>
     </row>
@@ -6155,33 +6475,33 @@
         <v>198</v>
       </c>
       <c r="D202" s="1" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>C6</v>
       </c>
       <c r="E202" t="s">
         <v>223</v>
       </c>
       <c r="H202" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>#define  VAR_BMS1_CELL3_C  198</v>
       </c>
       <c r="I202" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>public const byte VAR_BMS1_CELL3_C = 198;</v>
       </c>
       <c r="J202">
         <v>2</v>
       </c>
       <c r="L202" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>UpdateScanList(VAR_BMS1_CELL3_C, 3000);</v>
       </c>
       <c r="M202" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>VAR_SetVariable(VAR_BMS1_CELL3_C, Cells[2].Temp_C, validflag);</v>
       </c>
       <c r="P202" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_BMS1_CELL3_C", cJSON_CreateNumber(mVars[198]));</v>
       </c>
     </row>
@@ -6190,33 +6510,33 @@
         <v>199</v>
       </c>
       <c r="D203" s="1" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>C7</v>
       </c>
       <c r="E203" t="s">
         <v>224</v>
       </c>
       <c r="H203" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>#define  VAR_BMS1_CELL4_C  199</v>
       </c>
       <c r="I203" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>public const byte VAR_BMS1_CELL4_C = 199;</v>
       </c>
       <c r="J203">
         <v>3</v>
       </c>
       <c r="L203" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>UpdateScanList(VAR_BMS1_CELL4_C, 3000);</v>
       </c>
       <c r="M203" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>VAR_SetVariable(VAR_BMS1_CELL4_C, Cells[3].Temp_C, validflag);</v>
       </c>
       <c r="P203" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_BMS1_CELL4_C", cJSON_CreateNumber(mVars[199]));</v>
       </c>
     </row>
@@ -6225,33 +6545,33 @@
         <v>200</v>
       </c>
       <c r="D204" s="1" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>C8</v>
       </c>
       <c r="E204" t="s">
         <v>225</v>
       </c>
       <c r="H204" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>#define  VAR_BMS1_CELL5_C  200</v>
       </c>
       <c r="I204" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>public const byte VAR_BMS1_CELL5_C = 200;</v>
       </c>
       <c r="J204">
         <v>4</v>
       </c>
       <c r="L204" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>UpdateScanList(VAR_BMS1_CELL5_C, 3000);</v>
       </c>
       <c r="M204" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>VAR_SetVariable(VAR_BMS1_CELL5_C, Cells[4].Temp_C, validflag);</v>
       </c>
       <c r="P204" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_BMS1_CELL5_C", cJSON_CreateNumber(mVars[200]));</v>
       </c>
     </row>
@@ -6260,33 +6580,33 @@
         <v>201</v>
       </c>
       <c r="D205" s="1" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>C9</v>
       </c>
       <c r="E205" t="s">
         <v>226</v>
       </c>
       <c r="H205" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>#define  VAR_BMS1_CELL6_C  201</v>
       </c>
       <c r="I205" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>public const byte VAR_BMS1_CELL6_C = 201;</v>
       </c>
       <c r="J205">
         <v>5</v>
       </c>
       <c r="L205" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>UpdateScanList(VAR_BMS1_CELL6_C, 3000);</v>
       </c>
       <c r="M205" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>VAR_SetVariable(VAR_BMS1_CELL6_C, Cells[5].Temp_C, validflag);</v>
       </c>
       <c r="P205" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_BMS1_CELL6_C", cJSON_CreateNumber(mVars[201]));</v>
       </c>
     </row>
@@ -6295,33 +6615,33 @@
         <v>202</v>
       </c>
       <c r="D206" s="1" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>CA</v>
       </c>
       <c r="E206" t="s">
         <v>227</v>
       </c>
       <c r="H206" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>#define  VAR_BMS1_CELL7_C  202</v>
       </c>
       <c r="I206" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>public const byte VAR_BMS1_CELL7_C = 202;</v>
       </c>
       <c r="J206">
         <v>6</v>
       </c>
       <c r="L206" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>UpdateScanList(VAR_BMS1_CELL7_C, 3000);</v>
       </c>
       <c r="M206" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>VAR_SetVariable(VAR_BMS1_CELL7_C, Cells[6].Temp_C, validflag);</v>
       </c>
       <c r="P206" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_BMS1_CELL7_C", cJSON_CreateNumber(mVars[202]));</v>
       </c>
     </row>
@@ -6330,33 +6650,33 @@
         <v>203</v>
       </c>
       <c r="D207" s="1" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>CB</v>
       </c>
       <c r="E207" t="s">
         <v>228</v>
       </c>
       <c r="H207" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>#define  VAR_BMS1_CELL8_C  203</v>
       </c>
       <c r="I207" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>public const byte VAR_BMS1_CELL8_C = 203;</v>
       </c>
       <c r="J207">
         <v>7</v>
       </c>
       <c r="L207" t="str">
-        <f t="shared" ref="L207:L255" si="29">CONCATENATE("UpdateScanList(",E207, ", 3000);")</f>
+        <f t="shared" ref="L207:L255" si="35">CONCATENATE("UpdateScanList(",E207, ", 3000);")</f>
         <v>UpdateScanList(VAR_BMS1_CELL8_C, 3000);</v>
       </c>
       <c r="M207" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>VAR_SetVariable(VAR_BMS1_CELL8_C, Cells[7].Temp_C, validflag);</v>
       </c>
       <c r="P207" t="str">
-        <f t="shared" ref="P207:P255" si="30">CONCATENATE("cJSON_AddItemToObject(Uha, ","""",E207,"""",", cJSON_CreateNumber(mVars[",C207,"]));")</f>
+        <f t="shared" ref="P207:P255" si="36">CONCATENATE("cJSON_AddItemToObject(Uha, ","""",E207,"""",", cJSON_CreateNumber(mVars[",C207,"]));")</f>
         <v>cJSON_AddItemToObject(Uha, "VAR_BMS1_CELL8_C", cJSON_CreateNumber(mVars[203]));</v>
       </c>
     </row>
@@ -6365,33 +6685,33 @@
         <v>204</v>
       </c>
       <c r="D208" s="1" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>CC</v>
       </c>
       <c r="E208" t="s">
         <v>229</v>
       </c>
       <c r="H208" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>#define  VAR_BMS1_CELL9_C  204</v>
       </c>
       <c r="I208" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>public const byte VAR_BMS1_CELL9_C = 204;</v>
       </c>
       <c r="J208">
         <v>8</v>
       </c>
       <c r="L208" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>UpdateScanList(VAR_BMS1_CELL9_C, 3000);</v>
       </c>
       <c r="M208" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>VAR_SetVariable(VAR_BMS1_CELL9_C, Cells[8].Temp_C, validflag);</v>
       </c>
       <c r="P208" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_BMS1_CELL9_C", cJSON_CreateNumber(mVars[204]));</v>
       </c>
     </row>
@@ -6400,33 +6720,33 @@
         <v>205</v>
       </c>
       <c r="D209" s="1" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>CD</v>
       </c>
       <c r="E209" t="s">
         <v>230</v>
       </c>
       <c r="H209" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>#define  VAR_BMS1_CELL10_C  205</v>
       </c>
       <c r="I209" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>public const byte VAR_BMS1_CELL10_C = 205;</v>
       </c>
       <c r="J209">
         <v>9</v>
       </c>
       <c r="L209" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>UpdateScanList(VAR_BMS1_CELL10_C, 3000);</v>
       </c>
       <c r="M209" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>VAR_SetVariable(VAR_BMS1_CELL10_C, Cells[9].Temp_C, validflag);</v>
       </c>
       <c r="P209" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_BMS1_CELL10_C", cJSON_CreateNumber(mVars[205]));</v>
       </c>
     </row>
@@ -6435,33 +6755,33 @@
         <v>206</v>
       </c>
       <c r="D210" s="1" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>CE</v>
       </c>
       <c r="E210" t="s">
         <v>231</v>
       </c>
       <c r="H210" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>#define  VAR_BMS1_CELL11_C  206</v>
       </c>
       <c r="I210" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>public const byte VAR_BMS1_CELL11_C = 206;</v>
       </c>
       <c r="J210">
         <v>10</v>
       </c>
       <c r="L210" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>UpdateScanList(VAR_BMS1_CELL11_C, 3000);</v>
       </c>
       <c r="M210" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>VAR_SetVariable(VAR_BMS1_CELL11_C, Cells[10].Temp_C, validflag);</v>
       </c>
       <c r="P210" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_BMS1_CELL11_C", cJSON_CreateNumber(mVars[206]));</v>
       </c>
     </row>
@@ -6470,33 +6790,33 @@
         <v>207</v>
       </c>
       <c r="D211" s="1" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>CF</v>
       </c>
       <c r="E211" t="s">
         <v>232</v>
       </c>
       <c r="H211" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>#define  VAR_BMS1_CELL12_C  207</v>
       </c>
       <c r="I211" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>public const byte VAR_BMS1_CELL12_C = 207;</v>
       </c>
       <c r="J211">
         <v>11</v>
       </c>
       <c r="L211" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>UpdateScanList(VAR_BMS1_CELL12_C, 3000);</v>
       </c>
       <c r="M211" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>VAR_SetVariable(VAR_BMS1_CELL12_C, Cells[11].Temp_C, validflag);</v>
       </c>
       <c r="P211" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_BMS1_CELL12_C", cJSON_CreateNumber(mVars[207]));</v>
       </c>
     </row>
@@ -6505,33 +6825,33 @@
         <v>208</v>
       </c>
       <c r="D212" s="1" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>D0</v>
       </c>
       <c r="E212" t="s">
         <v>233</v>
       </c>
       <c r="H212" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>#define  VAR_BMS1_CELL13_C  208</v>
       </c>
       <c r="I212" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>public const byte VAR_BMS1_CELL13_C = 208;</v>
       </c>
       <c r="J212">
         <v>12</v>
       </c>
       <c r="L212" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>UpdateScanList(VAR_BMS1_CELL13_C, 3000);</v>
       </c>
       <c r="M212" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>VAR_SetVariable(VAR_BMS1_CELL13_C, Cells[12].Temp_C, validflag);</v>
       </c>
       <c r="P212" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_BMS1_CELL13_C", cJSON_CreateNumber(mVars[208]));</v>
       </c>
     </row>
@@ -6540,33 +6860,33 @@
         <v>209</v>
       </c>
       <c r="D213" s="1" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>D1</v>
       </c>
       <c r="E213" t="s">
         <v>234</v>
       </c>
       <c r="H213" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>#define  VAR_BMS1_CELL14_C  209</v>
       </c>
       <c r="I213" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>public const byte VAR_BMS1_CELL14_C = 209;</v>
       </c>
       <c r="J213">
         <v>13</v>
       </c>
       <c r="L213" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>UpdateScanList(VAR_BMS1_CELL14_C, 3000);</v>
       </c>
       <c r="M213" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>VAR_SetVariable(VAR_BMS1_CELL14_C, Cells[13].Temp_C, validflag);</v>
       </c>
       <c r="P213" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_BMS1_CELL14_C", cJSON_CreateNumber(mVars[209]));</v>
       </c>
     </row>
@@ -6575,33 +6895,33 @@
         <v>210</v>
       </c>
       <c r="D214" s="1" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>D2</v>
       </c>
       <c r="E214" t="s">
         <v>235</v>
       </c>
       <c r="H214" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>#define  VAR_BMS1_CELL15_C  210</v>
       </c>
       <c r="I214" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>public const byte VAR_BMS1_CELL15_C = 210;</v>
       </c>
       <c r="J214">
         <v>14</v>
       </c>
       <c r="L214" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>UpdateScanList(VAR_BMS1_CELL15_C, 3000);</v>
       </c>
       <c r="M214" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>VAR_SetVariable(VAR_BMS1_CELL15_C, Cells[14].Temp_C, validflag);</v>
       </c>
       <c r="P214" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_BMS1_CELL15_C", cJSON_CreateNumber(mVars[210]));</v>
       </c>
     </row>
@@ -6610,33 +6930,33 @@
         <v>211</v>
       </c>
       <c r="D215" s="1" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>D3</v>
       </c>
       <c r="E215" t="s">
         <v>236</v>
       </c>
       <c r="H215" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>#define  VAR_BMS1_CELL16_C  211</v>
       </c>
       <c r="I215" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>public const byte VAR_BMS1_CELL16_C = 211;</v>
       </c>
       <c r="J215">
         <v>15</v>
       </c>
       <c r="L215" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>UpdateScanList(VAR_BMS1_CELL16_C, 3000);</v>
       </c>
       <c r="M215" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>VAR_SetVariable(VAR_BMS1_CELL16_C, Cells[15].Temp_C, validflag);</v>
       </c>
       <c r="P215" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_BMS1_CELL16_C", cJSON_CreateNumber(mVars[211]));</v>
       </c>
     </row>
@@ -6645,7 +6965,7 @@
         <v>212</v>
       </c>
       <c r="D216" s="1" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>D4</v>
       </c>
     </row>
@@ -6654,7 +6974,7 @@
         <v>213</v>
       </c>
       <c r="D217" s="1" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>D5</v>
       </c>
     </row>
@@ -6663,7 +6983,7 @@
         <v>214</v>
       </c>
       <c r="D218" s="1" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>D6</v>
       </c>
     </row>
@@ -6672,7 +6992,7 @@
         <v>215</v>
       </c>
       <c r="D219" s="1" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>D7</v>
       </c>
     </row>
@@ -6681,7 +7001,7 @@
         <v>216</v>
       </c>
       <c r="D220" s="1" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>D8</v>
       </c>
     </row>
@@ -6690,7 +7010,7 @@
         <v>217</v>
       </c>
       <c r="D221" s="1" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>D9</v>
       </c>
     </row>
@@ -6699,7 +7019,7 @@
         <v>218</v>
       </c>
       <c r="D222" s="1" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>DA</v>
       </c>
     </row>
@@ -6708,7 +7028,7 @@
         <v>219</v>
       </c>
       <c r="D223" s="1" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>DB</v>
       </c>
     </row>
@@ -6717,33 +7037,33 @@
         <v>220</v>
       </c>
       <c r="D224" s="1" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>DC</v>
       </c>
       <c r="E224" t="s">
         <v>205</v>
       </c>
       <c r="H224" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>#define  VAR_BMS2_CELL1_MV  220</v>
       </c>
       <c r="I224" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>public const byte VAR_BMS2_CELL1_MV = 220;</v>
       </c>
       <c r="J224">
         <v>0</v>
       </c>
       <c r="L224" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>UpdateScanList(VAR_BMS2_CELL1_MV, 3000);</v>
       </c>
       <c r="M224" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>VAR_SetVariable(VAR_BMS2_CELL1_MV, Cells[0].Voltage_mV, validflag);</v>
       </c>
       <c r="P224" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_BMS2_CELL1_MV", cJSON_CreateNumber(mVars[220]));</v>
       </c>
     </row>
@@ -6752,33 +7072,33 @@
         <v>221</v>
       </c>
       <c r="D225" s="1" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>DD</v>
       </c>
       <c r="E225" t="s">
         <v>206</v>
       </c>
       <c r="H225" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>#define  VAR_BMS2_CELL2_MV  221</v>
       </c>
       <c r="I225" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>public const byte VAR_BMS2_CELL2_MV = 221;</v>
       </c>
       <c r="J225">
         <v>1</v>
       </c>
       <c r="L225" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>UpdateScanList(VAR_BMS2_CELL2_MV, 3000);</v>
       </c>
       <c r="M225" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>VAR_SetVariable(VAR_BMS2_CELL2_MV, Cells[1].Voltage_mV, validflag);</v>
       </c>
       <c r="P225" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_BMS2_CELL2_MV", cJSON_CreateNumber(mVars[221]));</v>
       </c>
     </row>
@@ -6787,33 +7107,33 @@
         <v>222</v>
       </c>
       <c r="D226" s="1" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>DE</v>
       </c>
       <c r="E226" t="s">
         <v>207</v>
       </c>
       <c r="H226" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>#define  VAR_BMS2_CELL3_MV  222</v>
       </c>
       <c r="I226" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>public const byte VAR_BMS2_CELL3_MV = 222;</v>
       </c>
       <c r="J226">
         <v>2</v>
       </c>
       <c r="L226" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>UpdateScanList(VAR_BMS2_CELL3_MV, 3000);</v>
       </c>
       <c r="M226" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>VAR_SetVariable(VAR_BMS2_CELL3_MV, Cells[2].Voltage_mV, validflag);</v>
       </c>
       <c r="P226" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_BMS2_CELL3_MV", cJSON_CreateNumber(mVars[222]));</v>
       </c>
     </row>
@@ -6822,33 +7142,33 @@
         <v>223</v>
       </c>
       <c r="D227" s="1" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>DF</v>
       </c>
       <c r="E227" t="s">
         <v>208</v>
       </c>
       <c r="H227" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>#define  VAR_BMS2_CELL4_MV  223</v>
       </c>
       <c r="I227" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>public const byte VAR_BMS2_CELL4_MV = 223;</v>
       </c>
       <c r="J227">
         <v>3</v>
       </c>
       <c r="L227" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>UpdateScanList(VAR_BMS2_CELL4_MV, 3000);</v>
       </c>
       <c r="M227" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>VAR_SetVariable(VAR_BMS2_CELL4_MV, Cells[3].Voltage_mV, validflag);</v>
       </c>
       <c r="P227" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_BMS2_CELL4_MV", cJSON_CreateNumber(mVars[223]));</v>
       </c>
     </row>
@@ -6857,33 +7177,33 @@
         <v>224</v>
       </c>
       <c r="D228" s="1" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>E0</v>
       </c>
       <c r="E228" t="s">
         <v>209</v>
       </c>
       <c r="H228" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>#define  VAR_BMS2_CELL5_MV  224</v>
       </c>
       <c r="I228" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>public const byte VAR_BMS2_CELL5_MV = 224;</v>
       </c>
       <c r="J228">
         <v>4</v>
       </c>
       <c r="L228" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>UpdateScanList(VAR_BMS2_CELL5_MV, 3000);</v>
       </c>
       <c r="M228" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>VAR_SetVariable(VAR_BMS2_CELL5_MV, Cells[4].Voltage_mV, validflag);</v>
       </c>
       <c r="P228" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_BMS2_CELL5_MV", cJSON_CreateNumber(mVars[224]));</v>
       </c>
     </row>
@@ -6892,33 +7212,33 @@
         <v>225</v>
       </c>
       <c r="D229" s="1" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>E1</v>
       </c>
       <c r="E229" t="s">
         <v>210</v>
       </c>
       <c r="H229" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>#define  VAR_BMS2_CELL6_MV  225</v>
       </c>
       <c r="I229" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>public const byte VAR_BMS2_CELL6_MV = 225;</v>
       </c>
       <c r="J229">
         <v>5</v>
       </c>
       <c r="L229" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>UpdateScanList(VAR_BMS2_CELL6_MV, 3000);</v>
       </c>
       <c r="M229" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>VAR_SetVariable(VAR_BMS2_CELL6_MV, Cells[5].Voltage_mV, validflag);</v>
       </c>
       <c r="P229" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_BMS2_CELL6_MV", cJSON_CreateNumber(mVars[225]));</v>
       </c>
     </row>
@@ -6927,33 +7247,33 @@
         <v>226</v>
       </c>
       <c r="D230" s="1" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>E2</v>
       </c>
       <c r="E230" t="s">
         <v>211</v>
       </c>
       <c r="H230" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>#define  VAR_BMS2_CELL7_MV  226</v>
       </c>
       <c r="I230" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>public const byte VAR_BMS2_CELL7_MV = 226;</v>
       </c>
       <c r="J230">
         <v>6</v>
       </c>
       <c r="L230" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>UpdateScanList(VAR_BMS2_CELL7_MV, 3000);</v>
       </c>
       <c r="M230" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>VAR_SetVariable(VAR_BMS2_CELL7_MV, Cells[6].Voltage_mV, validflag);</v>
       </c>
       <c r="P230" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_BMS2_CELL7_MV", cJSON_CreateNumber(mVars[226]));</v>
       </c>
     </row>
@@ -6962,33 +7282,33 @@
         <v>227</v>
       </c>
       <c r="D231" s="1" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>E3</v>
       </c>
       <c r="E231" t="s">
         <v>212</v>
       </c>
       <c r="H231" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>#define  VAR_BMS2_CELL8_MV  227</v>
       </c>
       <c r="I231" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>public const byte VAR_BMS2_CELL8_MV = 227;</v>
       </c>
       <c r="J231">
         <v>7</v>
       </c>
       <c r="L231" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>UpdateScanList(VAR_BMS2_CELL8_MV, 3000);</v>
       </c>
       <c r="M231" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>VAR_SetVariable(VAR_BMS2_CELL8_MV, Cells[7].Voltage_mV, validflag);</v>
       </c>
       <c r="P231" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_BMS2_CELL8_MV", cJSON_CreateNumber(mVars[227]));</v>
       </c>
     </row>
@@ -6997,33 +7317,33 @@
         <v>228</v>
       </c>
       <c r="D232" s="1" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>E4</v>
       </c>
       <c r="E232" t="s">
         <v>213</v>
       </c>
       <c r="H232" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>#define  VAR_BMS2_CELL9_MV  228</v>
       </c>
       <c r="I232" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>public const byte VAR_BMS2_CELL9_MV = 228;</v>
       </c>
       <c r="J232">
         <v>8</v>
       </c>
       <c r="L232" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>UpdateScanList(VAR_BMS2_CELL9_MV, 3000);</v>
       </c>
       <c r="M232" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>VAR_SetVariable(VAR_BMS2_CELL9_MV, Cells[8].Voltage_mV, validflag);</v>
       </c>
       <c r="P232" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_BMS2_CELL9_MV", cJSON_CreateNumber(mVars[228]));</v>
       </c>
     </row>
@@ -7032,33 +7352,33 @@
         <v>229</v>
       </c>
       <c r="D233" s="1" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>E5</v>
       </c>
       <c r="E233" t="s">
         <v>214</v>
       </c>
       <c r="H233" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>#define  VAR_BMS2_CELL10_MV  229</v>
       </c>
       <c r="I233" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>public const byte VAR_BMS2_CELL10_MV = 229;</v>
       </c>
       <c r="J233">
         <v>9</v>
       </c>
       <c r="L233" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>UpdateScanList(VAR_BMS2_CELL10_MV, 3000);</v>
       </c>
       <c r="M233" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>VAR_SetVariable(VAR_BMS2_CELL10_MV, Cells[9].Voltage_mV, validflag);</v>
       </c>
       <c r="P233" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_BMS2_CELL10_MV", cJSON_CreateNumber(mVars[229]));</v>
       </c>
     </row>
@@ -7067,33 +7387,33 @@
         <v>230</v>
       </c>
       <c r="D234" s="1" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>E6</v>
       </c>
       <c r="E234" t="s">
         <v>215</v>
       </c>
       <c r="H234" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>#define  VAR_BMS2_CELL11_MV  230</v>
       </c>
       <c r="I234" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>public const byte VAR_BMS2_CELL11_MV = 230;</v>
       </c>
       <c r="J234">
         <v>10</v>
       </c>
       <c r="L234" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>UpdateScanList(VAR_BMS2_CELL11_MV, 3000);</v>
       </c>
       <c r="M234" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>VAR_SetVariable(VAR_BMS2_CELL11_MV, Cells[10].Voltage_mV, validflag);</v>
       </c>
       <c r="P234" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_BMS2_CELL11_MV", cJSON_CreateNumber(mVars[230]));</v>
       </c>
     </row>
@@ -7102,33 +7422,33 @@
         <v>231</v>
       </c>
       <c r="D235" s="1" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>E7</v>
       </c>
       <c r="E235" t="s">
         <v>216</v>
       </c>
       <c r="H235" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>#define  VAR_BMS2_CELL12_MV  231</v>
       </c>
       <c r="I235" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>public const byte VAR_BMS2_CELL12_MV = 231;</v>
       </c>
       <c r="J235">
         <v>11</v>
       </c>
       <c r="L235" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>UpdateScanList(VAR_BMS2_CELL12_MV, 3000);</v>
       </c>
       <c r="M235" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>VAR_SetVariable(VAR_BMS2_CELL12_MV, Cells[11].Voltage_mV, validflag);</v>
       </c>
       <c r="P235" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_BMS2_CELL12_MV", cJSON_CreateNumber(mVars[231]));</v>
       </c>
     </row>
@@ -7137,33 +7457,33 @@
         <v>232</v>
       </c>
       <c r="D236" s="1" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>E8</v>
       </c>
       <c r="E236" t="s">
         <v>217</v>
       </c>
       <c r="H236" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>#define  VAR_BMS2_CELL13_MV  232</v>
       </c>
       <c r="I236" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>public const byte VAR_BMS2_CELL13_MV = 232;</v>
       </c>
       <c r="J236">
         <v>12</v>
       </c>
       <c r="L236" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>UpdateScanList(VAR_BMS2_CELL13_MV, 3000);</v>
       </c>
       <c r="M236" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>VAR_SetVariable(VAR_BMS2_CELL13_MV, Cells[12].Voltage_mV, validflag);</v>
       </c>
       <c r="P236" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_BMS2_CELL13_MV", cJSON_CreateNumber(mVars[232]));</v>
       </c>
     </row>
@@ -7172,33 +7492,33 @@
         <v>233</v>
       </c>
       <c r="D237" s="1" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>E9</v>
       </c>
       <c r="E237" t="s">
         <v>218</v>
       </c>
       <c r="H237" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>#define  VAR_BMS2_CELL14_MV  233</v>
       </c>
       <c r="I237" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>public const byte VAR_BMS2_CELL14_MV = 233;</v>
       </c>
       <c r="J237">
         <v>13</v>
       </c>
       <c r="L237" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>UpdateScanList(VAR_BMS2_CELL14_MV, 3000);</v>
       </c>
       <c r="M237" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>VAR_SetVariable(VAR_BMS2_CELL14_MV, Cells[13].Voltage_mV, validflag);</v>
       </c>
       <c r="P237" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_BMS2_CELL14_MV", cJSON_CreateNumber(mVars[233]));</v>
       </c>
     </row>
@@ -7207,33 +7527,33 @@
         <v>234</v>
       </c>
       <c r="D238" s="1" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>EA</v>
       </c>
       <c r="E238" t="s">
         <v>219</v>
       </c>
       <c r="H238" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>#define  VAR_BMS2_CELL15_MV  234</v>
       </c>
       <c r="I238" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>public const byte VAR_BMS2_CELL15_MV = 234;</v>
       </c>
       <c r="J238">
         <v>14</v>
       </c>
       <c r="L238" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>UpdateScanList(VAR_BMS2_CELL15_MV, 3000);</v>
       </c>
       <c r="M238" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>VAR_SetVariable(VAR_BMS2_CELL15_MV, Cells[14].Voltage_mV, validflag);</v>
       </c>
       <c r="P238" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_BMS2_CELL15_MV", cJSON_CreateNumber(mVars[234]));</v>
       </c>
     </row>
@@ -7242,33 +7562,33 @@
         <v>235</v>
       </c>
       <c r="D239" s="1" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>EB</v>
       </c>
       <c r="E239" t="s">
         <v>220</v>
       </c>
       <c r="H239" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>#define  VAR_BMS2_CELL16_MV  235</v>
       </c>
       <c r="I239" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>public const byte VAR_BMS2_CELL16_MV = 235;</v>
       </c>
       <c r="J239">
         <v>15</v>
       </c>
       <c r="L239" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>UpdateScanList(VAR_BMS2_CELL16_MV, 3000);</v>
       </c>
       <c r="M239" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>VAR_SetVariable(VAR_BMS2_CELL16_MV, Cells[15].Voltage_mV, validflag);</v>
       </c>
       <c r="P239" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_BMS2_CELL16_MV", cJSON_CreateNumber(mVars[235]));</v>
       </c>
     </row>
@@ -7277,25 +7597,25 @@
         <v>236</v>
       </c>
       <c r="D240" s="1" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>EC</v>
       </c>
       <c r="E240" t="s">
         <v>237</v>
       </c>
       <c r="H240" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>#define  VAR_BMS2_CELL1_C  236</v>
       </c>
       <c r="I240" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>public const byte VAR_BMS2_CELL1_C = 236;</v>
       </c>
       <c r="J240">
         <v>0</v>
       </c>
       <c r="L240" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>UpdateScanList(VAR_BMS2_CELL1_C, 3000);</v>
       </c>
       <c r="M240" t="str">
@@ -7303,7 +7623,7 @@
         <v>VAR_SetVariable(VAR_BMS2_CELL1_C, Cells[0].Temp_C, validflag);</v>
       </c>
       <c r="P240" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_BMS2_CELL1_C", cJSON_CreateNumber(mVars[236]));</v>
       </c>
     </row>
@@ -7312,33 +7632,33 @@
         <v>237</v>
       </c>
       <c r="D241" s="1" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>ED</v>
       </c>
       <c r="E241" t="s">
         <v>238</v>
       </c>
       <c r="H241" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>#define  VAR_BMS2_CELL2_C  237</v>
       </c>
       <c r="I241" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>public const byte VAR_BMS2_CELL2_C = 237;</v>
       </c>
       <c r="J241">
         <v>1</v>
       </c>
       <c r="L241" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>UpdateScanList(VAR_BMS2_CELL2_C, 3000);</v>
       </c>
       <c r="M241" t="str">
-        <f t="shared" ref="M241:M255" si="31">CONCATENATE("VAR_SetVariable(",E241,", Cells[",J241,"].Temp_C", ", validflag);")</f>
+        <f t="shared" ref="M241:M255" si="37">CONCATENATE("VAR_SetVariable(",E241,", Cells[",J241,"].Temp_C", ", validflag);")</f>
         <v>VAR_SetVariable(VAR_BMS2_CELL2_C, Cells[1].Temp_C, validflag);</v>
       </c>
       <c r="P241" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_BMS2_CELL2_C", cJSON_CreateNumber(mVars[237]));</v>
       </c>
     </row>
@@ -7347,33 +7667,33 @@
         <v>238</v>
       </c>
       <c r="D242" s="1" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>EE</v>
       </c>
       <c r="E242" t="s">
         <v>239</v>
       </c>
       <c r="H242" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>#define  VAR_BMS2_CELL3_C  238</v>
       </c>
       <c r="I242" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>public const byte VAR_BMS2_CELL3_C = 238;</v>
       </c>
       <c r="J242">
         <v>2</v>
       </c>
       <c r="L242" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>UpdateScanList(VAR_BMS2_CELL3_C, 3000);</v>
       </c>
       <c r="M242" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="37"/>
         <v>VAR_SetVariable(VAR_BMS2_CELL3_C, Cells[2].Temp_C, validflag);</v>
       </c>
       <c r="P242" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_BMS2_CELL3_C", cJSON_CreateNumber(mVars[238]));</v>
       </c>
     </row>
@@ -7382,33 +7702,33 @@
         <v>239</v>
       </c>
       <c r="D243" s="1" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>EF</v>
       </c>
       <c r="E243" t="s">
         <v>240</v>
       </c>
       <c r="H243" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>#define  VAR_BMS2_CELL4_C  239</v>
       </c>
       <c r="I243" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>public const byte VAR_BMS2_CELL4_C = 239;</v>
       </c>
       <c r="J243">
         <v>3</v>
       </c>
       <c r="L243" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>UpdateScanList(VAR_BMS2_CELL4_C, 3000);</v>
       </c>
       <c r="M243" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="37"/>
         <v>VAR_SetVariable(VAR_BMS2_CELL4_C, Cells[3].Temp_C, validflag);</v>
       </c>
       <c r="P243" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_BMS2_CELL4_C", cJSON_CreateNumber(mVars[239]));</v>
       </c>
     </row>
@@ -7417,33 +7737,33 @@
         <v>240</v>
       </c>
       <c r="D244" s="1" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>F0</v>
       </c>
       <c r="E244" t="s">
         <v>241</v>
       </c>
       <c r="H244" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>#define  VAR_BMS2_CELL5_C  240</v>
       </c>
       <c r="I244" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>public const byte VAR_BMS2_CELL5_C = 240;</v>
       </c>
       <c r="J244">
         <v>4</v>
       </c>
       <c r="L244" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>UpdateScanList(VAR_BMS2_CELL5_C, 3000);</v>
       </c>
       <c r="M244" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="37"/>
         <v>VAR_SetVariable(VAR_BMS2_CELL5_C, Cells[4].Temp_C, validflag);</v>
       </c>
       <c r="P244" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_BMS2_CELL5_C", cJSON_CreateNumber(mVars[240]));</v>
       </c>
     </row>
@@ -7452,33 +7772,33 @@
         <v>241</v>
       </c>
       <c r="D245" s="1" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>F1</v>
       </c>
       <c r="E245" t="s">
         <v>242</v>
       </c>
       <c r="H245" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>#define  VAR_BMS2_CELL6_C  241</v>
       </c>
       <c r="I245" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>public const byte VAR_BMS2_CELL6_C = 241;</v>
       </c>
       <c r="J245">
         <v>5</v>
       </c>
       <c r="L245" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>UpdateScanList(VAR_BMS2_CELL6_C, 3000);</v>
       </c>
       <c r="M245" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="37"/>
         <v>VAR_SetVariable(VAR_BMS2_CELL6_C, Cells[5].Temp_C, validflag);</v>
       </c>
       <c r="P245" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_BMS2_CELL6_C", cJSON_CreateNumber(mVars[241]));</v>
       </c>
     </row>
@@ -7487,33 +7807,33 @@
         <v>242</v>
       </c>
       <c r="D246" s="1" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>F2</v>
       </c>
       <c r="E246" t="s">
         <v>243</v>
       </c>
       <c r="H246" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>#define  VAR_BMS2_CELL7_C  242</v>
       </c>
       <c r="I246" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>public const byte VAR_BMS2_CELL7_C = 242;</v>
       </c>
       <c r="J246">
         <v>6</v>
       </c>
       <c r="L246" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>UpdateScanList(VAR_BMS2_CELL7_C, 3000);</v>
       </c>
       <c r="M246" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="37"/>
         <v>VAR_SetVariable(VAR_BMS2_CELL7_C, Cells[6].Temp_C, validflag);</v>
       </c>
       <c r="P246" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_BMS2_CELL7_C", cJSON_CreateNumber(mVars[242]));</v>
       </c>
     </row>
@@ -7522,33 +7842,33 @@
         <v>243</v>
       </c>
       <c r="D247" s="1" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>F3</v>
       </c>
       <c r="E247" t="s">
         <v>244</v>
       </c>
       <c r="H247" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>#define  VAR_BMS2_CELL8_C  243</v>
       </c>
       <c r="I247" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>public const byte VAR_BMS2_CELL8_C = 243;</v>
       </c>
       <c r="J247">
         <v>7</v>
       </c>
       <c r="L247" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>UpdateScanList(VAR_BMS2_CELL8_C, 3000);</v>
       </c>
       <c r="M247" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="37"/>
         <v>VAR_SetVariable(VAR_BMS2_CELL8_C, Cells[7].Temp_C, validflag);</v>
       </c>
       <c r="P247" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_BMS2_CELL8_C", cJSON_CreateNumber(mVars[243]));</v>
       </c>
     </row>
@@ -7557,33 +7877,33 @@
         <v>244</v>
       </c>
       <c r="D248" s="1" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>F4</v>
       </c>
       <c r="E248" t="s">
         <v>245</v>
       </c>
       <c r="H248" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>#define  VAR_BMS2_CELL9_C  244</v>
       </c>
       <c r="I248" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>public const byte VAR_BMS2_CELL9_C = 244;</v>
       </c>
       <c r="J248">
         <v>8</v>
       </c>
       <c r="L248" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>UpdateScanList(VAR_BMS2_CELL9_C, 3000);</v>
       </c>
       <c r="M248" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="37"/>
         <v>VAR_SetVariable(VAR_BMS2_CELL9_C, Cells[8].Temp_C, validflag);</v>
       </c>
       <c r="P248" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_BMS2_CELL9_C", cJSON_CreateNumber(mVars[244]));</v>
       </c>
     </row>
@@ -7592,33 +7912,33 @@
         <v>245</v>
       </c>
       <c r="D249" s="1" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>F5</v>
       </c>
       <c r="E249" t="s">
         <v>246</v>
       </c>
       <c r="H249" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>#define  VAR_BMS2_CELL10_C  245</v>
       </c>
       <c r="I249" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>public const byte VAR_BMS2_CELL10_C = 245;</v>
       </c>
       <c r="J249">
         <v>9</v>
       </c>
       <c r="L249" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>UpdateScanList(VAR_BMS2_CELL10_C, 3000);</v>
       </c>
       <c r="M249" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="37"/>
         <v>VAR_SetVariable(VAR_BMS2_CELL10_C, Cells[9].Temp_C, validflag);</v>
       </c>
       <c r="P249" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_BMS2_CELL10_C", cJSON_CreateNumber(mVars[245]));</v>
       </c>
     </row>
@@ -7627,33 +7947,33 @@
         <v>246</v>
       </c>
       <c r="D250" s="1" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>F6</v>
       </c>
       <c r="E250" t="s">
         <v>247</v>
       </c>
       <c r="H250" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>#define  VAR_BMS2_CELL11_C  246</v>
       </c>
       <c r="I250" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>public const byte VAR_BMS2_CELL11_C = 246;</v>
       </c>
       <c r="J250">
         <v>10</v>
       </c>
       <c r="L250" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>UpdateScanList(VAR_BMS2_CELL11_C, 3000);</v>
       </c>
       <c r="M250" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="37"/>
         <v>VAR_SetVariable(VAR_BMS2_CELL11_C, Cells[10].Temp_C, validflag);</v>
       </c>
       <c r="P250" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_BMS2_CELL11_C", cJSON_CreateNumber(mVars[246]));</v>
       </c>
     </row>
@@ -7662,33 +7982,33 @@
         <v>247</v>
       </c>
       <c r="D251" s="1" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>F7</v>
       </c>
       <c r="E251" t="s">
         <v>248</v>
       </c>
       <c r="H251" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>#define  VAR_BMS2_CELL12_C  247</v>
       </c>
       <c r="I251" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>public const byte VAR_BMS2_CELL12_C = 247;</v>
       </c>
       <c r="J251">
         <v>11</v>
       </c>
       <c r="L251" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>UpdateScanList(VAR_BMS2_CELL12_C, 3000);</v>
       </c>
       <c r="M251" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="37"/>
         <v>VAR_SetVariable(VAR_BMS2_CELL12_C, Cells[11].Temp_C, validflag);</v>
       </c>
       <c r="P251" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_BMS2_CELL12_C", cJSON_CreateNumber(mVars[247]));</v>
       </c>
     </row>
@@ -7697,33 +8017,33 @@
         <v>248</v>
       </c>
       <c r="D252" s="1" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>F8</v>
       </c>
       <c r="E252" t="s">
         <v>249</v>
       </c>
       <c r="H252" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>#define  VAR_BMS2_CELL13_C  248</v>
       </c>
       <c r="I252" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>public const byte VAR_BMS2_CELL13_C = 248;</v>
       </c>
       <c r="J252">
         <v>12</v>
       </c>
       <c r="L252" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>UpdateScanList(VAR_BMS2_CELL13_C, 3000);</v>
       </c>
       <c r="M252" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="37"/>
         <v>VAR_SetVariable(VAR_BMS2_CELL13_C, Cells[12].Temp_C, validflag);</v>
       </c>
       <c r="P252" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_BMS2_CELL13_C", cJSON_CreateNumber(mVars[248]));</v>
       </c>
     </row>
@@ -7732,33 +8052,33 @@
         <v>249</v>
       </c>
       <c r="D253" s="1" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>F9</v>
       </c>
       <c r="E253" t="s">
         <v>250</v>
       </c>
       <c r="H253" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>#define  VAR_BMS2_CELL14_C  249</v>
       </c>
       <c r="I253" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>public const byte VAR_BMS2_CELL14_C = 249;</v>
       </c>
       <c r="J253">
         <v>13</v>
       </c>
       <c r="L253" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>UpdateScanList(VAR_BMS2_CELL14_C, 3000);</v>
       </c>
       <c r="M253" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="37"/>
         <v>VAR_SetVariable(VAR_BMS2_CELL14_C, Cells[13].Temp_C, validflag);</v>
       </c>
       <c r="P253" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_BMS2_CELL14_C", cJSON_CreateNumber(mVars[249]));</v>
       </c>
     </row>
@@ -7767,33 +8087,33 @@
         <v>250</v>
       </c>
       <c r="D254" s="1" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>FA</v>
       </c>
       <c r="E254" t="s">
         <v>251</v>
       </c>
       <c r="H254" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>#define  VAR_BMS2_CELL15_C  250</v>
       </c>
       <c r="I254" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>public const byte VAR_BMS2_CELL15_C = 250;</v>
       </c>
       <c r="J254">
         <v>14</v>
       </c>
       <c r="L254" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>UpdateScanList(VAR_BMS2_CELL15_C, 3000);</v>
       </c>
       <c r="M254" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="37"/>
         <v>VAR_SetVariable(VAR_BMS2_CELL15_C, Cells[14].Temp_C, validflag);</v>
       </c>
       <c r="P254" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_BMS2_CELL15_C", cJSON_CreateNumber(mVars[250]));</v>
       </c>
     </row>
@@ -7802,33 +8122,33 @@
         <v>251</v>
       </c>
       <c r="D255" s="1" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>FB</v>
       </c>
       <c r="E255" t="s">
         <v>252</v>
       </c>
       <c r="H255" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>#define  VAR_BMS2_CELL16_C  251</v>
       </c>
       <c r="I255" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>public const byte VAR_BMS2_CELL16_C = 251;</v>
       </c>
       <c r="J255">
         <v>15</v>
       </c>
       <c r="L255" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>UpdateScanList(VAR_BMS2_CELL16_C, 3000);</v>
       </c>
       <c r="M255" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="37"/>
         <v>VAR_SetVariable(VAR_BMS2_CELL16_C, Cells[15].Temp_C, validflag);</v>
       </c>
       <c r="P255" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_BMS2_CELL16_C", cJSON_CreateNumber(mVars[251]));</v>
       </c>
     </row>
@@ -7837,7 +8157,7 @@
         <v>252</v>
       </c>
       <c r="D256" s="1" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>FC</v>
       </c>
     </row>
@@ -7846,7 +8166,7 @@
         <v>253</v>
       </c>
       <c r="D257" s="1" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>FD</v>
       </c>
     </row>
@@ -7855,7 +8175,7 @@
         <v>254</v>
       </c>
       <c r="D258" s="1" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>FE</v>
       </c>
     </row>
@@ -7864,7 +8184,7 @@
         <v>255</v>
       </c>
       <c r="D259" s="1" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>FF</v>
       </c>
     </row>
@@ -7883,7 +8203,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:I48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="H48" sqref="H48"/>
     </sheetView>
   </sheetViews>

--- a/UHA.xlsx
+++ b/UHA.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="304">
   <si>
     <t>dec</t>
   </si>
@@ -911,6 +911,24 @@
   </si>
   <si>
     <t>VAR_METEO_WIND_ENERGY</t>
+  </si>
+  <si>
+    <t>VAR_TEMP_RECU_FC</t>
+  </si>
+  <si>
+    <t>VAR_TEMP_RECU_FH</t>
+  </si>
+  <si>
+    <t>VAR_TEMP_RECU_WH</t>
+  </si>
+  <si>
+    <t>VAR_TEMP_RECU_WC</t>
+  </si>
+  <si>
+    <t>T305</t>
+  </si>
+  <si>
+    <t>T309</t>
   </si>
 </sst>
 </file>
@@ -1429,8 +1447,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B3:P259"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E126" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N165" sqref="N165:N168"/>
+    <sheetView tabSelected="1" topLeftCell="A114" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I150" sqref="I150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1440,7 +1458,7 @@
     <col min="8" max="8" width="45.5703125" customWidth="1"/>
     <col min="9" max="9" width="49.42578125" customWidth="1"/>
     <col min="11" max="11" width="3.5703125" customWidth="1"/>
-    <col min="12" max="12" width="16.42578125" customWidth="1"/>
+    <col min="12" max="12" width="35.85546875" customWidth="1"/>
     <col min="13" max="13" width="34.140625" customWidth="1"/>
     <col min="14" max="14" width="86" customWidth="1"/>
     <col min="15" max="15" width="5" customWidth="1"/>
@@ -3528,7 +3546,7 @@
         <v>public const byte VAR_EL_HEATER_STATUS = 80;</v>
       </c>
       <c r="L84" t="str">
-        <f t="shared" ref="L84:L131" si="12">CONCATENATE("UpdateScanList(",E84, ", 3000);")</f>
+        <f t="shared" ref="L84:L132" si="12">CONCATENATE("UpdateScanList(",E84, ", 3000);")</f>
         <v>UpdateScanList(VAR_EL_HEATER_STATUS, 3000);</v>
       </c>
       <c r="N84" t="str">
@@ -3536,7 +3554,7 @@
         <v>COM_AddStreamedVariable(VAR_EL_HEATER_STATUS, 1000);</v>
       </c>
       <c r="P84" t="str">
-        <f t="shared" ref="P84:P131" si="13">CONCATENATE("cJSON_AddItemToObject(Uha, ","""",E84,"""",", cJSON_CreateNumber(mVars[",C84,"]));")</f>
+        <f t="shared" ref="P84:P132" si="13">CONCATENATE("cJSON_AddItemToObject(Uha, ","""",E84,"""",", cJSON_CreateNumber(mVars[",C84,"]));")</f>
         <v>cJSON_AddItemToObject(Uha, "VAR_EL_HEATER_STATUS", cJSON_CreateNumber(mVars[80]));</v>
       </c>
     </row>
@@ -4656,11 +4674,11 @@
         <v>154</v>
       </c>
       <c r="H117" t="str">
-        <f t="shared" ref="H117:H131" si="17">CONCATENATE("#define  ",E117,"  ",C117)</f>
+        <f t="shared" ref="H117:H132" si="17">CONCATENATE("#define  ",E117,"  ",C117)</f>
         <v>#define  VAR_TEMP_BOILER_EXHAUST  113</v>
       </c>
       <c r="I117" t="str">
-        <f t="shared" ref="I117:I131" si="18">CONCATENATE("public const byte ",E117," = ",C117,";")</f>
+        <f t="shared" ref="I117:I132" si="18">CONCATENATE("public const byte ",E117," = ",C117,";")</f>
         <v>public const byte VAR_TEMP_BOILER_EXHAUST = 113;</v>
       </c>
       <c r="K117" t="str">
@@ -5135,7 +5153,7 @@
         <v>UpdateScanList(VAR_TEMP_OFFICE, 3000);</v>
       </c>
       <c r="N129" t="str">
-        <f t="shared" ref="N129:N169" si="19">CONCATENATE("COM_AddStreamedVariable(",E129, ", 1000);")</f>
+        <f t="shared" ref="N129:N168" si="19">CONCATENATE("COM_AddStreamedVariable(",E129, ", 1000);")</f>
         <v>COM_AddStreamedVariable(VAR_TEMP_OFFICE, 1000);</v>
       </c>
       <c r="P129" t="str">
@@ -5238,6 +5256,29 @@
         <f t="shared" si="10"/>
         <v>80</v>
       </c>
+      <c r="E132" t="s">
+        <v>298</v>
+      </c>
+      <c r="H132" t="str">
+        <f t="shared" si="17"/>
+        <v>#define  VAR_TEMP_RECU_FC  128</v>
+      </c>
+      <c r="I132" t="str">
+        <f t="shared" si="18"/>
+        <v>public const byte VAR_TEMP_RECU_FC = 128;</v>
+      </c>
+      <c r="L132" t="str">
+        <f t="shared" si="12"/>
+        <v>UpdateScanList(VAR_TEMP_RECU_FC, 3000);</v>
+      </c>
+      <c r="N132" t="str">
+        <f t="shared" si="19"/>
+        <v>COM_AddStreamedVariable(VAR_TEMP_RECU_FC, 1000);</v>
+      </c>
+      <c r="P132" t="str">
+        <f t="shared" si="13"/>
+        <v>cJSON_AddItemToObject(Uha, "VAR_TEMP_RECU_FC", cJSON_CreateNumber(mVars[128]));</v>
+      </c>
     </row>
     <row r="133" spans="2:16">
       <c r="B133" s="15"/>
@@ -5248,6 +5289,29 @@
         <f t="shared" ref="D133:D196" si="20">DEC2HEX(C133,2)</f>
         <v>81</v>
       </c>
+      <c r="E133" t="s">
+        <v>299</v>
+      </c>
+      <c r="H133" t="str">
+        <f t="shared" ref="H133:H137" si="21">CONCATENATE("#define  ",E133,"  ",C133)</f>
+        <v>#define  VAR_TEMP_RECU_FH  129</v>
+      </c>
+      <c r="I133" t="str">
+        <f t="shared" ref="I133:I137" si="22">CONCATENATE("public const byte ",E133," = ",C133,";")</f>
+        <v>public const byte VAR_TEMP_RECU_FH = 129;</v>
+      </c>
+      <c r="L133" t="str">
+        <f t="shared" ref="L133:L137" si="23">CONCATENATE("UpdateScanList(",E133, ", 3000);")</f>
+        <v>UpdateScanList(VAR_TEMP_RECU_FH, 3000);</v>
+      </c>
+      <c r="N133" t="str">
+        <f t="shared" ref="N133:N137" si="24">CONCATENATE("COM_AddStreamedVariable(",E133, ", 1000);")</f>
+        <v>COM_AddStreamedVariable(VAR_TEMP_RECU_FH, 1000);</v>
+      </c>
+      <c r="P133" t="str">
+        <f t="shared" ref="P133:P137" si="25">CONCATENATE("cJSON_AddItemToObject(Uha, ","""",E133,"""",", cJSON_CreateNumber(mVars[",C133,"]));")</f>
+        <v>cJSON_AddItemToObject(Uha, "VAR_TEMP_RECU_FH", cJSON_CreateNumber(mVars[129]));</v>
+      </c>
     </row>
     <row r="134" spans="2:16">
       <c r="B134" s="15"/>
@@ -5258,6 +5322,32 @@
         <f t="shared" si="20"/>
         <v>82</v>
       </c>
+      <c r="E134" t="s">
+        <v>300</v>
+      </c>
+      <c r="F134" t="s">
+        <v>303</v>
+      </c>
+      <c r="H134" t="str">
+        <f t="shared" si="21"/>
+        <v>#define  VAR_TEMP_RECU_WH  130</v>
+      </c>
+      <c r="I134" t="str">
+        <f t="shared" si="22"/>
+        <v>public const byte VAR_TEMP_RECU_WH = 130;</v>
+      </c>
+      <c r="L134" t="str">
+        <f t="shared" si="23"/>
+        <v>UpdateScanList(VAR_TEMP_RECU_WH, 3000);</v>
+      </c>
+      <c r="N134" t="str">
+        <f t="shared" si="24"/>
+        <v>COM_AddStreamedVariable(VAR_TEMP_RECU_WH, 1000);</v>
+      </c>
+      <c r="P134" t="str">
+        <f t="shared" si="25"/>
+        <v>cJSON_AddItemToObject(Uha, "VAR_TEMP_RECU_WH", cJSON_CreateNumber(mVars[130]));</v>
+      </c>
     </row>
     <row r="135" spans="2:16">
       <c r="B135" s="15"/>
@@ -5268,6 +5358,32 @@
         <f t="shared" si="20"/>
         <v>83</v>
       </c>
+      <c r="E135" t="s">
+        <v>301</v>
+      </c>
+      <c r="F135" t="s">
+        <v>302</v>
+      </c>
+      <c r="H135" t="str">
+        <f t="shared" si="21"/>
+        <v>#define  VAR_TEMP_RECU_WC  131</v>
+      </c>
+      <c r="I135" t="str">
+        <f t="shared" si="22"/>
+        <v>public const byte VAR_TEMP_RECU_WC = 131;</v>
+      </c>
+      <c r="L135" t="str">
+        <f t="shared" si="23"/>
+        <v>UpdateScanList(VAR_TEMP_RECU_WC, 3000);</v>
+      </c>
+      <c r="N135" t="str">
+        <f t="shared" si="24"/>
+        <v>COM_AddStreamedVariable(VAR_TEMP_RECU_WC, 1000);</v>
+      </c>
+      <c r="P135" t="str">
+        <f t="shared" si="25"/>
+        <v>cJSON_AddItemToObject(Uha, "VAR_TEMP_RECU_WC", cJSON_CreateNumber(mVars[131]));</v>
+      </c>
     </row>
     <row r="136" spans="2:16">
       <c r="B136" s="15"/>
@@ -5573,19 +5689,19 @@
         <v>294</v>
       </c>
       <c r="H165" t="str">
-        <f t="shared" ref="H165:H183" si="21">CONCATENATE("#define  ",E165,"  ",C165)</f>
+        <f t="shared" ref="H165:H168" si="26">CONCATENATE("#define  ",E165,"  ",C165)</f>
         <v>#define  VAR_METEO_WIND_BURST  161</v>
       </c>
       <c r="I165" t="str">
-        <f t="shared" ref="I165:I183" si="22">CONCATENATE("public const byte ",E165," = ",C165,";")</f>
+        <f t="shared" ref="I165:I168" si="27">CONCATENATE("public const byte ",E165," = ",C165,";")</f>
         <v>public const byte VAR_METEO_WIND_BURST = 161;</v>
       </c>
       <c r="L165" t="str">
-        <f t="shared" ref="L165:L183" si="23">CONCATENATE("UpdateScanList(",E165, ", 3000);")</f>
+        <f t="shared" ref="L165:L168" si="28">CONCATENATE("UpdateScanList(",E165, ", 3000);")</f>
         <v>UpdateScanList(VAR_METEO_WIND_BURST, 3000);</v>
       </c>
       <c r="M165" t="str">
-        <f t="shared" ref="M165:M183" si="24">CONCATENATE("VAR_SetVariable(",E165,", Cells[",J165,"].Voltage_mV", ", validflag);")</f>
+        <f t="shared" ref="M165:M168" si="29">CONCATENATE("VAR_SetVariable(",E165,", Cells[",J165,"].Voltage_mV", ", validflag);")</f>
         <v>VAR_SetVariable(VAR_METEO_WIND_BURST, Cells[].Voltage_mV, validflag);</v>
       </c>
       <c r="N165" t="str">
@@ -5593,7 +5709,7 @@
         <v>COM_AddStreamedVariable(VAR_METEO_WIND_BURST, 1000);</v>
       </c>
       <c r="P165" t="str">
-        <f t="shared" ref="P165:P183" si="25">CONCATENATE("cJSON_AddItemToObject(Uha, ","""",E165,"""",", cJSON_CreateNumber(mVars[",C165,"]));")</f>
+        <f t="shared" ref="P165:P168" si="30">CONCATENATE("cJSON_AddItemToObject(Uha, ","""",E165,"""",", cJSON_CreateNumber(mVars[",C165,"]));")</f>
         <v>cJSON_AddItemToObject(Uha, "VAR_METEO_WIND_BURST", cJSON_CreateNumber(mVars[161]));</v>
       </c>
     </row>
@@ -5609,19 +5725,19 @@
         <v>295</v>
       </c>
       <c r="H166" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>#define  VAR_METEO_WIND_AVG  162</v>
       </c>
       <c r="I166" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>public const byte VAR_METEO_WIND_AVG = 162;</v>
       </c>
       <c r="L166" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>UpdateScanList(VAR_METEO_WIND_AVG, 3000);</v>
       </c>
       <c r="M166" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>VAR_SetVariable(VAR_METEO_WIND_AVG, Cells[].Voltage_mV, validflag);</v>
       </c>
       <c r="N166" t="str">
@@ -5629,7 +5745,7 @@
         <v>COM_AddStreamedVariable(VAR_METEO_WIND_AVG, 1000);</v>
       </c>
       <c r="P166" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_METEO_WIND_AVG", cJSON_CreateNumber(mVars[162]));</v>
       </c>
     </row>
@@ -5645,19 +5761,19 @@
         <v>296</v>
       </c>
       <c r="H167" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>#define  VAR_METEO_WIND_POW  163</v>
       </c>
       <c r="I167" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>public const byte VAR_METEO_WIND_POW = 163;</v>
       </c>
       <c r="L167" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>UpdateScanList(VAR_METEO_WIND_POW, 3000);</v>
       </c>
       <c r="M167" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>VAR_SetVariable(VAR_METEO_WIND_POW, Cells[].Voltage_mV, validflag);</v>
       </c>
       <c r="N167" t="str">
@@ -5665,7 +5781,7 @@
         <v>COM_AddStreamedVariable(VAR_METEO_WIND_POW, 1000);</v>
       </c>
       <c r="P167" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_METEO_WIND_POW", cJSON_CreateNumber(mVars[163]));</v>
       </c>
     </row>
@@ -5681,19 +5797,19 @@
         <v>297</v>
       </c>
       <c r="H168" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>#define  VAR_METEO_WIND_ENERGY  164</v>
       </c>
       <c r="I168" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>public const byte VAR_METEO_WIND_ENERGY = 164;</v>
       </c>
       <c r="L168" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>UpdateScanList(VAR_METEO_WIND_ENERGY, 3000);</v>
       </c>
       <c r="M168" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>VAR_SetVariable(VAR_METEO_WIND_ENERGY, Cells[].Voltage_mV, validflag);</v>
       </c>
       <c r="N168" t="str">
@@ -5701,7 +5817,7 @@
         <v>COM_AddStreamedVariable(VAR_METEO_WIND_ENERGY, 1000);</v>
       </c>
       <c r="P168" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_METEO_WIND_ENERGY", cJSON_CreateNumber(mVars[164]));</v>
       </c>
     </row>
@@ -5852,18 +5968,18 @@
         <v>189</v>
       </c>
       <c r="H184" t="str">
-        <f t="shared" ref="H184:H195" si="26">CONCATENATE("#define  ",E184,"  ",C184)</f>
+        <f t="shared" ref="H184:H195" si="31">CONCATENATE("#define  ",E184,"  ",C184)</f>
         <v>#define  VAR_BMS1_CELL1_MV  180</v>
       </c>
       <c r="I184" t="str">
-        <f t="shared" ref="I184:I195" si="27">CONCATENATE("public const byte ",E184," = ",C184,";")</f>
+        <f t="shared" ref="I184:I195" si="32">CONCATENATE("public const byte ",E184," = ",C184,";")</f>
         <v>public const byte VAR_BMS1_CELL1_MV = 180;</v>
       </c>
       <c r="J184">
         <v>0</v>
       </c>
       <c r="L184" t="str">
-        <f t="shared" ref="L184:L206" si="28">CONCATENATE("UpdateScanList(",E184, ", 3000);")</f>
+        <f t="shared" ref="L184:L206" si="33">CONCATENATE("UpdateScanList(",E184, ", 3000);")</f>
         <v>UpdateScanList(VAR_BMS1_CELL1_MV, 3000);</v>
       </c>
       <c r="M184" t="str">
@@ -5871,7 +5987,7 @@
         <v>VAR_SetVariable(VAR_BMS1_CELL1_MV, Cells[0].Voltage_mV, validflag);</v>
       </c>
       <c r="P184" t="str">
-        <f t="shared" ref="P184:P206" si="29">CONCATENATE("cJSON_AddItemToObject(Uha, ","""",E184,"""",", cJSON_CreateNumber(mVars[",C184,"]));")</f>
+        <f t="shared" ref="P184:P206" si="34">CONCATENATE("cJSON_AddItemToObject(Uha, ","""",E184,"""",", cJSON_CreateNumber(mVars[",C184,"]));")</f>
         <v>cJSON_AddItemToObject(Uha, "VAR_BMS1_CELL1_MV", cJSON_CreateNumber(mVars[180]));</v>
       </c>
     </row>
@@ -5887,26 +6003,26 @@
         <v>190</v>
       </c>
       <c r="H185" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>#define  VAR_BMS1_CELL2_MV  181</v>
       </c>
       <c r="I185" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v>public const byte VAR_BMS1_CELL2_MV = 181;</v>
       </c>
       <c r="J185">
         <v>1</v>
       </c>
       <c r="L185" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v>UpdateScanList(VAR_BMS1_CELL2_MV, 3000);</v>
       </c>
       <c r="M185" t="str">
-        <f t="shared" ref="M185:M239" si="30">CONCATENATE("VAR_SetVariable(",E185,", Cells[",J185,"].Voltage_mV", ", validflag);")</f>
+        <f t="shared" ref="M185:M239" si="35">CONCATENATE("VAR_SetVariable(",E185,", Cells[",J185,"].Voltage_mV", ", validflag);")</f>
         <v>VAR_SetVariable(VAR_BMS1_CELL2_MV, Cells[1].Voltage_mV, validflag);</v>
       </c>
       <c r="P185" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_BMS1_CELL2_MV", cJSON_CreateNumber(mVars[181]));</v>
       </c>
     </row>
@@ -5922,26 +6038,26 @@
         <v>191</v>
       </c>
       <c r="H186" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>#define  VAR_BMS1_CELL3_MV  182</v>
       </c>
       <c r="I186" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v>public const byte VAR_BMS1_CELL3_MV = 182;</v>
       </c>
       <c r="J186">
         <v>2</v>
       </c>
       <c r="L186" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v>UpdateScanList(VAR_BMS1_CELL3_MV, 3000);</v>
       </c>
       <c r="M186" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>VAR_SetVariable(VAR_BMS1_CELL3_MV, Cells[2].Voltage_mV, validflag);</v>
       </c>
       <c r="P186" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_BMS1_CELL3_MV", cJSON_CreateNumber(mVars[182]));</v>
       </c>
     </row>
@@ -5957,26 +6073,26 @@
         <v>192</v>
       </c>
       <c r="H187" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>#define  VAR_BMS1_CELL4_MV  183</v>
       </c>
       <c r="I187" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v>public const byte VAR_BMS1_CELL4_MV = 183;</v>
       </c>
       <c r="J187">
         <v>3</v>
       </c>
       <c r="L187" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v>UpdateScanList(VAR_BMS1_CELL4_MV, 3000);</v>
       </c>
       <c r="M187" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>VAR_SetVariable(VAR_BMS1_CELL4_MV, Cells[3].Voltage_mV, validflag);</v>
       </c>
       <c r="P187" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_BMS1_CELL4_MV", cJSON_CreateNumber(mVars[183]));</v>
       </c>
     </row>
@@ -5992,26 +6108,26 @@
         <v>193</v>
       </c>
       <c r="H188" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>#define  VAR_BMS1_CELL5_MV  184</v>
       </c>
       <c r="I188" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v>public const byte VAR_BMS1_CELL5_MV = 184;</v>
       </c>
       <c r="J188">
         <v>4</v>
       </c>
       <c r="L188" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v>UpdateScanList(VAR_BMS1_CELL5_MV, 3000);</v>
       </c>
       <c r="M188" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>VAR_SetVariable(VAR_BMS1_CELL5_MV, Cells[4].Voltage_mV, validflag);</v>
       </c>
       <c r="P188" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_BMS1_CELL5_MV", cJSON_CreateNumber(mVars[184]));</v>
       </c>
     </row>
@@ -6027,26 +6143,26 @@
         <v>194</v>
       </c>
       <c r="H189" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>#define  VAR_BMS1_CELL6_MV  185</v>
       </c>
       <c r="I189" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v>public const byte VAR_BMS1_CELL6_MV = 185;</v>
       </c>
       <c r="J189">
         <v>5</v>
       </c>
       <c r="L189" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v>UpdateScanList(VAR_BMS1_CELL6_MV, 3000);</v>
       </c>
       <c r="M189" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>VAR_SetVariable(VAR_BMS1_CELL6_MV, Cells[5].Voltage_mV, validflag);</v>
       </c>
       <c r="P189" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_BMS1_CELL6_MV", cJSON_CreateNumber(mVars[185]));</v>
       </c>
     </row>
@@ -6062,26 +6178,26 @@
         <v>195</v>
       </c>
       <c r="H190" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>#define  VAR_BMS1_CELL7_MV  186</v>
       </c>
       <c r="I190" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v>public const byte VAR_BMS1_CELL7_MV = 186;</v>
       </c>
       <c r="J190">
         <v>6</v>
       </c>
       <c r="L190" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v>UpdateScanList(VAR_BMS1_CELL7_MV, 3000);</v>
       </c>
       <c r="M190" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>VAR_SetVariable(VAR_BMS1_CELL7_MV, Cells[6].Voltage_mV, validflag);</v>
       </c>
       <c r="P190" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_BMS1_CELL7_MV", cJSON_CreateNumber(mVars[186]));</v>
       </c>
     </row>
@@ -6097,26 +6213,26 @@
         <v>196</v>
       </c>
       <c r="H191" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>#define  VAR_BMS1_CELL8_MV  187</v>
       </c>
       <c r="I191" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v>public const byte VAR_BMS1_CELL8_MV = 187;</v>
       </c>
       <c r="J191">
         <v>7</v>
       </c>
       <c r="L191" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v>UpdateScanList(VAR_BMS1_CELL8_MV, 3000);</v>
       </c>
       <c r="M191" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>VAR_SetVariable(VAR_BMS1_CELL8_MV, Cells[7].Voltage_mV, validflag);</v>
       </c>
       <c r="P191" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_BMS1_CELL8_MV", cJSON_CreateNumber(mVars[187]));</v>
       </c>
     </row>
@@ -6132,26 +6248,26 @@
         <v>197</v>
       </c>
       <c r="H192" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>#define  VAR_BMS1_CELL9_MV  188</v>
       </c>
       <c r="I192" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v>public const byte VAR_BMS1_CELL9_MV = 188;</v>
       </c>
       <c r="J192">
         <v>8</v>
       </c>
       <c r="L192" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v>UpdateScanList(VAR_BMS1_CELL9_MV, 3000);</v>
       </c>
       <c r="M192" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>VAR_SetVariable(VAR_BMS1_CELL9_MV, Cells[8].Voltage_mV, validflag);</v>
       </c>
       <c r="P192" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_BMS1_CELL9_MV", cJSON_CreateNumber(mVars[188]));</v>
       </c>
     </row>
@@ -6167,26 +6283,26 @@
         <v>198</v>
       </c>
       <c r="H193" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>#define  VAR_BMS1_CELL10_MV  189</v>
       </c>
       <c r="I193" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v>public const byte VAR_BMS1_CELL10_MV = 189;</v>
       </c>
       <c r="J193">
         <v>9</v>
       </c>
       <c r="L193" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v>UpdateScanList(VAR_BMS1_CELL10_MV, 3000);</v>
       </c>
       <c r="M193" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>VAR_SetVariable(VAR_BMS1_CELL10_MV, Cells[9].Voltage_mV, validflag);</v>
       </c>
       <c r="P193" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_BMS1_CELL10_MV", cJSON_CreateNumber(mVars[189]));</v>
       </c>
     </row>
@@ -6202,26 +6318,26 @@
         <v>199</v>
       </c>
       <c r="H194" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>#define  VAR_BMS1_CELL11_MV  190</v>
       </c>
       <c r="I194" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v>public const byte VAR_BMS1_CELL11_MV = 190;</v>
       </c>
       <c r="J194">
         <v>10</v>
       </c>
       <c r="L194" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v>UpdateScanList(VAR_BMS1_CELL11_MV, 3000);</v>
       </c>
       <c r="M194" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>VAR_SetVariable(VAR_BMS1_CELL11_MV, Cells[10].Voltage_mV, validflag);</v>
       </c>
       <c r="P194" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_BMS1_CELL11_MV", cJSON_CreateNumber(mVars[190]));</v>
       </c>
     </row>
@@ -6237,26 +6353,26 @@
         <v>200</v>
       </c>
       <c r="H195" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>#define  VAR_BMS1_CELL12_MV  191</v>
       </c>
       <c r="I195" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v>public const byte VAR_BMS1_CELL12_MV = 191;</v>
       </c>
       <c r="J195">
         <v>11</v>
       </c>
       <c r="L195" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v>UpdateScanList(VAR_BMS1_CELL12_MV, 3000);</v>
       </c>
       <c r="M195" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>VAR_SetVariable(VAR_BMS1_CELL12_MV, Cells[11].Voltage_mV, validflag);</v>
       </c>
       <c r="P195" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_BMS1_CELL12_MV", cJSON_CreateNumber(mVars[191]));</v>
       </c>
     </row>
@@ -6272,26 +6388,26 @@
         <v>201</v>
       </c>
       <c r="H196" t="str">
-        <f t="shared" ref="H196:H255" si="31">CONCATENATE("#define  ",E196,"  ",C196)</f>
+        <f t="shared" ref="H196:H255" si="36">CONCATENATE("#define  ",E196,"  ",C196)</f>
         <v>#define  VAR_BMS1_CELL13_MV  192</v>
       </c>
       <c r="I196" t="str">
-        <f t="shared" ref="I196:I255" si="32">CONCATENATE("public const byte ",E196," = ",C196,";")</f>
+        <f t="shared" ref="I196:I255" si="37">CONCATENATE("public const byte ",E196," = ",C196,";")</f>
         <v>public const byte VAR_BMS1_CELL13_MV = 192;</v>
       </c>
       <c r="J196">
         <v>12</v>
       </c>
       <c r="L196" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v>UpdateScanList(VAR_BMS1_CELL13_MV, 3000);</v>
       </c>
       <c r="M196" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>VAR_SetVariable(VAR_BMS1_CELL13_MV, Cells[12].Voltage_mV, validflag);</v>
       </c>
       <c r="P196" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_BMS1_CELL13_MV", cJSON_CreateNumber(mVars[192]));</v>
       </c>
     </row>
@@ -6300,33 +6416,33 @@
         <v>193</v>
       </c>
       <c r="D197" s="1" t="str">
-        <f t="shared" ref="D197:D259" si="33">DEC2HEX(C197,2)</f>
+        <f t="shared" ref="D197:D259" si="38">DEC2HEX(C197,2)</f>
         <v>C1</v>
       </c>
       <c r="E197" t="s">
         <v>202</v>
       </c>
       <c r="H197" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>#define  VAR_BMS1_CELL14_MV  193</v>
       </c>
       <c r="I197" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>public const byte VAR_BMS1_CELL14_MV = 193;</v>
       </c>
       <c r="J197">
         <v>13</v>
       </c>
       <c r="L197" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v>UpdateScanList(VAR_BMS1_CELL14_MV, 3000);</v>
       </c>
       <c r="M197" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>VAR_SetVariable(VAR_BMS1_CELL14_MV, Cells[13].Voltage_mV, validflag);</v>
       </c>
       <c r="P197" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_BMS1_CELL14_MV", cJSON_CreateNumber(mVars[193]));</v>
       </c>
     </row>
@@ -6335,33 +6451,33 @@
         <v>194</v>
       </c>
       <c r="D198" s="1" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>C2</v>
       </c>
       <c r="E198" t="s">
         <v>203</v>
       </c>
       <c r="H198" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>#define  VAR_BMS1_CELL15_MV  194</v>
       </c>
       <c r="I198" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>public const byte VAR_BMS1_CELL15_MV = 194;</v>
       </c>
       <c r="J198">
         <v>14</v>
       </c>
       <c r="L198" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v>UpdateScanList(VAR_BMS1_CELL15_MV, 3000);</v>
       </c>
       <c r="M198" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>VAR_SetVariable(VAR_BMS1_CELL15_MV, Cells[14].Voltage_mV, validflag);</v>
       </c>
       <c r="P198" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_BMS1_CELL15_MV", cJSON_CreateNumber(mVars[194]));</v>
       </c>
     </row>
@@ -6370,33 +6486,33 @@
         <v>195</v>
       </c>
       <c r="D199" s="1" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>C3</v>
       </c>
       <c r="E199" t="s">
         <v>204</v>
       </c>
       <c r="H199" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>#define  VAR_BMS1_CELL16_MV  195</v>
       </c>
       <c r="I199" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>public const byte VAR_BMS1_CELL16_MV = 195;</v>
       </c>
       <c r="J199">
         <v>15</v>
       </c>
       <c r="L199" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v>UpdateScanList(VAR_BMS1_CELL16_MV, 3000);</v>
       </c>
       <c r="M199" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>VAR_SetVariable(VAR_BMS1_CELL16_MV, Cells[15].Voltage_mV, validflag);</v>
       </c>
       <c r="P199" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_BMS1_CELL16_MV", cJSON_CreateNumber(mVars[195]));</v>
       </c>
     </row>
@@ -6405,25 +6521,25 @@
         <v>196</v>
       </c>
       <c r="D200" s="1" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>C4</v>
       </c>
       <c r="E200" t="s">
         <v>221</v>
       </c>
       <c r="H200" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>#define  VAR_BMS1_CELL1_C  196</v>
       </c>
       <c r="I200" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>public const byte VAR_BMS1_CELL1_C = 196;</v>
       </c>
       <c r="J200">
         <v>0</v>
       </c>
       <c r="L200" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v>UpdateScanList(VAR_BMS1_CELL1_C, 3000);</v>
       </c>
       <c r="M200" t="str">
@@ -6431,7 +6547,7 @@
         <v>VAR_SetVariable(VAR_BMS1_CELL1_C, Cells[0].Temp_C, validflag);</v>
       </c>
       <c r="P200" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_BMS1_CELL1_C", cJSON_CreateNumber(mVars[196]));</v>
       </c>
     </row>
@@ -6440,33 +6556,33 @@
         <v>197</v>
       </c>
       <c r="D201" s="1" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>C5</v>
       </c>
       <c r="E201" t="s">
         <v>222</v>
       </c>
       <c r="H201" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>#define  VAR_BMS1_CELL2_C  197</v>
       </c>
       <c r="I201" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>public const byte VAR_BMS1_CELL2_C = 197;</v>
       </c>
       <c r="J201">
         <v>1</v>
       </c>
       <c r="L201" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v>UpdateScanList(VAR_BMS1_CELL2_C, 3000);</v>
       </c>
       <c r="M201" t="str">
-        <f t="shared" ref="M201:M215" si="34">CONCATENATE("VAR_SetVariable(",E201,", Cells[",J201,"].Temp_C", ", validflag);")</f>
+        <f t="shared" ref="M201:M215" si="39">CONCATENATE("VAR_SetVariable(",E201,", Cells[",J201,"].Temp_C", ", validflag);")</f>
         <v>VAR_SetVariable(VAR_BMS1_CELL2_C, Cells[1].Temp_C, validflag);</v>
       </c>
       <c r="P201" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_BMS1_CELL2_C", cJSON_CreateNumber(mVars[197]));</v>
       </c>
     </row>
@@ -6475,33 +6591,33 @@
         <v>198</v>
       </c>
       <c r="D202" s="1" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>C6</v>
       </c>
       <c r="E202" t="s">
         <v>223</v>
       </c>
       <c r="H202" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>#define  VAR_BMS1_CELL3_C  198</v>
       </c>
       <c r="I202" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>public const byte VAR_BMS1_CELL3_C = 198;</v>
       </c>
       <c r="J202">
         <v>2</v>
       </c>
       <c r="L202" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v>UpdateScanList(VAR_BMS1_CELL3_C, 3000);</v>
       </c>
       <c r="M202" t="str">
+        <f t="shared" si="39"/>
+        <v>VAR_SetVariable(VAR_BMS1_CELL3_C, Cells[2].Temp_C, validflag);</v>
+      </c>
+      <c r="P202" t="str">
         <f t="shared" si="34"/>
-        <v>VAR_SetVariable(VAR_BMS1_CELL3_C, Cells[2].Temp_C, validflag);</v>
-      </c>
-      <c r="P202" t="str">
-        <f t="shared" si="29"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_BMS1_CELL3_C", cJSON_CreateNumber(mVars[198]));</v>
       </c>
     </row>
@@ -6510,33 +6626,33 @@
         <v>199</v>
       </c>
       <c r="D203" s="1" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>C7</v>
       </c>
       <c r="E203" t="s">
         <v>224</v>
       </c>
       <c r="H203" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>#define  VAR_BMS1_CELL4_C  199</v>
       </c>
       <c r="I203" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>public const byte VAR_BMS1_CELL4_C = 199;</v>
       </c>
       <c r="J203">
         <v>3</v>
       </c>
       <c r="L203" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v>UpdateScanList(VAR_BMS1_CELL4_C, 3000);</v>
       </c>
       <c r="M203" t="str">
+        <f t="shared" si="39"/>
+        <v>VAR_SetVariable(VAR_BMS1_CELL4_C, Cells[3].Temp_C, validflag);</v>
+      </c>
+      <c r="P203" t="str">
         <f t="shared" si="34"/>
-        <v>VAR_SetVariable(VAR_BMS1_CELL4_C, Cells[3].Temp_C, validflag);</v>
-      </c>
-      <c r="P203" t="str">
-        <f t="shared" si="29"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_BMS1_CELL4_C", cJSON_CreateNumber(mVars[199]));</v>
       </c>
     </row>
@@ -6545,33 +6661,33 @@
         <v>200</v>
       </c>
       <c r="D204" s="1" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>C8</v>
       </c>
       <c r="E204" t="s">
         <v>225</v>
       </c>
       <c r="H204" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>#define  VAR_BMS1_CELL5_C  200</v>
       </c>
       <c r="I204" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>public const byte VAR_BMS1_CELL5_C = 200;</v>
       </c>
       <c r="J204">
         <v>4</v>
       </c>
       <c r="L204" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v>UpdateScanList(VAR_BMS1_CELL5_C, 3000);</v>
       </c>
       <c r="M204" t="str">
+        <f t="shared" si="39"/>
+        <v>VAR_SetVariable(VAR_BMS1_CELL5_C, Cells[4].Temp_C, validflag);</v>
+      </c>
+      <c r="P204" t="str">
         <f t="shared" si="34"/>
-        <v>VAR_SetVariable(VAR_BMS1_CELL5_C, Cells[4].Temp_C, validflag);</v>
-      </c>
-      <c r="P204" t="str">
-        <f t="shared" si="29"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_BMS1_CELL5_C", cJSON_CreateNumber(mVars[200]));</v>
       </c>
     </row>
@@ -6580,33 +6696,33 @@
         <v>201</v>
       </c>
       <c r="D205" s="1" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>C9</v>
       </c>
       <c r="E205" t="s">
         <v>226</v>
       </c>
       <c r="H205" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>#define  VAR_BMS1_CELL6_C  201</v>
       </c>
       <c r="I205" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>public const byte VAR_BMS1_CELL6_C = 201;</v>
       </c>
       <c r="J205">
         <v>5</v>
       </c>
       <c r="L205" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v>UpdateScanList(VAR_BMS1_CELL6_C, 3000);</v>
       </c>
       <c r="M205" t="str">
+        <f t="shared" si="39"/>
+        <v>VAR_SetVariable(VAR_BMS1_CELL6_C, Cells[5].Temp_C, validflag);</v>
+      </c>
+      <c r="P205" t="str">
         <f t="shared" si="34"/>
-        <v>VAR_SetVariable(VAR_BMS1_CELL6_C, Cells[5].Temp_C, validflag);</v>
-      </c>
-      <c r="P205" t="str">
-        <f t="shared" si="29"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_BMS1_CELL6_C", cJSON_CreateNumber(mVars[201]));</v>
       </c>
     </row>
@@ -6615,33 +6731,33 @@
         <v>202</v>
       </c>
       <c r="D206" s="1" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>CA</v>
       </c>
       <c r="E206" t="s">
         <v>227</v>
       </c>
       <c r="H206" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>#define  VAR_BMS1_CELL7_C  202</v>
       </c>
       <c r="I206" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>public const byte VAR_BMS1_CELL7_C = 202;</v>
       </c>
       <c r="J206">
         <v>6</v>
       </c>
       <c r="L206" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v>UpdateScanList(VAR_BMS1_CELL7_C, 3000);</v>
       </c>
       <c r="M206" t="str">
+        <f t="shared" si="39"/>
+        <v>VAR_SetVariable(VAR_BMS1_CELL7_C, Cells[6].Temp_C, validflag);</v>
+      </c>
+      <c r="P206" t="str">
         <f t="shared" si="34"/>
-        <v>VAR_SetVariable(VAR_BMS1_CELL7_C, Cells[6].Temp_C, validflag);</v>
-      </c>
-      <c r="P206" t="str">
-        <f t="shared" si="29"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_BMS1_CELL7_C", cJSON_CreateNumber(mVars[202]));</v>
       </c>
     </row>
@@ -6650,33 +6766,33 @@
         <v>203</v>
       </c>
       <c r="D207" s="1" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>CB</v>
       </c>
       <c r="E207" t="s">
         <v>228</v>
       </c>
       <c r="H207" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>#define  VAR_BMS1_CELL8_C  203</v>
       </c>
       <c r="I207" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>public const byte VAR_BMS1_CELL8_C = 203;</v>
       </c>
       <c r="J207">
         <v>7</v>
       </c>
       <c r="L207" t="str">
-        <f t="shared" ref="L207:L255" si="35">CONCATENATE("UpdateScanList(",E207, ", 3000);")</f>
+        <f t="shared" ref="L207:L255" si="40">CONCATENATE("UpdateScanList(",E207, ", 3000);")</f>
         <v>UpdateScanList(VAR_BMS1_CELL8_C, 3000);</v>
       </c>
       <c r="M207" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>VAR_SetVariable(VAR_BMS1_CELL8_C, Cells[7].Temp_C, validflag);</v>
       </c>
       <c r="P207" t="str">
-        <f t="shared" ref="P207:P255" si="36">CONCATENATE("cJSON_AddItemToObject(Uha, ","""",E207,"""",", cJSON_CreateNumber(mVars[",C207,"]));")</f>
+        <f t="shared" ref="P207:P255" si="41">CONCATENATE("cJSON_AddItemToObject(Uha, ","""",E207,"""",", cJSON_CreateNumber(mVars[",C207,"]));")</f>
         <v>cJSON_AddItemToObject(Uha, "VAR_BMS1_CELL8_C", cJSON_CreateNumber(mVars[203]));</v>
       </c>
     </row>
@@ -6685,33 +6801,33 @@
         <v>204</v>
       </c>
       <c r="D208" s="1" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>CC</v>
       </c>
       <c r="E208" t="s">
         <v>229</v>
       </c>
       <c r="H208" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>#define  VAR_BMS1_CELL9_C  204</v>
       </c>
       <c r="I208" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>public const byte VAR_BMS1_CELL9_C = 204;</v>
       </c>
       <c r="J208">
         <v>8</v>
       </c>
       <c r="L208" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>UpdateScanList(VAR_BMS1_CELL9_C, 3000);</v>
       </c>
       <c r="M208" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>VAR_SetVariable(VAR_BMS1_CELL9_C, Cells[8].Temp_C, validflag);</v>
       </c>
       <c r="P208" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_BMS1_CELL9_C", cJSON_CreateNumber(mVars[204]));</v>
       </c>
     </row>
@@ -6720,33 +6836,33 @@
         <v>205</v>
       </c>
       <c r="D209" s="1" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>CD</v>
       </c>
       <c r="E209" t="s">
         <v>230</v>
       </c>
       <c r="H209" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>#define  VAR_BMS1_CELL10_C  205</v>
       </c>
       <c r="I209" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>public const byte VAR_BMS1_CELL10_C = 205;</v>
       </c>
       <c r="J209">
         <v>9</v>
       </c>
       <c r="L209" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>UpdateScanList(VAR_BMS1_CELL10_C, 3000);</v>
       </c>
       <c r="M209" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>VAR_SetVariable(VAR_BMS1_CELL10_C, Cells[9].Temp_C, validflag);</v>
       </c>
       <c r="P209" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_BMS1_CELL10_C", cJSON_CreateNumber(mVars[205]));</v>
       </c>
     </row>
@@ -6755,33 +6871,33 @@
         <v>206</v>
       </c>
       <c r="D210" s="1" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>CE</v>
       </c>
       <c r="E210" t="s">
         <v>231</v>
       </c>
       <c r="H210" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>#define  VAR_BMS1_CELL11_C  206</v>
       </c>
       <c r="I210" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>public const byte VAR_BMS1_CELL11_C = 206;</v>
       </c>
       <c r="J210">
         <v>10</v>
       </c>
       <c r="L210" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>UpdateScanList(VAR_BMS1_CELL11_C, 3000);</v>
       </c>
       <c r="M210" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>VAR_SetVariable(VAR_BMS1_CELL11_C, Cells[10].Temp_C, validflag);</v>
       </c>
       <c r="P210" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_BMS1_CELL11_C", cJSON_CreateNumber(mVars[206]));</v>
       </c>
     </row>
@@ -6790,33 +6906,33 @@
         <v>207</v>
       </c>
       <c r="D211" s="1" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>CF</v>
       </c>
       <c r="E211" t="s">
         <v>232</v>
       </c>
       <c r="H211" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>#define  VAR_BMS1_CELL12_C  207</v>
       </c>
       <c r="I211" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>public const byte VAR_BMS1_CELL12_C = 207;</v>
       </c>
       <c r="J211">
         <v>11</v>
       </c>
       <c r="L211" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>UpdateScanList(VAR_BMS1_CELL12_C, 3000);</v>
       </c>
       <c r="M211" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>VAR_SetVariable(VAR_BMS1_CELL12_C, Cells[11].Temp_C, validflag);</v>
       </c>
       <c r="P211" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_BMS1_CELL12_C", cJSON_CreateNumber(mVars[207]));</v>
       </c>
     </row>
@@ -6825,33 +6941,33 @@
         <v>208</v>
       </c>
       <c r="D212" s="1" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>D0</v>
       </c>
       <c r="E212" t="s">
         <v>233</v>
       </c>
       <c r="H212" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>#define  VAR_BMS1_CELL13_C  208</v>
       </c>
       <c r="I212" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>public const byte VAR_BMS1_CELL13_C = 208;</v>
       </c>
       <c r="J212">
         <v>12</v>
       </c>
       <c r="L212" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>UpdateScanList(VAR_BMS1_CELL13_C, 3000);</v>
       </c>
       <c r="M212" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>VAR_SetVariable(VAR_BMS1_CELL13_C, Cells[12].Temp_C, validflag);</v>
       </c>
       <c r="P212" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_BMS1_CELL13_C", cJSON_CreateNumber(mVars[208]));</v>
       </c>
     </row>
@@ -6860,33 +6976,33 @@
         <v>209</v>
       </c>
       <c r="D213" s="1" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>D1</v>
       </c>
       <c r="E213" t="s">
         <v>234</v>
       </c>
       <c r="H213" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>#define  VAR_BMS1_CELL14_C  209</v>
       </c>
       <c r="I213" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>public const byte VAR_BMS1_CELL14_C = 209;</v>
       </c>
       <c r="J213">
         <v>13</v>
       </c>
       <c r="L213" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>UpdateScanList(VAR_BMS1_CELL14_C, 3000);</v>
       </c>
       <c r="M213" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>VAR_SetVariable(VAR_BMS1_CELL14_C, Cells[13].Temp_C, validflag);</v>
       </c>
       <c r="P213" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_BMS1_CELL14_C", cJSON_CreateNumber(mVars[209]));</v>
       </c>
     </row>
@@ -6895,33 +7011,33 @@
         <v>210</v>
       </c>
       <c r="D214" s="1" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>D2</v>
       </c>
       <c r="E214" t="s">
         <v>235</v>
       </c>
       <c r="H214" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>#define  VAR_BMS1_CELL15_C  210</v>
       </c>
       <c r="I214" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>public const byte VAR_BMS1_CELL15_C = 210;</v>
       </c>
       <c r="J214">
         <v>14</v>
       </c>
       <c r="L214" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>UpdateScanList(VAR_BMS1_CELL15_C, 3000);</v>
       </c>
       <c r="M214" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>VAR_SetVariable(VAR_BMS1_CELL15_C, Cells[14].Temp_C, validflag);</v>
       </c>
       <c r="P214" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_BMS1_CELL15_C", cJSON_CreateNumber(mVars[210]));</v>
       </c>
     </row>
@@ -6930,33 +7046,33 @@
         <v>211</v>
       </c>
       <c r="D215" s="1" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>D3</v>
       </c>
       <c r="E215" t="s">
         <v>236</v>
       </c>
       <c r="H215" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>#define  VAR_BMS1_CELL16_C  211</v>
       </c>
       <c r="I215" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>public const byte VAR_BMS1_CELL16_C = 211;</v>
       </c>
       <c r="J215">
         <v>15</v>
       </c>
       <c r="L215" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>UpdateScanList(VAR_BMS1_CELL16_C, 3000);</v>
       </c>
       <c r="M215" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>VAR_SetVariable(VAR_BMS1_CELL16_C, Cells[15].Temp_C, validflag);</v>
       </c>
       <c r="P215" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_BMS1_CELL16_C", cJSON_CreateNumber(mVars[211]));</v>
       </c>
     </row>
@@ -6965,7 +7081,7 @@
         <v>212</v>
       </c>
       <c r="D216" s="1" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>D4</v>
       </c>
     </row>
@@ -6974,7 +7090,7 @@
         <v>213</v>
       </c>
       <c r="D217" s="1" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>D5</v>
       </c>
     </row>
@@ -6983,7 +7099,7 @@
         <v>214</v>
       </c>
       <c r="D218" s="1" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>D6</v>
       </c>
     </row>
@@ -6992,7 +7108,7 @@
         <v>215</v>
       </c>
       <c r="D219" s="1" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>D7</v>
       </c>
     </row>
@@ -7001,7 +7117,7 @@
         <v>216</v>
       </c>
       <c r="D220" s="1" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>D8</v>
       </c>
     </row>
@@ -7010,7 +7126,7 @@
         <v>217</v>
       </c>
       <c r="D221" s="1" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>D9</v>
       </c>
     </row>
@@ -7019,7 +7135,7 @@
         <v>218</v>
       </c>
       <c r="D222" s="1" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>DA</v>
       </c>
     </row>
@@ -7028,7 +7144,7 @@
         <v>219</v>
       </c>
       <c r="D223" s="1" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>DB</v>
       </c>
     </row>
@@ -7037,33 +7153,33 @@
         <v>220</v>
       </c>
       <c r="D224" s="1" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>DC</v>
       </c>
       <c r="E224" t="s">
         <v>205</v>
       </c>
       <c r="H224" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>#define  VAR_BMS2_CELL1_MV  220</v>
       </c>
       <c r="I224" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>public const byte VAR_BMS2_CELL1_MV = 220;</v>
       </c>
       <c r="J224">
         <v>0</v>
       </c>
       <c r="L224" t="str">
+        <f t="shared" si="40"/>
+        <v>UpdateScanList(VAR_BMS2_CELL1_MV, 3000);</v>
+      </c>
+      <c r="M224" t="str">
         <f t="shared" si="35"/>
-        <v>UpdateScanList(VAR_BMS2_CELL1_MV, 3000);</v>
-      </c>
-      <c r="M224" t="str">
-        <f t="shared" si="30"/>
         <v>VAR_SetVariable(VAR_BMS2_CELL1_MV, Cells[0].Voltage_mV, validflag);</v>
       </c>
       <c r="P224" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_BMS2_CELL1_MV", cJSON_CreateNumber(mVars[220]));</v>
       </c>
     </row>
@@ -7072,33 +7188,33 @@
         <v>221</v>
       </c>
       <c r="D225" s="1" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>DD</v>
       </c>
       <c r="E225" t="s">
         <v>206</v>
       </c>
       <c r="H225" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>#define  VAR_BMS2_CELL2_MV  221</v>
       </c>
       <c r="I225" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>public const byte VAR_BMS2_CELL2_MV = 221;</v>
       </c>
       <c r="J225">
         <v>1</v>
       </c>
       <c r="L225" t="str">
+        <f t="shared" si="40"/>
+        <v>UpdateScanList(VAR_BMS2_CELL2_MV, 3000);</v>
+      </c>
+      <c r="M225" t="str">
         <f t="shared" si="35"/>
-        <v>UpdateScanList(VAR_BMS2_CELL2_MV, 3000);</v>
-      </c>
-      <c r="M225" t="str">
-        <f t="shared" si="30"/>
         <v>VAR_SetVariable(VAR_BMS2_CELL2_MV, Cells[1].Voltage_mV, validflag);</v>
       </c>
       <c r="P225" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_BMS2_CELL2_MV", cJSON_CreateNumber(mVars[221]));</v>
       </c>
     </row>
@@ -7107,33 +7223,33 @@
         <v>222</v>
       </c>
       <c r="D226" s="1" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>DE</v>
       </c>
       <c r="E226" t="s">
         <v>207</v>
       </c>
       <c r="H226" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>#define  VAR_BMS2_CELL3_MV  222</v>
       </c>
       <c r="I226" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>public const byte VAR_BMS2_CELL3_MV = 222;</v>
       </c>
       <c r="J226">
         <v>2</v>
       </c>
       <c r="L226" t="str">
+        <f t="shared" si="40"/>
+        <v>UpdateScanList(VAR_BMS2_CELL3_MV, 3000);</v>
+      </c>
+      <c r="M226" t="str">
         <f t="shared" si="35"/>
-        <v>UpdateScanList(VAR_BMS2_CELL3_MV, 3000);</v>
-      </c>
-      <c r="M226" t="str">
-        <f t="shared" si="30"/>
         <v>VAR_SetVariable(VAR_BMS2_CELL3_MV, Cells[2].Voltage_mV, validflag);</v>
       </c>
       <c r="P226" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_BMS2_CELL3_MV", cJSON_CreateNumber(mVars[222]));</v>
       </c>
     </row>
@@ -7142,33 +7258,33 @@
         <v>223</v>
       </c>
       <c r="D227" s="1" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>DF</v>
       </c>
       <c r="E227" t="s">
         <v>208</v>
       </c>
       <c r="H227" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>#define  VAR_BMS2_CELL4_MV  223</v>
       </c>
       <c r="I227" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>public const byte VAR_BMS2_CELL4_MV = 223;</v>
       </c>
       <c r="J227">
         <v>3</v>
       </c>
       <c r="L227" t="str">
+        <f t="shared" si="40"/>
+        <v>UpdateScanList(VAR_BMS2_CELL4_MV, 3000);</v>
+      </c>
+      <c r="M227" t="str">
         <f t="shared" si="35"/>
-        <v>UpdateScanList(VAR_BMS2_CELL4_MV, 3000);</v>
-      </c>
-      <c r="M227" t="str">
-        <f t="shared" si="30"/>
         <v>VAR_SetVariable(VAR_BMS2_CELL4_MV, Cells[3].Voltage_mV, validflag);</v>
       </c>
       <c r="P227" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_BMS2_CELL4_MV", cJSON_CreateNumber(mVars[223]));</v>
       </c>
     </row>
@@ -7177,33 +7293,33 @@
         <v>224</v>
       </c>
       <c r="D228" s="1" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>E0</v>
       </c>
       <c r="E228" t="s">
         <v>209</v>
       </c>
       <c r="H228" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>#define  VAR_BMS2_CELL5_MV  224</v>
       </c>
       <c r="I228" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>public const byte VAR_BMS2_CELL5_MV = 224;</v>
       </c>
       <c r="J228">
         <v>4</v>
       </c>
       <c r="L228" t="str">
+        <f t="shared" si="40"/>
+        <v>UpdateScanList(VAR_BMS2_CELL5_MV, 3000);</v>
+      </c>
+      <c r="M228" t="str">
         <f t="shared" si="35"/>
-        <v>UpdateScanList(VAR_BMS2_CELL5_MV, 3000);</v>
-      </c>
-      <c r="M228" t="str">
-        <f t="shared" si="30"/>
         <v>VAR_SetVariable(VAR_BMS2_CELL5_MV, Cells[4].Voltage_mV, validflag);</v>
       </c>
       <c r="P228" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_BMS2_CELL5_MV", cJSON_CreateNumber(mVars[224]));</v>
       </c>
     </row>
@@ -7212,33 +7328,33 @@
         <v>225</v>
       </c>
       <c r="D229" s="1" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>E1</v>
       </c>
       <c r="E229" t="s">
         <v>210</v>
       </c>
       <c r="H229" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>#define  VAR_BMS2_CELL6_MV  225</v>
       </c>
       <c r="I229" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>public const byte VAR_BMS2_CELL6_MV = 225;</v>
       </c>
       <c r="J229">
         <v>5</v>
       </c>
       <c r="L229" t="str">
+        <f t="shared" si="40"/>
+        <v>UpdateScanList(VAR_BMS2_CELL6_MV, 3000);</v>
+      </c>
+      <c r="M229" t="str">
         <f t="shared" si="35"/>
-        <v>UpdateScanList(VAR_BMS2_CELL6_MV, 3000);</v>
-      </c>
-      <c r="M229" t="str">
-        <f t="shared" si="30"/>
         <v>VAR_SetVariable(VAR_BMS2_CELL6_MV, Cells[5].Voltage_mV, validflag);</v>
       </c>
       <c r="P229" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_BMS2_CELL6_MV", cJSON_CreateNumber(mVars[225]));</v>
       </c>
     </row>
@@ -7247,33 +7363,33 @@
         <v>226</v>
       </c>
       <c r="D230" s="1" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>E2</v>
       </c>
       <c r="E230" t="s">
         <v>211</v>
       </c>
       <c r="H230" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>#define  VAR_BMS2_CELL7_MV  226</v>
       </c>
       <c r="I230" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>public const byte VAR_BMS2_CELL7_MV = 226;</v>
       </c>
       <c r="J230">
         <v>6</v>
       </c>
       <c r="L230" t="str">
+        <f t="shared" si="40"/>
+        <v>UpdateScanList(VAR_BMS2_CELL7_MV, 3000);</v>
+      </c>
+      <c r="M230" t="str">
         <f t="shared" si="35"/>
-        <v>UpdateScanList(VAR_BMS2_CELL7_MV, 3000);</v>
-      </c>
-      <c r="M230" t="str">
-        <f t="shared" si="30"/>
         <v>VAR_SetVariable(VAR_BMS2_CELL7_MV, Cells[6].Voltage_mV, validflag);</v>
       </c>
       <c r="P230" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_BMS2_CELL7_MV", cJSON_CreateNumber(mVars[226]));</v>
       </c>
     </row>
@@ -7282,33 +7398,33 @@
         <v>227</v>
       </c>
       <c r="D231" s="1" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>E3</v>
       </c>
       <c r="E231" t="s">
         <v>212</v>
       </c>
       <c r="H231" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>#define  VAR_BMS2_CELL8_MV  227</v>
       </c>
       <c r="I231" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>public const byte VAR_BMS2_CELL8_MV = 227;</v>
       </c>
       <c r="J231">
         <v>7</v>
       </c>
       <c r="L231" t="str">
+        <f t="shared" si="40"/>
+        <v>UpdateScanList(VAR_BMS2_CELL8_MV, 3000);</v>
+      </c>
+      <c r="M231" t="str">
         <f t="shared" si="35"/>
-        <v>UpdateScanList(VAR_BMS2_CELL8_MV, 3000);</v>
-      </c>
-      <c r="M231" t="str">
-        <f t="shared" si="30"/>
         <v>VAR_SetVariable(VAR_BMS2_CELL8_MV, Cells[7].Voltage_mV, validflag);</v>
       </c>
       <c r="P231" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_BMS2_CELL8_MV", cJSON_CreateNumber(mVars[227]));</v>
       </c>
     </row>
@@ -7317,33 +7433,33 @@
         <v>228</v>
       </c>
       <c r="D232" s="1" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>E4</v>
       </c>
       <c r="E232" t="s">
         <v>213</v>
       </c>
       <c r="H232" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>#define  VAR_BMS2_CELL9_MV  228</v>
       </c>
       <c r="I232" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>public const byte VAR_BMS2_CELL9_MV = 228;</v>
       </c>
       <c r="J232">
         <v>8</v>
       </c>
       <c r="L232" t="str">
+        <f t="shared" si="40"/>
+        <v>UpdateScanList(VAR_BMS2_CELL9_MV, 3000);</v>
+      </c>
+      <c r="M232" t="str">
         <f t="shared" si="35"/>
-        <v>UpdateScanList(VAR_BMS2_CELL9_MV, 3000);</v>
-      </c>
-      <c r="M232" t="str">
-        <f t="shared" si="30"/>
         <v>VAR_SetVariable(VAR_BMS2_CELL9_MV, Cells[8].Voltage_mV, validflag);</v>
       </c>
       <c r="P232" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_BMS2_CELL9_MV", cJSON_CreateNumber(mVars[228]));</v>
       </c>
     </row>
@@ -7352,33 +7468,33 @@
         <v>229</v>
       </c>
       <c r="D233" s="1" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>E5</v>
       </c>
       <c r="E233" t="s">
         <v>214</v>
       </c>
       <c r="H233" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>#define  VAR_BMS2_CELL10_MV  229</v>
       </c>
       <c r="I233" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>public const byte VAR_BMS2_CELL10_MV = 229;</v>
       </c>
       <c r="J233">
         <v>9</v>
       </c>
       <c r="L233" t="str">
+        <f t="shared" si="40"/>
+        <v>UpdateScanList(VAR_BMS2_CELL10_MV, 3000);</v>
+      </c>
+      <c r="M233" t="str">
         <f t="shared" si="35"/>
-        <v>UpdateScanList(VAR_BMS2_CELL10_MV, 3000);</v>
-      </c>
-      <c r="M233" t="str">
-        <f t="shared" si="30"/>
         <v>VAR_SetVariable(VAR_BMS2_CELL10_MV, Cells[9].Voltage_mV, validflag);</v>
       </c>
       <c r="P233" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_BMS2_CELL10_MV", cJSON_CreateNumber(mVars[229]));</v>
       </c>
     </row>
@@ -7387,33 +7503,33 @@
         <v>230</v>
       </c>
       <c r="D234" s="1" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>E6</v>
       </c>
       <c r="E234" t="s">
         <v>215</v>
       </c>
       <c r="H234" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>#define  VAR_BMS2_CELL11_MV  230</v>
       </c>
       <c r="I234" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>public const byte VAR_BMS2_CELL11_MV = 230;</v>
       </c>
       <c r="J234">
         <v>10</v>
       </c>
       <c r="L234" t="str">
+        <f t="shared" si="40"/>
+        <v>UpdateScanList(VAR_BMS2_CELL11_MV, 3000);</v>
+      </c>
+      <c r="M234" t="str">
         <f t="shared" si="35"/>
-        <v>UpdateScanList(VAR_BMS2_CELL11_MV, 3000);</v>
-      </c>
-      <c r="M234" t="str">
-        <f t="shared" si="30"/>
         <v>VAR_SetVariable(VAR_BMS2_CELL11_MV, Cells[10].Voltage_mV, validflag);</v>
       </c>
       <c r="P234" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_BMS2_CELL11_MV", cJSON_CreateNumber(mVars[230]));</v>
       </c>
     </row>
@@ -7422,33 +7538,33 @@
         <v>231</v>
       </c>
       <c r="D235" s="1" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>E7</v>
       </c>
       <c r="E235" t="s">
         <v>216</v>
       </c>
       <c r="H235" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>#define  VAR_BMS2_CELL12_MV  231</v>
       </c>
       <c r="I235" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>public const byte VAR_BMS2_CELL12_MV = 231;</v>
       </c>
       <c r="J235">
         <v>11</v>
       </c>
       <c r="L235" t="str">
+        <f t="shared" si="40"/>
+        <v>UpdateScanList(VAR_BMS2_CELL12_MV, 3000);</v>
+      </c>
+      <c r="M235" t="str">
         <f t="shared" si="35"/>
-        <v>UpdateScanList(VAR_BMS2_CELL12_MV, 3000);</v>
-      </c>
-      <c r="M235" t="str">
-        <f t="shared" si="30"/>
         <v>VAR_SetVariable(VAR_BMS2_CELL12_MV, Cells[11].Voltage_mV, validflag);</v>
       </c>
       <c r="P235" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_BMS2_CELL12_MV", cJSON_CreateNumber(mVars[231]));</v>
       </c>
     </row>
@@ -7457,33 +7573,33 @@
         <v>232</v>
       </c>
       <c r="D236" s="1" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>E8</v>
       </c>
       <c r="E236" t="s">
         <v>217</v>
       </c>
       <c r="H236" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>#define  VAR_BMS2_CELL13_MV  232</v>
       </c>
       <c r="I236" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>public const byte VAR_BMS2_CELL13_MV = 232;</v>
       </c>
       <c r="J236">
         <v>12</v>
       </c>
       <c r="L236" t="str">
+        <f t="shared" si="40"/>
+        <v>UpdateScanList(VAR_BMS2_CELL13_MV, 3000);</v>
+      </c>
+      <c r="M236" t="str">
         <f t="shared" si="35"/>
-        <v>UpdateScanList(VAR_BMS2_CELL13_MV, 3000);</v>
-      </c>
-      <c r="M236" t="str">
-        <f t="shared" si="30"/>
         <v>VAR_SetVariable(VAR_BMS2_CELL13_MV, Cells[12].Voltage_mV, validflag);</v>
       </c>
       <c r="P236" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_BMS2_CELL13_MV", cJSON_CreateNumber(mVars[232]));</v>
       </c>
     </row>
@@ -7492,33 +7608,33 @@
         <v>233</v>
       </c>
       <c r="D237" s="1" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>E9</v>
       </c>
       <c r="E237" t="s">
         <v>218</v>
       </c>
       <c r="H237" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>#define  VAR_BMS2_CELL14_MV  233</v>
       </c>
       <c r="I237" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>public const byte VAR_BMS2_CELL14_MV = 233;</v>
       </c>
       <c r="J237">
         <v>13</v>
       </c>
       <c r="L237" t="str">
+        <f t="shared" si="40"/>
+        <v>UpdateScanList(VAR_BMS2_CELL14_MV, 3000);</v>
+      </c>
+      <c r="M237" t="str">
         <f t="shared" si="35"/>
-        <v>UpdateScanList(VAR_BMS2_CELL14_MV, 3000);</v>
-      </c>
-      <c r="M237" t="str">
-        <f t="shared" si="30"/>
         <v>VAR_SetVariable(VAR_BMS2_CELL14_MV, Cells[13].Voltage_mV, validflag);</v>
       </c>
       <c r="P237" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_BMS2_CELL14_MV", cJSON_CreateNumber(mVars[233]));</v>
       </c>
     </row>
@@ -7527,33 +7643,33 @@
         <v>234</v>
       </c>
       <c r="D238" s="1" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>EA</v>
       </c>
       <c r="E238" t="s">
         <v>219</v>
       </c>
       <c r="H238" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>#define  VAR_BMS2_CELL15_MV  234</v>
       </c>
       <c r="I238" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>public const byte VAR_BMS2_CELL15_MV = 234;</v>
       </c>
       <c r="J238">
         <v>14</v>
       </c>
       <c r="L238" t="str">
+        <f t="shared" si="40"/>
+        <v>UpdateScanList(VAR_BMS2_CELL15_MV, 3000);</v>
+      </c>
+      <c r="M238" t="str">
         <f t="shared" si="35"/>
-        <v>UpdateScanList(VAR_BMS2_CELL15_MV, 3000);</v>
-      </c>
-      <c r="M238" t="str">
-        <f t="shared" si="30"/>
         <v>VAR_SetVariable(VAR_BMS2_CELL15_MV, Cells[14].Voltage_mV, validflag);</v>
       </c>
       <c r="P238" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_BMS2_CELL15_MV", cJSON_CreateNumber(mVars[234]));</v>
       </c>
     </row>
@@ -7562,33 +7678,33 @@
         <v>235</v>
       </c>
       <c r="D239" s="1" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>EB</v>
       </c>
       <c r="E239" t="s">
         <v>220</v>
       </c>
       <c r="H239" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>#define  VAR_BMS2_CELL16_MV  235</v>
       </c>
       <c r="I239" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>public const byte VAR_BMS2_CELL16_MV = 235;</v>
       </c>
       <c r="J239">
         <v>15</v>
       </c>
       <c r="L239" t="str">
+        <f t="shared" si="40"/>
+        <v>UpdateScanList(VAR_BMS2_CELL16_MV, 3000);</v>
+      </c>
+      <c r="M239" t="str">
         <f t="shared" si="35"/>
-        <v>UpdateScanList(VAR_BMS2_CELL16_MV, 3000);</v>
-      </c>
-      <c r="M239" t="str">
-        <f t="shared" si="30"/>
         <v>VAR_SetVariable(VAR_BMS2_CELL16_MV, Cells[15].Voltage_mV, validflag);</v>
       </c>
       <c r="P239" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_BMS2_CELL16_MV", cJSON_CreateNumber(mVars[235]));</v>
       </c>
     </row>
@@ -7597,25 +7713,25 @@
         <v>236</v>
       </c>
       <c r="D240" s="1" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>EC</v>
       </c>
       <c r="E240" t="s">
         <v>237</v>
       </c>
       <c r="H240" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>#define  VAR_BMS2_CELL1_C  236</v>
       </c>
       <c r="I240" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>public const byte VAR_BMS2_CELL1_C = 236;</v>
       </c>
       <c r="J240">
         <v>0</v>
       </c>
       <c r="L240" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>UpdateScanList(VAR_BMS2_CELL1_C, 3000);</v>
       </c>
       <c r="M240" t="str">
@@ -7623,7 +7739,7 @@
         <v>VAR_SetVariable(VAR_BMS2_CELL1_C, Cells[0].Temp_C, validflag);</v>
       </c>
       <c r="P240" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_BMS2_CELL1_C", cJSON_CreateNumber(mVars[236]));</v>
       </c>
     </row>
@@ -7632,33 +7748,33 @@
         <v>237</v>
       </c>
       <c r="D241" s="1" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>ED</v>
       </c>
       <c r="E241" t="s">
         <v>238</v>
       </c>
       <c r="H241" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>#define  VAR_BMS2_CELL2_C  237</v>
       </c>
       <c r="I241" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>public const byte VAR_BMS2_CELL2_C = 237;</v>
       </c>
       <c r="J241">
         <v>1</v>
       </c>
       <c r="L241" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>UpdateScanList(VAR_BMS2_CELL2_C, 3000);</v>
       </c>
       <c r="M241" t="str">
-        <f t="shared" ref="M241:M255" si="37">CONCATENATE("VAR_SetVariable(",E241,", Cells[",J241,"].Temp_C", ", validflag);")</f>
+        <f t="shared" ref="M241:M255" si="42">CONCATENATE("VAR_SetVariable(",E241,", Cells[",J241,"].Temp_C", ", validflag);")</f>
         <v>VAR_SetVariable(VAR_BMS2_CELL2_C, Cells[1].Temp_C, validflag);</v>
       </c>
       <c r="P241" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_BMS2_CELL2_C", cJSON_CreateNumber(mVars[237]));</v>
       </c>
     </row>
@@ -7667,33 +7783,33 @@
         <v>238</v>
       </c>
       <c r="D242" s="1" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>EE</v>
       </c>
       <c r="E242" t="s">
         <v>239</v>
       </c>
       <c r="H242" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>#define  VAR_BMS2_CELL3_C  238</v>
       </c>
       <c r="I242" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>public const byte VAR_BMS2_CELL3_C = 238;</v>
       </c>
       <c r="J242">
         <v>2</v>
       </c>
       <c r="L242" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>UpdateScanList(VAR_BMS2_CELL3_C, 3000);</v>
       </c>
       <c r="M242" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>VAR_SetVariable(VAR_BMS2_CELL3_C, Cells[2].Temp_C, validflag);</v>
       </c>
       <c r="P242" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_BMS2_CELL3_C", cJSON_CreateNumber(mVars[238]));</v>
       </c>
     </row>
@@ -7702,33 +7818,33 @@
         <v>239</v>
       </c>
       <c r="D243" s="1" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>EF</v>
       </c>
       <c r="E243" t="s">
         <v>240</v>
       </c>
       <c r="H243" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>#define  VAR_BMS2_CELL4_C  239</v>
       </c>
       <c r="I243" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>public const byte VAR_BMS2_CELL4_C = 239;</v>
       </c>
       <c r="J243">
         <v>3</v>
       </c>
       <c r="L243" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>UpdateScanList(VAR_BMS2_CELL4_C, 3000);</v>
       </c>
       <c r="M243" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>VAR_SetVariable(VAR_BMS2_CELL4_C, Cells[3].Temp_C, validflag);</v>
       </c>
       <c r="P243" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_BMS2_CELL4_C", cJSON_CreateNumber(mVars[239]));</v>
       </c>
     </row>
@@ -7737,33 +7853,33 @@
         <v>240</v>
       </c>
       <c r="D244" s="1" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>F0</v>
       </c>
       <c r="E244" t="s">
         <v>241</v>
       </c>
       <c r="H244" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>#define  VAR_BMS2_CELL5_C  240</v>
       </c>
       <c r="I244" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>public const byte VAR_BMS2_CELL5_C = 240;</v>
       </c>
       <c r="J244">
         <v>4</v>
       </c>
       <c r="L244" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>UpdateScanList(VAR_BMS2_CELL5_C, 3000);</v>
       </c>
       <c r="M244" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>VAR_SetVariable(VAR_BMS2_CELL5_C, Cells[4].Temp_C, validflag);</v>
       </c>
       <c r="P244" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_BMS2_CELL5_C", cJSON_CreateNumber(mVars[240]));</v>
       </c>
     </row>
@@ -7772,33 +7888,33 @@
         <v>241</v>
       </c>
       <c r="D245" s="1" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>F1</v>
       </c>
       <c r="E245" t="s">
         <v>242</v>
       </c>
       <c r="H245" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>#define  VAR_BMS2_CELL6_C  241</v>
       </c>
       <c r="I245" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>public const byte VAR_BMS2_CELL6_C = 241;</v>
       </c>
       <c r="J245">
         <v>5</v>
       </c>
       <c r="L245" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>UpdateScanList(VAR_BMS2_CELL6_C, 3000);</v>
       </c>
       <c r="M245" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>VAR_SetVariable(VAR_BMS2_CELL6_C, Cells[5].Temp_C, validflag);</v>
       </c>
       <c r="P245" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_BMS2_CELL6_C", cJSON_CreateNumber(mVars[241]));</v>
       </c>
     </row>
@@ -7807,33 +7923,33 @@
         <v>242</v>
       </c>
       <c r="D246" s="1" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>F2</v>
       </c>
       <c r="E246" t="s">
         <v>243</v>
       </c>
       <c r="H246" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>#define  VAR_BMS2_CELL7_C  242</v>
       </c>
       <c r="I246" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>public const byte VAR_BMS2_CELL7_C = 242;</v>
       </c>
       <c r="J246">
         <v>6</v>
       </c>
       <c r="L246" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>UpdateScanList(VAR_BMS2_CELL7_C, 3000);</v>
       </c>
       <c r="M246" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>VAR_SetVariable(VAR_BMS2_CELL7_C, Cells[6].Temp_C, validflag);</v>
       </c>
       <c r="P246" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_BMS2_CELL7_C", cJSON_CreateNumber(mVars[242]));</v>
       </c>
     </row>
@@ -7842,33 +7958,33 @@
         <v>243</v>
       </c>
       <c r="D247" s="1" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>F3</v>
       </c>
       <c r="E247" t="s">
         <v>244</v>
       </c>
       <c r="H247" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>#define  VAR_BMS2_CELL8_C  243</v>
       </c>
       <c r="I247" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>public const byte VAR_BMS2_CELL8_C = 243;</v>
       </c>
       <c r="J247">
         <v>7</v>
       </c>
       <c r="L247" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>UpdateScanList(VAR_BMS2_CELL8_C, 3000);</v>
       </c>
       <c r="M247" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>VAR_SetVariable(VAR_BMS2_CELL8_C, Cells[7].Temp_C, validflag);</v>
       </c>
       <c r="P247" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_BMS2_CELL8_C", cJSON_CreateNumber(mVars[243]));</v>
       </c>
     </row>
@@ -7877,33 +7993,33 @@
         <v>244</v>
       </c>
       <c r="D248" s="1" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>F4</v>
       </c>
       <c r="E248" t="s">
         <v>245</v>
       </c>
       <c r="H248" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>#define  VAR_BMS2_CELL9_C  244</v>
       </c>
       <c r="I248" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>public const byte VAR_BMS2_CELL9_C = 244;</v>
       </c>
       <c r="J248">
         <v>8</v>
       </c>
       <c r="L248" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>UpdateScanList(VAR_BMS2_CELL9_C, 3000);</v>
       </c>
       <c r="M248" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>VAR_SetVariable(VAR_BMS2_CELL9_C, Cells[8].Temp_C, validflag);</v>
       </c>
       <c r="P248" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_BMS2_CELL9_C", cJSON_CreateNumber(mVars[244]));</v>
       </c>
     </row>
@@ -7912,33 +8028,33 @@
         <v>245</v>
       </c>
       <c r="D249" s="1" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>F5</v>
       </c>
       <c r="E249" t="s">
         <v>246</v>
       </c>
       <c r="H249" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>#define  VAR_BMS2_CELL10_C  245</v>
       </c>
       <c r="I249" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>public const byte VAR_BMS2_CELL10_C = 245;</v>
       </c>
       <c r="J249">
         <v>9</v>
       </c>
       <c r="L249" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>UpdateScanList(VAR_BMS2_CELL10_C, 3000);</v>
       </c>
       <c r="M249" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>VAR_SetVariable(VAR_BMS2_CELL10_C, Cells[9].Temp_C, validflag);</v>
       </c>
       <c r="P249" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_BMS2_CELL10_C", cJSON_CreateNumber(mVars[245]));</v>
       </c>
     </row>
@@ -7947,33 +8063,33 @@
         <v>246</v>
       </c>
       <c r="D250" s="1" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>F6</v>
       </c>
       <c r="E250" t="s">
         <v>247</v>
       </c>
       <c r="H250" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>#define  VAR_BMS2_CELL11_C  246</v>
       </c>
       <c r="I250" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>public const byte VAR_BMS2_CELL11_C = 246;</v>
       </c>
       <c r="J250">
         <v>10</v>
       </c>
       <c r="L250" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>UpdateScanList(VAR_BMS2_CELL11_C, 3000);</v>
       </c>
       <c r="M250" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>VAR_SetVariable(VAR_BMS2_CELL11_C, Cells[10].Temp_C, validflag);</v>
       </c>
       <c r="P250" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_BMS2_CELL11_C", cJSON_CreateNumber(mVars[246]));</v>
       </c>
     </row>
@@ -7982,33 +8098,33 @@
         <v>247</v>
       </c>
       <c r="D251" s="1" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>F7</v>
       </c>
       <c r="E251" t="s">
         <v>248</v>
       </c>
       <c r="H251" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>#define  VAR_BMS2_CELL12_C  247</v>
       </c>
       <c r="I251" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>public const byte VAR_BMS2_CELL12_C = 247;</v>
       </c>
       <c r="J251">
         <v>11</v>
       </c>
       <c r="L251" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>UpdateScanList(VAR_BMS2_CELL12_C, 3000);</v>
       </c>
       <c r="M251" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>VAR_SetVariable(VAR_BMS2_CELL12_C, Cells[11].Temp_C, validflag);</v>
       </c>
       <c r="P251" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_BMS2_CELL12_C", cJSON_CreateNumber(mVars[247]));</v>
       </c>
     </row>
@@ -8017,33 +8133,33 @@
         <v>248</v>
       </c>
       <c r="D252" s="1" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>F8</v>
       </c>
       <c r="E252" t="s">
         <v>249</v>
       </c>
       <c r="H252" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>#define  VAR_BMS2_CELL13_C  248</v>
       </c>
       <c r="I252" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>public const byte VAR_BMS2_CELL13_C = 248;</v>
       </c>
       <c r="J252">
         <v>12</v>
       </c>
       <c r="L252" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>UpdateScanList(VAR_BMS2_CELL13_C, 3000);</v>
       </c>
       <c r="M252" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>VAR_SetVariable(VAR_BMS2_CELL13_C, Cells[12].Temp_C, validflag);</v>
       </c>
       <c r="P252" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_BMS2_CELL13_C", cJSON_CreateNumber(mVars[248]));</v>
       </c>
     </row>
@@ -8052,33 +8168,33 @@
         <v>249</v>
       </c>
       <c r="D253" s="1" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>F9</v>
       </c>
       <c r="E253" t="s">
         <v>250</v>
       </c>
       <c r="H253" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>#define  VAR_BMS2_CELL14_C  249</v>
       </c>
       <c r="I253" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>public const byte VAR_BMS2_CELL14_C = 249;</v>
       </c>
       <c r="J253">
         <v>13</v>
       </c>
       <c r="L253" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>UpdateScanList(VAR_BMS2_CELL14_C, 3000);</v>
       </c>
       <c r="M253" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>VAR_SetVariable(VAR_BMS2_CELL14_C, Cells[13].Temp_C, validflag);</v>
       </c>
       <c r="P253" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_BMS2_CELL14_C", cJSON_CreateNumber(mVars[249]));</v>
       </c>
     </row>
@@ -8087,33 +8203,33 @@
         <v>250</v>
       </c>
       <c r="D254" s="1" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>FA</v>
       </c>
       <c r="E254" t="s">
         <v>251</v>
       </c>
       <c r="H254" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>#define  VAR_BMS2_CELL15_C  250</v>
       </c>
       <c r="I254" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>public const byte VAR_BMS2_CELL15_C = 250;</v>
       </c>
       <c r="J254">
         <v>14</v>
       </c>
       <c r="L254" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>UpdateScanList(VAR_BMS2_CELL15_C, 3000);</v>
       </c>
       <c r="M254" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>VAR_SetVariable(VAR_BMS2_CELL15_C, Cells[14].Temp_C, validflag);</v>
       </c>
       <c r="P254" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_BMS2_CELL15_C", cJSON_CreateNumber(mVars[250]));</v>
       </c>
     </row>
@@ -8122,33 +8238,33 @@
         <v>251</v>
       </c>
       <c r="D255" s="1" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>FB</v>
       </c>
       <c r="E255" t="s">
         <v>252</v>
       </c>
       <c r="H255" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>#define  VAR_BMS2_CELL16_C  251</v>
       </c>
       <c r="I255" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>public const byte VAR_BMS2_CELL16_C = 251;</v>
       </c>
       <c r="J255">
         <v>15</v>
       </c>
       <c r="L255" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>UpdateScanList(VAR_BMS2_CELL16_C, 3000);</v>
       </c>
       <c r="M255" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>VAR_SetVariable(VAR_BMS2_CELL16_C, Cells[15].Temp_C, validflag);</v>
       </c>
       <c r="P255" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_BMS2_CELL16_C", cJSON_CreateNumber(mVars[251]));</v>
       </c>
     </row>
@@ -8157,7 +8273,7 @@
         <v>252</v>
       </c>
       <c r="D256" s="1" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>FC</v>
       </c>
     </row>
@@ -8166,7 +8282,7 @@
         <v>253</v>
       </c>
       <c r="D257" s="1" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>FD</v>
       </c>
     </row>
@@ -8175,7 +8291,7 @@
         <v>254</v>
       </c>
       <c r="D258" s="1" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>FE</v>
       </c>
     </row>
@@ -8184,7 +8300,7 @@
         <v>255</v>
       </c>
       <c r="D259" s="1" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>FF</v>
       </c>
     </row>

--- a/UHA.xlsx
+++ b/UHA.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="312">
   <si>
     <t>dec</t>
   </si>
@@ -929,6 +929,30 @@
   </si>
   <si>
     <t>T309</t>
+  </si>
+  <si>
+    <t>VAR_RH_RECU_FH</t>
+  </si>
+  <si>
+    <t>VAR_RH_RECU_WH</t>
+  </si>
+  <si>
+    <t>VAR_CO2_RECU</t>
+  </si>
+  <si>
+    <t>VAR_DP_RECU_F</t>
+  </si>
+  <si>
+    <t>VAR_DP_RECU_W</t>
+  </si>
+  <si>
+    <t>VAR_RECU_FAN_F</t>
+  </si>
+  <si>
+    <t>VAR_RECU_FAN_W</t>
+  </si>
+  <si>
+    <t>VAR_CURR_RECU_A</t>
   </si>
 </sst>
 </file>
@@ -1447,8 +1471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B3:P259"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A114" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I150" sqref="I150"/>
+    <sheetView tabSelected="1" topLeftCell="B88" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I145" sqref="I145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5394,6 +5418,29 @@
         <f t="shared" si="20"/>
         <v>84</v>
       </c>
+      <c r="E136" t="s">
+        <v>304</v>
+      </c>
+      <c r="H136" t="str">
+        <f t="shared" si="21"/>
+        <v>#define  VAR_RH_RECU_FH  132</v>
+      </c>
+      <c r="I136" t="str">
+        <f t="shared" si="22"/>
+        <v>public const byte VAR_RH_RECU_FH = 132;</v>
+      </c>
+      <c r="L136" t="str">
+        <f t="shared" si="23"/>
+        <v>UpdateScanList(VAR_RH_RECU_FH, 3000);</v>
+      </c>
+      <c r="N136" t="str">
+        <f t="shared" si="24"/>
+        <v>COM_AddStreamedVariable(VAR_RH_RECU_FH, 1000);</v>
+      </c>
+      <c r="P136" t="str">
+        <f t="shared" si="25"/>
+        <v>cJSON_AddItemToObject(Uha, "VAR_RH_RECU_FH", cJSON_CreateNumber(mVars[132]));</v>
+      </c>
     </row>
     <row r="137" spans="2:16">
       <c r="B137" s="15"/>
@@ -5404,6 +5451,29 @@
         <f t="shared" si="20"/>
         <v>85</v>
       </c>
+      <c r="E137" t="s">
+        <v>305</v>
+      </c>
+      <c r="H137" t="str">
+        <f t="shared" si="21"/>
+        <v>#define  VAR_RH_RECU_WH  133</v>
+      </c>
+      <c r="I137" t="str">
+        <f t="shared" si="22"/>
+        <v>public const byte VAR_RH_RECU_WH = 133;</v>
+      </c>
+      <c r="L137" t="str">
+        <f t="shared" si="23"/>
+        <v>UpdateScanList(VAR_RH_RECU_WH, 3000);</v>
+      </c>
+      <c r="N137" t="str">
+        <f t="shared" si="24"/>
+        <v>COM_AddStreamedVariable(VAR_RH_RECU_WH, 1000);</v>
+      </c>
+      <c r="P137" t="str">
+        <f t="shared" si="25"/>
+        <v>cJSON_AddItemToObject(Uha, "VAR_RH_RECU_WH", cJSON_CreateNumber(mVars[133]));</v>
+      </c>
     </row>
     <row r="138" spans="2:16">
       <c r="B138" s="15"/>
@@ -5444,6 +5514,29 @@
         <f t="shared" si="20"/>
         <v>89</v>
       </c>
+      <c r="E141" t="s">
+        <v>306</v>
+      </c>
+      <c r="H141" t="str">
+        <f t="shared" ref="H138:H148" si="26">CONCATENATE("#define  ",E141,"  ",C141)</f>
+        <v>#define  VAR_CO2_RECU  137</v>
+      </c>
+      <c r="I141" t="str">
+        <f t="shared" ref="I138:I148" si="27">CONCATENATE("public const byte ",E141," = ",C141,";")</f>
+        <v>public const byte VAR_CO2_RECU = 137;</v>
+      </c>
+      <c r="L141" t="str">
+        <f t="shared" ref="L138:L148" si="28">CONCATENATE("UpdateScanList(",E141, ", 3000);")</f>
+        <v>UpdateScanList(VAR_CO2_RECU, 3000);</v>
+      </c>
+      <c r="N141" t="str">
+        <f t="shared" ref="N138:N148" si="29">CONCATENATE("COM_AddStreamedVariable(",E141, ", 1000);")</f>
+        <v>COM_AddStreamedVariable(VAR_CO2_RECU, 1000);</v>
+      </c>
+      <c r="P141" t="str">
+        <f t="shared" ref="P138:P148" si="30">CONCATENATE("cJSON_AddItemToObject(Uha, ","""",E141,"""",", cJSON_CreateNumber(mVars[",C141,"]));")</f>
+        <v>cJSON_AddItemToObject(Uha, "VAR_CO2_RECU", cJSON_CreateNumber(mVars[137]));</v>
+      </c>
     </row>
     <row r="142" spans="2:16">
       <c r="B142" s="15"/>
@@ -5454,6 +5547,29 @@
         <f t="shared" si="20"/>
         <v>8A</v>
       </c>
+      <c r="E142" t="s">
+        <v>307</v>
+      </c>
+      <c r="H142" t="str">
+        <f t="shared" si="26"/>
+        <v>#define  VAR_DP_RECU_F  138</v>
+      </c>
+      <c r="I142" t="str">
+        <f t="shared" si="27"/>
+        <v>public const byte VAR_DP_RECU_F = 138;</v>
+      </c>
+      <c r="L142" t="str">
+        <f t="shared" si="28"/>
+        <v>UpdateScanList(VAR_DP_RECU_F, 3000);</v>
+      </c>
+      <c r="N142" t="str">
+        <f t="shared" si="29"/>
+        <v>COM_AddStreamedVariable(VAR_DP_RECU_F, 1000);</v>
+      </c>
+      <c r="P142" t="str">
+        <f t="shared" si="30"/>
+        <v>cJSON_AddItemToObject(Uha, "VAR_DP_RECU_F", cJSON_CreateNumber(mVars[138]));</v>
+      </c>
     </row>
     <row r="143" spans="2:16">
       <c r="B143" s="15"/>
@@ -5464,6 +5580,29 @@
         <f t="shared" si="20"/>
         <v>8B</v>
       </c>
+      <c r="E143" t="s">
+        <v>308</v>
+      </c>
+      <c r="H143" t="str">
+        <f t="shared" si="26"/>
+        <v>#define  VAR_DP_RECU_W  139</v>
+      </c>
+      <c r="I143" t="str">
+        <f t="shared" si="27"/>
+        <v>public const byte VAR_DP_RECU_W = 139;</v>
+      </c>
+      <c r="L143" t="str">
+        <f t="shared" si="28"/>
+        <v>UpdateScanList(VAR_DP_RECU_W, 3000);</v>
+      </c>
+      <c r="N143" t="str">
+        <f t="shared" si="29"/>
+        <v>COM_AddStreamedVariable(VAR_DP_RECU_W, 1000);</v>
+      </c>
+      <c r="P143" t="str">
+        <f t="shared" si="30"/>
+        <v>cJSON_AddItemToObject(Uha, "VAR_DP_RECU_W", cJSON_CreateNumber(mVars[139]));</v>
+      </c>
     </row>
     <row r="144" spans="2:16">
       <c r="B144" s="15"/>
@@ -5474,8 +5613,31 @@
         <f t="shared" si="20"/>
         <v>8C</v>
       </c>
-    </row>
-    <row r="145" spans="2:4">
+      <c r="E144" t="s">
+        <v>309</v>
+      </c>
+      <c r="H144" t="str">
+        <f t="shared" si="26"/>
+        <v>#define  VAR_RECU_FAN_F  140</v>
+      </c>
+      <c r="I144" t="str">
+        <f t="shared" si="27"/>
+        <v>public const byte VAR_RECU_FAN_F = 140;</v>
+      </c>
+      <c r="L144" t="str">
+        <f t="shared" si="28"/>
+        <v>UpdateScanList(VAR_RECU_FAN_F, 3000);</v>
+      </c>
+      <c r="N144" t="str">
+        <f t="shared" si="29"/>
+        <v>COM_AddStreamedVariable(VAR_RECU_FAN_F, 1000);</v>
+      </c>
+      <c r="P144" t="str">
+        <f t="shared" si="30"/>
+        <v>cJSON_AddItemToObject(Uha, "VAR_RECU_FAN_F", cJSON_CreateNumber(mVars[140]));</v>
+      </c>
+    </row>
+    <row r="145" spans="2:16">
       <c r="B145" s="15"/>
       <c r="C145" s="1">
         <v>141</v>
@@ -5484,8 +5646,31 @@
         <f t="shared" si="20"/>
         <v>8D</v>
       </c>
-    </row>
-    <row r="146" spans="2:4">
+      <c r="E145" t="s">
+        <v>310</v>
+      </c>
+      <c r="H145" t="str">
+        <f t="shared" si="26"/>
+        <v>#define  VAR_RECU_FAN_W  141</v>
+      </c>
+      <c r="I145" t="str">
+        <f t="shared" si="27"/>
+        <v>public const byte VAR_RECU_FAN_W = 141;</v>
+      </c>
+      <c r="L145" t="str">
+        <f t="shared" si="28"/>
+        <v>UpdateScanList(VAR_RECU_FAN_W, 3000);</v>
+      </c>
+      <c r="N145" t="str">
+        <f t="shared" si="29"/>
+        <v>COM_AddStreamedVariable(VAR_RECU_FAN_W, 1000);</v>
+      </c>
+      <c r="P145" t="str">
+        <f t="shared" si="30"/>
+        <v>cJSON_AddItemToObject(Uha, "VAR_RECU_FAN_W", cJSON_CreateNumber(mVars[141]));</v>
+      </c>
+    </row>
+    <row r="146" spans="2:16">
       <c r="B146" s="15"/>
       <c r="C146" s="1">
         <v>142</v>
@@ -5494,8 +5679,31 @@
         <f t="shared" si="20"/>
         <v>8E</v>
       </c>
-    </row>
-    <row r="147" spans="2:4">
+      <c r="E146" t="s">
+        <v>311</v>
+      </c>
+      <c r="H146" t="str">
+        <f t="shared" si="26"/>
+        <v>#define  VAR_CURR_RECU_A  142</v>
+      </c>
+      <c r="I146" t="str">
+        <f t="shared" si="27"/>
+        <v>public const byte VAR_CURR_RECU_A = 142;</v>
+      </c>
+      <c r="L146" t="str">
+        <f t="shared" si="28"/>
+        <v>UpdateScanList(VAR_CURR_RECU_A, 3000);</v>
+      </c>
+      <c r="N146" t="str">
+        <f t="shared" si="29"/>
+        <v>COM_AddStreamedVariable(VAR_CURR_RECU_A, 1000);</v>
+      </c>
+      <c r="P146" t="str">
+        <f t="shared" si="30"/>
+        <v>cJSON_AddItemToObject(Uha, "VAR_CURR_RECU_A", cJSON_CreateNumber(mVars[142]));</v>
+      </c>
+    </row>
+    <row r="147" spans="2:16">
       <c r="B147" s="15"/>
       <c r="C147" s="1">
         <v>143</v>
@@ -5505,7 +5713,7 @@
         <v>8F</v>
       </c>
     </row>
-    <row r="148" spans="2:4">
+    <row r="148" spans="2:16">
       <c r="B148" s="15"/>
       <c r="C148" s="1">
         <v>144</v>
@@ -5515,7 +5723,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="149" spans="2:4">
+    <row r="149" spans="2:16">
       <c r="B149" s="15"/>
       <c r="C149" s="1">
         <v>145</v>
@@ -5525,7 +5733,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="150" spans="2:4">
+    <row r="150" spans="2:16">
       <c r="B150" s="15"/>
       <c r="C150" s="1">
         <v>146</v>
@@ -5535,7 +5743,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="151" spans="2:4">
+    <row r="151" spans="2:16">
       <c r="B151" s="15"/>
       <c r="C151" s="1">
         <v>147</v>
@@ -5545,7 +5753,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="152" spans="2:4">
+    <row r="152" spans="2:16">
       <c r="B152" s="15"/>
       <c r="C152" s="1">
         <v>148</v>
@@ -5555,7 +5763,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="153" spans="2:4">
+    <row r="153" spans="2:16">
       <c r="B153" s="15"/>
       <c r="C153" s="1">
         <v>149</v>
@@ -5565,7 +5773,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="154" spans="2:4">
+    <row r="154" spans="2:16">
       <c r="B154" s="15"/>
       <c r="C154" s="1">
         <v>150</v>
@@ -5575,7 +5783,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="155" spans="2:4">
+    <row r="155" spans="2:16">
       <c r="B155" s="15" t="s">
         <v>4</v>
       </c>
@@ -5587,7 +5795,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="156" spans="2:4">
+    <row r="156" spans="2:16">
       <c r="B156" s="15"/>
       <c r="C156" s="1">
         <v>152</v>
@@ -5597,7 +5805,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="157" spans="2:4">
+    <row r="157" spans="2:16">
       <c r="B157" s="15"/>
       <c r="C157" s="1">
         <v>153</v>
@@ -5607,7 +5815,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="158" spans="2:4">
+    <row r="158" spans="2:16">
       <c r="B158" s="15"/>
       <c r="C158" s="1">
         <v>154</v>
@@ -5617,7 +5825,7 @@
         <v>9A</v>
       </c>
     </row>
-    <row r="159" spans="2:4">
+    <row r="159" spans="2:16">
       <c r="B159" s="15"/>
       <c r="C159" s="1">
         <v>155</v>
@@ -5627,7 +5835,7 @@
         <v>9B</v>
       </c>
     </row>
-    <row r="160" spans="2:4">
+    <row r="160" spans="2:16">
       <c r="B160" s="15"/>
       <c r="C160" s="1">
         <v>156</v>
@@ -5689,19 +5897,19 @@
         <v>294</v>
       </c>
       <c r="H165" t="str">
-        <f t="shared" ref="H165:H168" si="26">CONCATENATE("#define  ",E165,"  ",C165)</f>
+        <f t="shared" ref="H165:H168" si="31">CONCATENATE("#define  ",E165,"  ",C165)</f>
         <v>#define  VAR_METEO_WIND_BURST  161</v>
       </c>
       <c r="I165" t="str">
-        <f t="shared" ref="I165:I168" si="27">CONCATENATE("public const byte ",E165," = ",C165,";")</f>
+        <f t="shared" ref="I165:I168" si="32">CONCATENATE("public const byte ",E165," = ",C165,";")</f>
         <v>public const byte VAR_METEO_WIND_BURST = 161;</v>
       </c>
       <c r="L165" t="str">
-        <f t="shared" ref="L165:L168" si="28">CONCATENATE("UpdateScanList(",E165, ", 3000);")</f>
+        <f t="shared" ref="L165:L168" si="33">CONCATENATE("UpdateScanList(",E165, ", 3000);")</f>
         <v>UpdateScanList(VAR_METEO_WIND_BURST, 3000);</v>
       </c>
       <c r="M165" t="str">
-        <f t="shared" ref="M165:M168" si="29">CONCATENATE("VAR_SetVariable(",E165,", Cells[",J165,"].Voltage_mV", ", validflag);")</f>
+        <f t="shared" ref="M165:M168" si="34">CONCATENATE("VAR_SetVariable(",E165,", Cells[",J165,"].Voltage_mV", ", validflag);")</f>
         <v>VAR_SetVariable(VAR_METEO_WIND_BURST, Cells[].Voltage_mV, validflag);</v>
       </c>
       <c r="N165" t="str">
@@ -5709,7 +5917,7 @@
         <v>COM_AddStreamedVariable(VAR_METEO_WIND_BURST, 1000);</v>
       </c>
       <c r="P165" t="str">
-        <f t="shared" ref="P165:P168" si="30">CONCATENATE("cJSON_AddItemToObject(Uha, ","""",E165,"""",", cJSON_CreateNumber(mVars[",C165,"]));")</f>
+        <f t="shared" ref="P165:P168" si="35">CONCATENATE("cJSON_AddItemToObject(Uha, ","""",E165,"""",", cJSON_CreateNumber(mVars[",C165,"]));")</f>
         <v>cJSON_AddItemToObject(Uha, "VAR_METEO_WIND_BURST", cJSON_CreateNumber(mVars[161]));</v>
       </c>
     </row>
@@ -5725,19 +5933,19 @@
         <v>295</v>
       </c>
       <c r="H166" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>#define  VAR_METEO_WIND_AVG  162</v>
       </c>
       <c r="I166" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v>public const byte VAR_METEO_WIND_AVG = 162;</v>
       </c>
       <c r="L166" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v>UpdateScanList(VAR_METEO_WIND_AVG, 3000);</v>
       </c>
       <c r="M166" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>VAR_SetVariable(VAR_METEO_WIND_AVG, Cells[].Voltage_mV, validflag);</v>
       </c>
       <c r="N166" t="str">
@@ -5745,7 +5953,7 @@
         <v>COM_AddStreamedVariable(VAR_METEO_WIND_AVG, 1000);</v>
       </c>
       <c r="P166" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_METEO_WIND_AVG", cJSON_CreateNumber(mVars[162]));</v>
       </c>
     </row>
@@ -5761,19 +5969,19 @@
         <v>296</v>
       </c>
       <c r="H167" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>#define  VAR_METEO_WIND_POW  163</v>
       </c>
       <c r="I167" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v>public const byte VAR_METEO_WIND_POW = 163;</v>
       </c>
       <c r="L167" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v>UpdateScanList(VAR_METEO_WIND_POW, 3000);</v>
       </c>
       <c r="M167" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>VAR_SetVariable(VAR_METEO_WIND_POW, Cells[].Voltage_mV, validflag);</v>
       </c>
       <c r="N167" t="str">
@@ -5781,7 +5989,7 @@
         <v>COM_AddStreamedVariable(VAR_METEO_WIND_POW, 1000);</v>
       </c>
       <c r="P167" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_METEO_WIND_POW", cJSON_CreateNumber(mVars[163]));</v>
       </c>
     </row>
@@ -5797,19 +6005,19 @@
         <v>297</v>
       </c>
       <c r="H168" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>#define  VAR_METEO_WIND_ENERGY  164</v>
       </c>
       <c r="I168" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v>public const byte VAR_METEO_WIND_ENERGY = 164;</v>
       </c>
       <c r="L168" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v>UpdateScanList(VAR_METEO_WIND_ENERGY, 3000);</v>
       </c>
       <c r="M168" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>VAR_SetVariable(VAR_METEO_WIND_ENERGY, Cells[].Voltage_mV, validflag);</v>
       </c>
       <c r="N168" t="str">
@@ -5817,7 +6025,7 @@
         <v>COM_AddStreamedVariable(VAR_METEO_WIND_ENERGY, 1000);</v>
       </c>
       <c r="P168" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_METEO_WIND_ENERGY", cJSON_CreateNumber(mVars[164]));</v>
       </c>
     </row>
@@ -5968,18 +6176,18 @@
         <v>189</v>
       </c>
       <c r="H184" t="str">
-        <f t="shared" ref="H184:H195" si="31">CONCATENATE("#define  ",E184,"  ",C184)</f>
+        <f t="shared" ref="H184:H195" si="36">CONCATENATE("#define  ",E184,"  ",C184)</f>
         <v>#define  VAR_BMS1_CELL1_MV  180</v>
       </c>
       <c r="I184" t="str">
-        <f t="shared" ref="I184:I195" si="32">CONCATENATE("public const byte ",E184," = ",C184,";")</f>
+        <f t="shared" ref="I184:I195" si="37">CONCATENATE("public const byte ",E184," = ",C184,";")</f>
         <v>public const byte VAR_BMS1_CELL1_MV = 180;</v>
       </c>
       <c r="J184">
         <v>0</v>
       </c>
       <c r="L184" t="str">
-        <f t="shared" ref="L184:L206" si="33">CONCATENATE("UpdateScanList(",E184, ", 3000);")</f>
+        <f t="shared" ref="L184:L206" si="38">CONCATENATE("UpdateScanList(",E184, ", 3000);")</f>
         <v>UpdateScanList(VAR_BMS1_CELL1_MV, 3000);</v>
       </c>
       <c r="M184" t="str">
@@ -5987,7 +6195,7 @@
         <v>VAR_SetVariable(VAR_BMS1_CELL1_MV, Cells[0].Voltage_mV, validflag);</v>
       </c>
       <c r="P184" t="str">
-        <f t="shared" ref="P184:P206" si="34">CONCATENATE("cJSON_AddItemToObject(Uha, ","""",E184,"""",", cJSON_CreateNumber(mVars[",C184,"]));")</f>
+        <f t="shared" ref="P184:P206" si="39">CONCATENATE("cJSON_AddItemToObject(Uha, ","""",E184,"""",", cJSON_CreateNumber(mVars[",C184,"]));")</f>
         <v>cJSON_AddItemToObject(Uha, "VAR_BMS1_CELL1_MV", cJSON_CreateNumber(mVars[180]));</v>
       </c>
     </row>
@@ -6003,26 +6211,26 @@
         <v>190</v>
       </c>
       <c r="H185" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>#define  VAR_BMS1_CELL2_MV  181</v>
       </c>
       <c r="I185" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>public const byte VAR_BMS1_CELL2_MV = 181;</v>
       </c>
       <c r="J185">
         <v>1</v>
       </c>
       <c r="L185" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>UpdateScanList(VAR_BMS1_CELL2_MV, 3000);</v>
       </c>
       <c r="M185" t="str">
-        <f t="shared" ref="M185:M239" si="35">CONCATENATE("VAR_SetVariable(",E185,", Cells[",J185,"].Voltage_mV", ", validflag);")</f>
+        <f t="shared" ref="M185:M239" si="40">CONCATENATE("VAR_SetVariable(",E185,", Cells[",J185,"].Voltage_mV", ", validflag);")</f>
         <v>VAR_SetVariable(VAR_BMS1_CELL2_MV, Cells[1].Voltage_mV, validflag);</v>
       </c>
       <c r="P185" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_BMS1_CELL2_MV", cJSON_CreateNumber(mVars[181]));</v>
       </c>
     </row>
@@ -6038,26 +6246,26 @@
         <v>191</v>
       </c>
       <c r="H186" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>#define  VAR_BMS1_CELL3_MV  182</v>
       </c>
       <c r="I186" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>public const byte VAR_BMS1_CELL3_MV = 182;</v>
       </c>
       <c r="J186">
         <v>2</v>
       </c>
       <c r="L186" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>UpdateScanList(VAR_BMS1_CELL3_MV, 3000);</v>
       </c>
       <c r="M186" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>VAR_SetVariable(VAR_BMS1_CELL3_MV, Cells[2].Voltage_mV, validflag);</v>
       </c>
       <c r="P186" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_BMS1_CELL3_MV", cJSON_CreateNumber(mVars[182]));</v>
       </c>
     </row>
@@ -6073,26 +6281,26 @@
         <v>192</v>
       </c>
       <c r="H187" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>#define  VAR_BMS1_CELL4_MV  183</v>
       </c>
       <c r="I187" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>public const byte VAR_BMS1_CELL4_MV = 183;</v>
       </c>
       <c r="J187">
         <v>3</v>
       </c>
       <c r="L187" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>UpdateScanList(VAR_BMS1_CELL4_MV, 3000);</v>
       </c>
       <c r="M187" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>VAR_SetVariable(VAR_BMS1_CELL4_MV, Cells[3].Voltage_mV, validflag);</v>
       </c>
       <c r="P187" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_BMS1_CELL4_MV", cJSON_CreateNumber(mVars[183]));</v>
       </c>
     </row>
@@ -6108,26 +6316,26 @@
         <v>193</v>
       </c>
       <c r="H188" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>#define  VAR_BMS1_CELL5_MV  184</v>
       </c>
       <c r="I188" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>public const byte VAR_BMS1_CELL5_MV = 184;</v>
       </c>
       <c r="J188">
         <v>4</v>
       </c>
       <c r="L188" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>UpdateScanList(VAR_BMS1_CELL5_MV, 3000);</v>
       </c>
       <c r="M188" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>VAR_SetVariable(VAR_BMS1_CELL5_MV, Cells[4].Voltage_mV, validflag);</v>
       </c>
       <c r="P188" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_BMS1_CELL5_MV", cJSON_CreateNumber(mVars[184]));</v>
       </c>
     </row>
@@ -6143,26 +6351,26 @@
         <v>194</v>
       </c>
       <c r="H189" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>#define  VAR_BMS1_CELL6_MV  185</v>
       </c>
       <c r="I189" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>public const byte VAR_BMS1_CELL6_MV = 185;</v>
       </c>
       <c r="J189">
         <v>5</v>
       </c>
       <c r="L189" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>UpdateScanList(VAR_BMS1_CELL6_MV, 3000);</v>
       </c>
       <c r="M189" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>VAR_SetVariable(VAR_BMS1_CELL6_MV, Cells[5].Voltage_mV, validflag);</v>
       </c>
       <c r="P189" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_BMS1_CELL6_MV", cJSON_CreateNumber(mVars[185]));</v>
       </c>
     </row>
@@ -6178,26 +6386,26 @@
         <v>195</v>
       </c>
       <c r="H190" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>#define  VAR_BMS1_CELL7_MV  186</v>
       </c>
       <c r="I190" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>public const byte VAR_BMS1_CELL7_MV = 186;</v>
       </c>
       <c r="J190">
         <v>6</v>
       </c>
       <c r="L190" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>UpdateScanList(VAR_BMS1_CELL7_MV, 3000);</v>
       </c>
       <c r="M190" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>VAR_SetVariable(VAR_BMS1_CELL7_MV, Cells[6].Voltage_mV, validflag);</v>
       </c>
       <c r="P190" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_BMS1_CELL7_MV", cJSON_CreateNumber(mVars[186]));</v>
       </c>
     </row>
@@ -6213,26 +6421,26 @@
         <v>196</v>
       </c>
       <c r="H191" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>#define  VAR_BMS1_CELL8_MV  187</v>
       </c>
       <c r="I191" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>public const byte VAR_BMS1_CELL8_MV = 187;</v>
       </c>
       <c r="J191">
         <v>7</v>
       </c>
       <c r="L191" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>UpdateScanList(VAR_BMS1_CELL8_MV, 3000);</v>
       </c>
       <c r="M191" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>VAR_SetVariable(VAR_BMS1_CELL8_MV, Cells[7].Voltage_mV, validflag);</v>
       </c>
       <c r="P191" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_BMS1_CELL8_MV", cJSON_CreateNumber(mVars[187]));</v>
       </c>
     </row>
@@ -6248,26 +6456,26 @@
         <v>197</v>
       </c>
       <c r="H192" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>#define  VAR_BMS1_CELL9_MV  188</v>
       </c>
       <c r="I192" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>public const byte VAR_BMS1_CELL9_MV = 188;</v>
       </c>
       <c r="J192">
         <v>8</v>
       </c>
       <c r="L192" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>UpdateScanList(VAR_BMS1_CELL9_MV, 3000);</v>
       </c>
       <c r="M192" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>VAR_SetVariable(VAR_BMS1_CELL9_MV, Cells[8].Voltage_mV, validflag);</v>
       </c>
       <c r="P192" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_BMS1_CELL9_MV", cJSON_CreateNumber(mVars[188]));</v>
       </c>
     </row>
@@ -6283,26 +6491,26 @@
         <v>198</v>
       </c>
       <c r="H193" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>#define  VAR_BMS1_CELL10_MV  189</v>
       </c>
       <c r="I193" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>public const byte VAR_BMS1_CELL10_MV = 189;</v>
       </c>
       <c r="J193">
         <v>9</v>
       </c>
       <c r="L193" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>UpdateScanList(VAR_BMS1_CELL10_MV, 3000);</v>
       </c>
       <c r="M193" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>VAR_SetVariable(VAR_BMS1_CELL10_MV, Cells[9].Voltage_mV, validflag);</v>
       </c>
       <c r="P193" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_BMS1_CELL10_MV", cJSON_CreateNumber(mVars[189]));</v>
       </c>
     </row>
@@ -6318,26 +6526,26 @@
         <v>199</v>
       </c>
       <c r="H194" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>#define  VAR_BMS1_CELL11_MV  190</v>
       </c>
       <c r="I194" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>public const byte VAR_BMS1_CELL11_MV = 190;</v>
       </c>
       <c r="J194">
         <v>10</v>
       </c>
       <c r="L194" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>UpdateScanList(VAR_BMS1_CELL11_MV, 3000);</v>
       </c>
       <c r="M194" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>VAR_SetVariable(VAR_BMS1_CELL11_MV, Cells[10].Voltage_mV, validflag);</v>
       </c>
       <c r="P194" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_BMS1_CELL11_MV", cJSON_CreateNumber(mVars[190]));</v>
       </c>
     </row>
@@ -6353,26 +6561,26 @@
         <v>200</v>
       </c>
       <c r="H195" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>#define  VAR_BMS1_CELL12_MV  191</v>
       </c>
       <c r="I195" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>public const byte VAR_BMS1_CELL12_MV = 191;</v>
       </c>
       <c r="J195">
         <v>11</v>
       </c>
       <c r="L195" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>UpdateScanList(VAR_BMS1_CELL12_MV, 3000);</v>
       </c>
       <c r="M195" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>VAR_SetVariable(VAR_BMS1_CELL12_MV, Cells[11].Voltage_mV, validflag);</v>
       </c>
       <c r="P195" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_BMS1_CELL12_MV", cJSON_CreateNumber(mVars[191]));</v>
       </c>
     </row>
@@ -6388,26 +6596,26 @@
         <v>201</v>
       </c>
       <c r="H196" t="str">
-        <f t="shared" ref="H196:H255" si="36">CONCATENATE("#define  ",E196,"  ",C196)</f>
+        <f t="shared" ref="H196:H255" si="41">CONCATENATE("#define  ",E196,"  ",C196)</f>
         <v>#define  VAR_BMS1_CELL13_MV  192</v>
       </c>
       <c r="I196" t="str">
-        <f t="shared" ref="I196:I255" si="37">CONCATENATE("public const byte ",E196," = ",C196,";")</f>
+        <f t="shared" ref="I196:I255" si="42">CONCATENATE("public const byte ",E196," = ",C196,";")</f>
         <v>public const byte VAR_BMS1_CELL13_MV = 192;</v>
       </c>
       <c r="J196">
         <v>12</v>
       </c>
       <c r="L196" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>UpdateScanList(VAR_BMS1_CELL13_MV, 3000);</v>
       </c>
       <c r="M196" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>VAR_SetVariable(VAR_BMS1_CELL13_MV, Cells[12].Voltage_mV, validflag);</v>
       </c>
       <c r="P196" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_BMS1_CELL13_MV", cJSON_CreateNumber(mVars[192]));</v>
       </c>
     </row>
@@ -6416,33 +6624,33 @@
         <v>193</v>
       </c>
       <c r="D197" s="1" t="str">
-        <f t="shared" ref="D197:D259" si="38">DEC2HEX(C197,2)</f>
+        <f t="shared" ref="D197:D259" si="43">DEC2HEX(C197,2)</f>
         <v>C1</v>
       </c>
       <c r="E197" t="s">
         <v>202</v>
       </c>
       <c r="H197" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>#define  VAR_BMS1_CELL14_MV  193</v>
       </c>
       <c r="I197" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>public const byte VAR_BMS1_CELL14_MV = 193;</v>
       </c>
       <c r="J197">
         <v>13</v>
       </c>
       <c r="L197" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>UpdateScanList(VAR_BMS1_CELL14_MV, 3000);</v>
       </c>
       <c r="M197" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>VAR_SetVariable(VAR_BMS1_CELL14_MV, Cells[13].Voltage_mV, validflag);</v>
       </c>
       <c r="P197" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_BMS1_CELL14_MV", cJSON_CreateNumber(mVars[193]));</v>
       </c>
     </row>
@@ -6451,33 +6659,33 @@
         <v>194</v>
       </c>
       <c r="D198" s="1" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>C2</v>
       </c>
       <c r="E198" t="s">
         <v>203</v>
       </c>
       <c r="H198" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>#define  VAR_BMS1_CELL15_MV  194</v>
       </c>
       <c r="I198" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>public const byte VAR_BMS1_CELL15_MV = 194;</v>
       </c>
       <c r="J198">
         <v>14</v>
       </c>
       <c r="L198" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>UpdateScanList(VAR_BMS1_CELL15_MV, 3000);</v>
       </c>
       <c r="M198" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>VAR_SetVariable(VAR_BMS1_CELL15_MV, Cells[14].Voltage_mV, validflag);</v>
       </c>
       <c r="P198" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_BMS1_CELL15_MV", cJSON_CreateNumber(mVars[194]));</v>
       </c>
     </row>
@@ -6486,33 +6694,33 @@
         <v>195</v>
       </c>
       <c r="D199" s="1" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>C3</v>
       </c>
       <c r="E199" t="s">
         <v>204</v>
       </c>
       <c r="H199" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>#define  VAR_BMS1_CELL16_MV  195</v>
       </c>
       <c r="I199" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>public const byte VAR_BMS1_CELL16_MV = 195;</v>
       </c>
       <c r="J199">
         <v>15</v>
       </c>
       <c r="L199" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>UpdateScanList(VAR_BMS1_CELL16_MV, 3000);</v>
       </c>
       <c r="M199" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>VAR_SetVariable(VAR_BMS1_CELL16_MV, Cells[15].Voltage_mV, validflag);</v>
       </c>
       <c r="P199" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_BMS1_CELL16_MV", cJSON_CreateNumber(mVars[195]));</v>
       </c>
     </row>
@@ -6521,25 +6729,25 @@
         <v>196</v>
       </c>
       <c r="D200" s="1" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>C4</v>
       </c>
       <c r="E200" t="s">
         <v>221</v>
       </c>
       <c r="H200" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>#define  VAR_BMS1_CELL1_C  196</v>
       </c>
       <c r="I200" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>public const byte VAR_BMS1_CELL1_C = 196;</v>
       </c>
       <c r="J200">
         <v>0</v>
       </c>
       <c r="L200" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>UpdateScanList(VAR_BMS1_CELL1_C, 3000);</v>
       </c>
       <c r="M200" t="str">
@@ -6547,7 +6755,7 @@
         <v>VAR_SetVariable(VAR_BMS1_CELL1_C, Cells[0].Temp_C, validflag);</v>
       </c>
       <c r="P200" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_BMS1_CELL1_C", cJSON_CreateNumber(mVars[196]));</v>
       </c>
     </row>
@@ -6556,33 +6764,33 @@
         <v>197</v>
       </c>
       <c r="D201" s="1" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>C5</v>
       </c>
       <c r="E201" t="s">
         <v>222</v>
       </c>
       <c r="H201" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>#define  VAR_BMS1_CELL2_C  197</v>
       </c>
       <c r="I201" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>public const byte VAR_BMS1_CELL2_C = 197;</v>
       </c>
       <c r="J201">
         <v>1</v>
       </c>
       <c r="L201" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>UpdateScanList(VAR_BMS1_CELL2_C, 3000);</v>
       </c>
       <c r="M201" t="str">
-        <f t="shared" ref="M201:M215" si="39">CONCATENATE("VAR_SetVariable(",E201,", Cells[",J201,"].Temp_C", ", validflag);")</f>
+        <f t="shared" ref="M201:M215" si="44">CONCATENATE("VAR_SetVariable(",E201,", Cells[",J201,"].Temp_C", ", validflag);")</f>
         <v>VAR_SetVariable(VAR_BMS1_CELL2_C, Cells[1].Temp_C, validflag);</v>
       </c>
       <c r="P201" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_BMS1_CELL2_C", cJSON_CreateNumber(mVars[197]));</v>
       </c>
     </row>
@@ -6591,33 +6799,33 @@
         <v>198</v>
       </c>
       <c r="D202" s="1" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>C6</v>
       </c>
       <c r="E202" t="s">
         <v>223</v>
       </c>
       <c r="H202" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>#define  VAR_BMS1_CELL3_C  198</v>
       </c>
       <c r="I202" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>public const byte VAR_BMS1_CELL3_C = 198;</v>
       </c>
       <c r="J202">
         <v>2</v>
       </c>
       <c r="L202" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>UpdateScanList(VAR_BMS1_CELL3_C, 3000);</v>
       </c>
       <c r="M202" t="str">
+        <f t="shared" si="44"/>
+        <v>VAR_SetVariable(VAR_BMS1_CELL3_C, Cells[2].Temp_C, validflag);</v>
+      </c>
+      <c r="P202" t="str">
         <f t="shared" si="39"/>
-        <v>VAR_SetVariable(VAR_BMS1_CELL3_C, Cells[2].Temp_C, validflag);</v>
-      </c>
-      <c r="P202" t="str">
-        <f t="shared" si="34"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_BMS1_CELL3_C", cJSON_CreateNumber(mVars[198]));</v>
       </c>
     </row>
@@ -6626,33 +6834,33 @@
         <v>199</v>
       </c>
       <c r="D203" s="1" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>C7</v>
       </c>
       <c r="E203" t="s">
         <v>224</v>
       </c>
       <c r="H203" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>#define  VAR_BMS1_CELL4_C  199</v>
       </c>
       <c r="I203" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>public const byte VAR_BMS1_CELL4_C = 199;</v>
       </c>
       <c r="J203">
         <v>3</v>
       </c>
       <c r="L203" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>UpdateScanList(VAR_BMS1_CELL4_C, 3000);</v>
       </c>
       <c r="M203" t="str">
+        <f t="shared" si="44"/>
+        <v>VAR_SetVariable(VAR_BMS1_CELL4_C, Cells[3].Temp_C, validflag);</v>
+      </c>
+      <c r="P203" t="str">
         <f t="shared" si="39"/>
-        <v>VAR_SetVariable(VAR_BMS1_CELL4_C, Cells[3].Temp_C, validflag);</v>
-      </c>
-      <c r="P203" t="str">
-        <f t="shared" si="34"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_BMS1_CELL4_C", cJSON_CreateNumber(mVars[199]));</v>
       </c>
     </row>
@@ -6661,33 +6869,33 @@
         <v>200</v>
       </c>
       <c r="D204" s="1" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>C8</v>
       </c>
       <c r="E204" t="s">
         <v>225</v>
       </c>
       <c r="H204" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>#define  VAR_BMS1_CELL5_C  200</v>
       </c>
       <c r="I204" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>public const byte VAR_BMS1_CELL5_C = 200;</v>
       </c>
       <c r="J204">
         <v>4</v>
       </c>
       <c r="L204" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>UpdateScanList(VAR_BMS1_CELL5_C, 3000);</v>
       </c>
       <c r="M204" t="str">
+        <f t="shared" si="44"/>
+        <v>VAR_SetVariable(VAR_BMS1_CELL5_C, Cells[4].Temp_C, validflag);</v>
+      </c>
+      <c r="P204" t="str">
         <f t="shared" si="39"/>
-        <v>VAR_SetVariable(VAR_BMS1_CELL5_C, Cells[4].Temp_C, validflag);</v>
-      </c>
-      <c r="P204" t="str">
-        <f t="shared" si="34"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_BMS1_CELL5_C", cJSON_CreateNumber(mVars[200]));</v>
       </c>
     </row>
@@ -6696,33 +6904,33 @@
         <v>201</v>
       </c>
       <c r="D205" s="1" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>C9</v>
       </c>
       <c r="E205" t="s">
         <v>226</v>
       </c>
       <c r="H205" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>#define  VAR_BMS1_CELL6_C  201</v>
       </c>
       <c r="I205" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>public const byte VAR_BMS1_CELL6_C = 201;</v>
       </c>
       <c r="J205">
         <v>5</v>
       </c>
       <c r="L205" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>UpdateScanList(VAR_BMS1_CELL6_C, 3000);</v>
       </c>
       <c r="M205" t="str">
+        <f t="shared" si="44"/>
+        <v>VAR_SetVariable(VAR_BMS1_CELL6_C, Cells[5].Temp_C, validflag);</v>
+      </c>
+      <c r="P205" t="str">
         <f t="shared" si="39"/>
-        <v>VAR_SetVariable(VAR_BMS1_CELL6_C, Cells[5].Temp_C, validflag);</v>
-      </c>
-      <c r="P205" t="str">
-        <f t="shared" si="34"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_BMS1_CELL6_C", cJSON_CreateNumber(mVars[201]));</v>
       </c>
     </row>
@@ -6731,33 +6939,33 @@
         <v>202</v>
       </c>
       <c r="D206" s="1" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>CA</v>
       </c>
       <c r="E206" t="s">
         <v>227</v>
       </c>
       <c r="H206" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>#define  VAR_BMS1_CELL7_C  202</v>
       </c>
       <c r="I206" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>public const byte VAR_BMS1_CELL7_C = 202;</v>
       </c>
       <c r="J206">
         <v>6</v>
       </c>
       <c r="L206" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>UpdateScanList(VAR_BMS1_CELL7_C, 3000);</v>
       </c>
       <c r="M206" t="str">
+        <f t="shared" si="44"/>
+        <v>VAR_SetVariable(VAR_BMS1_CELL7_C, Cells[6].Temp_C, validflag);</v>
+      </c>
+      <c r="P206" t="str">
         <f t="shared" si="39"/>
-        <v>VAR_SetVariable(VAR_BMS1_CELL7_C, Cells[6].Temp_C, validflag);</v>
-      </c>
-      <c r="P206" t="str">
-        <f t="shared" si="34"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_BMS1_CELL7_C", cJSON_CreateNumber(mVars[202]));</v>
       </c>
     </row>
@@ -6766,33 +6974,33 @@
         <v>203</v>
       </c>
       <c r="D207" s="1" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>CB</v>
       </c>
       <c r="E207" t="s">
         <v>228</v>
       </c>
       <c r="H207" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>#define  VAR_BMS1_CELL8_C  203</v>
       </c>
       <c r="I207" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>public const byte VAR_BMS1_CELL8_C = 203;</v>
       </c>
       <c r="J207">
         <v>7</v>
       </c>
       <c r="L207" t="str">
-        <f t="shared" ref="L207:L255" si="40">CONCATENATE("UpdateScanList(",E207, ", 3000);")</f>
+        <f t="shared" ref="L207:L255" si="45">CONCATENATE("UpdateScanList(",E207, ", 3000);")</f>
         <v>UpdateScanList(VAR_BMS1_CELL8_C, 3000);</v>
       </c>
       <c r="M207" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="44"/>
         <v>VAR_SetVariable(VAR_BMS1_CELL8_C, Cells[7].Temp_C, validflag);</v>
       </c>
       <c r="P207" t="str">
-        <f t="shared" ref="P207:P255" si="41">CONCATENATE("cJSON_AddItemToObject(Uha, ","""",E207,"""",", cJSON_CreateNumber(mVars[",C207,"]));")</f>
+        <f t="shared" ref="P207:P255" si="46">CONCATENATE("cJSON_AddItemToObject(Uha, ","""",E207,"""",", cJSON_CreateNumber(mVars[",C207,"]));")</f>
         <v>cJSON_AddItemToObject(Uha, "VAR_BMS1_CELL8_C", cJSON_CreateNumber(mVars[203]));</v>
       </c>
     </row>
@@ -6801,33 +7009,33 @@
         <v>204</v>
       </c>
       <c r="D208" s="1" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>CC</v>
       </c>
       <c r="E208" t="s">
         <v>229</v>
       </c>
       <c r="H208" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>#define  VAR_BMS1_CELL9_C  204</v>
       </c>
       <c r="I208" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>public const byte VAR_BMS1_CELL9_C = 204;</v>
       </c>
       <c r="J208">
         <v>8</v>
       </c>
       <c r="L208" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="45"/>
         <v>UpdateScanList(VAR_BMS1_CELL9_C, 3000);</v>
       </c>
       <c r="M208" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="44"/>
         <v>VAR_SetVariable(VAR_BMS1_CELL9_C, Cells[8].Temp_C, validflag);</v>
       </c>
       <c r="P208" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_BMS1_CELL9_C", cJSON_CreateNumber(mVars[204]));</v>
       </c>
     </row>
@@ -6836,33 +7044,33 @@
         <v>205</v>
       </c>
       <c r="D209" s="1" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>CD</v>
       </c>
       <c r="E209" t="s">
         <v>230</v>
       </c>
       <c r="H209" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>#define  VAR_BMS1_CELL10_C  205</v>
       </c>
       <c r="I209" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>public const byte VAR_BMS1_CELL10_C = 205;</v>
       </c>
       <c r="J209">
         <v>9</v>
       </c>
       <c r="L209" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="45"/>
         <v>UpdateScanList(VAR_BMS1_CELL10_C, 3000);</v>
       </c>
       <c r="M209" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="44"/>
         <v>VAR_SetVariable(VAR_BMS1_CELL10_C, Cells[9].Temp_C, validflag);</v>
       </c>
       <c r="P209" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_BMS1_CELL10_C", cJSON_CreateNumber(mVars[205]));</v>
       </c>
     </row>
@@ -6871,33 +7079,33 @@
         <v>206</v>
       </c>
       <c r="D210" s="1" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>CE</v>
       </c>
       <c r="E210" t="s">
         <v>231</v>
       </c>
       <c r="H210" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>#define  VAR_BMS1_CELL11_C  206</v>
       </c>
       <c r="I210" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>public const byte VAR_BMS1_CELL11_C = 206;</v>
       </c>
       <c r="J210">
         <v>10</v>
       </c>
       <c r="L210" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="45"/>
         <v>UpdateScanList(VAR_BMS1_CELL11_C, 3000);</v>
       </c>
       <c r="M210" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="44"/>
         <v>VAR_SetVariable(VAR_BMS1_CELL11_C, Cells[10].Temp_C, validflag);</v>
       </c>
       <c r="P210" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_BMS1_CELL11_C", cJSON_CreateNumber(mVars[206]));</v>
       </c>
     </row>
@@ -6906,33 +7114,33 @@
         <v>207</v>
       </c>
       <c r="D211" s="1" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>CF</v>
       </c>
       <c r="E211" t="s">
         <v>232</v>
       </c>
       <c r="H211" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>#define  VAR_BMS1_CELL12_C  207</v>
       </c>
       <c r="I211" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>public const byte VAR_BMS1_CELL12_C = 207;</v>
       </c>
       <c r="J211">
         <v>11</v>
       </c>
       <c r="L211" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="45"/>
         <v>UpdateScanList(VAR_BMS1_CELL12_C, 3000);</v>
       </c>
       <c r="M211" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="44"/>
         <v>VAR_SetVariable(VAR_BMS1_CELL12_C, Cells[11].Temp_C, validflag);</v>
       </c>
       <c r="P211" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_BMS1_CELL12_C", cJSON_CreateNumber(mVars[207]));</v>
       </c>
     </row>
@@ -6941,33 +7149,33 @@
         <v>208</v>
       </c>
       <c r="D212" s="1" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>D0</v>
       </c>
       <c r="E212" t="s">
         <v>233</v>
       </c>
       <c r="H212" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>#define  VAR_BMS1_CELL13_C  208</v>
       </c>
       <c r="I212" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>public const byte VAR_BMS1_CELL13_C = 208;</v>
       </c>
       <c r="J212">
         <v>12</v>
       </c>
       <c r="L212" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="45"/>
         <v>UpdateScanList(VAR_BMS1_CELL13_C, 3000);</v>
       </c>
       <c r="M212" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="44"/>
         <v>VAR_SetVariable(VAR_BMS1_CELL13_C, Cells[12].Temp_C, validflag);</v>
       </c>
       <c r="P212" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_BMS1_CELL13_C", cJSON_CreateNumber(mVars[208]));</v>
       </c>
     </row>
@@ -6976,33 +7184,33 @@
         <v>209</v>
       </c>
       <c r="D213" s="1" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>D1</v>
       </c>
       <c r="E213" t="s">
         <v>234</v>
       </c>
       <c r="H213" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>#define  VAR_BMS1_CELL14_C  209</v>
       </c>
       <c r="I213" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>public const byte VAR_BMS1_CELL14_C = 209;</v>
       </c>
       <c r="J213">
         <v>13</v>
       </c>
       <c r="L213" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="45"/>
         <v>UpdateScanList(VAR_BMS1_CELL14_C, 3000);</v>
       </c>
       <c r="M213" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="44"/>
         <v>VAR_SetVariable(VAR_BMS1_CELL14_C, Cells[13].Temp_C, validflag);</v>
       </c>
       <c r="P213" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_BMS1_CELL14_C", cJSON_CreateNumber(mVars[209]));</v>
       </c>
     </row>
@@ -7011,33 +7219,33 @@
         <v>210</v>
       </c>
       <c r="D214" s="1" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>D2</v>
       </c>
       <c r="E214" t="s">
         <v>235</v>
       </c>
       <c r="H214" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>#define  VAR_BMS1_CELL15_C  210</v>
       </c>
       <c r="I214" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>public const byte VAR_BMS1_CELL15_C = 210;</v>
       </c>
       <c r="J214">
         <v>14</v>
       </c>
       <c r="L214" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="45"/>
         <v>UpdateScanList(VAR_BMS1_CELL15_C, 3000);</v>
       </c>
       <c r="M214" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="44"/>
         <v>VAR_SetVariable(VAR_BMS1_CELL15_C, Cells[14].Temp_C, validflag);</v>
       </c>
       <c r="P214" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_BMS1_CELL15_C", cJSON_CreateNumber(mVars[210]));</v>
       </c>
     </row>
@@ -7046,33 +7254,33 @@
         <v>211</v>
       </c>
       <c r="D215" s="1" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>D3</v>
       </c>
       <c r="E215" t="s">
         <v>236</v>
       </c>
       <c r="H215" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>#define  VAR_BMS1_CELL16_C  211</v>
       </c>
       <c r="I215" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>public const byte VAR_BMS1_CELL16_C = 211;</v>
       </c>
       <c r="J215">
         <v>15</v>
       </c>
       <c r="L215" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="45"/>
         <v>UpdateScanList(VAR_BMS1_CELL16_C, 3000);</v>
       </c>
       <c r="M215" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="44"/>
         <v>VAR_SetVariable(VAR_BMS1_CELL16_C, Cells[15].Temp_C, validflag);</v>
       </c>
       <c r="P215" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_BMS1_CELL16_C", cJSON_CreateNumber(mVars[211]));</v>
       </c>
     </row>
@@ -7081,7 +7289,7 @@
         <v>212</v>
       </c>
       <c r="D216" s="1" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>D4</v>
       </c>
     </row>
@@ -7090,7 +7298,7 @@
         <v>213</v>
       </c>
       <c r="D217" s="1" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>D5</v>
       </c>
     </row>
@@ -7099,7 +7307,7 @@
         <v>214</v>
       </c>
       <c r="D218" s="1" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>D6</v>
       </c>
     </row>
@@ -7108,7 +7316,7 @@
         <v>215</v>
       </c>
       <c r="D219" s="1" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>D7</v>
       </c>
     </row>
@@ -7117,7 +7325,7 @@
         <v>216</v>
       </c>
       <c r="D220" s="1" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>D8</v>
       </c>
     </row>
@@ -7126,7 +7334,7 @@
         <v>217</v>
       </c>
       <c r="D221" s="1" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>D9</v>
       </c>
     </row>
@@ -7135,7 +7343,7 @@
         <v>218</v>
       </c>
       <c r="D222" s="1" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>DA</v>
       </c>
     </row>
@@ -7144,7 +7352,7 @@
         <v>219</v>
       </c>
       <c r="D223" s="1" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>DB</v>
       </c>
     </row>
@@ -7153,33 +7361,33 @@
         <v>220</v>
       </c>
       <c r="D224" s="1" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>DC</v>
       </c>
       <c r="E224" t="s">
         <v>205</v>
       </c>
       <c r="H224" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>#define  VAR_BMS2_CELL1_MV  220</v>
       </c>
       <c r="I224" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>public const byte VAR_BMS2_CELL1_MV = 220;</v>
       </c>
       <c r="J224">
         <v>0</v>
       </c>
       <c r="L224" t="str">
+        <f t="shared" si="45"/>
+        <v>UpdateScanList(VAR_BMS2_CELL1_MV, 3000);</v>
+      </c>
+      <c r="M224" t="str">
         <f t="shared" si="40"/>
-        <v>UpdateScanList(VAR_BMS2_CELL1_MV, 3000);</v>
-      </c>
-      <c r="M224" t="str">
-        <f t="shared" si="35"/>
         <v>VAR_SetVariable(VAR_BMS2_CELL1_MV, Cells[0].Voltage_mV, validflag);</v>
       </c>
       <c r="P224" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_BMS2_CELL1_MV", cJSON_CreateNumber(mVars[220]));</v>
       </c>
     </row>
@@ -7188,33 +7396,33 @@
         <v>221</v>
       </c>
       <c r="D225" s="1" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>DD</v>
       </c>
       <c r="E225" t="s">
         <v>206</v>
       </c>
       <c r="H225" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>#define  VAR_BMS2_CELL2_MV  221</v>
       </c>
       <c r="I225" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>public const byte VAR_BMS2_CELL2_MV = 221;</v>
       </c>
       <c r="J225">
         <v>1</v>
       </c>
       <c r="L225" t="str">
+        <f t="shared" si="45"/>
+        <v>UpdateScanList(VAR_BMS2_CELL2_MV, 3000);</v>
+      </c>
+      <c r="M225" t="str">
         <f t="shared" si="40"/>
-        <v>UpdateScanList(VAR_BMS2_CELL2_MV, 3000);</v>
-      </c>
-      <c r="M225" t="str">
-        <f t="shared" si="35"/>
         <v>VAR_SetVariable(VAR_BMS2_CELL2_MV, Cells[1].Voltage_mV, validflag);</v>
       </c>
       <c r="P225" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_BMS2_CELL2_MV", cJSON_CreateNumber(mVars[221]));</v>
       </c>
     </row>
@@ -7223,33 +7431,33 @@
         <v>222</v>
       </c>
       <c r="D226" s="1" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>DE</v>
       </c>
       <c r="E226" t="s">
         <v>207</v>
       </c>
       <c r="H226" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>#define  VAR_BMS2_CELL3_MV  222</v>
       </c>
       <c r="I226" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>public const byte VAR_BMS2_CELL3_MV = 222;</v>
       </c>
       <c r="J226">
         <v>2</v>
       </c>
       <c r="L226" t="str">
+        <f t="shared" si="45"/>
+        <v>UpdateScanList(VAR_BMS2_CELL3_MV, 3000);</v>
+      </c>
+      <c r="M226" t="str">
         <f t="shared" si="40"/>
-        <v>UpdateScanList(VAR_BMS2_CELL3_MV, 3000);</v>
-      </c>
-      <c r="M226" t="str">
-        <f t="shared" si="35"/>
         <v>VAR_SetVariable(VAR_BMS2_CELL3_MV, Cells[2].Voltage_mV, validflag);</v>
       </c>
       <c r="P226" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_BMS2_CELL3_MV", cJSON_CreateNumber(mVars[222]));</v>
       </c>
     </row>
@@ -7258,33 +7466,33 @@
         <v>223</v>
       </c>
       <c r="D227" s="1" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>DF</v>
       </c>
       <c r="E227" t="s">
         <v>208</v>
       </c>
       <c r="H227" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>#define  VAR_BMS2_CELL4_MV  223</v>
       </c>
       <c r="I227" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>public const byte VAR_BMS2_CELL4_MV = 223;</v>
       </c>
       <c r="J227">
         <v>3</v>
       </c>
       <c r="L227" t="str">
+        <f t="shared" si="45"/>
+        <v>UpdateScanList(VAR_BMS2_CELL4_MV, 3000);</v>
+      </c>
+      <c r="M227" t="str">
         <f t="shared" si="40"/>
-        <v>UpdateScanList(VAR_BMS2_CELL4_MV, 3000);</v>
-      </c>
-      <c r="M227" t="str">
-        <f t="shared" si="35"/>
         <v>VAR_SetVariable(VAR_BMS2_CELL4_MV, Cells[3].Voltage_mV, validflag);</v>
       </c>
       <c r="P227" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_BMS2_CELL4_MV", cJSON_CreateNumber(mVars[223]));</v>
       </c>
     </row>
@@ -7293,33 +7501,33 @@
         <v>224</v>
       </c>
       <c r="D228" s="1" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>E0</v>
       </c>
       <c r="E228" t="s">
         <v>209</v>
       </c>
       <c r="H228" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>#define  VAR_BMS2_CELL5_MV  224</v>
       </c>
       <c r="I228" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>public const byte VAR_BMS2_CELL5_MV = 224;</v>
       </c>
       <c r="J228">
         <v>4</v>
       </c>
       <c r="L228" t="str">
+        <f t="shared" si="45"/>
+        <v>UpdateScanList(VAR_BMS2_CELL5_MV, 3000);</v>
+      </c>
+      <c r="M228" t="str">
         <f t="shared" si="40"/>
-        <v>UpdateScanList(VAR_BMS2_CELL5_MV, 3000);</v>
-      </c>
-      <c r="M228" t="str">
-        <f t="shared" si="35"/>
         <v>VAR_SetVariable(VAR_BMS2_CELL5_MV, Cells[4].Voltage_mV, validflag);</v>
       </c>
       <c r="P228" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_BMS2_CELL5_MV", cJSON_CreateNumber(mVars[224]));</v>
       </c>
     </row>
@@ -7328,33 +7536,33 @@
         <v>225</v>
       </c>
       <c r="D229" s="1" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>E1</v>
       </c>
       <c r="E229" t="s">
         <v>210</v>
       </c>
       <c r="H229" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>#define  VAR_BMS2_CELL6_MV  225</v>
       </c>
       <c r="I229" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>public const byte VAR_BMS2_CELL6_MV = 225;</v>
       </c>
       <c r="J229">
         <v>5</v>
       </c>
       <c r="L229" t="str">
+        <f t="shared" si="45"/>
+        <v>UpdateScanList(VAR_BMS2_CELL6_MV, 3000);</v>
+      </c>
+      <c r="M229" t="str">
         <f t="shared" si="40"/>
-        <v>UpdateScanList(VAR_BMS2_CELL6_MV, 3000);</v>
-      </c>
-      <c r="M229" t="str">
-        <f t="shared" si="35"/>
         <v>VAR_SetVariable(VAR_BMS2_CELL6_MV, Cells[5].Voltage_mV, validflag);</v>
       </c>
       <c r="P229" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_BMS2_CELL6_MV", cJSON_CreateNumber(mVars[225]));</v>
       </c>
     </row>
@@ -7363,33 +7571,33 @@
         <v>226</v>
       </c>
       <c r="D230" s="1" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>E2</v>
       </c>
       <c r="E230" t="s">
         <v>211</v>
       </c>
       <c r="H230" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>#define  VAR_BMS2_CELL7_MV  226</v>
       </c>
       <c r="I230" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>public const byte VAR_BMS2_CELL7_MV = 226;</v>
       </c>
       <c r="J230">
         <v>6</v>
       </c>
       <c r="L230" t="str">
+        <f t="shared" si="45"/>
+        <v>UpdateScanList(VAR_BMS2_CELL7_MV, 3000);</v>
+      </c>
+      <c r="M230" t="str">
         <f t="shared" si="40"/>
-        <v>UpdateScanList(VAR_BMS2_CELL7_MV, 3000);</v>
-      </c>
-      <c r="M230" t="str">
-        <f t="shared" si="35"/>
         <v>VAR_SetVariable(VAR_BMS2_CELL7_MV, Cells[6].Voltage_mV, validflag);</v>
       </c>
       <c r="P230" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_BMS2_CELL7_MV", cJSON_CreateNumber(mVars[226]));</v>
       </c>
     </row>
@@ -7398,33 +7606,33 @@
         <v>227</v>
       </c>
       <c r="D231" s="1" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>E3</v>
       </c>
       <c r="E231" t="s">
         <v>212</v>
       </c>
       <c r="H231" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>#define  VAR_BMS2_CELL8_MV  227</v>
       </c>
       <c r="I231" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>public const byte VAR_BMS2_CELL8_MV = 227;</v>
       </c>
       <c r="J231">
         <v>7</v>
       </c>
       <c r="L231" t="str">
+        <f t="shared" si="45"/>
+        <v>UpdateScanList(VAR_BMS2_CELL8_MV, 3000);</v>
+      </c>
+      <c r="M231" t="str">
         <f t="shared" si="40"/>
-        <v>UpdateScanList(VAR_BMS2_CELL8_MV, 3000);</v>
-      </c>
-      <c r="M231" t="str">
-        <f t="shared" si="35"/>
         <v>VAR_SetVariable(VAR_BMS2_CELL8_MV, Cells[7].Voltage_mV, validflag);</v>
       </c>
       <c r="P231" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_BMS2_CELL8_MV", cJSON_CreateNumber(mVars[227]));</v>
       </c>
     </row>
@@ -7433,33 +7641,33 @@
         <v>228</v>
       </c>
       <c r="D232" s="1" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>E4</v>
       </c>
       <c r="E232" t="s">
         <v>213</v>
       </c>
       <c r="H232" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>#define  VAR_BMS2_CELL9_MV  228</v>
       </c>
       <c r="I232" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>public const byte VAR_BMS2_CELL9_MV = 228;</v>
       </c>
       <c r="J232">
         <v>8</v>
       </c>
       <c r="L232" t="str">
+        <f t="shared" si="45"/>
+        <v>UpdateScanList(VAR_BMS2_CELL9_MV, 3000);</v>
+      </c>
+      <c r="M232" t="str">
         <f t="shared" si="40"/>
-        <v>UpdateScanList(VAR_BMS2_CELL9_MV, 3000);</v>
-      </c>
-      <c r="M232" t="str">
-        <f t="shared" si="35"/>
         <v>VAR_SetVariable(VAR_BMS2_CELL9_MV, Cells[8].Voltage_mV, validflag);</v>
       </c>
       <c r="P232" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_BMS2_CELL9_MV", cJSON_CreateNumber(mVars[228]));</v>
       </c>
     </row>
@@ -7468,33 +7676,33 @@
         <v>229</v>
       </c>
       <c r="D233" s="1" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>E5</v>
       </c>
       <c r="E233" t="s">
         <v>214</v>
       </c>
       <c r="H233" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>#define  VAR_BMS2_CELL10_MV  229</v>
       </c>
       <c r="I233" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>public const byte VAR_BMS2_CELL10_MV = 229;</v>
       </c>
       <c r="J233">
         <v>9</v>
       </c>
       <c r="L233" t="str">
+        <f t="shared" si="45"/>
+        <v>UpdateScanList(VAR_BMS2_CELL10_MV, 3000);</v>
+      </c>
+      <c r="M233" t="str">
         <f t="shared" si="40"/>
-        <v>UpdateScanList(VAR_BMS2_CELL10_MV, 3000);</v>
-      </c>
-      <c r="M233" t="str">
-        <f t="shared" si="35"/>
         <v>VAR_SetVariable(VAR_BMS2_CELL10_MV, Cells[9].Voltage_mV, validflag);</v>
       </c>
       <c r="P233" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_BMS2_CELL10_MV", cJSON_CreateNumber(mVars[229]));</v>
       </c>
     </row>
@@ -7503,33 +7711,33 @@
         <v>230</v>
       </c>
       <c r="D234" s="1" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>E6</v>
       </c>
       <c r="E234" t="s">
         <v>215</v>
       </c>
       <c r="H234" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>#define  VAR_BMS2_CELL11_MV  230</v>
       </c>
       <c r="I234" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>public const byte VAR_BMS2_CELL11_MV = 230;</v>
       </c>
       <c r="J234">
         <v>10</v>
       </c>
       <c r="L234" t="str">
+        <f t="shared" si="45"/>
+        <v>UpdateScanList(VAR_BMS2_CELL11_MV, 3000);</v>
+      </c>
+      <c r="M234" t="str">
         <f t="shared" si="40"/>
-        <v>UpdateScanList(VAR_BMS2_CELL11_MV, 3000);</v>
-      </c>
-      <c r="M234" t="str">
-        <f t="shared" si="35"/>
         <v>VAR_SetVariable(VAR_BMS2_CELL11_MV, Cells[10].Voltage_mV, validflag);</v>
       </c>
       <c r="P234" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_BMS2_CELL11_MV", cJSON_CreateNumber(mVars[230]));</v>
       </c>
     </row>
@@ -7538,33 +7746,33 @@
         <v>231</v>
       </c>
       <c r="D235" s="1" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>E7</v>
       </c>
       <c r="E235" t="s">
         <v>216</v>
       </c>
       <c r="H235" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>#define  VAR_BMS2_CELL12_MV  231</v>
       </c>
       <c r="I235" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>public const byte VAR_BMS2_CELL12_MV = 231;</v>
       </c>
       <c r="J235">
         <v>11</v>
       </c>
       <c r="L235" t="str">
+        <f t="shared" si="45"/>
+        <v>UpdateScanList(VAR_BMS2_CELL12_MV, 3000);</v>
+      </c>
+      <c r="M235" t="str">
         <f t="shared" si="40"/>
-        <v>UpdateScanList(VAR_BMS2_CELL12_MV, 3000);</v>
-      </c>
-      <c r="M235" t="str">
-        <f t="shared" si="35"/>
         <v>VAR_SetVariable(VAR_BMS2_CELL12_MV, Cells[11].Voltage_mV, validflag);</v>
       </c>
       <c r="P235" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_BMS2_CELL12_MV", cJSON_CreateNumber(mVars[231]));</v>
       </c>
     </row>
@@ -7573,33 +7781,33 @@
         <v>232</v>
       </c>
       <c r="D236" s="1" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>E8</v>
       </c>
       <c r="E236" t="s">
         <v>217</v>
       </c>
       <c r="H236" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>#define  VAR_BMS2_CELL13_MV  232</v>
       </c>
       <c r="I236" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>public const byte VAR_BMS2_CELL13_MV = 232;</v>
       </c>
       <c r="J236">
         <v>12</v>
       </c>
       <c r="L236" t="str">
+        <f t="shared" si="45"/>
+        <v>UpdateScanList(VAR_BMS2_CELL13_MV, 3000);</v>
+      </c>
+      <c r="M236" t="str">
         <f t="shared" si="40"/>
-        <v>UpdateScanList(VAR_BMS2_CELL13_MV, 3000);</v>
-      </c>
-      <c r="M236" t="str">
-        <f t="shared" si="35"/>
         <v>VAR_SetVariable(VAR_BMS2_CELL13_MV, Cells[12].Voltage_mV, validflag);</v>
       </c>
       <c r="P236" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_BMS2_CELL13_MV", cJSON_CreateNumber(mVars[232]));</v>
       </c>
     </row>
@@ -7608,33 +7816,33 @@
         <v>233</v>
       </c>
       <c r="D237" s="1" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>E9</v>
       </c>
       <c r="E237" t="s">
         <v>218</v>
       </c>
       <c r="H237" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>#define  VAR_BMS2_CELL14_MV  233</v>
       </c>
       <c r="I237" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>public const byte VAR_BMS2_CELL14_MV = 233;</v>
       </c>
       <c r="J237">
         <v>13</v>
       </c>
       <c r="L237" t="str">
+        <f t="shared" si="45"/>
+        <v>UpdateScanList(VAR_BMS2_CELL14_MV, 3000);</v>
+      </c>
+      <c r="M237" t="str">
         <f t="shared" si="40"/>
-        <v>UpdateScanList(VAR_BMS2_CELL14_MV, 3000);</v>
-      </c>
-      <c r="M237" t="str">
-        <f t="shared" si="35"/>
         <v>VAR_SetVariable(VAR_BMS2_CELL14_MV, Cells[13].Voltage_mV, validflag);</v>
       </c>
       <c r="P237" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_BMS2_CELL14_MV", cJSON_CreateNumber(mVars[233]));</v>
       </c>
     </row>
@@ -7643,33 +7851,33 @@
         <v>234</v>
       </c>
       <c r="D238" s="1" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>EA</v>
       </c>
       <c r="E238" t="s">
         <v>219</v>
       </c>
       <c r="H238" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>#define  VAR_BMS2_CELL15_MV  234</v>
       </c>
       <c r="I238" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>public const byte VAR_BMS2_CELL15_MV = 234;</v>
       </c>
       <c r="J238">
         <v>14</v>
       </c>
       <c r="L238" t="str">
+        <f t="shared" si="45"/>
+        <v>UpdateScanList(VAR_BMS2_CELL15_MV, 3000);</v>
+      </c>
+      <c r="M238" t="str">
         <f t="shared" si="40"/>
-        <v>UpdateScanList(VAR_BMS2_CELL15_MV, 3000);</v>
-      </c>
-      <c r="M238" t="str">
-        <f t="shared" si="35"/>
         <v>VAR_SetVariable(VAR_BMS2_CELL15_MV, Cells[14].Voltage_mV, validflag);</v>
       </c>
       <c r="P238" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_BMS2_CELL15_MV", cJSON_CreateNumber(mVars[234]));</v>
       </c>
     </row>
@@ -7678,33 +7886,33 @@
         <v>235</v>
       </c>
       <c r="D239" s="1" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>EB</v>
       </c>
       <c r="E239" t="s">
         <v>220</v>
       </c>
       <c r="H239" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>#define  VAR_BMS2_CELL16_MV  235</v>
       </c>
       <c r="I239" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>public const byte VAR_BMS2_CELL16_MV = 235;</v>
       </c>
       <c r="J239">
         <v>15</v>
       </c>
       <c r="L239" t="str">
+        <f t="shared" si="45"/>
+        <v>UpdateScanList(VAR_BMS2_CELL16_MV, 3000);</v>
+      </c>
+      <c r="M239" t="str">
         <f t="shared" si="40"/>
-        <v>UpdateScanList(VAR_BMS2_CELL16_MV, 3000);</v>
-      </c>
-      <c r="M239" t="str">
-        <f t="shared" si="35"/>
         <v>VAR_SetVariable(VAR_BMS2_CELL16_MV, Cells[15].Voltage_mV, validflag);</v>
       </c>
       <c r="P239" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_BMS2_CELL16_MV", cJSON_CreateNumber(mVars[235]));</v>
       </c>
     </row>
@@ -7713,25 +7921,25 @@
         <v>236</v>
       </c>
       <c r="D240" s="1" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>EC</v>
       </c>
       <c r="E240" t="s">
         <v>237</v>
       </c>
       <c r="H240" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>#define  VAR_BMS2_CELL1_C  236</v>
       </c>
       <c r="I240" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>public const byte VAR_BMS2_CELL1_C = 236;</v>
       </c>
       <c r="J240">
         <v>0</v>
       </c>
       <c r="L240" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="45"/>
         <v>UpdateScanList(VAR_BMS2_CELL1_C, 3000);</v>
       </c>
       <c r="M240" t="str">
@@ -7739,7 +7947,7 @@
         <v>VAR_SetVariable(VAR_BMS2_CELL1_C, Cells[0].Temp_C, validflag);</v>
       </c>
       <c r="P240" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_BMS2_CELL1_C", cJSON_CreateNumber(mVars[236]));</v>
       </c>
     </row>
@@ -7748,33 +7956,33 @@
         <v>237</v>
       </c>
       <c r="D241" s="1" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>ED</v>
       </c>
       <c r="E241" t="s">
         <v>238</v>
       </c>
       <c r="H241" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>#define  VAR_BMS2_CELL2_C  237</v>
       </c>
       <c r="I241" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>public const byte VAR_BMS2_CELL2_C = 237;</v>
       </c>
       <c r="J241">
         <v>1</v>
       </c>
       <c r="L241" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="45"/>
         <v>UpdateScanList(VAR_BMS2_CELL2_C, 3000);</v>
       </c>
       <c r="M241" t="str">
-        <f t="shared" ref="M241:M255" si="42">CONCATENATE("VAR_SetVariable(",E241,", Cells[",J241,"].Temp_C", ", validflag);")</f>
+        <f t="shared" ref="M241:M255" si="47">CONCATENATE("VAR_SetVariable(",E241,", Cells[",J241,"].Temp_C", ", validflag);")</f>
         <v>VAR_SetVariable(VAR_BMS2_CELL2_C, Cells[1].Temp_C, validflag);</v>
       </c>
       <c r="P241" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_BMS2_CELL2_C", cJSON_CreateNumber(mVars[237]));</v>
       </c>
     </row>
@@ -7783,33 +7991,33 @@
         <v>238</v>
       </c>
       <c r="D242" s="1" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>EE</v>
       </c>
       <c r="E242" t="s">
         <v>239</v>
       </c>
       <c r="H242" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>#define  VAR_BMS2_CELL3_C  238</v>
       </c>
       <c r="I242" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>public const byte VAR_BMS2_CELL3_C = 238;</v>
       </c>
       <c r="J242">
         <v>2</v>
       </c>
       <c r="L242" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="45"/>
         <v>UpdateScanList(VAR_BMS2_CELL3_C, 3000);</v>
       </c>
       <c r="M242" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="47"/>
         <v>VAR_SetVariable(VAR_BMS2_CELL3_C, Cells[2].Temp_C, validflag);</v>
       </c>
       <c r="P242" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_BMS2_CELL3_C", cJSON_CreateNumber(mVars[238]));</v>
       </c>
     </row>
@@ -7818,33 +8026,33 @@
         <v>239</v>
       </c>
       <c r="D243" s="1" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>EF</v>
       </c>
       <c r="E243" t="s">
         <v>240</v>
       </c>
       <c r="H243" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>#define  VAR_BMS2_CELL4_C  239</v>
       </c>
       <c r="I243" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>public const byte VAR_BMS2_CELL4_C = 239;</v>
       </c>
       <c r="J243">
         <v>3</v>
       </c>
       <c r="L243" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="45"/>
         <v>UpdateScanList(VAR_BMS2_CELL4_C, 3000);</v>
       </c>
       <c r="M243" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="47"/>
         <v>VAR_SetVariable(VAR_BMS2_CELL4_C, Cells[3].Temp_C, validflag);</v>
       </c>
       <c r="P243" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_BMS2_CELL4_C", cJSON_CreateNumber(mVars[239]));</v>
       </c>
     </row>
@@ -7853,33 +8061,33 @@
         <v>240</v>
       </c>
       <c r="D244" s="1" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>F0</v>
       </c>
       <c r="E244" t="s">
         <v>241</v>
       </c>
       <c r="H244" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>#define  VAR_BMS2_CELL5_C  240</v>
       </c>
       <c r="I244" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>public const byte VAR_BMS2_CELL5_C = 240;</v>
       </c>
       <c r="J244">
         <v>4</v>
       </c>
       <c r="L244" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="45"/>
         <v>UpdateScanList(VAR_BMS2_CELL5_C, 3000);</v>
       </c>
       <c r="M244" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="47"/>
         <v>VAR_SetVariable(VAR_BMS2_CELL5_C, Cells[4].Temp_C, validflag);</v>
       </c>
       <c r="P244" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_BMS2_CELL5_C", cJSON_CreateNumber(mVars[240]));</v>
       </c>
     </row>
@@ -7888,33 +8096,33 @@
         <v>241</v>
       </c>
       <c r="D245" s="1" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>F1</v>
       </c>
       <c r="E245" t="s">
         <v>242</v>
       </c>
       <c r="H245" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>#define  VAR_BMS2_CELL6_C  241</v>
       </c>
       <c r="I245" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>public const byte VAR_BMS2_CELL6_C = 241;</v>
       </c>
       <c r="J245">
         <v>5</v>
       </c>
       <c r="L245" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="45"/>
         <v>UpdateScanList(VAR_BMS2_CELL6_C, 3000);</v>
       </c>
       <c r="M245" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="47"/>
         <v>VAR_SetVariable(VAR_BMS2_CELL6_C, Cells[5].Temp_C, validflag);</v>
       </c>
       <c r="P245" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_BMS2_CELL6_C", cJSON_CreateNumber(mVars[241]));</v>
       </c>
     </row>
@@ -7923,33 +8131,33 @@
         <v>242</v>
       </c>
       <c r="D246" s="1" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>F2</v>
       </c>
       <c r="E246" t="s">
         <v>243</v>
       </c>
       <c r="H246" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>#define  VAR_BMS2_CELL7_C  242</v>
       </c>
       <c r="I246" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>public const byte VAR_BMS2_CELL7_C = 242;</v>
       </c>
       <c r="J246">
         <v>6</v>
       </c>
       <c r="L246" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="45"/>
         <v>UpdateScanList(VAR_BMS2_CELL7_C, 3000);</v>
       </c>
       <c r="M246" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="47"/>
         <v>VAR_SetVariable(VAR_BMS2_CELL7_C, Cells[6].Temp_C, validflag);</v>
       </c>
       <c r="P246" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_BMS2_CELL7_C", cJSON_CreateNumber(mVars[242]));</v>
       </c>
     </row>
@@ -7958,33 +8166,33 @@
         <v>243</v>
       </c>
       <c r="D247" s="1" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>F3</v>
       </c>
       <c r="E247" t="s">
         <v>244</v>
       </c>
       <c r="H247" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>#define  VAR_BMS2_CELL8_C  243</v>
       </c>
       <c r="I247" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>public const byte VAR_BMS2_CELL8_C = 243;</v>
       </c>
       <c r="J247">
         <v>7</v>
       </c>
       <c r="L247" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="45"/>
         <v>UpdateScanList(VAR_BMS2_CELL8_C, 3000);</v>
       </c>
       <c r="M247" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="47"/>
         <v>VAR_SetVariable(VAR_BMS2_CELL8_C, Cells[7].Temp_C, validflag);</v>
       </c>
       <c r="P247" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_BMS2_CELL8_C", cJSON_CreateNumber(mVars[243]));</v>
       </c>
     </row>
@@ -7993,33 +8201,33 @@
         <v>244</v>
       </c>
       <c r="D248" s="1" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>F4</v>
       </c>
       <c r="E248" t="s">
         <v>245</v>
       </c>
       <c r="H248" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>#define  VAR_BMS2_CELL9_C  244</v>
       </c>
       <c r="I248" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>public const byte VAR_BMS2_CELL9_C = 244;</v>
       </c>
       <c r="J248">
         <v>8</v>
       </c>
       <c r="L248" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="45"/>
         <v>UpdateScanList(VAR_BMS2_CELL9_C, 3000);</v>
       </c>
       <c r="M248" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="47"/>
         <v>VAR_SetVariable(VAR_BMS2_CELL9_C, Cells[8].Temp_C, validflag);</v>
       </c>
       <c r="P248" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_BMS2_CELL9_C", cJSON_CreateNumber(mVars[244]));</v>
       </c>
     </row>
@@ -8028,33 +8236,33 @@
         <v>245</v>
       </c>
       <c r="D249" s="1" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>F5</v>
       </c>
       <c r="E249" t="s">
         <v>246</v>
       </c>
       <c r="H249" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>#define  VAR_BMS2_CELL10_C  245</v>
       </c>
       <c r="I249" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>public const byte VAR_BMS2_CELL10_C = 245;</v>
       </c>
       <c r="J249">
         <v>9</v>
       </c>
       <c r="L249" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="45"/>
         <v>UpdateScanList(VAR_BMS2_CELL10_C, 3000);</v>
       </c>
       <c r="M249" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="47"/>
         <v>VAR_SetVariable(VAR_BMS2_CELL10_C, Cells[9].Temp_C, validflag);</v>
       </c>
       <c r="P249" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_BMS2_CELL10_C", cJSON_CreateNumber(mVars[245]));</v>
       </c>
     </row>
@@ -8063,33 +8271,33 @@
         <v>246</v>
       </c>
       <c r="D250" s="1" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>F6</v>
       </c>
       <c r="E250" t="s">
         <v>247</v>
       </c>
       <c r="H250" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>#define  VAR_BMS2_CELL11_C  246</v>
       </c>
       <c r="I250" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>public const byte VAR_BMS2_CELL11_C = 246;</v>
       </c>
       <c r="J250">
         <v>10</v>
       </c>
       <c r="L250" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="45"/>
         <v>UpdateScanList(VAR_BMS2_CELL11_C, 3000);</v>
       </c>
       <c r="M250" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="47"/>
         <v>VAR_SetVariable(VAR_BMS2_CELL11_C, Cells[10].Temp_C, validflag);</v>
       </c>
       <c r="P250" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_BMS2_CELL11_C", cJSON_CreateNumber(mVars[246]));</v>
       </c>
     </row>
@@ -8098,33 +8306,33 @@
         <v>247</v>
       </c>
       <c r="D251" s="1" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>F7</v>
       </c>
       <c r="E251" t="s">
         <v>248</v>
       </c>
       <c r="H251" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>#define  VAR_BMS2_CELL12_C  247</v>
       </c>
       <c r="I251" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>public const byte VAR_BMS2_CELL12_C = 247;</v>
       </c>
       <c r="J251">
         <v>11</v>
       </c>
       <c r="L251" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="45"/>
         <v>UpdateScanList(VAR_BMS2_CELL12_C, 3000);</v>
       </c>
       <c r="M251" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="47"/>
         <v>VAR_SetVariable(VAR_BMS2_CELL12_C, Cells[11].Temp_C, validflag);</v>
       </c>
       <c r="P251" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_BMS2_CELL12_C", cJSON_CreateNumber(mVars[247]));</v>
       </c>
     </row>
@@ -8133,33 +8341,33 @@
         <v>248</v>
       </c>
       <c r="D252" s="1" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>F8</v>
       </c>
       <c r="E252" t="s">
         <v>249</v>
       </c>
       <c r="H252" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>#define  VAR_BMS2_CELL13_C  248</v>
       </c>
       <c r="I252" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>public const byte VAR_BMS2_CELL13_C = 248;</v>
       </c>
       <c r="J252">
         <v>12</v>
       </c>
       <c r="L252" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="45"/>
         <v>UpdateScanList(VAR_BMS2_CELL13_C, 3000);</v>
       </c>
       <c r="M252" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="47"/>
         <v>VAR_SetVariable(VAR_BMS2_CELL13_C, Cells[12].Temp_C, validflag);</v>
       </c>
       <c r="P252" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_BMS2_CELL13_C", cJSON_CreateNumber(mVars[248]));</v>
       </c>
     </row>
@@ -8168,33 +8376,33 @@
         <v>249</v>
       </c>
       <c r="D253" s="1" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>F9</v>
       </c>
       <c r="E253" t="s">
         <v>250</v>
       </c>
       <c r="H253" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>#define  VAR_BMS2_CELL14_C  249</v>
       </c>
       <c r="I253" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>public const byte VAR_BMS2_CELL14_C = 249;</v>
       </c>
       <c r="J253">
         <v>13</v>
       </c>
       <c r="L253" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="45"/>
         <v>UpdateScanList(VAR_BMS2_CELL14_C, 3000);</v>
       </c>
       <c r="M253" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="47"/>
         <v>VAR_SetVariable(VAR_BMS2_CELL14_C, Cells[13].Temp_C, validflag);</v>
       </c>
       <c r="P253" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_BMS2_CELL14_C", cJSON_CreateNumber(mVars[249]));</v>
       </c>
     </row>
@@ -8203,33 +8411,33 @@
         <v>250</v>
       </c>
       <c r="D254" s="1" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>FA</v>
       </c>
       <c r="E254" t="s">
         <v>251</v>
       </c>
       <c r="H254" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>#define  VAR_BMS2_CELL15_C  250</v>
       </c>
       <c r="I254" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>public const byte VAR_BMS2_CELL15_C = 250;</v>
       </c>
       <c r="J254">
         <v>14</v>
       </c>
       <c r="L254" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="45"/>
         <v>UpdateScanList(VAR_BMS2_CELL15_C, 3000);</v>
       </c>
       <c r="M254" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="47"/>
         <v>VAR_SetVariable(VAR_BMS2_CELL15_C, Cells[14].Temp_C, validflag);</v>
       </c>
       <c r="P254" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_BMS2_CELL15_C", cJSON_CreateNumber(mVars[250]));</v>
       </c>
     </row>
@@ -8238,33 +8446,33 @@
         <v>251</v>
       </c>
       <c r="D255" s="1" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>FB</v>
       </c>
       <c r="E255" t="s">
         <v>252</v>
       </c>
       <c r="H255" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>#define  VAR_BMS2_CELL16_C  251</v>
       </c>
       <c r="I255" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>public const byte VAR_BMS2_CELL16_C = 251;</v>
       </c>
       <c r="J255">
         <v>15</v>
       </c>
       <c r="L255" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="45"/>
         <v>UpdateScanList(VAR_BMS2_CELL16_C, 3000);</v>
       </c>
       <c r="M255" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="47"/>
         <v>VAR_SetVariable(VAR_BMS2_CELL16_C, Cells[15].Temp_C, validflag);</v>
       </c>
       <c r="P255" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_BMS2_CELL16_C", cJSON_CreateNumber(mVars[251]));</v>
       </c>
     </row>
@@ -8273,7 +8481,7 @@
         <v>252</v>
       </c>
       <c r="D256" s="1" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>FC</v>
       </c>
     </row>
@@ -8282,7 +8490,7 @@
         <v>253</v>
       </c>
       <c r="D257" s="1" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>FD</v>
       </c>
     </row>
@@ -8291,7 +8499,7 @@
         <v>254</v>
       </c>
       <c r="D258" s="1" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>FE</v>
       </c>
     </row>
@@ -8300,7 +8508,7 @@
         <v>255</v>
       </c>
       <c r="D259" s="1" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>FF</v>
       </c>
     </row>

--- a/UHA.xlsx
+++ b/UHA.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="0" windowWidth="13170" windowHeight="1185"/>
+    <workbookView xWindow="240" yWindow="0" windowWidth="9390" windowHeight="1185"/>
   </bookViews>
   <sheets>
     <sheet name="UHA meas values" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="313">
   <si>
     <t>dec</t>
   </si>
@@ -436,9 +436,6 @@
     <t>VAR_BAT_SOC</t>
   </si>
   <si>
-    <t>VAR_LOAD_A10</t>
-  </si>
-  <si>
     <t>VAR_BAT_VOLTAGE_V10</t>
   </si>
   <si>
@@ -953,6 +950,12 @@
   </si>
   <si>
     <t>VAR_CURR_RECU_A</t>
+  </si>
+  <si>
+    <t>VAR_LOAD_A100</t>
+  </si>
+  <si>
+    <t>VAR_SHUNT_CURRENT_A100</t>
   </si>
 </sst>
 </file>
@@ -1471,8 +1474,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B3:P259"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B88" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I145" sqref="I145"/>
+    <sheetView tabSelected="1" topLeftCell="J28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P54" sqref="P54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1534,7 +1537,7 @@
         <v>01</v>
       </c>
       <c r="E5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H5" t="str">
         <f t="shared" si="0"/>
@@ -1728,7 +1731,7 @@
         <v>0B</v>
       </c>
       <c r="E15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H15" t="str">
         <f t="shared" si="0"/>
@@ -1743,7 +1746,7 @@
         <v>UpdateScanList(VAR_BAT_VOLTAGE_V10, 3000);</v>
       </c>
       <c r="P15" t="str">
-        <f t="shared" ref="P15:P52" si="4">CONCATENATE("cJSON_AddItemToObject(Uha, ","""",E15,"""",", cJSON_CreateNumber(mVars[",C15,"]));")</f>
+        <f t="shared" ref="P15:P54" si="4">CONCATENATE("cJSON_AddItemToObject(Uha, ","""",E15,"""",", cJSON_CreateNumber(mVars[",C15,"]));")</f>
         <v>cJSON_AddItemToObject(Uha, "VAR_BAT_VOLTAGE_V10", cJSON_CreateNumber(mVars[11]));</v>
       </c>
     </row>
@@ -1757,23 +1760,23 @@
         <v>0C</v>
       </c>
       <c r="E16" t="s">
-        <v>139</v>
+        <v>311</v>
       </c>
       <c r="H16" t="str">
         <f t="shared" si="0"/>
-        <v>#define  VAR_LOAD_A10  12</v>
+        <v>#define  VAR_LOAD_A100  12</v>
       </c>
       <c r="I16" t="str">
         <f t="shared" si="1"/>
-        <v>public const byte VAR_LOAD_A10 = 12;</v>
+        <v>public const byte VAR_LOAD_A100 = 12;</v>
       </c>
       <c r="L16" t="str">
         <f t="shared" si="3"/>
-        <v>UpdateScanList(VAR_LOAD_A10, 3000);</v>
+        <v>UpdateScanList(VAR_LOAD_A100, 3000);</v>
       </c>
       <c r="P16" t="str">
         <f t="shared" si="4"/>
-        <v>cJSON_AddItemToObject(Uha, "VAR_LOAD_A10", cJSON_CreateNumber(mVars[12]));</v>
+        <v>cJSON_AddItemToObject(Uha, "VAR_LOAD_A100", cJSON_CreateNumber(mVars[12]));</v>
       </c>
     </row>
     <row r="17" spans="2:16">
@@ -1786,7 +1789,7 @@
         <v>0D</v>
       </c>
       <c r="E17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H17" t="str">
         <f t="shared" si="0"/>
@@ -1815,7 +1818,7 @@
         <v>0E</v>
       </c>
       <c r="E18" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H18" t="str">
         <f t="shared" si="0"/>
@@ -1844,7 +1847,7 @@
         <v>0F</v>
       </c>
       <c r="E19" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H19" t="str">
         <f t="shared" si="0"/>
@@ -1873,7 +1876,7 @@
         <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H20" t="str">
         <f t="shared" si="0"/>
@@ -1902,7 +1905,7 @@
         <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H21" t="str">
         <f t="shared" si="0"/>
@@ -1967,7 +1970,7 @@
         <v>14</v>
       </c>
       <c r="E24" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H24" t="str">
         <f t="shared" si="0"/>
@@ -2000,7 +2003,7 @@
         <v>15</v>
       </c>
       <c r="E25" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H25" t="str">
         <f t="shared" si="0"/>
@@ -2033,7 +2036,7 @@
         <v>16</v>
       </c>
       <c r="E26" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H26" t="str">
         <f t="shared" si="0"/>
@@ -2066,7 +2069,7 @@
         <v>17</v>
       </c>
       <c r="E27" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H27" t="str">
         <f t="shared" si="0"/>
@@ -2099,7 +2102,7 @@
         <v>18</v>
       </c>
       <c r="E28" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H28" t="str">
         <f t="shared" si="0"/>
@@ -2222,7 +2225,7 @@
         <v>1E</v>
       </c>
       <c r="E34" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H34" t="str">
         <f t="shared" si="0"/>
@@ -2255,7 +2258,7 @@
         <v>1F</v>
       </c>
       <c r="E35" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H35" t="str">
         <f t="shared" si="0"/>
@@ -2288,7 +2291,7 @@
         <v>20</v>
       </c>
       <c r="E36" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H36" t="str">
         <f t="shared" si="0"/>
@@ -2321,7 +2324,7 @@
         <v>21</v>
       </c>
       <c r="E37" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H37" t="str">
         <f t="shared" si="0"/>
@@ -2354,7 +2357,7 @@
         <v>22</v>
       </c>
       <c r="E38" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H38" t="str">
         <f t="shared" si="0"/>
@@ -2477,7 +2480,7 @@
         <v>28</v>
       </c>
       <c r="E44" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H44" t="str">
         <f t="shared" si="0"/>
@@ -2506,7 +2509,7 @@
         <v>29</v>
       </c>
       <c r="E45" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H45" t="str">
         <f t="shared" si="0"/>
@@ -2535,7 +2538,7 @@
         <v>2A</v>
       </c>
       <c r="E46" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H46" t="str">
         <f t="shared" si="0"/>
@@ -2564,7 +2567,7 @@
         <v>2B</v>
       </c>
       <c r="E47" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H47" t="str">
         <f t="shared" si="0"/>
@@ -2593,7 +2596,7 @@
         <v>2C</v>
       </c>
       <c r="E48" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H48" t="str">
         <f t="shared" si="0"/>
@@ -2622,7 +2625,7 @@
         <v>2D</v>
       </c>
       <c r="E49" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H49" t="str">
         <f t="shared" si="0"/>
@@ -2651,7 +2654,7 @@
         <v>2E</v>
       </c>
       <c r="E50" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H50" t="str">
         <f t="shared" si="0"/>
@@ -2680,7 +2683,7 @@
         <v>2F</v>
       </c>
       <c r="E51" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H51" t="str">
         <f t="shared" si="0"/>
@@ -2709,7 +2712,7 @@
         <v>30</v>
       </c>
       <c r="E52" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H52" t="str">
         <f t="shared" si="0"/>
@@ -2755,13 +2758,24 @@
         <f t="shared" si="2"/>
         <v>32</v>
       </c>
+      <c r="E54" t="s">
+        <v>312</v>
+      </c>
       <c r="H54" t="str">
         <f t="shared" si="0"/>
-        <v>#define    50</v>
+        <v>#define  VAR_SHUNT_CURRENT_A100  50</v>
       </c>
       <c r="I54" t="str">
         <f t="shared" si="1"/>
-        <v>public const byte  = 50;</v>
+        <v>public const byte VAR_SHUNT_CURRENT_A100 = 50;</v>
+      </c>
+      <c r="L54" t="str">
+        <f t="shared" si="3"/>
+        <v>UpdateScanList(VAR_SHUNT_CURRENT_A100, 3000);</v>
+      </c>
+      <c r="P54" t="str">
+        <f t="shared" si="4"/>
+        <v>cJSON_AddItemToObject(Uha, "VAR_SHUNT_CURRENT_A100", cJSON_CreateNumber(mVars[50]));</v>
       </c>
     </row>
     <row r="55" spans="2:16">
@@ -2936,7 +2950,7 @@
         <v>3C</v>
       </c>
       <c r="E64" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H64" t="str">
         <f t="shared" si="0"/>
@@ -2969,7 +2983,7 @@
         <v>3D</v>
       </c>
       <c r="E65" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H65" t="str">
         <f t="shared" si="0"/>
@@ -3002,7 +3016,7 @@
         <v>3E</v>
       </c>
       <c r="E66" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H66" t="str">
         <f t="shared" si="0"/>
@@ -3035,7 +3049,7 @@
         <v>3F</v>
       </c>
       <c r="E67" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H67" t="str">
         <f t="shared" si="0"/>
@@ -3068,7 +3082,7 @@
         <v>40</v>
       </c>
       <c r="E68" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H68" t="str">
         <f t="shared" ref="H68:H103" si="8">CONCATENATE("#define  ",E68,"  ",C68)</f>
@@ -3101,7 +3115,7 @@
         <v>41</v>
       </c>
       <c r="E69" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H69" t="str">
         <f t="shared" si="8"/>
@@ -3134,7 +3148,7 @@
         <v>42</v>
       </c>
       <c r="E70" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H70" t="str">
         <f t="shared" si="8"/>
@@ -3167,7 +3181,7 @@
         <v>43</v>
       </c>
       <c r="E71" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H71" t="str">
         <f t="shared" si="8"/>
@@ -3200,7 +3214,7 @@
         <v>44</v>
       </c>
       <c r="E72" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H72" t="str">
         <f t="shared" si="8"/>
@@ -3211,7 +3225,7 @@
         <v>public const byte VAR_CONS_KITCHEN_A_WH = 68;</v>
       </c>
       <c r="L72" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="73" spans="2:16">
@@ -3224,7 +3238,7 @@
         <v>45</v>
       </c>
       <c r="E73" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H73" t="str">
         <f t="shared" si="8"/>
@@ -3245,7 +3259,7 @@
         <v>46</v>
       </c>
       <c r="E74" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H74" t="str">
         <f t="shared" si="8"/>
@@ -3278,7 +3292,7 @@
         <v>47</v>
       </c>
       <c r="E75" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H75" t="str">
         <f t="shared" si="8"/>
@@ -3311,7 +3325,7 @@
         <v>48</v>
       </c>
       <c r="E76" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H76" t="str">
         <f t="shared" si="8"/>
@@ -3344,7 +3358,7 @@
         <v>49</v>
       </c>
       <c r="E77" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H77" t="str">
         <f t="shared" si="8"/>
@@ -3377,7 +3391,7 @@
         <v>4A</v>
       </c>
       <c r="E78" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H78" t="str">
         <f t="shared" si="8"/>
@@ -3410,7 +3424,7 @@
         <v>4B</v>
       </c>
       <c r="E79" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H79" t="str">
         <f t="shared" si="8"/>
@@ -3443,7 +3457,7 @@
         <v>4C</v>
       </c>
       <c r="E80" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H80" t="str">
         <f t="shared" si="8"/>
@@ -3476,7 +3490,7 @@
         <v>4D</v>
       </c>
       <c r="E81" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H81" t="str">
         <f t="shared" si="8"/>
@@ -3509,7 +3523,7 @@
         <v>4E</v>
       </c>
       <c r="E82" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H82" t="str">
         <f t="shared" si="8"/>
@@ -3534,7 +3548,7 @@
         <v>4F</v>
       </c>
       <c r="E83" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H83" t="str">
         <f t="shared" si="8"/>
@@ -3559,7 +3573,7 @@
         <v>50</v>
       </c>
       <c r="E84" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H84" t="str">
         <f t="shared" si="8"/>
@@ -3592,7 +3606,7 @@
         <v>51</v>
       </c>
       <c r="E85" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H85" t="str">
         <f t="shared" si="8"/>
@@ -3625,7 +3639,7 @@
         <v>52</v>
       </c>
       <c r="E86" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H86" t="str">
         <f t="shared" si="8"/>
@@ -3658,7 +3672,7 @@
         <v>53</v>
       </c>
       <c r="E87" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H87" t="str">
         <f t="shared" si="8"/>
@@ -3713,7 +3727,7 @@
         <v>55</v>
       </c>
       <c r="E89" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H89" t="str">
         <f t="shared" si="8"/>
@@ -3746,7 +3760,7 @@
         <v>56</v>
       </c>
       <c r="E90" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H90" t="str">
         <f t="shared" si="8"/>
@@ -3845,7 +3859,7 @@
         <v>5A</v>
       </c>
       <c r="E94" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H94" t="str">
         <f t="shared" si="8"/>
@@ -3878,7 +3892,7 @@
         <v>5B</v>
       </c>
       <c r="E95" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H95" t="str">
         <f t="shared" si="8"/>
@@ -3911,7 +3925,7 @@
         <v>5C</v>
       </c>
       <c r="E96" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H96" t="str">
         <f t="shared" si="8"/>
@@ -3944,7 +3958,7 @@
         <v>5D</v>
       </c>
       <c r="E97" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H97" t="str">
         <f t="shared" si="8"/>
@@ -4065,7 +4079,7 @@
         <v>62</v>
       </c>
       <c r="E102" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H102" t="str">
         <f t="shared" si="8"/>
@@ -4098,7 +4112,7 @@
         <v>63</v>
       </c>
       <c r="E103" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H103" t="str">
         <f t="shared" si="8"/>
@@ -4262,7 +4276,7 @@
         <v>67</v>
       </c>
       <c r="E107" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F107" t="s">
         <v>57</v>
@@ -4305,7 +4319,7 @@
         <v>68</v>
       </c>
       <c r="E108" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F108" t="s">
         <v>58</v>
@@ -4609,7 +4623,7 @@
         <v>50</v>
       </c>
       <c r="F115" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G115">
         <v>1</v>
@@ -4652,7 +4666,7 @@
         <v>51</v>
       </c>
       <c r="F116" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G116">
         <v>1</v>
@@ -4695,7 +4709,7 @@
         <v>52</v>
       </c>
       <c r="G117" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H117" t="str">
         <f t="shared" ref="H117:H132" si="17">CONCATENATE("#define  ",E117,"  ",C117)</f>
@@ -4732,7 +4746,7 @@
         <v>72</v>
       </c>
       <c r="E118" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F118" t="s">
         <v>65</v>
@@ -4775,7 +4789,7 @@
         <v>73</v>
       </c>
       <c r="E119" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F119" t="s">
         <v>66</v>
@@ -4818,10 +4832,10 @@
         <v>74</v>
       </c>
       <c r="E120" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F120" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G120">
         <v>1</v>
@@ -4861,10 +4875,10 @@
         <v>75</v>
       </c>
       <c r="E121" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F121" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G121">
         <v>1</v>
@@ -5152,10 +5166,10 @@
         <v>7D</v>
       </c>
       <c r="E129" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F129" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G129">
         <v>0</v>
@@ -5195,10 +5209,10 @@
         <v>7E</v>
       </c>
       <c r="E130" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F130" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G130">
         <v>0</v>
@@ -5238,10 +5252,10 @@
         <v>7F</v>
       </c>
       <c r="E131" t="s">
+        <v>167</v>
+      </c>
+      <c r="F131" t="s">
         <v>168</v>
-      </c>
-      <c r="F131" t="s">
-        <v>169</v>
       </c>
       <c r="G131">
         <v>0</v>
@@ -5281,7 +5295,7 @@
         <v>80</v>
       </c>
       <c r="E132" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H132" t="str">
         <f t="shared" si="17"/>
@@ -5314,7 +5328,7 @@
         <v>81</v>
       </c>
       <c r="E133" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H133" t="str">
         <f t="shared" ref="H133:H137" si="21">CONCATENATE("#define  ",E133,"  ",C133)</f>
@@ -5347,10 +5361,10 @@
         <v>82</v>
       </c>
       <c r="E134" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F134" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H134" t="str">
         <f t="shared" si="21"/>
@@ -5383,10 +5397,10 @@
         <v>83</v>
       </c>
       <c r="E135" t="s">
+        <v>300</v>
+      </c>
+      <c r="F135" t="s">
         <v>301</v>
-      </c>
-      <c r="F135" t="s">
-        <v>302</v>
       </c>
       <c r="H135" t="str">
         <f t="shared" si="21"/>
@@ -5419,7 +5433,7 @@
         <v>84</v>
       </c>
       <c r="E136" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H136" t="str">
         <f t="shared" si="21"/>
@@ -5452,7 +5466,7 @@
         <v>85</v>
       </c>
       <c r="E137" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H137" t="str">
         <f t="shared" si="21"/>
@@ -5515,26 +5529,26 @@
         <v>89</v>
       </c>
       <c r="E141" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H141" t="str">
-        <f t="shared" ref="H138:H148" si="26">CONCATENATE("#define  ",E141,"  ",C141)</f>
+        <f t="shared" ref="H141:H146" si="26">CONCATENATE("#define  ",E141,"  ",C141)</f>
         <v>#define  VAR_CO2_RECU  137</v>
       </c>
       <c r="I141" t="str">
-        <f t="shared" ref="I138:I148" si="27">CONCATENATE("public const byte ",E141," = ",C141,";")</f>
+        <f t="shared" ref="I141:I146" si="27">CONCATENATE("public const byte ",E141," = ",C141,";")</f>
         <v>public const byte VAR_CO2_RECU = 137;</v>
       </c>
       <c r="L141" t="str">
-        <f t="shared" ref="L138:L148" si="28">CONCATENATE("UpdateScanList(",E141, ", 3000);")</f>
+        <f t="shared" ref="L141:L146" si="28">CONCATENATE("UpdateScanList(",E141, ", 3000);")</f>
         <v>UpdateScanList(VAR_CO2_RECU, 3000);</v>
       </c>
       <c r="N141" t="str">
-        <f t="shared" ref="N138:N148" si="29">CONCATENATE("COM_AddStreamedVariable(",E141, ", 1000);")</f>
+        <f t="shared" ref="N141:N146" si="29">CONCATENATE("COM_AddStreamedVariable(",E141, ", 1000);")</f>
         <v>COM_AddStreamedVariable(VAR_CO2_RECU, 1000);</v>
       </c>
       <c r="P141" t="str">
-        <f t="shared" ref="P138:P148" si="30">CONCATENATE("cJSON_AddItemToObject(Uha, ","""",E141,"""",", cJSON_CreateNumber(mVars[",C141,"]));")</f>
+        <f t="shared" ref="P141:P146" si="30">CONCATENATE("cJSON_AddItemToObject(Uha, ","""",E141,"""",", cJSON_CreateNumber(mVars[",C141,"]));")</f>
         <v>cJSON_AddItemToObject(Uha, "VAR_CO2_RECU", cJSON_CreateNumber(mVars[137]));</v>
       </c>
     </row>
@@ -5548,7 +5562,7 @@
         <v>8A</v>
       </c>
       <c r="E142" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H142" t="str">
         <f t="shared" si="26"/>
@@ -5581,7 +5595,7 @@
         <v>8B</v>
       </c>
       <c r="E143" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H143" t="str">
         <f t="shared" si="26"/>
@@ -5614,7 +5628,7 @@
         <v>8C</v>
       </c>
       <c r="E144" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H144" t="str">
         <f t="shared" si="26"/>
@@ -5647,7 +5661,7 @@
         <v>8D</v>
       </c>
       <c r="E145" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H145" t="str">
         <f t="shared" si="26"/>
@@ -5680,7 +5694,7 @@
         <v>8E</v>
       </c>
       <c r="E146" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H146" t="str">
         <f t="shared" si="26"/>
@@ -5894,7 +5908,7 @@
         <v>A1</v>
       </c>
       <c r="E165" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H165" t="str">
         <f t="shared" ref="H165:H168" si="31">CONCATENATE("#define  ",E165,"  ",C165)</f>
@@ -5930,7 +5944,7 @@
         <v>A2</v>
       </c>
       <c r="E166" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H166" t="str">
         <f t="shared" si="31"/>
@@ -5966,7 +5980,7 @@
         <v>A3</v>
       </c>
       <c r="E167" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H167" t="str">
         <f t="shared" si="31"/>
@@ -6002,7 +6016,7 @@
         <v>A4</v>
       </c>
       <c r="E168" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H168" t="str">
         <f t="shared" si="31"/>
@@ -6173,7 +6187,7 @@
         <v>B4</v>
       </c>
       <c r="E184" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H184" t="str">
         <f t="shared" ref="H184:H195" si="36">CONCATENATE("#define  ",E184,"  ",C184)</f>
@@ -6208,7 +6222,7 @@
         <v>B5</v>
       </c>
       <c r="E185" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H185" t="str">
         <f t="shared" si="36"/>
@@ -6243,7 +6257,7 @@
         <v>B6</v>
       </c>
       <c r="E186" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H186" t="str">
         <f t="shared" si="36"/>
@@ -6278,7 +6292,7 @@
         <v>B7</v>
       </c>
       <c r="E187" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H187" t="str">
         <f t="shared" si="36"/>
@@ -6313,7 +6327,7 @@
         <v>B8</v>
       </c>
       <c r="E188" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H188" t="str">
         <f t="shared" si="36"/>
@@ -6348,7 +6362,7 @@
         <v>B9</v>
       </c>
       <c r="E189" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H189" t="str">
         <f t="shared" si="36"/>
@@ -6383,7 +6397,7 @@
         <v>BA</v>
       </c>
       <c r="E190" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H190" t="str">
         <f t="shared" si="36"/>
@@ -6418,7 +6432,7 @@
         <v>BB</v>
       </c>
       <c r="E191" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H191" t="str">
         <f t="shared" si="36"/>
@@ -6453,7 +6467,7 @@
         <v>BC</v>
       </c>
       <c r="E192" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H192" t="str">
         <f t="shared" si="36"/>
@@ -6488,7 +6502,7 @@
         <v>BD</v>
       </c>
       <c r="E193" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H193" t="str">
         <f t="shared" si="36"/>
@@ -6523,7 +6537,7 @@
         <v>BE</v>
       </c>
       <c r="E194" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H194" t="str">
         <f t="shared" si="36"/>
@@ -6558,7 +6572,7 @@
         <v>BF</v>
       </c>
       <c r="E195" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H195" t="str">
         <f t="shared" si="36"/>
@@ -6593,7 +6607,7 @@
         <v>C0</v>
       </c>
       <c r="E196" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H196" t="str">
         <f t="shared" ref="H196:H255" si="41">CONCATENATE("#define  ",E196,"  ",C196)</f>
@@ -6628,7 +6642,7 @@
         <v>C1</v>
       </c>
       <c r="E197" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H197" t="str">
         <f t="shared" si="41"/>
@@ -6663,7 +6677,7 @@
         <v>C2</v>
       </c>
       <c r="E198" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H198" t="str">
         <f t="shared" si="41"/>
@@ -6698,7 +6712,7 @@
         <v>C3</v>
       </c>
       <c r="E199" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H199" t="str">
         <f t="shared" si="41"/>
@@ -6733,7 +6747,7 @@
         <v>C4</v>
       </c>
       <c r="E200" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H200" t="str">
         <f t="shared" si="41"/>
@@ -6768,7 +6782,7 @@
         <v>C5</v>
       </c>
       <c r="E201" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H201" t="str">
         <f t="shared" si="41"/>
@@ -6803,7 +6817,7 @@
         <v>C6</v>
       </c>
       <c r="E202" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H202" t="str">
         <f t="shared" si="41"/>
@@ -6838,7 +6852,7 @@
         <v>C7</v>
       </c>
       <c r="E203" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H203" t="str">
         <f t="shared" si="41"/>
@@ -6873,7 +6887,7 @@
         <v>C8</v>
       </c>
       <c r="E204" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H204" t="str">
         <f t="shared" si="41"/>
@@ -6908,7 +6922,7 @@
         <v>C9</v>
       </c>
       <c r="E205" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H205" t="str">
         <f t="shared" si="41"/>
@@ -6943,7 +6957,7 @@
         <v>CA</v>
       </c>
       <c r="E206" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H206" t="str">
         <f t="shared" si="41"/>
@@ -6978,7 +6992,7 @@
         <v>CB</v>
       </c>
       <c r="E207" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H207" t="str">
         <f t="shared" si="41"/>
@@ -7013,7 +7027,7 @@
         <v>CC</v>
       </c>
       <c r="E208" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H208" t="str">
         <f t="shared" si="41"/>
@@ -7048,7 +7062,7 @@
         <v>CD</v>
       </c>
       <c r="E209" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H209" t="str">
         <f t="shared" si="41"/>
@@ -7083,7 +7097,7 @@
         <v>CE</v>
       </c>
       <c r="E210" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H210" t="str">
         <f t="shared" si="41"/>
@@ -7118,7 +7132,7 @@
         <v>CF</v>
       </c>
       <c r="E211" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H211" t="str">
         <f t="shared" si="41"/>
@@ -7153,7 +7167,7 @@
         <v>D0</v>
       </c>
       <c r="E212" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H212" t="str">
         <f t="shared" si="41"/>
@@ -7188,7 +7202,7 @@
         <v>D1</v>
       </c>
       <c r="E213" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H213" t="str">
         <f t="shared" si="41"/>
@@ -7223,7 +7237,7 @@
         <v>D2</v>
       </c>
       <c r="E214" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H214" t="str">
         <f t="shared" si="41"/>
@@ -7258,7 +7272,7 @@
         <v>D3</v>
       </c>
       <c r="E215" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H215" t="str">
         <f t="shared" si="41"/>
@@ -7365,7 +7379,7 @@
         <v>DC</v>
       </c>
       <c r="E224" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H224" t="str">
         <f t="shared" si="41"/>
@@ -7400,7 +7414,7 @@
         <v>DD</v>
       </c>
       <c r="E225" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H225" t="str">
         <f t="shared" si="41"/>
@@ -7435,7 +7449,7 @@
         <v>DE</v>
       </c>
       <c r="E226" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H226" t="str">
         <f t="shared" si="41"/>
@@ -7470,7 +7484,7 @@
         <v>DF</v>
       </c>
       <c r="E227" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H227" t="str">
         <f t="shared" si="41"/>
@@ -7505,7 +7519,7 @@
         <v>E0</v>
       </c>
       <c r="E228" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H228" t="str">
         <f t="shared" si="41"/>
@@ -7540,7 +7554,7 @@
         <v>E1</v>
       </c>
       <c r="E229" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H229" t="str">
         <f t="shared" si="41"/>
@@ -7575,7 +7589,7 @@
         <v>E2</v>
       </c>
       <c r="E230" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H230" t="str">
         <f t="shared" si="41"/>
@@ -7610,7 +7624,7 @@
         <v>E3</v>
       </c>
       <c r="E231" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H231" t="str">
         <f t="shared" si="41"/>
@@ -7645,7 +7659,7 @@
         <v>E4</v>
       </c>
       <c r="E232" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H232" t="str">
         <f t="shared" si="41"/>
@@ -7680,7 +7694,7 @@
         <v>E5</v>
       </c>
       <c r="E233" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H233" t="str">
         <f t="shared" si="41"/>
@@ -7715,7 +7729,7 @@
         <v>E6</v>
       </c>
       <c r="E234" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H234" t="str">
         <f t="shared" si="41"/>
@@ -7750,7 +7764,7 @@
         <v>E7</v>
       </c>
       <c r="E235" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H235" t="str">
         <f t="shared" si="41"/>
@@ -7785,7 +7799,7 @@
         <v>E8</v>
       </c>
       <c r="E236" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H236" t="str">
         <f t="shared" si="41"/>
@@ -7820,7 +7834,7 @@
         <v>E9</v>
       </c>
       <c r="E237" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H237" t="str">
         <f t="shared" si="41"/>
@@ -7855,7 +7869,7 @@
         <v>EA</v>
       </c>
       <c r="E238" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H238" t="str">
         <f t="shared" si="41"/>
@@ -7890,7 +7904,7 @@
         <v>EB</v>
       </c>
       <c r="E239" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H239" t="str">
         <f t="shared" si="41"/>
@@ -7925,7 +7939,7 @@
         <v>EC</v>
       </c>
       <c r="E240" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H240" t="str">
         <f t="shared" si="41"/>
@@ -7960,7 +7974,7 @@
         <v>ED</v>
       </c>
       <c r="E241" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H241" t="str">
         <f t="shared" si="41"/>
@@ -7995,7 +8009,7 @@
         <v>EE</v>
       </c>
       <c r="E242" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H242" t="str">
         <f t="shared" si="41"/>
@@ -8030,7 +8044,7 @@
         <v>EF</v>
       </c>
       <c r="E243" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H243" t="str">
         <f t="shared" si="41"/>
@@ -8065,7 +8079,7 @@
         <v>F0</v>
       </c>
       <c r="E244" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H244" t="str">
         <f t="shared" si="41"/>
@@ -8100,7 +8114,7 @@
         <v>F1</v>
       </c>
       <c r="E245" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H245" t="str">
         <f t="shared" si="41"/>
@@ -8135,7 +8149,7 @@
         <v>F2</v>
       </c>
       <c r="E246" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H246" t="str">
         <f t="shared" si="41"/>
@@ -8170,7 +8184,7 @@
         <v>F3</v>
       </c>
       <c r="E247" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H247" t="str">
         <f t="shared" si="41"/>
@@ -8205,7 +8219,7 @@
         <v>F4</v>
       </c>
       <c r="E248" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H248" t="str">
         <f t="shared" si="41"/>
@@ -8240,7 +8254,7 @@
         <v>F5</v>
       </c>
       <c r="E249" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H249" t="str">
         <f t="shared" si="41"/>
@@ -8275,7 +8289,7 @@
         <v>F6</v>
       </c>
       <c r="E250" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H250" t="str">
         <f t="shared" si="41"/>
@@ -8310,7 +8324,7 @@
         <v>F7</v>
       </c>
       <c r="E251" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H251" t="str">
         <f t="shared" si="41"/>
@@ -8345,7 +8359,7 @@
         <v>F8</v>
       </c>
       <c r="E252" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H252" t="str">
         <f t="shared" si="41"/>
@@ -8380,7 +8394,7 @@
         <v>F9</v>
       </c>
       <c r="E253" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H253" t="str">
         <f t="shared" si="41"/>
@@ -8415,7 +8429,7 @@
         <v>FA</v>
       </c>
       <c r="E254" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H254" t="str">
         <f t="shared" si="41"/>
@@ -8450,7 +8464,7 @@
         <v>FB</v>
       </c>
       <c r="E255" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H255" t="str">
         <f t="shared" si="41"/>
@@ -8918,7 +8932,7 @@
     </row>
     <row r="32" spans="2:9">
       <c r="B32" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D32" t="s">
         <v>89</v>
@@ -8953,10 +8967,10 @@
     </row>
     <row r="34" spans="2:9">
       <c r="D34" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E34" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H34" t="str">
         <f t="shared" si="2"/>
@@ -9039,13 +9053,13 @@
     </row>
     <row r="42" spans="2:9">
       <c r="B42" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D42" t="s">
+        <v>285</v>
+      </c>
+      <c r="E42" t="s">
         <v>286</v>
-      </c>
-      <c r="E42" t="s">
-        <v>287</v>
       </c>
       <c r="H42" t="str">
         <f t="shared" si="2"/>
@@ -9068,10 +9082,10 @@
     </row>
     <row r="44" spans="2:9">
       <c r="D44" t="s">
+        <v>288</v>
+      </c>
+      <c r="E44" t="s">
         <v>289</v>
-      </c>
-      <c r="E44" t="s">
-        <v>290</v>
       </c>
       <c r="H44" t="str">
         <f t="shared" si="2"/>
@@ -9105,10 +9119,10 @@
         <v>117</v>
       </c>
       <c r="D48" t="s">
+        <v>291</v>
+      </c>
+      <c r="E48" t="s">
         <v>292</v>
-      </c>
-      <c r="E48" t="s">
-        <v>293</v>
       </c>
       <c r="H48" t="str">
         <f t="shared" si="2"/>
@@ -9237,7 +9251,7 @@
         <v>97</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J3" s="9" t="s">
         <v>114</v>
@@ -9267,7 +9281,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -9295,7 +9309,7 @@
         <v>2</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -9846,7 +9860,7 @@
         <v>126</v>
       </c>
       <c r="N25" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="26" spans="1:14">

--- a/UHA.xlsx
+++ b/UHA.xlsx
@@ -4,20 +4,23 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="0" windowWidth="9390" windowHeight="1185"/>
+    <workbookView xWindow="240" yWindow="0" windowWidth="9390" windowHeight="1185" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="UHA meas values" sheetId="1" r:id="rId1"/>
     <sheet name="Commands" sheetId="2" r:id="rId2"/>
     <sheet name="TECHM_STATUS" sheetId="3" r:id="rId3"/>
     <sheet name="Buttons&amp;Lights" sheetId="4" r:id="rId4"/>
+    <sheet name="COBIDs" sheetId="5" r:id="rId5"/>
+    <sheet name="CAN nodes" sheetId="6" r:id="rId6"/>
+    <sheet name="typedefs" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="343">
   <si>
     <t>dec</t>
   </si>
@@ -956,6 +959,96 @@
   </si>
   <si>
     <t>VAR_SHUNT_CURRENT_A100</t>
+  </si>
+  <si>
+    <t>producers</t>
+  </si>
+  <si>
+    <t>consumers</t>
+  </si>
+  <si>
+    <t>all</t>
+  </si>
+  <si>
+    <t>ID mask</t>
+  </si>
+  <si>
+    <t>0x130</t>
+  </si>
+  <si>
+    <t>CMD_AC_REMOTE_REQ</t>
+  </si>
+  <si>
+    <t>define</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>CMD_BUTTON_STATE</t>
+  </si>
+  <si>
+    <t>0x100</t>
+  </si>
+  <si>
+    <t>IOBOARD_D, IOBOARD_U</t>
+  </si>
+  <si>
+    <t>Node  ID</t>
+  </si>
+  <si>
+    <t>board</t>
+  </si>
+  <si>
+    <t>NODEID_IOBOARD_D</t>
+  </si>
+  <si>
+    <t>NODEID_IOBOARD_U</t>
+  </si>
+  <si>
+    <t>RECU</t>
+  </si>
+  <si>
+    <t>EVSE</t>
+  </si>
+  <si>
+    <t>GARDEN</t>
+  </si>
+  <si>
+    <t>0x520</t>
+  </si>
+  <si>
+    <t>CMD_RESET_REQUEST</t>
+  </si>
+  <si>
+    <t>0x140</t>
+  </si>
+  <si>
+    <t>CMD_RECU_REMOTE_REQ</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>duration[s]</t>
+  </si>
+  <si>
+    <t>eRemoteReqMode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  errm_SligtOvepressure,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  errm_MaxOverpressure,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  errm_SlightUnderpressure,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  errm_MaxUnderpressure</t>
+  </si>
+  <si>
+    <t>errm_AutoControl</t>
   </si>
 </sst>
 </file>
@@ -1150,7 +1243,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1176,6 +1269,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1474,7 +1574,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B3:P259"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="I33" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="P54" sqref="P54"/>
     </sheetView>
   </sheetViews>
@@ -8541,8 +8641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:I48"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H48" sqref="H48"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48:H48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10275,4 +10375,402 @@
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="C2:S11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17:L18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="24" customWidth="1"/>
+    <col min="4" max="4" width="27.42578125" customWidth="1"/>
+    <col min="6" max="6" width="24.7109375" customWidth="1"/>
+    <col min="7" max="7" width="5.85546875" customWidth="1"/>
+    <col min="8" max="8" width="5" customWidth="1"/>
+    <col min="9" max="9" width="41.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:19">
+      <c r="K2" s="20" t="s">
+        <v>335</v>
+      </c>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="20"/>
+    </row>
+    <row r="3" spans="3:19">
+      <c r="C3" s="18" t="s">
+        <v>313</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>314</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>316</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>320</v>
+      </c>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18" t="s">
+        <v>319</v>
+      </c>
+      <c r="K3" s="18">
+        <v>0</v>
+      </c>
+      <c r="L3" s="18">
+        <v>1</v>
+      </c>
+      <c r="M3" s="18">
+        <v>2</v>
+      </c>
+      <c r="N3" s="18">
+        <v>3</v>
+      </c>
+      <c r="O3" s="18">
+        <v>4</v>
+      </c>
+      <c r="P3" s="18">
+        <v>5</v>
+      </c>
+      <c r="Q3" s="18">
+        <v>6</v>
+      </c>
+      <c r="R3" s="18">
+        <v>7</v>
+      </c>
+      <c r="S3" s="18">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="3:19">
+      <c r="C4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" t="s">
+        <v>291</v>
+      </c>
+      <c r="F4" t="s">
+        <v>292</v>
+      </c>
+      <c r="I4" t="str">
+        <f t="shared" ref="I4:I11" si="0">CONCATENATE("#define  ",F4,"  ",E4)</f>
+        <v>#define  CMD_BALANCE_INFO  0x310</v>
+      </c>
+    </row>
+    <row r="5" spans="3:19">
+      <c r="D5" t="s">
+        <v>315</v>
+      </c>
+      <c r="E5" t="s">
+        <v>143</v>
+      </c>
+      <c r="F5" t="s">
+        <v>290</v>
+      </c>
+      <c r="I5" t="str">
+        <f t="shared" si="0"/>
+        <v>#define  CMD_GESTURE  0x120</v>
+      </c>
+    </row>
+    <row r="6" spans="3:19">
+      <c r="C6" t="s">
+        <v>117</v>
+      </c>
+      <c r="D6" t="s">
+        <v>315</v>
+      </c>
+      <c r="E6" t="s">
+        <v>288</v>
+      </c>
+      <c r="F6" t="s">
+        <v>289</v>
+      </c>
+      <c r="I6" t="str">
+        <f t="shared" si="0"/>
+        <v>#define  CMD_RTC_SYNC  0x510</v>
+      </c>
+    </row>
+    <row r="7" spans="3:19">
+      <c r="C7" t="s">
+        <v>315</v>
+      </c>
+      <c r="D7" t="s">
+        <v>315</v>
+      </c>
+      <c r="E7" t="s">
+        <v>285</v>
+      </c>
+      <c r="F7" t="s">
+        <v>286</v>
+      </c>
+      <c r="I7" t="str">
+        <f t="shared" si="0"/>
+        <v>#define  CMD_VAR_VALUE  0x110</v>
+      </c>
+    </row>
+    <row r="8" spans="3:19">
+      <c r="C8" t="s">
+        <v>315</v>
+      </c>
+      <c r="D8" t="s">
+        <v>117</v>
+      </c>
+      <c r="E8" t="s">
+        <v>317</v>
+      </c>
+      <c r="F8" t="s">
+        <v>318</v>
+      </c>
+      <c r="I8" t="str">
+        <f t="shared" si="0"/>
+        <v>#define  CMD_AC_REMOTE_REQ  0x130</v>
+      </c>
+    </row>
+    <row r="9" spans="3:19">
+      <c r="C9" t="s">
+        <v>323</v>
+      </c>
+      <c r="D9" t="s">
+        <v>323</v>
+      </c>
+      <c r="E9" t="s">
+        <v>322</v>
+      </c>
+      <c r="F9" t="s">
+        <v>321</v>
+      </c>
+      <c r="I9" t="str">
+        <f t="shared" si="0"/>
+        <v>#define  CMD_BUTTON_STATE  0x100</v>
+      </c>
+    </row>
+    <row r="10" spans="3:19">
+      <c r="C10" t="s">
+        <v>117</v>
+      </c>
+      <c r="D10" t="s">
+        <v>315</v>
+      </c>
+      <c r="E10" t="s">
+        <v>331</v>
+      </c>
+      <c r="F10" t="s">
+        <v>332</v>
+      </c>
+      <c r="I10" t="str">
+        <f t="shared" si="0"/>
+        <v>#define  CMD_RESET_REQUEST  0x520</v>
+      </c>
+    </row>
+    <row r="11" spans="3:19">
+      <c r="C11" t="s">
+        <v>315</v>
+      </c>
+      <c r="D11" t="s">
+        <v>328</v>
+      </c>
+      <c r="E11" t="s">
+        <v>333</v>
+      </c>
+      <c r="F11" t="s">
+        <v>334</v>
+      </c>
+      <c r="I11" t="str">
+        <f t="shared" si="0"/>
+        <v>#define  CMD_RECU_REMOTE_REQ  0x140</v>
+      </c>
+      <c r="K11" s="19" t="s">
+        <v>337</v>
+      </c>
+      <c r="L11" s="19"/>
+      <c r="M11" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="N11" s="19"/>
+      <c r="O11" s="19"/>
+      <c r="P11" s="19"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="K2:S2"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="K11:L11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="D3:G12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="5" max="5" width="25.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="4:7">
+      <c r="D3" s="18" t="s">
+        <v>324</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>325</v>
+      </c>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="4" spans="4:7">
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="5" spans="4:7">
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="6" spans="4:7">
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="4:7">
+      <c r="D7">
+        <v>4</v>
+      </c>
+      <c r="E7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="8" spans="4:7">
+      <c r="D8">
+        <v>5</v>
+      </c>
+      <c r="E8" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="9" spans="4:7">
+      <c r="D9">
+        <v>6</v>
+      </c>
+      <c r="E9" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="10" spans="4:7">
+      <c r="D10">
+        <v>7</v>
+      </c>
+      <c r="E10" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="11" spans="4:7">
+      <c r="D11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="4:7">
+      <c r="D12">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="C3:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="20.140625" customWidth="1"/>
+    <col min="5" max="5" width="48.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:5">
+      <c r="C3" t="s">
+        <v>337</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="4" spans="3:5">
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="5" spans="3:5">
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="6" spans="3:5">
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="7" spans="3:5">
+      <c r="D7">
+        <v>4</v>
+      </c>
+      <c r="E7" t="s">
+        <v>341</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/UHA.xlsx
+++ b/UHA.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="0" windowWidth="9390" windowHeight="1185" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="0" windowWidth="9396" windowHeight="1188"/>
   </bookViews>
   <sheets>
     <sheet name="UHA meas values" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="361">
   <si>
     <t>dec</t>
   </si>
@@ -958,9 +958,6 @@
     <t>VAR_LOAD_A100</t>
   </si>
   <si>
-    <t>VAR_SHUNT_CURRENT_A100</t>
-  </si>
-  <si>
     <t>producers</t>
   </si>
   <si>
@@ -1012,9 +1009,6 @@
     <t>EVSE</t>
   </si>
   <si>
-    <t>GARDEN</t>
-  </si>
-  <si>
     <t>0x520</t>
   </si>
   <si>
@@ -1049,6 +1043,66 @@
   </si>
   <si>
     <t>errm_AutoControl</t>
+  </si>
+  <si>
+    <t>ELECON_D</t>
+  </si>
+  <si>
+    <t>VAR_CONS_AXPERT_WH</t>
+  </si>
+  <si>
+    <t>VAR_POW_AXPERT_W</t>
+  </si>
+  <si>
+    <t>VAR_CONS_EVSE_WH</t>
+  </si>
+  <si>
+    <t>VAR_CONS_WS_HEATING_WH</t>
+  </si>
+  <si>
+    <t>workshop heating</t>
+  </si>
+  <si>
+    <t>VAR_POW_EVSE_W</t>
+  </si>
+  <si>
+    <t>VAR_POW_WS_HEATING_W</t>
+  </si>
+  <si>
+    <t>VAR_TEMP_DILNA</t>
+  </si>
+  <si>
+    <t>VAR_TEMP_AKUPACK1</t>
+  </si>
+  <si>
+    <t>T116</t>
+  </si>
+  <si>
+    <t>T114</t>
+  </si>
+  <si>
+    <t>T_ELECON_D</t>
+  </si>
+  <si>
+    <t>VAR_TEMP_BOARD_ELECON_D</t>
+  </si>
+  <si>
+    <t>VAR_SHUNT_PCK1_CURRENT_A100</t>
+  </si>
+  <si>
+    <t>VAR_SHUNT_PCK2_CURRENT_A100</t>
+  </si>
+  <si>
+    <t>VAR_PACK5KWH_SOC</t>
+  </si>
+  <si>
+    <t>VAR_PACK5KWH_CURRENT_A10</t>
+  </si>
+  <si>
+    <t>VAR_PACK5KWH_ENERGY_WH</t>
+  </si>
+  <si>
+    <t>VAR_PACK5KWH_VOLTAGE_V10</t>
   </si>
 </sst>
 </file>
@@ -1261,6 +1315,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
@@ -1270,11 +1325,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1572,24 +1626,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B3:P259"/>
+  <dimension ref="A3:P304"/>
   <sheetViews>
-    <sheetView topLeftCell="I33" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P54" sqref="P54"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E60" sqref="E60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="5" max="5" width="41.7109375" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" customWidth="1"/>
-    <col min="8" max="8" width="45.5703125" customWidth="1"/>
-    <col min="9" max="9" width="49.42578125" customWidth="1"/>
-    <col min="11" max="11" width="3.5703125" customWidth="1"/>
-    <col min="12" max="12" width="35.85546875" customWidth="1"/>
-    <col min="13" max="13" width="34.140625" customWidth="1"/>
+    <col min="5" max="5" width="41.6640625" customWidth="1"/>
+    <col min="6" max="6" width="14.109375" customWidth="1"/>
+    <col min="8" max="8" width="45.5546875" customWidth="1"/>
+    <col min="9" max="9" width="49.44140625" customWidth="1"/>
+    <col min="11" max="11" width="3.5546875" customWidth="1"/>
+    <col min="12" max="12" width="35.88671875" customWidth="1"/>
+    <col min="13" max="13" width="34.109375" customWidth="1"/>
     <col min="14" max="14" width="86" customWidth="1"/>
     <col min="15" max="15" width="5" customWidth="1"/>
-    <col min="16" max="16" width="92.140625" customWidth="1"/>
+    <col min="16" max="16" width="92.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:16">
@@ -1610,196 +1664,196 @@
       </c>
     </row>
     <row r="4" spans="2:16">
-      <c r="B4" s="15"/>
+      <c r="B4" s="16"/>
       <c r="C4" s="1">
         <v>0</v>
       </c>
       <c r="D4" s="1" t="str">
-        <f>DEC2HEX(C4,2)</f>
-        <v>00</v>
+        <f t="shared" ref="D4:D67" si="0">DEC2HEX(C4,4)</f>
+        <v>0000</v>
       </c>
       <c r="H4" t="str">
-        <f t="shared" ref="H4:H67" si="0">CONCATENATE("#define  ",E4,"  ",C4)</f>
+        <f t="shared" ref="H4:H67" si="1">CONCATENATE("#define  ",E4,"  ",C4)</f>
         <v>#define    0</v>
       </c>
       <c r="I4" t="str">
-        <f t="shared" ref="I4:I67" si="1">CONCATENATE("public const byte ",E4," = ",C4,";")</f>
+        <f t="shared" ref="I4:I67" si="2">CONCATENATE("public const byte ",E4," = ",C4,";")</f>
         <v>public const byte  = 0;</v>
       </c>
     </row>
     <row r="5" spans="2:16">
-      <c r="B5" s="15"/>
+      <c r="B5" s="16"/>
       <c r="C5" s="1">
         <v>1</v>
       </c>
       <c r="D5" s="1" t="str">
-        <f t="shared" ref="D5:D68" si="2">DEC2HEX(C5,2)</f>
-        <v>01</v>
+        <f t="shared" si="0"/>
+        <v>0001</v>
       </c>
       <c r="E5" t="s">
         <v>144</v>
       </c>
       <c r="H5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#define  VAR_NETWORK_STATUS  1</v>
       </c>
       <c r="I5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>public const byte VAR_NETWORK_STATUS = 1;</v>
       </c>
     </row>
     <row r="6" spans="2:16">
-      <c r="B6" s="15"/>
+      <c r="B6" s="16"/>
       <c r="C6" s="1">
         <v>2</v>
       </c>
       <c r="D6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>0002</v>
+      </c>
+      <c r="H6" t="str">
+        <f t="shared" si="1"/>
+        <v>#define    2</v>
+      </c>
+      <c r="I6" t="str">
         <f t="shared" si="2"/>
-        <v>02</v>
-      </c>
-      <c r="H6" t="str">
-        <f t="shared" si="0"/>
-        <v>#define    2</v>
-      </c>
-      <c r="I6" t="str">
-        <f t="shared" si="1"/>
         <v>public const byte  = 2;</v>
       </c>
     </row>
     <row r="7" spans="2:16">
-      <c r="B7" s="15"/>
+      <c r="B7" s="16"/>
       <c r="C7" s="1">
         <v>3</v>
       </c>
       <c r="D7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>0003</v>
+      </c>
+      <c r="H7" t="str">
+        <f t="shared" si="1"/>
+        <v>#define    3</v>
+      </c>
+      <c r="I7" t="str">
         <f t="shared" si="2"/>
-        <v>03</v>
-      </c>
-      <c r="H7" t="str">
-        <f t="shared" si="0"/>
-        <v>#define    3</v>
-      </c>
-      <c r="I7" t="str">
-        <f t="shared" si="1"/>
         <v>public const byte  = 3;</v>
       </c>
     </row>
     <row r="8" spans="2:16">
-      <c r="B8" s="15"/>
+      <c r="B8" s="16"/>
       <c r="C8" s="1">
         <v>4</v>
       </c>
       <c r="D8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>0004</v>
+      </c>
+      <c r="H8" t="str">
+        <f t="shared" si="1"/>
+        <v>#define    4</v>
+      </c>
+      <c r="I8" t="str">
         <f t="shared" si="2"/>
-        <v>04</v>
-      </c>
-      <c r="H8" t="str">
-        <f t="shared" si="0"/>
-        <v>#define    4</v>
-      </c>
-      <c r="I8" t="str">
-        <f t="shared" si="1"/>
         <v>public const byte  = 4;</v>
       </c>
     </row>
     <row r="9" spans="2:16">
-      <c r="B9" s="15"/>
+      <c r="B9" s="16"/>
       <c r="C9" s="1">
         <v>5</v>
       </c>
       <c r="D9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>0005</v>
+      </c>
+      <c r="H9" t="str">
+        <f t="shared" si="1"/>
+        <v>#define    5</v>
+      </c>
+      <c r="I9" t="str">
         <f t="shared" si="2"/>
-        <v>05</v>
-      </c>
-      <c r="H9" t="str">
-        <f t="shared" si="0"/>
-        <v>#define    5</v>
-      </c>
-      <c r="I9" t="str">
-        <f t="shared" si="1"/>
         <v>public const byte  = 5;</v>
       </c>
     </row>
     <row r="10" spans="2:16">
-      <c r="B10" s="15"/>
+      <c r="B10" s="16"/>
       <c r="C10" s="1">
         <v>6</v>
       </c>
       <c r="D10" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>0006</v>
+      </c>
+      <c r="H10" t="str">
+        <f t="shared" si="1"/>
+        <v>#define    6</v>
+      </c>
+      <c r="I10" t="str">
         <f t="shared" si="2"/>
-        <v>06</v>
-      </c>
-      <c r="H10" t="str">
-        <f t="shared" si="0"/>
-        <v>#define    6</v>
-      </c>
-      <c r="I10" t="str">
-        <f t="shared" si="1"/>
         <v>public const byte  = 6;</v>
       </c>
     </row>
     <row r="11" spans="2:16">
-      <c r="B11" s="15"/>
+      <c r="B11" s="16"/>
       <c r="C11" s="1">
         <v>7</v>
       </c>
       <c r="D11" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>0007</v>
+      </c>
+      <c r="H11" t="str">
+        <f t="shared" si="1"/>
+        <v>#define    7</v>
+      </c>
+      <c r="I11" t="str">
         <f t="shared" si="2"/>
-        <v>07</v>
-      </c>
-      <c r="H11" t="str">
-        <f t="shared" si="0"/>
-        <v>#define    7</v>
-      </c>
-      <c r="I11" t="str">
-        <f t="shared" si="1"/>
         <v>public const byte  = 7;</v>
       </c>
     </row>
     <row r="12" spans="2:16">
-      <c r="B12" s="15"/>
+      <c r="B12" s="16"/>
       <c r="C12" s="1">
         <v>8</v>
       </c>
       <c r="D12" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>0008</v>
+      </c>
+      <c r="H12" t="str">
+        <f t="shared" si="1"/>
+        <v>#define    8</v>
+      </c>
+      <c r="I12" t="str">
         <f t="shared" si="2"/>
-        <v>08</v>
-      </c>
-      <c r="H12" t="str">
-        <f t="shared" si="0"/>
-        <v>#define    8</v>
-      </c>
-      <c r="I12" t="str">
-        <f t="shared" si="1"/>
         <v>public const byte  = 8;</v>
       </c>
     </row>
     <row r="13" spans="2:16">
-      <c r="B13" s="15"/>
+      <c r="B13" s="16"/>
       <c r="C13" s="1">
         <v>9</v>
       </c>
       <c r="D13" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>0009</v>
+      </c>
+      <c r="H13" t="str">
+        <f t="shared" si="1"/>
+        <v>#define    9</v>
+      </c>
+      <c r="I13" t="str">
         <f t="shared" si="2"/>
-        <v>09</v>
-      </c>
-      <c r="H13" t="str">
-        <f t="shared" si="0"/>
-        <v>#define    9</v>
-      </c>
-      <c r="I13" t="str">
-        <f t="shared" si="1"/>
         <v>public const byte  = 9;</v>
       </c>
     </row>
     <row r="14" spans="2:16">
-      <c r="B14" s="15"/>
+      <c r="B14" s="16"/>
       <c r="C14" s="1">
         <v>10</v>
       </c>
       <c r="D14" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>0A</v>
+        <f t="shared" si="0"/>
+        <v>000A</v>
       </c>
       <c r="E14" t="s">
         <v>138</v>
@@ -1809,7 +1863,7 @@
         <v>#define  VAR_BAT_SOC  10</v>
       </c>
       <c r="I14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>public const byte VAR_BAT_SOC = 10;</v>
       </c>
       <c r="L14" t="str">
@@ -1822,23 +1876,23 @@
       </c>
     </row>
     <row r="15" spans="2:16">
-      <c r="B15" s="15"/>
+      <c r="B15" s="16"/>
       <c r="C15" s="1">
         <v>11</v>
       </c>
       <c r="D15" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>0B</v>
+        <f t="shared" si="0"/>
+        <v>000B</v>
       </c>
       <c r="E15" t="s">
         <v>139</v>
       </c>
       <c r="H15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#define  VAR_BAT_VOLTAGE_V10  11</v>
       </c>
       <c r="I15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>public const byte VAR_BAT_VOLTAGE_V10 = 11;</v>
       </c>
       <c r="L15" t="str">
@@ -1851,23 +1905,23 @@
       </c>
     </row>
     <row r="16" spans="2:16">
-      <c r="B16" s="15"/>
+      <c r="B16" s="16"/>
       <c r="C16" s="1">
         <v>12</v>
       </c>
       <c r="D16" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>0C</v>
+        <f t="shared" si="0"/>
+        <v>000C</v>
       </c>
       <c r="E16" t="s">
         <v>311</v>
       </c>
       <c r="H16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#define  VAR_LOAD_A100  12</v>
       </c>
       <c r="I16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>public const byte VAR_LOAD_A100 = 12;</v>
       </c>
       <c r="L16" t="str">
@@ -1880,23 +1934,23 @@
       </c>
     </row>
     <row r="17" spans="2:16">
-      <c r="B17" s="15"/>
+      <c r="B17" s="16"/>
       <c r="C17" s="1">
         <v>13</v>
       </c>
       <c r="D17" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>0D</v>
+        <f t="shared" si="0"/>
+        <v>000D</v>
       </c>
       <c r="E17" t="s">
         <v>140</v>
       </c>
       <c r="H17" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#define  VAR_CHARGING_A10  13</v>
       </c>
       <c r="I17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>public const byte VAR_CHARGING_A10 = 13;</v>
       </c>
       <c r="L17" t="str">
@@ -1909,23 +1963,23 @@
       </c>
     </row>
     <row r="18" spans="2:16">
-      <c r="B18" s="15"/>
+      <c r="B18" s="16"/>
       <c r="C18" s="1">
         <v>14</v>
       </c>
       <c r="D18" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>0E</v>
+        <f t="shared" si="0"/>
+        <v>000E</v>
       </c>
       <c r="E18" t="s">
         <v>169</v>
       </c>
       <c r="H18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#define  VAR_BAT_CURRENT_A10  14</v>
       </c>
       <c r="I18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>public const byte VAR_BAT_CURRENT_A10 = 14;</v>
       </c>
       <c r="L18" t="str">
@@ -1938,23 +1992,23 @@
       </c>
     </row>
     <row r="19" spans="2:16">
-      <c r="B19" s="15"/>
+      <c r="B19" s="16"/>
       <c r="C19" s="1">
         <v>15</v>
       </c>
       <c r="D19" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>0F</v>
+        <f t="shared" si="0"/>
+        <v>000F</v>
       </c>
       <c r="E19" t="s">
         <v>253</v>
       </c>
       <c r="H19" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#define  VAR_CONS_TODAY_WH  15</v>
       </c>
       <c r="I19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>public const byte VAR_CONS_TODAY_WH = 15;</v>
       </c>
       <c r="L19" t="str">
@@ -1967,23 +2021,23 @@
       </c>
     </row>
     <row r="20" spans="2:16">
-      <c r="B20" s="15"/>
+      <c r="B20" s="16"/>
       <c r="C20" s="1">
         <v>16</v>
       </c>
       <c r="D20" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>0010</v>
       </c>
       <c r="E20" t="s">
         <v>254</v>
       </c>
       <c r="H20" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#define  VAR_BAT_ENERGY_WH  16</v>
       </c>
       <c r="I20" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>public const byte VAR_BAT_ENERGY_WH = 16;</v>
       </c>
       <c r="L20" t="str">
@@ -1996,23 +2050,23 @@
       </c>
     </row>
     <row r="21" spans="2:16">
-      <c r="B21" s="15"/>
+      <c r="B21" s="16"/>
       <c r="C21" s="1">
         <v>17</v>
       </c>
       <c r="D21" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>11</v>
+        <f t="shared" si="0"/>
+        <v>0011</v>
       </c>
       <c r="E21" t="s">
         <v>255</v>
       </c>
       <c r="H21" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#define  VAR_LOAD_W  17</v>
       </c>
       <c r="I21" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>public const byte VAR_LOAD_W = 17;</v>
       </c>
       <c r="L21" t="str">
@@ -2025,59 +2079,59 @@
       </c>
     </row>
     <row r="22" spans="2:16">
-      <c r="B22" s="15"/>
+      <c r="B22" s="16"/>
       <c r="C22" s="1">
         <v>18</v>
       </c>
       <c r="D22" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>0012</v>
+      </c>
+      <c r="H22" t="str">
+        <f t="shared" si="1"/>
+        <v>#define    18</v>
+      </c>
+      <c r="I22" t="str">
         <f t="shared" si="2"/>
-        <v>12</v>
-      </c>
-      <c r="H22" t="str">
-        <f t="shared" si="0"/>
-        <v>#define    18</v>
-      </c>
-      <c r="I22" t="str">
-        <f t="shared" si="1"/>
         <v>public const byte  = 18;</v>
       </c>
     </row>
     <row r="23" spans="2:16">
-      <c r="B23" s="15"/>
+      <c r="B23" s="16"/>
       <c r="C23" s="1">
         <v>19</v>
       </c>
       <c r="D23" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>0013</v>
+      </c>
+      <c r="H23" t="str">
+        <f t="shared" si="1"/>
+        <v>#define    19</v>
+      </c>
+      <c r="I23" t="str">
         <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-      <c r="H23" t="str">
-        <f t="shared" si="0"/>
-        <v>#define    19</v>
-      </c>
-      <c r="I23" t="str">
-        <f t="shared" si="1"/>
         <v>public const byte  = 19;</v>
       </c>
     </row>
     <row r="24" spans="2:16">
-      <c r="B24" s="15"/>
+      <c r="B24" s="16"/>
       <c r="C24" s="1">
         <v>20</v>
       </c>
       <c r="D24" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>14</v>
+        <f t="shared" si="0"/>
+        <v>0014</v>
       </c>
       <c r="E24" t="s">
         <v>170</v>
       </c>
       <c r="H24" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#define  VAR_BMS1_SOC  20</v>
       </c>
       <c r="I24" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>public const byte VAR_BMS1_SOC = 20;</v>
       </c>
       <c r="L24" t="str">
@@ -2094,23 +2148,23 @@
       </c>
     </row>
     <row r="25" spans="2:16">
-      <c r="B25" s="15"/>
+      <c r="B25" s="16"/>
       <c r="C25" s="1">
         <v>21</v>
       </c>
       <c r="D25" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>15</v>
+        <f t="shared" si="0"/>
+        <v>0015</v>
       </c>
       <c r="E25" t="s">
         <v>171</v>
       </c>
       <c r="H25" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#define  VAR_BMS1_CURRENT_A10  21</v>
       </c>
       <c r="I25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>public const byte VAR_BMS1_CURRENT_A10 = 21;</v>
       </c>
       <c r="L25" t="str">
@@ -2127,23 +2181,23 @@
       </c>
     </row>
     <row r="26" spans="2:16">
-      <c r="B26" s="15"/>
+      <c r="B26" s="16"/>
       <c r="C26" s="1">
         <v>22</v>
       </c>
       <c r="D26" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>16</v>
+        <f t="shared" si="0"/>
+        <v>0016</v>
       </c>
       <c r="E26" t="s">
         <v>172</v>
       </c>
       <c r="H26" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#define  VAR_BMS1_VOLTAGE_V10  22</v>
       </c>
       <c r="I26" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>public const byte VAR_BMS1_VOLTAGE_V10 = 22;</v>
       </c>
       <c r="L26" t="str">
@@ -2160,23 +2214,23 @@
       </c>
     </row>
     <row r="27" spans="2:16">
-      <c r="B27" s="15"/>
+      <c r="B27" s="16"/>
       <c r="C27" s="1">
         <v>23</v>
       </c>
       <c r="D27" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>17</v>
+        <f t="shared" si="0"/>
+        <v>0017</v>
       </c>
       <c r="E27" t="s">
         <v>173</v>
       </c>
       <c r="H27" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#define  VAR_BMS1_ENERGY_STORED_WH  23</v>
       </c>
       <c r="I27" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>public const byte VAR_BMS1_ENERGY_STORED_WH = 23;</v>
       </c>
       <c r="L27" t="str">
@@ -2193,23 +2247,23 @@
       </c>
     </row>
     <row r="28" spans="2:16">
-      <c r="B28" s="15"/>
+      <c r="B28" s="16"/>
       <c r="C28" s="1">
         <v>24</v>
       </c>
       <c r="D28" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>18</v>
+        <f t="shared" si="0"/>
+        <v>0018</v>
       </c>
       <c r="E28" t="s">
         <v>174</v>
       </c>
       <c r="H28" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#define  VAR_BMS1_TODAY_ENERGY_WH  24</v>
       </c>
       <c r="I28" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>public const byte VAR_BMS1_TODAY_ENERGY_WH = 24;</v>
       </c>
       <c r="L28" t="str">
@@ -2226,113 +2280,113 @@
       </c>
     </row>
     <row r="29" spans="2:16">
-      <c r="B29" s="15"/>
+      <c r="B29" s="16"/>
       <c r="C29" s="1">
         <v>25</v>
       </c>
       <c r="D29" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>0019</v>
+      </c>
+      <c r="H29" t="str">
+        <f t="shared" si="1"/>
+        <v>#define    25</v>
+      </c>
+      <c r="I29" t="str">
         <f t="shared" si="2"/>
-        <v>19</v>
-      </c>
-      <c r="H29" t="str">
-        <f t="shared" si="0"/>
-        <v>#define    25</v>
-      </c>
-      <c r="I29" t="str">
-        <f t="shared" si="1"/>
         <v>public const byte  = 25;</v>
       </c>
     </row>
     <row r="30" spans="2:16">
-      <c r="B30" s="15"/>
+      <c r="B30" s="16"/>
       <c r="C30" s="1">
         <v>26</v>
       </c>
       <c r="D30" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>001A</v>
+      </c>
+      <c r="H30" t="str">
+        <f t="shared" si="1"/>
+        <v>#define    26</v>
+      </c>
+      <c r="I30" t="str">
         <f t="shared" si="2"/>
-        <v>1A</v>
-      </c>
-      <c r="H30" t="str">
-        <f t="shared" si="0"/>
-        <v>#define    26</v>
-      </c>
-      <c r="I30" t="str">
-        <f t="shared" si="1"/>
         <v>public const byte  = 26;</v>
       </c>
     </row>
     <row r="31" spans="2:16">
-      <c r="B31" s="15"/>
+      <c r="B31" s="16"/>
       <c r="C31" s="1">
         <v>27</v>
       </c>
       <c r="D31" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>001B</v>
+      </c>
+      <c r="H31" t="str">
+        <f t="shared" si="1"/>
+        <v>#define    27</v>
+      </c>
+      <c r="I31" t="str">
         <f t="shared" si="2"/>
-        <v>1B</v>
-      </c>
-      <c r="H31" t="str">
-        <f t="shared" si="0"/>
-        <v>#define    27</v>
-      </c>
-      <c r="I31" t="str">
-        <f t="shared" si="1"/>
         <v>public const byte  = 27;</v>
       </c>
     </row>
     <row r="32" spans="2:16">
-      <c r="B32" s="15"/>
+      <c r="B32" s="16"/>
       <c r="C32" s="1">
         <v>28</v>
       </c>
       <c r="D32" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>001C</v>
+      </c>
+      <c r="H32" t="str">
+        <f t="shared" si="1"/>
+        <v>#define    28</v>
+      </c>
+      <c r="I32" t="str">
         <f t="shared" si="2"/>
-        <v>1C</v>
-      </c>
-      <c r="H32" t="str">
-        <f t="shared" si="0"/>
-        <v>#define    28</v>
-      </c>
-      <c r="I32" t="str">
-        <f t="shared" si="1"/>
         <v>public const byte  = 28;</v>
       </c>
     </row>
     <row r="33" spans="2:16">
-      <c r="B33" s="15"/>
+      <c r="B33" s="16"/>
       <c r="C33" s="1">
         <v>29</v>
       </c>
       <c r="D33" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>001D</v>
+      </c>
+      <c r="H33" t="str">
+        <f t="shared" si="1"/>
+        <v>#define    29</v>
+      </c>
+      <c r="I33" t="str">
         <f t="shared" si="2"/>
-        <v>1D</v>
-      </c>
-      <c r="H33" t="str">
-        <f t="shared" si="0"/>
-        <v>#define    29</v>
-      </c>
-      <c r="I33" t="str">
-        <f t="shared" si="1"/>
         <v>public const byte  = 29;</v>
       </c>
     </row>
     <row r="34" spans="2:16">
-      <c r="B34" s="15"/>
+      <c r="B34" s="16"/>
       <c r="C34" s="1">
         <v>30</v>
       </c>
       <c r="D34" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>1E</v>
+        <f t="shared" si="0"/>
+        <v>001E</v>
       </c>
       <c r="E34" t="s">
         <v>175</v>
       </c>
       <c r="H34" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#define  VAR_BMS2_SOC  30</v>
       </c>
       <c r="I34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>public const byte VAR_BMS2_SOC = 30;</v>
       </c>
       <c r="L34" t="str">
@@ -2349,23 +2403,23 @@
       </c>
     </row>
     <row r="35" spans="2:16">
-      <c r="B35" s="15"/>
+      <c r="B35" s="16"/>
       <c r="C35" s="1">
         <v>31</v>
       </c>
       <c r="D35" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>1F</v>
+        <f t="shared" si="0"/>
+        <v>001F</v>
       </c>
       <c r="E35" t="s">
         <v>176</v>
       </c>
       <c r="H35" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#define  VAR_BMS2_CURRENT_A10  31</v>
       </c>
       <c r="I35" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>public const byte VAR_BMS2_CURRENT_A10 = 31;</v>
       </c>
       <c r="L35" t="str">
@@ -2382,23 +2436,23 @@
       </c>
     </row>
     <row r="36" spans="2:16">
-      <c r="B36" s="15"/>
+      <c r="B36" s="16"/>
       <c r="C36" s="1">
         <v>32</v>
       </c>
       <c r="D36" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>20</v>
+        <f t="shared" si="0"/>
+        <v>0020</v>
       </c>
       <c r="E36" t="s">
         <v>177</v>
       </c>
       <c r="H36" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#define  VAR_BMS2_VOLTAGE_V10  32</v>
       </c>
       <c r="I36" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>public const byte VAR_BMS2_VOLTAGE_V10 = 32;</v>
       </c>
       <c r="L36" t="str">
@@ -2415,23 +2469,23 @@
       </c>
     </row>
     <row r="37" spans="2:16">
-      <c r="B37" s="15"/>
+      <c r="B37" s="16"/>
       <c r="C37" s="1">
         <v>33</v>
       </c>
       <c r="D37" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>21</v>
+        <f t="shared" si="0"/>
+        <v>0021</v>
       </c>
       <c r="E37" t="s">
         <v>178</v>
       </c>
       <c r="H37" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#define  VAR_BMS2_ENERGY_STORED_WH  33</v>
       </c>
       <c r="I37" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>public const byte VAR_BMS2_ENERGY_STORED_WH = 33;</v>
       </c>
       <c r="L37" t="str">
@@ -2448,23 +2502,23 @@
       </c>
     </row>
     <row r="38" spans="2:16">
-      <c r="B38" s="15"/>
+      <c r="B38" s="16"/>
       <c r="C38" s="1">
         <v>34</v>
       </c>
       <c r="D38" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>22</v>
+        <f t="shared" si="0"/>
+        <v>0022</v>
       </c>
       <c r="E38" t="s">
         <v>179</v>
       </c>
       <c r="H38" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#define  VAR_BMS2_TODAY_ENERGY_WH  34</v>
       </c>
       <c r="I38" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>public const byte VAR_BMS2_TODAY_ENERGY_WH = 34;</v>
       </c>
       <c r="L38" t="str">
@@ -2481,113 +2535,113 @@
       </c>
     </row>
     <row r="39" spans="2:16">
-      <c r="B39" s="15"/>
+      <c r="B39" s="16"/>
       <c r="C39" s="1">
         <v>35</v>
       </c>
       <c r="D39" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>0023</v>
+      </c>
+      <c r="H39" t="str">
+        <f t="shared" si="1"/>
+        <v>#define    35</v>
+      </c>
+      <c r="I39" t="str">
         <f t="shared" si="2"/>
-        <v>23</v>
-      </c>
-      <c r="H39" t="str">
-        <f t="shared" si="0"/>
-        <v>#define    35</v>
-      </c>
-      <c r="I39" t="str">
-        <f t="shared" si="1"/>
         <v>public const byte  = 35;</v>
       </c>
     </row>
     <row r="40" spans="2:16">
-      <c r="B40" s="15"/>
+      <c r="B40" s="16"/>
       <c r="C40" s="1">
         <v>36</v>
       </c>
       <c r="D40" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>0024</v>
+      </c>
+      <c r="H40" t="str">
+        <f t="shared" si="1"/>
+        <v>#define    36</v>
+      </c>
+      <c r="I40" t="str">
         <f t="shared" si="2"/>
-        <v>24</v>
-      </c>
-      <c r="H40" t="str">
-        <f t="shared" si="0"/>
-        <v>#define    36</v>
-      </c>
-      <c r="I40" t="str">
-        <f t="shared" si="1"/>
         <v>public const byte  = 36;</v>
       </c>
     </row>
     <row r="41" spans="2:16">
-      <c r="B41" s="15"/>
+      <c r="B41" s="16"/>
       <c r="C41" s="1">
         <v>37</v>
       </c>
       <c r="D41" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>0025</v>
+      </c>
+      <c r="H41" t="str">
+        <f t="shared" si="1"/>
+        <v>#define    37</v>
+      </c>
+      <c r="I41" t="str">
         <f t="shared" si="2"/>
-        <v>25</v>
-      </c>
-      <c r="H41" t="str">
-        <f t="shared" si="0"/>
-        <v>#define    37</v>
-      </c>
-      <c r="I41" t="str">
-        <f t="shared" si="1"/>
         <v>public const byte  = 37;</v>
       </c>
     </row>
     <row r="42" spans="2:16">
-      <c r="B42" s="15"/>
+      <c r="B42" s="16"/>
       <c r="C42" s="1">
         <v>38</v>
       </c>
       <c r="D42" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>0026</v>
+      </c>
+      <c r="H42" t="str">
+        <f t="shared" si="1"/>
+        <v>#define    38</v>
+      </c>
+      <c r="I42" t="str">
         <f t="shared" si="2"/>
-        <v>26</v>
-      </c>
-      <c r="H42" t="str">
-        <f t="shared" si="0"/>
-        <v>#define    38</v>
-      </c>
-      <c r="I42" t="str">
-        <f t="shared" si="1"/>
         <v>public const byte  = 38;</v>
       </c>
     </row>
     <row r="43" spans="2:16">
-      <c r="B43" s="15"/>
+      <c r="B43" s="16"/>
       <c r="C43" s="1">
         <v>39</v>
       </c>
       <c r="D43" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>0027</v>
+      </c>
+      <c r="H43" t="str">
+        <f t="shared" si="1"/>
+        <v>#define    39</v>
+      </c>
+      <c r="I43" t="str">
         <f t="shared" si="2"/>
-        <v>27</v>
-      </c>
-      <c r="H43" t="str">
-        <f t="shared" si="0"/>
-        <v>#define    39</v>
-      </c>
-      <c r="I43" t="str">
-        <f t="shared" si="1"/>
         <v>public const byte  = 39;</v>
       </c>
     </row>
     <row r="44" spans="2:16">
-      <c r="B44" s="15"/>
+      <c r="B44" s="16"/>
       <c r="C44" s="1">
         <v>40</v>
       </c>
       <c r="D44" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>28</v>
+        <f t="shared" si="0"/>
+        <v>0028</v>
       </c>
       <c r="E44" t="s">
         <v>180</v>
       </c>
       <c r="H44" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#define  VAR_MPPT_BAT_CURRENT_A10  40</v>
       </c>
       <c r="I44" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>public const byte VAR_MPPT_BAT_CURRENT_A10 = 40;</v>
       </c>
       <c r="L44" t="str">
@@ -2600,23 +2654,23 @@
       </c>
     </row>
     <row r="45" spans="2:16">
-      <c r="B45" s="15"/>
+      <c r="B45" s="16"/>
       <c r="C45" s="1">
         <v>41</v>
       </c>
       <c r="D45" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>29</v>
+        <f t="shared" si="0"/>
+        <v>0029</v>
       </c>
       <c r="E45" t="s">
         <v>181</v>
       </c>
       <c r="H45" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#define  VAR_MPPT_BAT_VOLTAGE_V100  41</v>
       </c>
       <c r="I45" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>public const byte VAR_MPPT_BAT_VOLTAGE_V100 = 41;</v>
       </c>
       <c r="L45" t="str">
@@ -2629,23 +2683,23 @@
       </c>
     </row>
     <row r="46" spans="2:16">
-      <c r="B46" s="15"/>
+      <c r="B46" s="16"/>
       <c r="C46" s="1">
         <v>42</v>
       </c>
       <c r="D46" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>2A</v>
+        <f t="shared" si="0"/>
+        <v>002A</v>
       </c>
       <c r="E46" t="s">
         <v>182</v>
       </c>
       <c r="H46" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#define  VAR_MPPT_YIELD_TODAY_10WH  42</v>
       </c>
       <c r="I46" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>public const byte VAR_MPPT_YIELD_TODAY_10WH = 42;</v>
       </c>
       <c r="L46" t="str">
@@ -2658,23 +2712,23 @@
       </c>
     </row>
     <row r="47" spans="2:16">
-      <c r="B47" s="15"/>
+      <c r="B47" s="16"/>
       <c r="C47" s="1">
         <v>43</v>
       </c>
       <c r="D47" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>2B</v>
+        <f t="shared" si="0"/>
+        <v>002B</v>
       </c>
       <c r="E47" t="s">
         <v>183</v>
       </c>
       <c r="H47" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#define  VAR_MPPT_MAX_TODAY_W  43</v>
       </c>
       <c r="I47" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>public const byte VAR_MPPT_MAX_TODAY_W = 43;</v>
       </c>
       <c r="L47" t="str">
@@ -2687,23 +2741,23 @@
       </c>
     </row>
     <row r="48" spans="2:16">
-      <c r="B48" s="15"/>
+      <c r="B48" s="16"/>
       <c r="C48" s="1">
         <v>44</v>
       </c>
       <c r="D48" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>2C</v>
+        <f t="shared" si="0"/>
+        <v>002C</v>
       </c>
       <c r="E48" t="s">
         <v>184</v>
       </c>
       <c r="H48" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#define  VAR_MPPT_SOLAR_POWER_W  44</v>
       </c>
       <c r="I48" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>public const byte VAR_MPPT_SOLAR_POWER_W = 44;</v>
       </c>
       <c r="L48" t="str">
@@ -2716,23 +2770,23 @@
       </c>
     </row>
     <row r="49" spans="2:16">
-      <c r="B49" s="15"/>
+      <c r="B49" s="16"/>
       <c r="C49" s="1">
         <v>45</v>
       </c>
       <c r="D49" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>2D</v>
+        <f t="shared" si="0"/>
+        <v>002D</v>
       </c>
       <c r="E49" t="s">
         <v>185</v>
       </c>
       <c r="H49" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#define  VAR_MPPT_SOLAR_VOLTAGE_V100  45</v>
       </c>
       <c r="I49" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>public const byte VAR_MPPT_SOLAR_VOLTAGE_V100 = 45;</v>
       </c>
       <c r="L49" t="str">
@@ -2745,23 +2799,23 @@
       </c>
     </row>
     <row r="50" spans="2:16">
-      <c r="B50" s="15"/>
+      <c r="B50" s="16"/>
       <c r="C50" s="1">
         <v>46</v>
       </c>
       <c r="D50" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>2E</v>
+        <f t="shared" si="0"/>
+        <v>002E</v>
       </c>
       <c r="E50" t="s">
         <v>186</v>
       </c>
       <c r="H50" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#define  VAR_MPPT_SOLAR_CURRENT_A10  46</v>
       </c>
       <c r="I50" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>public const byte VAR_MPPT_SOLAR_CURRENT_A10 = 46;</v>
       </c>
       <c r="L50" t="str">
@@ -2774,23 +2828,23 @@
       </c>
     </row>
     <row r="51" spans="2:16">
-      <c r="B51" s="15"/>
+      <c r="B51" s="16"/>
       <c r="C51" s="1">
         <v>47</v>
       </c>
       <c r="D51" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>2F</v>
+        <f t="shared" si="0"/>
+        <v>002F</v>
       </c>
       <c r="E51" t="s">
         <v>187</v>
       </c>
       <c r="H51" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#define  VAR_MPPT_SOLAR_MAX_VOLTAGE_V100  47</v>
       </c>
       <c r="I51" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>public const byte VAR_MPPT_SOLAR_MAX_VOLTAGE_V100 = 47;</v>
       </c>
       <c r="L51" t="str">
@@ -2803,23 +2857,23 @@
       </c>
     </row>
     <row r="52" spans="2:16">
-      <c r="B52" s="15"/>
+      <c r="B52" s="16"/>
       <c r="C52" s="1">
         <v>48</v>
       </c>
       <c r="D52" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>30</v>
+        <f t="shared" si="0"/>
+        <v>0030</v>
       </c>
       <c r="E52" t="s">
         <v>252</v>
       </c>
       <c r="H52" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#define  VAR_MPPT_MAX_BAT_CURRENT_A10  48</v>
       </c>
       <c r="I52" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>public const byte VAR_MPPT_MAX_BAT_CURRENT_A10 = 48;</v>
       </c>
       <c r="L52" t="str">
@@ -2832,232 +2886,247 @@
       </c>
     </row>
     <row r="53" spans="2:16">
-      <c r="B53" s="15"/>
+      <c r="B53" s="16"/>
       <c r="C53" s="1">
         <v>49</v>
       </c>
       <c r="D53" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>0031</v>
+      </c>
+      <c r="H53" t="str">
+        <f t="shared" si="1"/>
+        <v>#define    49</v>
+      </c>
+      <c r="I53" t="str">
         <f t="shared" si="2"/>
-        <v>31</v>
-      </c>
-      <c r="H53" t="str">
-        <f t="shared" si="0"/>
-        <v>#define    49</v>
-      </c>
-      <c r="I53" t="str">
-        <f t="shared" si="1"/>
         <v>public const byte  = 49;</v>
       </c>
     </row>
     <row r="54" spans="2:16">
-      <c r="B54" s="15"/>
+      <c r="B54" s="16"/>
       <c r="C54" s="1">
         <v>50</v>
       </c>
       <c r="D54" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>0032</v>
+      </c>
+      <c r="E54" t="s">
+        <v>355</v>
+      </c>
+      <c r="H54" t="str">
+        <f t="shared" si="1"/>
+        <v>#define  VAR_SHUNT_PCK1_CURRENT_A100  50</v>
+      </c>
+      <c r="I54" t="str">
         <f t="shared" si="2"/>
-        <v>32</v>
-      </c>
-      <c r="E54" t="s">
-        <v>312</v>
-      </c>
-      <c r="H54" t="str">
-        <f t="shared" si="0"/>
-        <v>#define  VAR_SHUNT_CURRENT_A100  50</v>
-      </c>
-      <c r="I54" t="str">
-        <f t="shared" si="1"/>
-        <v>public const byte VAR_SHUNT_CURRENT_A100 = 50;</v>
+        <v>public const byte VAR_SHUNT_PCK1_CURRENT_A100 = 50;</v>
       </c>
       <c r="L54" t="str">
         <f t="shared" si="3"/>
-        <v>UpdateScanList(VAR_SHUNT_CURRENT_A100, 3000);</v>
+        <v>UpdateScanList(VAR_SHUNT_PCK1_CURRENT_A100, 3000);</v>
       </c>
       <c r="P54" t="str">
         <f t="shared" si="4"/>
-        <v>cJSON_AddItemToObject(Uha, "VAR_SHUNT_CURRENT_A100", cJSON_CreateNumber(mVars[50]));</v>
+        <v>cJSON_AddItemToObject(Uha, "VAR_SHUNT_PCK1_CURRENT_A100", cJSON_CreateNumber(mVars[50]));</v>
       </c>
     </row>
     <row r="55" spans="2:16">
-      <c r="B55" s="15"/>
+      <c r="B55" s="16"/>
       <c r="C55" s="1">
         <v>51</v>
       </c>
       <c r="D55" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>0033</v>
+      </c>
+      <c r="E55" t="s">
+        <v>356</v>
+      </c>
+      <c r="H55" t="str">
+        <f t="shared" si="1"/>
+        <v>#define  VAR_SHUNT_PCK2_CURRENT_A100  51</v>
+      </c>
+      <c r="I55" t="str">
         <f t="shared" si="2"/>
-        <v>33</v>
-      </c>
-      <c r="H55" t="str">
-        <f t="shared" si="0"/>
-        <v>#define    51</v>
-      </c>
-      <c r="I55" t="str">
-        <f t="shared" si="1"/>
-        <v>public const byte  = 51;</v>
+        <v>public const byte VAR_SHUNT_PCK2_CURRENT_A100 = 51;</v>
       </c>
     </row>
     <row r="56" spans="2:16">
-      <c r="B56" s="15"/>
+      <c r="B56" s="16"/>
       <c r="C56" s="1">
         <v>52</v>
       </c>
       <c r="D56" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>0034</v>
+      </c>
+      <c r="E56" t="s">
+        <v>357</v>
+      </c>
+      <c r="H56" t="str">
+        <f t="shared" si="1"/>
+        <v>#define  VAR_PACK5KWH_SOC  52</v>
+      </c>
+      <c r="I56" t="str">
         <f t="shared" si="2"/>
-        <v>34</v>
-      </c>
-      <c r="H56" t="str">
-        <f t="shared" si="0"/>
-        <v>#define    52</v>
-      </c>
-      <c r="I56" t="str">
-        <f t="shared" si="1"/>
-        <v>public const byte  = 52;</v>
+        <v>public const byte VAR_PACK5KWH_SOC = 52;</v>
       </c>
     </row>
     <row r="57" spans="2:16">
-      <c r="B57" s="15"/>
+      <c r="B57" s="16"/>
       <c r="C57" s="1">
         <v>53</v>
       </c>
       <c r="D57" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>0035</v>
+      </c>
+      <c r="E57" t="s">
+        <v>360</v>
+      </c>
+      <c r="H57" t="str">
+        <f t="shared" si="1"/>
+        <v>#define  VAR_PACK5KWH_VOLTAGE_V10  53</v>
+      </c>
+      <c r="I57" t="str">
         <f t="shared" si="2"/>
-        <v>35</v>
-      </c>
-      <c r="H57" t="str">
-        <f t="shared" si="0"/>
-        <v>#define    53</v>
-      </c>
-      <c r="I57" t="str">
-        <f t="shared" si="1"/>
-        <v>public const byte  = 53;</v>
+        <v>public const byte VAR_PACK5KWH_VOLTAGE_V10 = 53;</v>
       </c>
     </row>
     <row r="58" spans="2:16">
-      <c r="B58" s="15"/>
+      <c r="B58" s="16"/>
       <c r="C58" s="1">
         <v>54</v>
       </c>
       <c r="D58" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>0036</v>
+      </c>
+      <c r="E58" t="s">
+        <v>358</v>
+      </c>
+      <c r="H58" t="str">
+        <f t="shared" si="1"/>
+        <v>#define  VAR_PACK5KWH_CURRENT_A10  54</v>
+      </c>
+      <c r="I58" t="str">
         <f t="shared" si="2"/>
-        <v>36</v>
-      </c>
-      <c r="H58" t="str">
-        <f t="shared" si="0"/>
-        <v>#define    54</v>
-      </c>
-      <c r="I58" t="str">
-        <f t="shared" si="1"/>
-        <v>public const byte  = 54;</v>
+        <v>public const byte VAR_PACK5KWH_CURRENT_A10 = 54;</v>
       </c>
     </row>
     <row r="59" spans="2:16">
-      <c r="B59" s="15"/>
+      <c r="B59" s="16"/>
       <c r="C59" s="1">
         <v>55</v>
       </c>
       <c r="D59" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>0037</v>
+      </c>
+      <c r="E59" t="s">
+        <v>359</v>
+      </c>
+      <c r="H59" t="str">
+        <f t="shared" si="1"/>
+        <v>#define  VAR_PACK5KWH_ENERGY_WH  55</v>
+      </c>
+      <c r="I59" t="str">
         <f t="shared" si="2"/>
-        <v>37</v>
-      </c>
-      <c r="H59" t="str">
-        <f t="shared" si="0"/>
-        <v>#define    55</v>
-      </c>
-      <c r="I59" t="str">
-        <f t="shared" si="1"/>
-        <v>public const byte  = 55;</v>
+        <v>public const byte VAR_PACK5KWH_ENERGY_WH = 55;</v>
       </c>
     </row>
     <row r="60" spans="2:16">
-      <c r="B60" s="15"/>
+      <c r="B60" s="16"/>
       <c r="C60" s="1">
         <v>56</v>
       </c>
       <c r="D60" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>0038</v>
+      </c>
+      <c r="H60" t="str">
+        <f t="shared" si="1"/>
+        <v>#define    56</v>
+      </c>
+      <c r="I60" t="str">
         <f t="shared" si="2"/>
-        <v>38</v>
-      </c>
-      <c r="H60" t="str">
-        <f t="shared" si="0"/>
-        <v>#define    56</v>
-      </c>
-      <c r="I60" t="str">
-        <f t="shared" si="1"/>
         <v>public const byte  = 56;</v>
       </c>
     </row>
     <row r="61" spans="2:16">
-      <c r="B61" s="15"/>
+      <c r="B61" s="16"/>
       <c r="C61" s="1">
         <v>57</v>
       </c>
       <c r="D61" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>0039</v>
+      </c>
+      <c r="H61" t="str">
+        <f t="shared" si="1"/>
+        <v>#define    57</v>
+      </c>
+      <c r="I61" t="str">
         <f t="shared" si="2"/>
-        <v>39</v>
-      </c>
-      <c r="H61" t="str">
-        <f t="shared" si="0"/>
-        <v>#define    57</v>
-      </c>
-      <c r="I61" t="str">
-        <f t="shared" si="1"/>
         <v>public const byte  = 57;</v>
       </c>
     </row>
     <row r="62" spans="2:16">
-      <c r="B62" s="15"/>
+      <c r="B62" s="16"/>
       <c r="C62" s="1">
         <v>58</v>
       </c>
       <c r="D62" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>003A</v>
+      </c>
+      <c r="H62" t="str">
+        <f t="shared" si="1"/>
+        <v>#define    58</v>
+      </c>
+      <c r="I62" t="str">
         <f t="shared" si="2"/>
-        <v>3A</v>
-      </c>
-      <c r="H62" t="str">
-        <f t="shared" si="0"/>
-        <v>#define    58</v>
-      </c>
-      <c r="I62" t="str">
-        <f t="shared" si="1"/>
         <v>public const byte  = 58;</v>
       </c>
     </row>
     <row r="63" spans="2:16">
-      <c r="B63" s="15"/>
+      <c r="B63" s="16"/>
       <c r="C63" s="1">
         <v>59</v>
       </c>
       <c r="D63" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>003B</v>
+      </c>
+      <c r="H63" t="str">
+        <f t="shared" si="1"/>
+        <v>#define    59</v>
+      </c>
+      <c r="I63" t="str">
         <f t="shared" si="2"/>
-        <v>3B</v>
-      </c>
-      <c r="H63" t="str">
-        <f t="shared" si="0"/>
-        <v>#define    59</v>
-      </c>
-      <c r="I63" t="str">
-        <f t="shared" si="1"/>
         <v>public const byte  = 59;</v>
       </c>
     </row>
     <row r="64" spans="2:16">
-      <c r="B64" s="15"/>
+      <c r="B64" s="16"/>
       <c r="C64" s="1">
         <v>60</v>
       </c>
       <c r="D64" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>3C</v>
+        <f t="shared" si="0"/>
+        <v>003C</v>
       </c>
       <c r="E64" t="s">
         <v>262</v>
       </c>
       <c r="H64" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#define  VAR_CONS_AC300_WH  60</v>
       </c>
       <c r="I64" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>public const byte VAR_CONS_AC300_WH = 60;</v>
       </c>
       <c r="L64" t="str">
@@ -3074,23 +3143,23 @@
       </c>
     </row>
     <row r="65" spans="2:16">
-      <c r="B65" s="15"/>
+      <c r="B65" s="16"/>
       <c r="C65" s="1">
         <v>61</v>
       </c>
       <c r="D65" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>3D</v>
+        <f t="shared" si="0"/>
+        <v>003D</v>
       </c>
       <c r="E65" t="s">
         <v>261</v>
       </c>
       <c r="H65" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#define  VAR_CONS_AC3KW_WH  61</v>
       </c>
       <c r="I65" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>public const byte VAR_CONS_AC3KW_WH = 61;</v>
       </c>
       <c r="L65" t="str">
@@ -3107,23 +3176,23 @@
       </c>
     </row>
     <row r="66" spans="2:16">
-      <c r="B66" s="15"/>
+      <c r="B66" s="16"/>
       <c r="C66" s="1">
         <v>62</v>
       </c>
       <c r="D66" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>3E</v>
+        <f t="shared" si="0"/>
+        <v>003E</v>
       </c>
       <c r="E66" t="s">
         <v>260</v>
       </c>
       <c r="H66" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#define  VAR_CONS_AC5KW_WH  62</v>
       </c>
       <c r="I66" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>public const byte VAR_CONS_AC5KW_WH = 62;</v>
       </c>
       <c r="L66" t="str">
@@ -3140,23 +3209,23 @@
       </c>
     </row>
     <row r="67" spans="2:16">
-      <c r="B67" s="15"/>
+      <c r="B67" s="16"/>
       <c r="C67" s="1">
         <v>63</v>
       </c>
       <c r="D67" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>3F</v>
+        <f t="shared" si="0"/>
+        <v>003F</v>
       </c>
       <c r="E67" t="s">
         <v>259</v>
       </c>
       <c r="H67" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#define  VAR_CONS_FRIDGE_WH  63</v>
       </c>
       <c r="I67" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>public const byte VAR_CONS_FRIDGE_WH = 63;</v>
       </c>
       <c r="L67" t="str">
@@ -3173,23 +3242,23 @@
       </c>
     </row>
     <row r="68" spans="2:16">
-      <c r="B68" s="15"/>
+      <c r="B68" s="16"/>
       <c r="C68" s="1">
         <v>64</v>
       </c>
       <c r="D68" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>40</v>
+        <f t="shared" ref="D68:D131" si="8">DEC2HEX(C68,4)</f>
+        <v>0040</v>
       </c>
       <c r="E68" t="s">
         <v>263</v>
       </c>
       <c r="H68" t="str">
-        <f t="shared" ref="H68:H103" si="8">CONCATENATE("#define  ",E68,"  ",C68)</f>
+        <f t="shared" ref="H68:H103" si="9">CONCATENATE("#define  ",E68,"  ",C68)</f>
         <v>#define  VAR_CONS_KITCHEN_WH  64</v>
       </c>
       <c r="I68" t="str">
-        <f t="shared" ref="I68:I103" si="9">CONCATENATE("public const byte ",E68," = ",C68,";")</f>
+        <f t="shared" ref="I68:I103" si="10">CONCATENATE("public const byte ",E68," = ",C68,";")</f>
         <v>public const byte VAR_CONS_KITCHEN_WH = 64;</v>
       </c>
       <c r="L68" t="str">
@@ -3206,23 +3275,23 @@
       </c>
     </row>
     <row r="69" spans="2:16">
-      <c r="B69" s="15"/>
+      <c r="B69" s="16"/>
       <c r="C69" s="1">
         <v>65</v>
       </c>
       <c r="D69" s="1" t="str">
-        <f t="shared" ref="D69:D132" si="10">DEC2HEX(C69,2)</f>
-        <v>41</v>
+        <f t="shared" si="8"/>
+        <v>0041</v>
       </c>
       <c r="E69" t="s">
         <v>264</v>
       </c>
       <c r="H69" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#define  VAR_CONS_WASCHMACHINE_WH  65</v>
       </c>
       <c r="I69" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>public const byte VAR_CONS_WASCHMACHINE_WH = 65;</v>
       </c>
       <c r="L69" t="str">
@@ -3239,23 +3308,23 @@
       </c>
     </row>
     <row r="70" spans="2:16">
-      <c r="B70" s="15"/>
+      <c r="B70" s="16"/>
       <c r="C70" s="1">
         <v>66</v>
       </c>
       <c r="D70" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>42</v>
+        <f t="shared" si="8"/>
+        <v>0042</v>
       </c>
       <c r="E70" t="s">
         <v>265</v>
       </c>
       <c r="H70" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#define  VAR_CONS_OTHER_WH  66</v>
       </c>
       <c r="I70" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>public const byte VAR_CONS_OTHER_WH = 66;</v>
       </c>
       <c r="L70" t="str">
@@ -3272,23 +3341,23 @@
       </c>
     </row>
     <row r="71" spans="2:16">
-      <c r="B71" s="15"/>
+      <c r="B71" s="16"/>
       <c r="C71" s="1">
         <v>67</v>
       </c>
       <c r="D71" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>43</v>
+        <f t="shared" si="8"/>
+        <v>0043</v>
       </c>
       <c r="E71" t="s">
         <v>266</v>
       </c>
       <c r="H71" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#define  VAR_CONS_TECHM_WH  67</v>
       </c>
       <c r="I71" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>public const byte VAR_CONS_TECHM_WH = 67;</v>
       </c>
       <c r="L71" t="str">
@@ -3305,23 +3374,23 @@
       </c>
     </row>
     <row r="72" spans="2:16">
-      <c r="B72" s="15"/>
+      <c r="B72" s="16"/>
       <c r="C72" s="1">
         <v>68</v>
       </c>
       <c r="D72" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>44</v>
+        <f t="shared" si="8"/>
+        <v>0044</v>
       </c>
       <c r="E72" t="s">
         <v>280</v>
       </c>
       <c r="H72" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#define  VAR_CONS_KITCHEN_A_WH  68</v>
       </c>
       <c r="I72" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>public const byte VAR_CONS_KITCHEN_A_WH = 68;</v>
       </c>
       <c r="L72" t="s">
@@ -3329,44 +3398,44 @@
       </c>
     </row>
     <row r="73" spans="2:16">
-      <c r="B73" s="15"/>
+      <c r="B73" s="16"/>
       <c r="C73" s="1">
         <v>69</v>
       </c>
       <c r="D73" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>45</v>
+        <f t="shared" si="8"/>
+        <v>0045</v>
       </c>
       <c r="E73" t="s">
         <v>281</v>
       </c>
       <c r="H73" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#define  VAR_CONS_KITCHEN_B_WH  69</v>
       </c>
       <c r="I73" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>public const byte VAR_CONS_KITCHEN_B_WH = 69;</v>
       </c>
     </row>
     <row r="74" spans="2:16">
-      <c r="B74" s="15"/>
+      <c r="B74" s="16"/>
       <c r="C74" s="1">
         <v>70</v>
       </c>
       <c r="D74" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>46</v>
+        <f t="shared" si="8"/>
+        <v>0046</v>
       </c>
       <c r="E74" t="s">
         <v>267</v>
       </c>
       <c r="H74" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#define  VAR_POW_AC300_W  70</v>
       </c>
       <c r="I74" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>public const byte VAR_POW_AC300_W = 70;</v>
       </c>
       <c r="L74" t="str">
@@ -3383,23 +3452,23 @@
       </c>
     </row>
     <row r="75" spans="2:16">
-      <c r="B75" s="15"/>
+      <c r="B75" s="16"/>
       <c r="C75" s="1">
         <v>71</v>
       </c>
       <c r="D75" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>47</v>
+        <f t="shared" si="8"/>
+        <v>0047</v>
       </c>
       <c r="E75" t="s">
         <v>268</v>
       </c>
       <c r="H75" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#define  VAR_POW_AC3KW_W  71</v>
       </c>
       <c r="I75" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>public const byte VAR_POW_AC3KW_W = 71;</v>
       </c>
       <c r="L75" t="str">
@@ -3416,23 +3485,23 @@
       </c>
     </row>
     <row r="76" spans="2:16">
-      <c r="B76" s="15"/>
+      <c r="B76" s="16"/>
       <c r="C76" s="1">
         <v>72</v>
       </c>
       <c r="D76" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>48</v>
+        <f t="shared" si="8"/>
+        <v>0048</v>
       </c>
       <c r="E76" t="s">
         <v>269</v>
       </c>
       <c r="H76" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#define  VAR_POW_AC5KW_W  72</v>
       </c>
       <c r="I76" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>public const byte VAR_POW_AC5KW_W = 72;</v>
       </c>
       <c r="L76" t="str">
@@ -3449,23 +3518,23 @@
       </c>
     </row>
     <row r="77" spans="2:16">
-      <c r="B77" s="15"/>
+      <c r="B77" s="16"/>
       <c r="C77" s="1">
         <v>73</v>
       </c>
       <c r="D77" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>49</v>
+        <f t="shared" si="8"/>
+        <v>0049</v>
       </c>
       <c r="E77" t="s">
         <v>270</v>
       </c>
       <c r="H77" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#define  VAR_POW_FRIDGE_W  73</v>
       </c>
       <c r="I77" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>public const byte VAR_POW_FRIDGE_W = 73;</v>
       </c>
       <c r="L77" t="str">
@@ -3482,23 +3551,23 @@
       </c>
     </row>
     <row r="78" spans="2:16">
-      <c r="B78" s="15"/>
+      <c r="B78" s="16"/>
       <c r="C78" s="1">
         <v>74</v>
       </c>
       <c r="D78" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>4A</v>
+        <f t="shared" si="8"/>
+        <v>004A</v>
       </c>
       <c r="E78" t="s">
         <v>271</v>
       </c>
       <c r="H78" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#define  VAR_POW_KITCHEN_W  74</v>
       </c>
       <c r="I78" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>public const byte VAR_POW_KITCHEN_W = 74;</v>
       </c>
       <c r="L78" t="str">
@@ -3515,23 +3584,23 @@
       </c>
     </row>
     <row r="79" spans="2:16">
-      <c r="B79" s="15"/>
+      <c r="B79" s="16"/>
       <c r="C79" s="1">
         <v>75</v>
       </c>
       <c r="D79" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>4B</v>
+        <f t="shared" si="8"/>
+        <v>004B</v>
       </c>
       <c r="E79" t="s">
         <v>272</v>
       </c>
       <c r="H79" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#define  VAR_POW_WASCHMACHINE_W  75</v>
       </c>
       <c r="I79" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>public const byte VAR_POW_WASCHMACHINE_W = 75;</v>
       </c>
       <c r="L79" t="str">
@@ -3548,23 +3617,23 @@
       </c>
     </row>
     <row r="80" spans="2:16">
-      <c r="B80" s="15"/>
+      <c r="B80" s="16"/>
       <c r="C80" s="1">
         <v>76</v>
       </c>
       <c r="D80" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>4C</v>
+        <f t="shared" si="8"/>
+        <v>004C</v>
       </c>
       <c r="E80" t="s">
         <v>273</v>
       </c>
       <c r="H80" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#define  VAR_POW_OTHER_W  76</v>
       </c>
       <c r="I80" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>public const byte VAR_POW_OTHER_W = 76;</v>
       </c>
       <c r="L80" t="str">
@@ -3581,23 +3650,23 @@
       </c>
     </row>
     <row r="81" spans="2:16">
-      <c r="B81" s="15"/>
+      <c r="B81" s="16"/>
       <c r="C81" s="1">
         <v>77</v>
       </c>
       <c r="D81" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>4D</v>
+        <f t="shared" si="8"/>
+        <v>004D</v>
       </c>
       <c r="E81" t="s">
         <v>274</v>
       </c>
       <c r="H81" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#define  VAR_POW_TECHM_W  77</v>
       </c>
       <c r="I81" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>public const byte VAR_POW_TECHM_W = 77;</v>
       </c>
       <c r="L81" t="str">
@@ -3614,23 +3683,23 @@
       </c>
     </row>
     <row r="82" spans="2:16">
-      <c r="B82" s="15"/>
+      <c r="B82" s="16"/>
       <c r="C82" s="1">
         <v>78</v>
       </c>
       <c r="D82" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>4E</v>
+        <f t="shared" si="8"/>
+        <v>004E</v>
       </c>
       <c r="E82" t="s">
         <v>283</v>
       </c>
       <c r="H82" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#define  VAR_POW_KITCHEN_A_W  78</v>
       </c>
       <c r="I82" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>public const byte VAR_POW_KITCHEN_A_W = 78;</v>
       </c>
       <c r="N82" t="str">
@@ -3639,23 +3708,23 @@
       </c>
     </row>
     <row r="83" spans="2:16">
-      <c r="B83" s="15"/>
+      <c r="B83" s="16"/>
       <c r="C83" s="1">
         <v>79</v>
       </c>
       <c r="D83" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>4F</v>
+        <f t="shared" si="8"/>
+        <v>004F</v>
       </c>
       <c r="E83" t="s">
         <v>284</v>
       </c>
       <c r="H83" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#define  VAR_POW_KITCHEN_B_W  79</v>
       </c>
       <c r="I83" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>public const byte VAR_POW_KITCHEN_B_W = 79;</v>
       </c>
       <c r="N83" t="str">
@@ -3664,23 +3733,23 @@
       </c>
     </row>
     <row r="84" spans="2:16">
-      <c r="B84" s="15"/>
+      <c r="B84" s="16"/>
       <c r="C84" s="1">
         <v>80</v>
       </c>
       <c r="D84" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>50</v>
+        <f t="shared" si="8"/>
+        <v>0050</v>
       </c>
       <c r="E84" t="s">
         <v>141</v>
       </c>
       <c r="H84" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#define  VAR_EL_HEATER_STATUS  80</v>
       </c>
       <c r="I84" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>public const byte VAR_EL_HEATER_STATUS = 80;</v>
       </c>
       <c r="L84" t="str">
@@ -3697,23 +3766,23 @@
       </c>
     </row>
     <row r="85" spans="2:16">
-      <c r="B85" s="15"/>
+      <c r="B85" s="16"/>
       <c r="C85" s="1">
         <v>81</v>
       </c>
       <c r="D85" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>51</v>
+        <f t="shared" si="8"/>
+        <v>0051</v>
       </c>
       <c r="E85" t="s">
         <v>142</v>
       </c>
       <c r="H85" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#define  VAR_EL_HEATER_POWER  81</v>
       </c>
       <c r="I85" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>public const byte VAR_EL_HEATER_POWER = 81;</v>
       </c>
       <c r="L85" t="str">
@@ -3730,23 +3799,23 @@
       </c>
     </row>
     <row r="86" spans="2:16">
-      <c r="B86" s="15"/>
+      <c r="B86" s="16"/>
       <c r="C86" s="1">
         <v>82</v>
       </c>
       <c r="D86" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>52</v>
+        <f t="shared" si="8"/>
+        <v>0052</v>
       </c>
       <c r="E86" t="s">
         <v>158</v>
       </c>
       <c r="H86" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#define  VAR_EL_HEATER_CURRENT  82</v>
       </c>
       <c r="I86" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>public const byte VAR_EL_HEATER_CURRENT = 82;</v>
       </c>
       <c r="L86" t="str">
@@ -3763,23 +3832,23 @@
       </c>
     </row>
     <row r="87" spans="2:16">
-      <c r="B87" s="15"/>
+      <c r="B87" s="16"/>
       <c r="C87" s="1">
         <v>83</v>
       </c>
       <c r="D87" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>53</v>
+        <f t="shared" si="8"/>
+        <v>0053</v>
       </c>
       <c r="E87" t="s">
         <v>159</v>
       </c>
       <c r="H87" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#define  VAR_EL_HEATER_CONS  83</v>
       </c>
       <c r="I87" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>public const byte VAR_EL_HEATER_CONS = 83;</v>
       </c>
       <c r="L87" t="str">
@@ -3796,20 +3865,20 @@
       </c>
     </row>
     <row r="88" spans="2:16">
-      <c r="B88" s="15"/>
+      <c r="B88" s="16"/>
       <c r="C88" s="1">
         <v>84</v>
       </c>
       <c r="D88" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>0054</v>
+      </c>
+      <c r="H88" t="str">
+        <f t="shared" si="9"/>
+        <v>#define    84</v>
+      </c>
+      <c r="I88" t="str">
         <f t="shared" si="10"/>
-        <v>54</v>
-      </c>
-      <c r="H88" t="str">
-        <f t="shared" si="8"/>
-        <v>#define    84</v>
-      </c>
-      <c r="I88" t="str">
-        <f t="shared" si="9"/>
         <v>public const byte  = 84;</v>
       </c>
       <c r="N88" t="str">
@@ -3818,23 +3887,23 @@
       </c>
     </row>
     <row r="89" spans="2:16">
-      <c r="B89" s="15"/>
+      <c r="B89" s="16"/>
       <c r="C89" s="1">
         <v>85</v>
       </c>
       <c r="D89" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>55</v>
+        <f t="shared" si="8"/>
+        <v>0055</v>
       </c>
       <c r="E89" t="s">
         <v>276</v>
       </c>
       <c r="H89" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#define  VAR_HEAT_TOTAL_WH  85</v>
       </c>
       <c r="I89" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>public const byte VAR_HEAT_TOTAL_WH = 85;</v>
       </c>
       <c r="L89" t="str">
@@ -3851,23 +3920,23 @@
       </c>
     </row>
     <row r="90" spans="2:16">
-      <c r="B90" s="15"/>
+      <c r="B90" s="16"/>
       <c r="C90" s="1">
         <v>86</v>
       </c>
       <c r="D90" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>56</v>
+        <f t="shared" si="8"/>
+        <v>0056</v>
       </c>
       <c r="E90" t="s">
         <v>277</v>
       </c>
       <c r="H90" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#define  VAR_HEAT_HEATING_WH  86</v>
       </c>
       <c r="I90" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>public const byte VAR_HEAT_HEATING_WH = 86;</v>
       </c>
       <c r="L90" t="str">
@@ -3884,20 +3953,20 @@
       </c>
     </row>
     <row r="91" spans="2:16">
-      <c r="B91" s="15"/>
+      <c r="B91" s="16"/>
       <c r="C91" s="1">
         <v>87</v>
       </c>
       <c r="D91" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>0057</v>
+      </c>
+      <c r="H91" t="str">
+        <f t="shared" si="9"/>
+        <v>#define    87</v>
+      </c>
+      <c r="I91" t="str">
         <f t="shared" si="10"/>
-        <v>57</v>
-      </c>
-      <c r="H91" t="str">
-        <f t="shared" si="8"/>
-        <v>#define    87</v>
-      </c>
-      <c r="I91" t="str">
-        <f t="shared" si="9"/>
         <v>public const byte  = 87;</v>
       </c>
       <c r="N91" t="str">
@@ -3906,20 +3975,20 @@
       </c>
     </row>
     <row r="92" spans="2:16">
-      <c r="B92" s="15"/>
+      <c r="B92" s="16"/>
       <c r="C92" s="1">
         <v>88</v>
       </c>
       <c r="D92" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>0058</v>
+      </c>
+      <c r="H92" t="str">
+        <f t="shared" si="9"/>
+        <v>#define    88</v>
+      </c>
+      <c r="I92" t="str">
         <f t="shared" si="10"/>
-        <v>58</v>
-      </c>
-      <c r="H92" t="str">
-        <f t="shared" si="8"/>
-        <v>#define    88</v>
-      </c>
-      <c r="I92" t="str">
-        <f t="shared" si="9"/>
         <v>public const byte  = 88;</v>
       </c>
       <c r="N92" t="str">
@@ -3928,20 +3997,20 @@
       </c>
     </row>
     <row r="93" spans="2:16">
-      <c r="B93" s="15"/>
+      <c r="B93" s="16"/>
       <c r="C93" s="1">
         <v>89</v>
       </c>
       <c r="D93" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>0059</v>
+      </c>
+      <c r="H93" t="str">
+        <f t="shared" si="9"/>
+        <v>#define    89</v>
+      </c>
+      <c r="I93" t="str">
         <f t="shared" si="10"/>
-        <v>59</v>
-      </c>
-      <c r="H93" t="str">
-        <f t="shared" si="8"/>
-        <v>#define    89</v>
-      </c>
-      <c r="I93" t="str">
-        <f t="shared" si="9"/>
         <v>public const byte  = 89;</v>
       </c>
       <c r="N93" t="str">
@@ -3950,23 +4019,23 @@
       </c>
     </row>
     <row r="94" spans="2:16">
-      <c r="B94" s="15"/>
+      <c r="B94" s="16"/>
       <c r="C94" s="1">
         <v>90</v>
       </c>
       <c r="D94" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>5A</v>
+        <f t="shared" si="8"/>
+        <v>005A</v>
       </c>
       <c r="E94" t="s">
         <v>154</v>
       </c>
       <c r="H94" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#define  VAR_FLOW_COLD  90</v>
       </c>
       <c r="I94" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>public const byte VAR_FLOW_COLD = 90;</v>
       </c>
       <c r="L94" t="str">
@@ -3983,23 +4052,23 @@
       </c>
     </row>
     <row r="95" spans="2:16">
-      <c r="B95" s="15"/>
+      <c r="B95" s="16"/>
       <c r="C95" s="1">
         <v>91</v>
       </c>
       <c r="D95" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>5B</v>
+        <f t="shared" si="8"/>
+        <v>005B</v>
       </c>
       <c r="E95" t="s">
         <v>155</v>
       </c>
       <c r="H95" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#define  VAR_FLOW_HOT  91</v>
       </c>
       <c r="I95" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>public const byte VAR_FLOW_HOT = 91;</v>
       </c>
       <c r="L95" t="str">
@@ -4016,23 +4085,23 @@
       </c>
     </row>
     <row r="96" spans="2:16">
-      <c r="B96" s="15"/>
+      <c r="B96" s="16"/>
       <c r="C96" s="1">
         <v>92</v>
       </c>
       <c r="D96" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>5C</v>
+        <f t="shared" si="8"/>
+        <v>005C</v>
       </c>
       <c r="E96" t="s">
         <v>157</v>
       </c>
       <c r="H96" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#define  VAR_CONS_COLD  92</v>
       </c>
       <c r="I96" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>public const byte VAR_CONS_COLD = 92;</v>
       </c>
       <c r="L96" t="str">
@@ -4049,23 +4118,23 @@
       </c>
     </row>
     <row r="97" spans="2:16">
-      <c r="B97" s="15"/>
+      <c r="B97" s="16"/>
       <c r="C97" s="1">
         <v>93</v>
       </c>
       <c r="D97" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>5D</v>
+        <f t="shared" si="8"/>
+        <v>005D</v>
       </c>
       <c r="E97" t="s">
         <v>156</v>
       </c>
       <c r="H97" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#define  VAR_CONS_HOT  93</v>
       </c>
       <c r="I97" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>public const byte VAR_CONS_HOT = 93;</v>
       </c>
       <c r="L97" t="str">
@@ -4082,20 +4151,20 @@
       </c>
     </row>
     <row r="98" spans="2:16">
-      <c r="B98" s="15"/>
+      <c r="B98" s="16"/>
       <c r="C98" s="1">
         <v>94</v>
       </c>
       <c r="D98" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>005E</v>
+      </c>
+      <c r="H98" t="str">
+        <f t="shared" si="9"/>
+        <v>#define    94</v>
+      </c>
+      <c r="I98" t="str">
         <f t="shared" si="10"/>
-        <v>5E</v>
-      </c>
-      <c r="H98" t="str">
-        <f t="shared" si="8"/>
-        <v>#define    94</v>
-      </c>
-      <c r="I98" t="str">
-        <f t="shared" si="9"/>
         <v>public const byte  = 94;</v>
       </c>
       <c r="N98" t="str">
@@ -4104,20 +4173,20 @@
       </c>
     </row>
     <row r="99" spans="2:16">
-      <c r="B99" s="15"/>
+      <c r="B99" s="16"/>
       <c r="C99" s="1">
         <v>95</v>
       </c>
       <c r="D99" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>005F</v>
+      </c>
+      <c r="H99" t="str">
+        <f t="shared" si="9"/>
+        <v>#define    95</v>
+      </c>
+      <c r="I99" t="str">
         <f t="shared" si="10"/>
-        <v>5F</v>
-      </c>
-      <c r="H99" t="str">
-        <f t="shared" si="8"/>
-        <v>#define    95</v>
-      </c>
-      <c r="I99" t="str">
-        <f t="shared" si="9"/>
         <v>public const byte  = 95;</v>
       </c>
       <c r="N99" t="str">
@@ -4126,20 +4195,20 @@
       </c>
     </row>
     <row r="100" spans="2:16">
-      <c r="B100" s="15"/>
+      <c r="B100" s="16"/>
       <c r="C100" s="1">
         <v>96</v>
       </c>
       <c r="D100" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>0060</v>
+      </c>
+      <c r="H100" t="str">
+        <f t="shared" si="9"/>
+        <v>#define    96</v>
+      </c>
+      <c r="I100" t="str">
         <f t="shared" si="10"/>
-        <v>60</v>
-      </c>
-      <c r="H100" t="str">
-        <f t="shared" si="8"/>
-        <v>#define    96</v>
-      </c>
-      <c r="I100" t="str">
-        <f t="shared" si="9"/>
         <v>public const byte  = 96;</v>
       </c>
       <c r="N100" t="str">
@@ -4148,20 +4217,20 @@
       </c>
     </row>
     <row r="101" spans="2:16">
-      <c r="B101" s="15"/>
+      <c r="B101" s="16"/>
       <c r="C101" s="1">
         <v>97</v>
       </c>
       <c r="D101" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>0061</v>
+      </c>
+      <c r="H101" t="str">
+        <f t="shared" si="9"/>
+        <v>#define    97</v>
+      </c>
+      <c r="I101" t="str">
         <f t="shared" si="10"/>
-        <v>61</v>
-      </c>
-      <c r="H101" t="str">
-        <f t="shared" si="8"/>
-        <v>#define    97</v>
-      </c>
-      <c r="I101" t="str">
-        <f t="shared" si="9"/>
         <v>public const byte  = 97;</v>
       </c>
       <c r="N101" t="str">
@@ -4170,23 +4239,23 @@
       </c>
     </row>
     <row r="102" spans="2:16">
-      <c r="B102" s="15"/>
+      <c r="B102" s="16"/>
       <c r="C102" s="1">
         <v>98</v>
       </c>
       <c r="D102" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>62</v>
+        <f t="shared" si="8"/>
+        <v>0062</v>
       </c>
       <c r="E102" t="s">
         <v>278</v>
       </c>
       <c r="H102" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#define  VAR_BOILER_POWER  98</v>
       </c>
       <c r="I102" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>public const byte VAR_BOILER_POWER = 98;</v>
       </c>
       <c r="L102" t="str">
@@ -4203,23 +4272,23 @@
       </c>
     </row>
     <row r="103" spans="2:16">
-      <c r="B103" s="15"/>
+      <c r="B103" s="16"/>
       <c r="C103" s="1">
         <v>99</v>
       </c>
       <c r="D103" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>63</v>
+        <f t="shared" si="8"/>
+        <v>0063</v>
       </c>
       <c r="E103" t="s">
         <v>279</v>
       </c>
       <c r="H103" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#define  VAR_BOILER_HEAT  99</v>
       </c>
       <c r="I103" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>public const byte VAR_BOILER_HEAT = 99;</v>
       </c>
       <c r="L103" t="str">
@@ -4236,15 +4305,15 @@
       </c>
     </row>
     <row r="104" spans="2:16">
-      <c r="B104" s="15" t="s">
+      <c r="B104" s="16" t="s">
         <v>3</v>
       </c>
       <c r="C104" s="1">
         <v>100</v>
       </c>
       <c r="D104" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>64</v>
+        <f t="shared" si="8"/>
+        <v>0064</v>
       </c>
       <c r="E104" t="s">
         <v>6</v>
@@ -4281,13 +4350,13 @@
       </c>
     </row>
     <row r="105" spans="2:16">
-      <c r="B105" s="15"/>
+      <c r="B105" s="16"/>
       <c r="C105" s="1">
         <v>101</v>
       </c>
       <c r="D105" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>65</v>
+        <f t="shared" si="8"/>
+        <v>0065</v>
       </c>
       <c r="E105" t="s">
         <v>7</v>
@@ -4324,13 +4393,13 @@
       </c>
     </row>
     <row r="106" spans="2:16">
-      <c r="B106" s="15"/>
+      <c r="B106" s="16"/>
       <c r="C106" s="1">
         <v>102</v>
       </c>
       <c r="D106" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>66</v>
+        <f t="shared" si="8"/>
+        <v>0066</v>
       </c>
       <c r="E106" t="s">
         <v>8</v>
@@ -4367,13 +4436,13 @@
       </c>
     </row>
     <row r="107" spans="2:16">
-      <c r="B107" s="15"/>
+      <c r="B107" s="16"/>
       <c r="C107" s="1">
         <v>103</v>
       </c>
       <c r="D107" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>67</v>
+        <f t="shared" si="8"/>
+        <v>0067</v>
       </c>
       <c r="E107" t="s">
         <v>145</v>
@@ -4410,13 +4479,13 @@
       </c>
     </row>
     <row r="108" spans="2:16">
-      <c r="B108" s="15"/>
+      <c r="B108" s="16"/>
       <c r="C108" s="1">
         <v>104</v>
       </c>
       <c r="D108" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>68</v>
+        <f t="shared" si="8"/>
+        <v>0068</v>
       </c>
       <c r="E108" t="s">
         <v>146</v>
@@ -4453,13 +4522,13 @@
       </c>
     </row>
     <row r="109" spans="2:16">
-      <c r="B109" s="15"/>
+      <c r="B109" s="16"/>
       <c r="C109" s="1">
         <v>105</v>
       </c>
       <c r="D109" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>69</v>
+        <f t="shared" si="8"/>
+        <v>0069</v>
       </c>
       <c r="E109" t="s">
         <v>9</v>
@@ -4496,13 +4565,13 @@
       </c>
     </row>
     <row r="110" spans="2:16">
-      <c r="B110" s="15"/>
+      <c r="B110" s="16"/>
       <c r="C110" s="1">
         <v>106</v>
       </c>
       <c r="D110" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>6A</v>
+        <f t="shared" si="8"/>
+        <v>006A</v>
       </c>
       <c r="E110" t="s">
         <v>10</v>
@@ -4539,13 +4608,13 @@
       </c>
     </row>
     <row r="111" spans="2:16">
-      <c r="B111" s="15"/>
+      <c r="B111" s="16"/>
       <c r="C111" s="1">
         <v>107</v>
       </c>
       <c r="D111" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>6B</v>
+        <f t="shared" si="8"/>
+        <v>006B</v>
       </c>
       <c r="E111" t="s">
         <v>11</v>
@@ -4582,13 +4651,13 @@
       </c>
     </row>
     <row r="112" spans="2:16">
-      <c r="B112" s="15"/>
+      <c r="B112" s="16"/>
       <c r="C112" s="1">
         <v>108</v>
       </c>
       <c r="D112" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>6C</v>
+        <f t="shared" si="8"/>
+        <v>006C</v>
       </c>
       <c r="E112" t="s">
         <v>12</v>
@@ -4625,13 +4694,13 @@
       </c>
     </row>
     <row r="113" spans="2:16">
-      <c r="B113" s="15"/>
+      <c r="B113" s="16"/>
       <c r="C113" s="1">
         <v>109</v>
       </c>
       <c r="D113" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>6D</v>
+        <f t="shared" si="8"/>
+        <v>006D</v>
       </c>
       <c r="E113" t="s">
         <v>13</v>
@@ -4668,13 +4737,13 @@
       </c>
     </row>
     <row r="114" spans="2:16">
-      <c r="B114" s="15"/>
+      <c r="B114" s="16"/>
       <c r="C114" s="1">
         <v>110</v>
       </c>
       <c r="D114" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>6E</v>
+        <f t="shared" si="8"/>
+        <v>006E</v>
       </c>
       <c r="E114" t="s">
         <v>14</v>
@@ -4711,13 +4780,13 @@
       </c>
     </row>
     <row r="115" spans="2:16">
-      <c r="B115" s="15"/>
+      <c r="B115" s="16"/>
       <c r="C115" s="1">
         <v>111</v>
       </c>
       <c r="D115" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>6F</v>
+        <f t="shared" si="8"/>
+        <v>006F</v>
       </c>
       <c r="E115" t="s">
         <v>50</v>
@@ -4754,13 +4823,13 @@
       </c>
     </row>
     <row r="116" spans="2:16">
-      <c r="B116" s="15"/>
+      <c r="B116" s="16"/>
       <c r="C116" s="1">
         <v>112</v>
       </c>
       <c r="D116" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>70</v>
+        <f t="shared" si="8"/>
+        <v>0070</v>
       </c>
       <c r="E116" t="s">
         <v>51</v>
@@ -4797,13 +4866,13 @@
       </c>
     </row>
     <row r="117" spans="2:16">
-      <c r="B117" s="15"/>
+      <c r="B117" s="16"/>
       <c r="C117" s="1">
         <v>113</v>
       </c>
       <c r="D117" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>71</v>
+        <f t="shared" si="8"/>
+        <v>0071</v>
       </c>
       <c r="E117" t="s">
         <v>52</v>
@@ -4837,13 +4906,13 @@
       </c>
     </row>
     <row r="118" spans="2:16">
-      <c r="B118" s="15"/>
+      <c r="B118" s="16"/>
       <c r="C118" s="1">
         <v>114</v>
       </c>
       <c r="D118" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>72</v>
+        <f t="shared" si="8"/>
+        <v>0072</v>
       </c>
       <c r="E118" t="s">
         <v>147</v>
@@ -4880,13 +4949,13 @@
       </c>
     </row>
     <row r="119" spans="2:16">
-      <c r="B119" s="15"/>
+      <c r="B119" s="16"/>
       <c r="C119" s="1">
         <v>115</v>
       </c>
       <c r="D119" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>73</v>
+        <f t="shared" si="8"/>
+        <v>0073</v>
       </c>
       <c r="E119" t="s">
         <v>148</v>
@@ -4923,13 +4992,13 @@
       </c>
     </row>
     <row r="120" spans="2:16">
-      <c r="B120" s="15"/>
+      <c r="B120" s="16"/>
       <c r="C120" s="1">
         <v>116</v>
       </c>
       <c r="D120" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>74</v>
+        <f t="shared" si="8"/>
+        <v>0074</v>
       </c>
       <c r="E120" t="s">
         <v>149</v>
@@ -4966,13 +5035,13 @@
       </c>
     </row>
     <row r="121" spans="2:16">
-      <c r="B121" s="15"/>
+      <c r="B121" s="16"/>
       <c r="C121" s="1">
         <v>117</v>
       </c>
       <c r="D121" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>75</v>
+        <f t="shared" si="8"/>
+        <v>0075</v>
       </c>
       <c r="E121" t="s">
         <v>150</v>
@@ -5009,13 +5078,13 @@
       </c>
     </row>
     <row r="122" spans="2:16">
-      <c r="B122" s="15"/>
+      <c r="B122" s="16"/>
       <c r="C122" s="1">
         <v>118</v>
       </c>
       <c r="D122" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>76</v>
+        <f t="shared" si="8"/>
+        <v>0076</v>
       </c>
       <c r="N122" t="str">
         <f t="shared" si="7"/>
@@ -5027,13 +5096,13 @@
       </c>
     </row>
     <row r="123" spans="2:16">
-      <c r="B123" s="15"/>
+      <c r="B123" s="16"/>
       <c r="C123" s="1">
         <v>119</v>
       </c>
       <c r="D123" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>77</v>
+        <f t="shared" si="8"/>
+        <v>0077</v>
       </c>
       <c r="N123" t="str">
         <f t="shared" si="7"/>
@@ -5045,13 +5114,13 @@
       </c>
     </row>
     <row r="124" spans="2:16">
-      <c r="B124" s="15"/>
+      <c r="B124" s="16"/>
       <c r="C124" s="1">
         <v>120</v>
       </c>
       <c r="D124" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>78</v>
+        <f t="shared" si="8"/>
+        <v>0078</v>
       </c>
       <c r="E124" t="s">
         <v>76</v>
@@ -5085,13 +5154,13 @@
       </c>
     </row>
     <row r="125" spans="2:16">
-      <c r="B125" s="15"/>
+      <c r="B125" s="16"/>
       <c r="C125" s="1">
         <v>121</v>
       </c>
       <c r="D125" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>79</v>
+        <f t="shared" si="8"/>
+        <v>0079</v>
       </c>
       <c r="E125" t="s">
         <v>77</v>
@@ -5128,13 +5197,13 @@
       </c>
     </row>
     <row r="126" spans="2:16">
-      <c r="B126" s="15"/>
+      <c r="B126" s="16"/>
       <c r="C126" s="1">
         <v>122</v>
       </c>
       <c r="D126" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>7A</v>
+        <f t="shared" si="8"/>
+        <v>007A</v>
       </c>
       <c r="E126" t="s">
         <v>78</v>
@@ -5171,13 +5240,13 @@
       </c>
     </row>
     <row r="127" spans="2:16">
-      <c r="B127" s="15"/>
+      <c r="B127" s="16"/>
       <c r="C127" s="1">
         <v>123</v>
       </c>
       <c r="D127" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>7B</v>
+        <f t="shared" si="8"/>
+        <v>007B</v>
       </c>
       <c r="E127" t="s">
         <v>79</v>
@@ -5214,13 +5283,13 @@
       </c>
     </row>
     <row r="128" spans="2:16">
-      <c r="B128" s="15"/>
+      <c r="B128" s="16"/>
       <c r="C128" s="1">
         <v>124</v>
       </c>
       <c r="D128" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>7C</v>
+        <f t="shared" si="8"/>
+        <v>007C</v>
       </c>
       <c r="E128" t="s">
         <v>80</v>
@@ -5257,13 +5326,13 @@
       </c>
     </row>
     <row r="129" spans="2:16">
-      <c r="B129" s="15"/>
+      <c r="B129" s="16"/>
       <c r="C129" s="1">
         <v>125</v>
       </c>
       <c r="D129" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>7D</v>
+        <f t="shared" si="8"/>
+        <v>007D</v>
       </c>
       <c r="E129" t="s">
         <v>161</v>
@@ -5300,13 +5369,13 @@
       </c>
     </row>
     <row r="130" spans="2:16">
-      <c r="B130" s="15"/>
+      <c r="B130" s="16"/>
       <c r="C130" s="1">
         <v>126</v>
       </c>
       <c r="D130" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>7E</v>
+        <f t="shared" si="8"/>
+        <v>007E</v>
       </c>
       <c r="E130" t="s">
         <v>166</v>
@@ -5343,13 +5412,13 @@
       </c>
     </row>
     <row r="131" spans="2:16">
-      <c r="B131" s="15"/>
+      <c r="B131" s="16"/>
       <c r="C131" s="1">
         <v>127</v>
       </c>
       <c r="D131" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>7F</v>
+        <f t="shared" si="8"/>
+        <v>007F</v>
       </c>
       <c r="E131" t="s">
         <v>167</v>
@@ -5386,13 +5455,13 @@
       </c>
     </row>
     <row r="132" spans="2:16">
-      <c r="B132" s="15"/>
+      <c r="B132" s="16"/>
       <c r="C132" s="1">
         <v>128</v>
       </c>
       <c r="D132" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>80</v>
+        <f t="shared" ref="D132:D195" si="20">DEC2HEX(C132,4)</f>
+        <v>0080</v>
       </c>
       <c r="E132" t="s">
         <v>297</v>
@@ -5419,13 +5488,13 @@
       </c>
     </row>
     <row r="133" spans="2:16">
-      <c r="B133" s="15"/>
+      <c r="B133" s="16"/>
       <c r="C133" s="1">
         <v>129</v>
       </c>
       <c r="D133" s="1" t="str">
-        <f t="shared" ref="D133:D196" si="20">DEC2HEX(C133,2)</f>
-        <v>81</v>
+        <f t="shared" si="20"/>
+        <v>0081</v>
       </c>
       <c r="E133" t="s">
         <v>298</v>
@@ -5452,13 +5521,13 @@
       </c>
     </row>
     <row r="134" spans="2:16">
-      <c r="B134" s="15"/>
+      <c r="B134" s="16"/>
       <c r="C134" s="1">
         <v>130</v>
       </c>
       <c r="D134" s="1" t="str">
         <f t="shared" si="20"/>
-        <v>82</v>
+        <v>0082</v>
       </c>
       <c r="E134" t="s">
         <v>299</v>
@@ -5488,13 +5557,13 @@
       </c>
     </row>
     <row r="135" spans="2:16">
-      <c r="B135" s="15"/>
+      <c r="B135" s="16"/>
       <c r="C135" s="1">
         <v>131</v>
       </c>
       <c r="D135" s="1" t="str">
         <f t="shared" si="20"/>
-        <v>83</v>
+        <v>0083</v>
       </c>
       <c r="E135" t="s">
         <v>300</v>
@@ -5524,13 +5593,13 @@
       </c>
     </row>
     <row r="136" spans="2:16">
-      <c r="B136" s="15"/>
+      <c r="B136" s="16"/>
       <c r="C136" s="1">
         <v>132</v>
       </c>
       <c r="D136" s="1" t="str">
         <f t="shared" si="20"/>
-        <v>84</v>
+        <v>0084</v>
       </c>
       <c r="E136" t="s">
         <v>303</v>
@@ -5557,13 +5626,13 @@
       </c>
     </row>
     <row r="137" spans="2:16">
-      <c r="B137" s="15"/>
+      <c r="B137" s="16"/>
       <c r="C137" s="1">
         <v>133</v>
       </c>
       <c r="D137" s="1" t="str">
         <f t="shared" si="20"/>
-        <v>85</v>
+        <v>0085</v>
       </c>
       <c r="E137" t="s">
         <v>304</v>
@@ -5590,43 +5659,43 @@
       </c>
     </row>
     <row r="138" spans="2:16">
-      <c r="B138" s="15"/>
+      <c r="B138" s="16"/>
       <c r="C138" s="1">
         <v>134</v>
       </c>
       <c r="D138" s="1" t="str">
         <f t="shared" si="20"/>
-        <v>86</v>
+        <v>0086</v>
       </c>
     </row>
     <row r="139" spans="2:16">
-      <c r="B139" s="15"/>
+      <c r="B139" s="16"/>
       <c r="C139" s="1">
         <v>135</v>
       </c>
       <c r="D139" s="1" t="str">
         <f t="shared" si="20"/>
-        <v>87</v>
+        <v>0087</v>
       </c>
     </row>
     <row r="140" spans="2:16">
-      <c r="B140" s="15"/>
+      <c r="B140" s="16"/>
       <c r="C140" s="1">
         <v>136</v>
       </c>
       <c r="D140" s="1" t="str">
         <f t="shared" si="20"/>
-        <v>88</v>
+        <v>0088</v>
       </c>
     </row>
     <row r="141" spans="2:16">
-      <c r="B141" s="15"/>
+      <c r="B141" s="16"/>
       <c r="C141" s="1">
         <v>137</v>
       </c>
       <c r="D141" s="1" t="str">
         <f t="shared" si="20"/>
-        <v>89</v>
+        <v>0089</v>
       </c>
       <c r="E141" t="s">
         <v>305</v>
@@ -5653,13 +5722,13 @@
       </c>
     </row>
     <row r="142" spans="2:16">
-      <c r="B142" s="15"/>
+      <c r="B142" s="16"/>
       <c r="C142" s="1">
         <v>138</v>
       </c>
       <c r="D142" s="1" t="str">
         <f t="shared" si="20"/>
-        <v>8A</v>
+        <v>008A</v>
       </c>
       <c r="E142" t="s">
         <v>306</v>
@@ -5686,13 +5755,13 @@
       </c>
     </row>
     <row r="143" spans="2:16">
-      <c r="B143" s="15"/>
+      <c r="B143" s="16"/>
       <c r="C143" s="1">
         <v>139</v>
       </c>
       <c r="D143" s="1" t="str">
         <f t="shared" si="20"/>
-        <v>8B</v>
+        <v>008B</v>
       </c>
       <c r="E143" t="s">
         <v>307</v>
@@ -5719,13 +5788,13 @@
       </c>
     </row>
     <row r="144" spans="2:16">
-      <c r="B144" s="15"/>
+      <c r="B144" s="16"/>
       <c r="C144" s="1">
         <v>140</v>
       </c>
       <c r="D144" s="1" t="str">
         <f t="shared" si="20"/>
-        <v>8C</v>
+        <v>008C</v>
       </c>
       <c r="E144" t="s">
         <v>308</v>
@@ -5752,13 +5821,13 @@
       </c>
     </row>
     <row r="145" spans="2:16">
-      <c r="B145" s="15"/>
+      <c r="B145" s="16"/>
       <c r="C145" s="1">
         <v>141</v>
       </c>
       <c r="D145" s="1" t="str">
         <f t="shared" si="20"/>
-        <v>8D</v>
+        <v>008D</v>
       </c>
       <c r="E145" t="s">
         <v>309</v>
@@ -5785,13 +5854,13 @@
       </c>
     </row>
     <row r="146" spans="2:16">
-      <c r="B146" s="15"/>
+      <c r="B146" s="16"/>
       <c r="C146" s="1">
         <v>142</v>
       </c>
       <c r="D146" s="1" t="str">
         <f t="shared" si="20"/>
-        <v>8E</v>
+        <v>008E</v>
       </c>
       <c r="E146" t="s">
         <v>310</v>
@@ -5818,87 +5887,87 @@
       </c>
     </row>
     <row r="147" spans="2:16">
-      <c r="B147" s="15"/>
+      <c r="B147" s="16"/>
       <c r="C147" s="1">
         <v>143</v>
       </c>
       <c r="D147" s="1" t="str">
         <f t="shared" si="20"/>
-        <v>8F</v>
+        <v>008F</v>
       </c>
     </row>
     <row r="148" spans="2:16">
-      <c r="B148" s="15"/>
+      <c r="B148" s="16"/>
       <c r="C148" s="1">
         <v>144</v>
       </c>
       <c r="D148" s="1" t="str">
         <f t="shared" si="20"/>
-        <v>90</v>
+        <v>0090</v>
       </c>
     </row>
     <row r="149" spans="2:16">
-      <c r="B149" s="15"/>
+      <c r="B149" s="16"/>
       <c r="C149" s="1">
         <v>145</v>
       </c>
       <c r="D149" s="1" t="str">
         <f t="shared" si="20"/>
-        <v>91</v>
+        <v>0091</v>
       </c>
     </row>
     <row r="150" spans="2:16">
-      <c r="B150" s="15"/>
+      <c r="B150" s="16"/>
       <c r="C150" s="1">
         <v>146</v>
       </c>
       <c r="D150" s="1" t="str">
         <f t="shared" si="20"/>
-        <v>92</v>
+        <v>0092</v>
       </c>
     </row>
     <row r="151" spans="2:16">
-      <c r="B151" s="15"/>
+      <c r="B151" s="16"/>
       <c r="C151" s="1">
         <v>147</v>
       </c>
       <c r="D151" s="1" t="str">
         <f t="shared" si="20"/>
-        <v>93</v>
+        <v>0093</v>
       </c>
     </row>
     <row r="152" spans="2:16">
-      <c r="B152" s="15"/>
+      <c r="B152" s="16"/>
       <c r="C152" s="1">
         <v>148</v>
       </c>
       <c r="D152" s="1" t="str">
         <f t="shared" si="20"/>
-        <v>94</v>
+        <v>0094</v>
       </c>
     </row>
     <row r="153" spans="2:16">
-      <c r="B153" s="15"/>
+      <c r="B153" s="16"/>
       <c r="C153" s="1">
         <v>149</v>
       </c>
       <c r="D153" s="1" t="str">
         <f t="shared" si="20"/>
-        <v>95</v>
+        <v>0095</v>
       </c>
     </row>
     <row r="154" spans="2:16">
-      <c r="B154" s="15"/>
+      <c r="B154" s="16"/>
       <c r="C154" s="1">
         <v>150</v>
       </c>
       <c r="D154" s="1" t="str">
         <f t="shared" si="20"/>
-        <v>96</v>
+        <v>0096</v>
       </c>
     </row>
     <row r="155" spans="2:16">
-      <c r="B155" s="15" t="s">
+      <c r="B155" s="16" t="s">
         <v>4</v>
       </c>
       <c r="C155" s="1">
@@ -5906,97 +5975,97 @@
       </c>
       <c r="D155" s="1" t="str">
         <f t="shared" si="20"/>
-        <v>97</v>
+        <v>0097</v>
       </c>
     </row>
     <row r="156" spans="2:16">
-      <c r="B156" s="15"/>
+      <c r="B156" s="16"/>
       <c r="C156" s="1">
         <v>152</v>
       </c>
       <c r="D156" s="1" t="str">
         <f t="shared" si="20"/>
-        <v>98</v>
+        <v>0098</v>
       </c>
     </row>
     <row r="157" spans="2:16">
-      <c r="B157" s="15"/>
+      <c r="B157" s="16"/>
       <c r="C157" s="1">
         <v>153</v>
       </c>
       <c r="D157" s="1" t="str">
         <f t="shared" si="20"/>
-        <v>99</v>
+        <v>0099</v>
       </c>
     </row>
     <row r="158" spans="2:16">
-      <c r="B158" s="15"/>
+      <c r="B158" s="16"/>
       <c r="C158" s="1">
         <v>154</v>
       </c>
       <c r="D158" s="1" t="str">
         <f t="shared" si="20"/>
-        <v>9A</v>
+        <v>009A</v>
       </c>
     </row>
     <row r="159" spans="2:16">
-      <c r="B159" s="15"/>
+      <c r="B159" s="16"/>
       <c r="C159" s="1">
         <v>155</v>
       </c>
       <c r="D159" s="1" t="str">
         <f t="shared" si="20"/>
-        <v>9B</v>
+        <v>009B</v>
       </c>
     </row>
     <row r="160" spans="2:16">
-      <c r="B160" s="15"/>
+      <c r="B160" s="16"/>
       <c r="C160" s="1">
         <v>156</v>
       </c>
       <c r="D160" s="1" t="str">
         <f t="shared" si="20"/>
-        <v>9C</v>
+        <v>009C</v>
       </c>
     </row>
     <row r="161" spans="2:16">
-      <c r="B161" s="15"/>
+      <c r="B161" s="16"/>
       <c r="C161" s="1">
         <v>157</v>
       </c>
       <c r="D161" s="1" t="str">
         <f t="shared" si="20"/>
-        <v>9D</v>
+        <v>009D</v>
       </c>
     </row>
     <row r="162" spans="2:16">
-      <c r="B162" s="15"/>
+      <c r="B162" s="16"/>
       <c r="C162" s="1">
         <v>158</v>
       </c>
       <c r="D162" s="1" t="str">
         <f t="shared" si="20"/>
-        <v>9E</v>
+        <v>009E</v>
       </c>
     </row>
     <row r="163" spans="2:16">
-      <c r="B163" s="15"/>
+      <c r="B163" s="16"/>
       <c r="C163" s="1">
         <v>159</v>
       </c>
       <c r="D163" s="1" t="str">
         <f t="shared" si="20"/>
-        <v>9F</v>
+        <v>009F</v>
       </c>
     </row>
     <row r="164" spans="2:16">
-      <c r="B164" s="15"/>
+      <c r="B164" s="16"/>
       <c r="C164" s="1">
         <v>160</v>
       </c>
       <c r="D164" s="1" t="str">
         <f t="shared" si="20"/>
-        <v>A0</v>
+        <v>00A0</v>
       </c>
     </row>
     <row r="165" spans="2:16">
@@ -6005,7 +6074,7 @@
       </c>
       <c r="D165" s="1" t="str">
         <f t="shared" si="20"/>
-        <v>A1</v>
+        <v>00A1</v>
       </c>
       <c r="E165" t="s">
         <v>293</v>
@@ -6041,7 +6110,7 @@
       </c>
       <c r="D166" s="1" t="str">
         <f t="shared" si="20"/>
-        <v>A2</v>
+        <v>00A2</v>
       </c>
       <c r="E166" t="s">
         <v>294</v>
@@ -6077,7 +6146,7 @@
       </c>
       <c r="D167" s="1" t="str">
         <f t="shared" si="20"/>
-        <v>A3</v>
+        <v>00A3</v>
       </c>
       <c r="E167" t="s">
         <v>295</v>
@@ -6113,7 +6182,7 @@
       </c>
       <c r="D168" s="1" t="str">
         <f t="shared" si="20"/>
-        <v>A4</v>
+        <v>00A4</v>
       </c>
       <c r="E168" t="s">
         <v>296</v>
@@ -6149,7 +6218,7 @@
       </c>
       <c r="D169" s="1" t="str">
         <f t="shared" si="20"/>
-        <v>A5</v>
+        <v>00A5</v>
       </c>
     </row>
     <row r="170" spans="2:16">
@@ -6158,7 +6227,7 @@
       </c>
       <c r="D170" s="1" t="str">
         <f t="shared" si="20"/>
-        <v>A6</v>
+        <v>00A6</v>
       </c>
     </row>
     <row r="171" spans="2:16">
@@ -6167,7 +6236,7 @@
       </c>
       <c r="D171" s="1" t="str">
         <f t="shared" si="20"/>
-        <v>A7</v>
+        <v>00A7</v>
       </c>
     </row>
     <row r="172" spans="2:16">
@@ -6176,7 +6245,7 @@
       </c>
       <c r="D172" s="1" t="str">
         <f t="shared" si="20"/>
-        <v>A8</v>
+        <v>00A8</v>
       </c>
     </row>
     <row r="173" spans="2:16">
@@ -6185,7 +6254,7 @@
       </c>
       <c r="D173" s="1" t="str">
         <f t="shared" si="20"/>
-        <v>A9</v>
+        <v>00A9</v>
       </c>
     </row>
     <row r="174" spans="2:16">
@@ -6194,7 +6263,7 @@
       </c>
       <c r="D174" s="1" t="str">
         <f t="shared" si="20"/>
-        <v>AA</v>
+        <v>00AA</v>
       </c>
     </row>
     <row r="175" spans="2:16">
@@ -6203,7 +6272,7 @@
       </c>
       <c r="D175" s="1" t="str">
         <f t="shared" si="20"/>
-        <v>AB</v>
+        <v>00AB</v>
       </c>
     </row>
     <row r="176" spans="2:16">
@@ -6212,7 +6281,7 @@
       </c>
       <c r="D176" s="1" t="str">
         <f t="shared" si="20"/>
-        <v>AC</v>
+        <v>00AC</v>
       </c>
     </row>
     <row r="177" spans="3:16">
@@ -6221,7 +6290,7 @@
       </c>
       <c r="D177" s="1" t="str">
         <f t="shared" si="20"/>
-        <v>AD</v>
+        <v>00AD</v>
       </c>
     </row>
     <row r="178" spans="3:16">
@@ -6230,7 +6299,7 @@
       </c>
       <c r="D178" s="1" t="str">
         <f t="shared" si="20"/>
-        <v>AE</v>
+        <v>00AE</v>
       </c>
     </row>
     <row r="179" spans="3:16">
@@ -6239,7 +6308,7 @@
       </c>
       <c r="D179" s="1" t="str">
         <f t="shared" si="20"/>
-        <v>AF</v>
+        <v>00AF</v>
       </c>
     </row>
     <row r="180" spans="3:16">
@@ -6248,7 +6317,7 @@
       </c>
       <c r="D180" s="1" t="str">
         <f t="shared" si="20"/>
-        <v>B0</v>
+        <v>00B0</v>
       </c>
     </row>
     <row r="181" spans="3:16">
@@ -6257,7 +6326,7 @@
       </c>
       <c r="D181" s="1" t="str">
         <f t="shared" si="20"/>
-        <v>B1</v>
+        <v>00B1</v>
       </c>
     </row>
     <row r="182" spans="3:16">
@@ -6266,7 +6335,7 @@
       </c>
       <c r="D182" s="1" t="str">
         <f t="shared" si="20"/>
-        <v>B2</v>
+        <v>00B2</v>
       </c>
     </row>
     <row r="183" spans="3:16">
@@ -6275,7 +6344,7 @@
       </c>
       <c r="D183" s="1" t="str">
         <f t="shared" si="20"/>
-        <v>B3</v>
+        <v>00B3</v>
       </c>
     </row>
     <row r="184" spans="3:16">
@@ -6284,7 +6353,7 @@
       </c>
       <c r="D184" s="1" t="str">
         <f t="shared" si="20"/>
-        <v>B4</v>
+        <v>00B4</v>
       </c>
       <c r="E184" t="s">
         <v>188</v>
@@ -6319,7 +6388,7 @@
       </c>
       <c r="D185" s="1" t="str">
         <f t="shared" si="20"/>
-        <v>B5</v>
+        <v>00B5</v>
       </c>
       <c r="E185" t="s">
         <v>189</v>
@@ -6354,7 +6423,7 @@
       </c>
       <c r="D186" s="1" t="str">
         <f t="shared" si="20"/>
-        <v>B6</v>
+        <v>00B6</v>
       </c>
       <c r="E186" t="s">
         <v>190</v>
@@ -6389,7 +6458,7 @@
       </c>
       <c r="D187" s="1" t="str">
         <f t="shared" si="20"/>
-        <v>B7</v>
+        <v>00B7</v>
       </c>
       <c r="E187" t="s">
         <v>191</v>
@@ -6424,7 +6493,7 @@
       </c>
       <c r="D188" s="1" t="str">
         <f t="shared" si="20"/>
-        <v>B8</v>
+        <v>00B8</v>
       </c>
       <c r="E188" t="s">
         <v>192</v>
@@ -6459,7 +6528,7 @@
       </c>
       <c r="D189" s="1" t="str">
         <f t="shared" si="20"/>
-        <v>B9</v>
+        <v>00B9</v>
       </c>
       <c r="E189" t="s">
         <v>193</v>
@@ -6494,7 +6563,7 @@
       </c>
       <c r="D190" s="1" t="str">
         <f t="shared" si="20"/>
-        <v>BA</v>
+        <v>00BA</v>
       </c>
       <c r="E190" t="s">
         <v>194</v>
@@ -6529,7 +6598,7 @@
       </c>
       <c r="D191" s="1" t="str">
         <f t="shared" si="20"/>
-        <v>BB</v>
+        <v>00BB</v>
       </c>
       <c r="E191" t="s">
         <v>195</v>
@@ -6564,7 +6633,7 @@
       </c>
       <c r="D192" s="1" t="str">
         <f t="shared" si="20"/>
-        <v>BC</v>
+        <v>00BC</v>
       </c>
       <c r="E192" t="s">
         <v>196</v>
@@ -6599,7 +6668,7 @@
       </c>
       <c r="D193" s="1" t="str">
         <f t="shared" si="20"/>
-        <v>BD</v>
+        <v>00BD</v>
       </c>
       <c r="E193" t="s">
         <v>197</v>
@@ -6634,7 +6703,7 @@
       </c>
       <c r="D194" s="1" t="str">
         <f t="shared" si="20"/>
-        <v>BE</v>
+        <v>00BE</v>
       </c>
       <c r="E194" t="s">
         <v>198</v>
@@ -6669,7 +6738,7 @@
       </c>
       <c r="D195" s="1" t="str">
         <f t="shared" si="20"/>
-        <v>BF</v>
+        <v>00BF</v>
       </c>
       <c r="E195" t="s">
         <v>199</v>
@@ -6703,18 +6772,18 @@
         <v>192</v>
       </c>
       <c r="D196" s="1" t="str">
-        <f t="shared" si="20"/>
-        <v>C0</v>
+        <f t="shared" ref="D196:D259" si="41">DEC2HEX(C196,4)</f>
+        <v>00C0</v>
       </c>
       <c r="E196" t="s">
         <v>200</v>
       </c>
       <c r="H196" t="str">
-        <f t="shared" ref="H196:H255" si="41">CONCATENATE("#define  ",E196,"  ",C196)</f>
+        <f t="shared" ref="H196:H255" si="42">CONCATENATE("#define  ",E196,"  ",C196)</f>
         <v>#define  VAR_BMS1_CELL13_MV  192</v>
       </c>
       <c r="I196" t="str">
-        <f t="shared" ref="I196:I255" si="42">CONCATENATE("public const byte ",E196," = ",C196,";")</f>
+        <f t="shared" ref="I196:I255" si="43">CONCATENATE("public const byte ",E196," = ",C196,";")</f>
         <v>public const byte VAR_BMS1_CELL13_MV = 192;</v>
       </c>
       <c r="J196">
@@ -6738,18 +6807,18 @@
         <v>193</v>
       </c>
       <c r="D197" s="1" t="str">
-        <f t="shared" ref="D197:D259" si="43">DEC2HEX(C197,2)</f>
-        <v>C1</v>
+        <f t="shared" si="41"/>
+        <v>00C1</v>
       </c>
       <c r="E197" t="s">
         <v>201</v>
       </c>
       <c r="H197" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>#define  VAR_BMS1_CELL14_MV  193</v>
       </c>
       <c r="I197" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>public const byte VAR_BMS1_CELL14_MV = 193;</v>
       </c>
       <c r="J197">
@@ -6773,18 +6842,18 @@
         <v>194</v>
       </c>
       <c r="D198" s="1" t="str">
-        <f t="shared" si="43"/>
-        <v>C2</v>
+        <f t="shared" si="41"/>
+        <v>00C2</v>
       </c>
       <c r="E198" t="s">
         <v>202</v>
       </c>
       <c r="H198" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>#define  VAR_BMS1_CELL15_MV  194</v>
       </c>
       <c r="I198" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>public const byte VAR_BMS1_CELL15_MV = 194;</v>
       </c>
       <c r="J198">
@@ -6808,18 +6877,18 @@
         <v>195</v>
       </c>
       <c r="D199" s="1" t="str">
-        <f t="shared" si="43"/>
-        <v>C3</v>
+        <f t="shared" si="41"/>
+        <v>00C3</v>
       </c>
       <c r="E199" t="s">
         <v>203</v>
       </c>
       <c r="H199" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>#define  VAR_BMS1_CELL16_MV  195</v>
       </c>
       <c r="I199" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>public const byte VAR_BMS1_CELL16_MV = 195;</v>
       </c>
       <c r="J199">
@@ -6843,18 +6912,18 @@
         <v>196</v>
       </c>
       <c r="D200" s="1" t="str">
-        <f t="shared" si="43"/>
-        <v>C4</v>
+        <f t="shared" si="41"/>
+        <v>00C4</v>
       </c>
       <c r="E200" t="s">
         <v>220</v>
       </c>
       <c r="H200" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>#define  VAR_BMS1_CELL1_C  196</v>
       </c>
       <c r="I200" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>public const byte VAR_BMS1_CELL1_C = 196;</v>
       </c>
       <c r="J200">
@@ -6878,18 +6947,18 @@
         <v>197</v>
       </c>
       <c r="D201" s="1" t="str">
-        <f t="shared" si="43"/>
-        <v>C5</v>
+        <f t="shared" si="41"/>
+        <v>00C5</v>
       </c>
       <c r="E201" t="s">
         <v>221</v>
       </c>
       <c r="H201" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>#define  VAR_BMS1_CELL2_C  197</v>
       </c>
       <c r="I201" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>public const byte VAR_BMS1_CELL2_C = 197;</v>
       </c>
       <c r="J201">
@@ -6913,18 +6982,18 @@
         <v>198</v>
       </c>
       <c r="D202" s="1" t="str">
-        <f t="shared" si="43"/>
-        <v>C6</v>
+        <f t="shared" si="41"/>
+        <v>00C6</v>
       </c>
       <c r="E202" t="s">
         <v>222</v>
       </c>
       <c r="H202" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>#define  VAR_BMS1_CELL3_C  198</v>
       </c>
       <c r="I202" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>public const byte VAR_BMS1_CELL3_C = 198;</v>
       </c>
       <c r="J202">
@@ -6948,18 +7017,18 @@
         <v>199</v>
       </c>
       <c r="D203" s="1" t="str">
-        <f t="shared" si="43"/>
-        <v>C7</v>
+        <f t="shared" si="41"/>
+        <v>00C7</v>
       </c>
       <c r="E203" t="s">
         <v>223</v>
       </c>
       <c r="H203" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>#define  VAR_BMS1_CELL4_C  199</v>
       </c>
       <c r="I203" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>public const byte VAR_BMS1_CELL4_C = 199;</v>
       </c>
       <c r="J203">
@@ -6983,18 +7052,18 @@
         <v>200</v>
       </c>
       <c r="D204" s="1" t="str">
-        <f t="shared" si="43"/>
-        <v>C8</v>
+        <f t="shared" si="41"/>
+        <v>00C8</v>
       </c>
       <c r="E204" t="s">
         <v>224</v>
       </c>
       <c r="H204" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>#define  VAR_BMS1_CELL5_C  200</v>
       </c>
       <c r="I204" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>public const byte VAR_BMS1_CELL5_C = 200;</v>
       </c>
       <c r="J204">
@@ -7018,18 +7087,18 @@
         <v>201</v>
       </c>
       <c r="D205" s="1" t="str">
-        <f t="shared" si="43"/>
-        <v>C9</v>
+        <f t="shared" si="41"/>
+        <v>00C9</v>
       </c>
       <c r="E205" t="s">
         <v>225</v>
       </c>
       <c r="H205" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>#define  VAR_BMS1_CELL6_C  201</v>
       </c>
       <c r="I205" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>public const byte VAR_BMS1_CELL6_C = 201;</v>
       </c>
       <c r="J205">
@@ -7053,18 +7122,18 @@
         <v>202</v>
       </c>
       <c r="D206" s="1" t="str">
-        <f t="shared" si="43"/>
-        <v>CA</v>
+        <f t="shared" si="41"/>
+        <v>00CA</v>
       </c>
       <c r="E206" t="s">
         <v>226</v>
       </c>
       <c r="H206" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>#define  VAR_BMS1_CELL7_C  202</v>
       </c>
       <c r="I206" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>public const byte VAR_BMS1_CELL7_C = 202;</v>
       </c>
       <c r="J206">
@@ -7088,18 +7157,18 @@
         <v>203</v>
       </c>
       <c r="D207" s="1" t="str">
-        <f t="shared" si="43"/>
-        <v>CB</v>
+        <f t="shared" si="41"/>
+        <v>00CB</v>
       </c>
       <c r="E207" t="s">
         <v>227</v>
       </c>
       <c r="H207" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>#define  VAR_BMS1_CELL8_C  203</v>
       </c>
       <c r="I207" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>public const byte VAR_BMS1_CELL8_C = 203;</v>
       </c>
       <c r="J207">
@@ -7123,18 +7192,18 @@
         <v>204</v>
       </c>
       <c r="D208" s="1" t="str">
-        <f t="shared" si="43"/>
-        <v>CC</v>
+        <f t="shared" si="41"/>
+        <v>00CC</v>
       </c>
       <c r="E208" t="s">
         <v>228</v>
       </c>
       <c r="H208" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>#define  VAR_BMS1_CELL9_C  204</v>
       </c>
       <c r="I208" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>public const byte VAR_BMS1_CELL9_C = 204;</v>
       </c>
       <c r="J208">
@@ -7158,18 +7227,18 @@
         <v>205</v>
       </c>
       <c r="D209" s="1" t="str">
-        <f t="shared" si="43"/>
-        <v>CD</v>
+        <f t="shared" si="41"/>
+        <v>00CD</v>
       </c>
       <c r="E209" t="s">
         <v>229</v>
       </c>
       <c r="H209" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>#define  VAR_BMS1_CELL10_C  205</v>
       </c>
       <c r="I209" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>public const byte VAR_BMS1_CELL10_C = 205;</v>
       </c>
       <c r="J209">
@@ -7193,18 +7262,18 @@
         <v>206</v>
       </c>
       <c r="D210" s="1" t="str">
-        <f t="shared" si="43"/>
-        <v>CE</v>
+        <f t="shared" si="41"/>
+        <v>00CE</v>
       </c>
       <c r="E210" t="s">
         <v>230</v>
       </c>
       <c r="H210" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>#define  VAR_BMS1_CELL11_C  206</v>
       </c>
       <c r="I210" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>public const byte VAR_BMS1_CELL11_C = 206;</v>
       </c>
       <c r="J210">
@@ -7228,18 +7297,18 @@
         <v>207</v>
       </c>
       <c r="D211" s="1" t="str">
-        <f t="shared" si="43"/>
-        <v>CF</v>
+        <f t="shared" si="41"/>
+        <v>00CF</v>
       </c>
       <c r="E211" t="s">
         <v>231</v>
       </c>
       <c r="H211" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>#define  VAR_BMS1_CELL12_C  207</v>
       </c>
       <c r="I211" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>public const byte VAR_BMS1_CELL12_C = 207;</v>
       </c>
       <c r="J211">
@@ -7263,18 +7332,18 @@
         <v>208</v>
       </c>
       <c r="D212" s="1" t="str">
-        <f t="shared" si="43"/>
-        <v>D0</v>
+        <f t="shared" si="41"/>
+        <v>00D0</v>
       </c>
       <c r="E212" t="s">
         <v>232</v>
       </c>
       <c r="H212" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>#define  VAR_BMS1_CELL13_C  208</v>
       </c>
       <c r="I212" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>public const byte VAR_BMS1_CELL13_C = 208;</v>
       </c>
       <c r="J212">
@@ -7298,18 +7367,18 @@
         <v>209</v>
       </c>
       <c r="D213" s="1" t="str">
-        <f t="shared" si="43"/>
-        <v>D1</v>
+        <f t="shared" si="41"/>
+        <v>00D1</v>
       </c>
       <c r="E213" t="s">
         <v>233</v>
       </c>
       <c r="H213" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>#define  VAR_BMS1_CELL14_C  209</v>
       </c>
       <c r="I213" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>public const byte VAR_BMS1_CELL14_C = 209;</v>
       </c>
       <c r="J213">
@@ -7333,18 +7402,18 @@
         <v>210</v>
       </c>
       <c r="D214" s="1" t="str">
-        <f t="shared" si="43"/>
-        <v>D2</v>
+        <f t="shared" si="41"/>
+        <v>00D2</v>
       </c>
       <c r="E214" t="s">
         <v>234</v>
       </c>
       <c r="H214" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>#define  VAR_BMS1_CELL15_C  210</v>
       </c>
       <c r="I214" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>public const byte VAR_BMS1_CELL15_C = 210;</v>
       </c>
       <c r="J214">
@@ -7368,18 +7437,18 @@
         <v>211</v>
       </c>
       <c r="D215" s="1" t="str">
-        <f t="shared" si="43"/>
-        <v>D3</v>
+        <f t="shared" si="41"/>
+        <v>00D3</v>
       </c>
       <c r="E215" t="s">
         <v>235</v>
       </c>
       <c r="H215" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>#define  VAR_BMS1_CELL16_C  211</v>
       </c>
       <c r="I215" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>public const byte VAR_BMS1_CELL16_C = 211;</v>
       </c>
       <c r="J215">
@@ -7403,8 +7472,8 @@
         <v>212</v>
       </c>
       <c r="D216" s="1" t="str">
-        <f t="shared" si="43"/>
-        <v>D4</v>
+        <f t="shared" si="41"/>
+        <v>00D4</v>
       </c>
     </row>
     <row r="217" spans="3:16">
@@ -7412,8 +7481,8 @@
         <v>213</v>
       </c>
       <c r="D217" s="1" t="str">
-        <f t="shared" si="43"/>
-        <v>D5</v>
+        <f t="shared" si="41"/>
+        <v>00D5</v>
       </c>
     </row>
     <row r="218" spans="3:16">
@@ -7421,8 +7490,8 @@
         <v>214</v>
       </c>
       <c r="D218" s="1" t="str">
-        <f t="shared" si="43"/>
-        <v>D6</v>
+        <f t="shared" si="41"/>
+        <v>00D6</v>
       </c>
     </row>
     <row r="219" spans="3:16">
@@ -7430,8 +7499,8 @@
         <v>215</v>
       </c>
       <c r="D219" s="1" t="str">
-        <f t="shared" si="43"/>
-        <v>D7</v>
+        <f t="shared" si="41"/>
+        <v>00D7</v>
       </c>
     </row>
     <row r="220" spans="3:16">
@@ -7439,8 +7508,8 @@
         <v>216</v>
       </c>
       <c r="D220" s="1" t="str">
-        <f t="shared" si="43"/>
-        <v>D8</v>
+        <f t="shared" si="41"/>
+        <v>00D8</v>
       </c>
     </row>
     <row r="221" spans="3:16">
@@ -7448,8 +7517,8 @@
         <v>217</v>
       </c>
       <c r="D221" s="1" t="str">
-        <f t="shared" si="43"/>
-        <v>D9</v>
+        <f t="shared" si="41"/>
+        <v>00D9</v>
       </c>
     </row>
     <row r="222" spans="3:16">
@@ -7457,8 +7526,8 @@
         <v>218</v>
       </c>
       <c r="D222" s="1" t="str">
-        <f t="shared" si="43"/>
-        <v>DA</v>
+        <f t="shared" si="41"/>
+        <v>00DA</v>
       </c>
     </row>
     <row r="223" spans="3:16">
@@ -7466,8 +7535,8 @@
         <v>219</v>
       </c>
       <c r="D223" s="1" t="str">
-        <f t="shared" si="43"/>
-        <v>DB</v>
+        <f t="shared" si="41"/>
+        <v>00DB</v>
       </c>
     </row>
     <row r="224" spans="3:16">
@@ -7475,18 +7544,18 @@
         <v>220</v>
       </c>
       <c r="D224" s="1" t="str">
-        <f t="shared" si="43"/>
-        <v>DC</v>
+        <f t="shared" si="41"/>
+        <v>00DC</v>
       </c>
       <c r="E224" t="s">
         <v>204</v>
       </c>
       <c r="H224" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>#define  VAR_BMS2_CELL1_MV  220</v>
       </c>
       <c r="I224" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>public const byte VAR_BMS2_CELL1_MV = 220;</v>
       </c>
       <c r="J224">
@@ -7510,18 +7579,18 @@
         <v>221</v>
       </c>
       <c r="D225" s="1" t="str">
-        <f t="shared" si="43"/>
-        <v>DD</v>
+        <f t="shared" si="41"/>
+        <v>00DD</v>
       </c>
       <c r="E225" t="s">
         <v>205</v>
       </c>
       <c r="H225" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>#define  VAR_BMS2_CELL2_MV  221</v>
       </c>
       <c r="I225" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>public const byte VAR_BMS2_CELL2_MV = 221;</v>
       </c>
       <c r="J225">
@@ -7545,18 +7614,18 @@
         <v>222</v>
       </c>
       <c r="D226" s="1" t="str">
-        <f t="shared" si="43"/>
-        <v>DE</v>
+        <f t="shared" si="41"/>
+        <v>00DE</v>
       </c>
       <c r="E226" t="s">
         <v>206</v>
       </c>
       <c r="H226" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>#define  VAR_BMS2_CELL3_MV  222</v>
       </c>
       <c r="I226" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>public const byte VAR_BMS2_CELL3_MV = 222;</v>
       </c>
       <c r="J226">
@@ -7580,18 +7649,18 @@
         <v>223</v>
       </c>
       <c r="D227" s="1" t="str">
-        <f t="shared" si="43"/>
-        <v>DF</v>
+        <f t="shared" si="41"/>
+        <v>00DF</v>
       </c>
       <c r="E227" t="s">
         <v>207</v>
       </c>
       <c r="H227" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>#define  VAR_BMS2_CELL4_MV  223</v>
       </c>
       <c r="I227" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>public const byte VAR_BMS2_CELL4_MV = 223;</v>
       </c>
       <c r="J227">
@@ -7615,18 +7684,18 @@
         <v>224</v>
       </c>
       <c r="D228" s="1" t="str">
-        <f t="shared" si="43"/>
-        <v>E0</v>
+        <f t="shared" si="41"/>
+        <v>00E0</v>
       </c>
       <c r="E228" t="s">
         <v>208</v>
       </c>
       <c r="H228" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>#define  VAR_BMS2_CELL5_MV  224</v>
       </c>
       <c r="I228" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>public const byte VAR_BMS2_CELL5_MV = 224;</v>
       </c>
       <c r="J228">
@@ -7650,18 +7719,18 @@
         <v>225</v>
       </c>
       <c r="D229" s="1" t="str">
-        <f t="shared" si="43"/>
-        <v>E1</v>
+        <f t="shared" si="41"/>
+        <v>00E1</v>
       </c>
       <c r="E229" t="s">
         <v>209</v>
       </c>
       <c r="H229" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>#define  VAR_BMS2_CELL6_MV  225</v>
       </c>
       <c r="I229" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>public const byte VAR_BMS2_CELL6_MV = 225;</v>
       </c>
       <c r="J229">
@@ -7685,18 +7754,18 @@
         <v>226</v>
       </c>
       <c r="D230" s="1" t="str">
-        <f t="shared" si="43"/>
-        <v>E2</v>
+        <f t="shared" si="41"/>
+        <v>00E2</v>
       </c>
       <c r="E230" t="s">
         <v>210</v>
       </c>
       <c r="H230" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>#define  VAR_BMS2_CELL7_MV  226</v>
       </c>
       <c r="I230" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>public const byte VAR_BMS2_CELL7_MV = 226;</v>
       </c>
       <c r="J230">
@@ -7720,18 +7789,18 @@
         <v>227</v>
       </c>
       <c r="D231" s="1" t="str">
-        <f t="shared" si="43"/>
-        <v>E3</v>
+        <f t="shared" si="41"/>
+        <v>00E3</v>
       </c>
       <c r="E231" t="s">
         <v>211</v>
       </c>
       <c r="H231" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>#define  VAR_BMS2_CELL8_MV  227</v>
       </c>
       <c r="I231" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>public const byte VAR_BMS2_CELL8_MV = 227;</v>
       </c>
       <c r="J231">
@@ -7755,18 +7824,18 @@
         <v>228</v>
       </c>
       <c r="D232" s="1" t="str">
-        <f t="shared" si="43"/>
-        <v>E4</v>
+        <f t="shared" si="41"/>
+        <v>00E4</v>
       </c>
       <c r="E232" t="s">
         <v>212</v>
       </c>
       <c r="H232" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>#define  VAR_BMS2_CELL9_MV  228</v>
       </c>
       <c r="I232" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>public const byte VAR_BMS2_CELL9_MV = 228;</v>
       </c>
       <c r="J232">
@@ -7790,18 +7859,18 @@
         <v>229</v>
       </c>
       <c r="D233" s="1" t="str">
-        <f t="shared" si="43"/>
-        <v>E5</v>
+        <f t="shared" si="41"/>
+        <v>00E5</v>
       </c>
       <c r="E233" t="s">
         <v>213</v>
       </c>
       <c r="H233" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>#define  VAR_BMS2_CELL10_MV  229</v>
       </c>
       <c r="I233" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>public const byte VAR_BMS2_CELL10_MV = 229;</v>
       </c>
       <c r="J233">
@@ -7825,18 +7894,18 @@
         <v>230</v>
       </c>
       <c r="D234" s="1" t="str">
-        <f t="shared" si="43"/>
-        <v>E6</v>
+        <f t="shared" si="41"/>
+        <v>00E6</v>
       </c>
       <c r="E234" t="s">
         <v>214</v>
       </c>
       <c r="H234" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>#define  VAR_BMS2_CELL11_MV  230</v>
       </c>
       <c r="I234" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>public const byte VAR_BMS2_CELL11_MV = 230;</v>
       </c>
       <c r="J234">
@@ -7860,18 +7929,18 @@
         <v>231</v>
       </c>
       <c r="D235" s="1" t="str">
-        <f t="shared" si="43"/>
-        <v>E7</v>
+        <f t="shared" si="41"/>
+        <v>00E7</v>
       </c>
       <c r="E235" t="s">
         <v>215</v>
       </c>
       <c r="H235" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>#define  VAR_BMS2_CELL12_MV  231</v>
       </c>
       <c r="I235" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>public const byte VAR_BMS2_CELL12_MV = 231;</v>
       </c>
       <c r="J235">
@@ -7895,18 +7964,18 @@
         <v>232</v>
       </c>
       <c r="D236" s="1" t="str">
-        <f t="shared" si="43"/>
-        <v>E8</v>
+        <f t="shared" si="41"/>
+        <v>00E8</v>
       </c>
       <c r="E236" t="s">
         <v>216</v>
       </c>
       <c r="H236" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>#define  VAR_BMS2_CELL13_MV  232</v>
       </c>
       <c r="I236" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>public const byte VAR_BMS2_CELL13_MV = 232;</v>
       </c>
       <c r="J236">
@@ -7930,18 +7999,18 @@
         <v>233</v>
       </c>
       <c r="D237" s="1" t="str">
-        <f t="shared" si="43"/>
-        <v>E9</v>
+        <f t="shared" si="41"/>
+        <v>00E9</v>
       </c>
       <c r="E237" t="s">
         <v>217</v>
       </c>
       <c r="H237" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>#define  VAR_BMS2_CELL14_MV  233</v>
       </c>
       <c r="I237" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>public const byte VAR_BMS2_CELL14_MV = 233;</v>
       </c>
       <c r="J237">
@@ -7965,18 +8034,18 @@
         <v>234</v>
       </c>
       <c r="D238" s="1" t="str">
-        <f t="shared" si="43"/>
-        <v>EA</v>
+        <f t="shared" si="41"/>
+        <v>00EA</v>
       </c>
       <c r="E238" t="s">
         <v>218</v>
       </c>
       <c r="H238" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>#define  VAR_BMS2_CELL15_MV  234</v>
       </c>
       <c r="I238" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>public const byte VAR_BMS2_CELL15_MV = 234;</v>
       </c>
       <c r="J238">
@@ -8000,18 +8069,18 @@
         <v>235</v>
       </c>
       <c r="D239" s="1" t="str">
-        <f t="shared" si="43"/>
-        <v>EB</v>
+        <f t="shared" si="41"/>
+        <v>00EB</v>
       </c>
       <c r="E239" t="s">
         <v>219</v>
       </c>
       <c r="H239" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>#define  VAR_BMS2_CELL16_MV  235</v>
       </c>
       <c r="I239" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>public const byte VAR_BMS2_CELL16_MV = 235;</v>
       </c>
       <c r="J239">
@@ -8035,18 +8104,18 @@
         <v>236</v>
       </c>
       <c r="D240" s="1" t="str">
-        <f t="shared" si="43"/>
-        <v>EC</v>
+        <f t="shared" si="41"/>
+        <v>00EC</v>
       </c>
       <c r="E240" t="s">
         <v>236</v>
       </c>
       <c r="H240" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>#define  VAR_BMS2_CELL1_C  236</v>
       </c>
       <c r="I240" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>public const byte VAR_BMS2_CELL1_C = 236;</v>
       </c>
       <c r="J240">
@@ -8070,18 +8139,18 @@
         <v>237</v>
       </c>
       <c r="D241" s="1" t="str">
-        <f t="shared" si="43"/>
-        <v>ED</v>
+        <f t="shared" si="41"/>
+        <v>00ED</v>
       </c>
       <c r="E241" t="s">
         <v>237</v>
       </c>
       <c r="H241" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>#define  VAR_BMS2_CELL2_C  237</v>
       </c>
       <c r="I241" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>public const byte VAR_BMS2_CELL2_C = 237;</v>
       </c>
       <c r="J241">
@@ -8105,18 +8174,18 @@
         <v>238</v>
       </c>
       <c r="D242" s="1" t="str">
-        <f t="shared" si="43"/>
-        <v>EE</v>
+        <f t="shared" si="41"/>
+        <v>00EE</v>
       </c>
       <c r="E242" t="s">
         <v>238</v>
       </c>
       <c r="H242" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>#define  VAR_BMS2_CELL3_C  238</v>
       </c>
       <c r="I242" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>public const byte VAR_BMS2_CELL3_C = 238;</v>
       </c>
       <c r="J242">
@@ -8140,18 +8209,18 @@
         <v>239</v>
       </c>
       <c r="D243" s="1" t="str">
-        <f t="shared" si="43"/>
-        <v>EF</v>
+        <f t="shared" si="41"/>
+        <v>00EF</v>
       </c>
       <c r="E243" t="s">
         <v>239</v>
       </c>
       <c r="H243" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>#define  VAR_BMS2_CELL4_C  239</v>
       </c>
       <c r="I243" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>public const byte VAR_BMS2_CELL4_C = 239;</v>
       </c>
       <c r="J243">
@@ -8175,18 +8244,18 @@
         <v>240</v>
       </c>
       <c r="D244" s="1" t="str">
-        <f t="shared" si="43"/>
-        <v>F0</v>
+        <f t="shared" si="41"/>
+        <v>00F0</v>
       </c>
       <c r="E244" t="s">
         <v>240</v>
       </c>
       <c r="H244" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>#define  VAR_BMS2_CELL5_C  240</v>
       </c>
       <c r="I244" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>public const byte VAR_BMS2_CELL5_C = 240;</v>
       </c>
       <c r="J244">
@@ -8210,18 +8279,18 @@
         <v>241</v>
       </c>
       <c r="D245" s="1" t="str">
-        <f t="shared" si="43"/>
-        <v>F1</v>
+        <f t="shared" si="41"/>
+        <v>00F1</v>
       </c>
       <c r="E245" t="s">
         <v>241</v>
       </c>
       <c r="H245" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>#define  VAR_BMS2_CELL6_C  241</v>
       </c>
       <c r="I245" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>public const byte VAR_BMS2_CELL6_C = 241;</v>
       </c>
       <c r="J245">
@@ -8245,18 +8314,18 @@
         <v>242</v>
       </c>
       <c r="D246" s="1" t="str">
-        <f t="shared" si="43"/>
-        <v>F2</v>
+        <f t="shared" si="41"/>
+        <v>00F2</v>
       </c>
       <c r="E246" t="s">
         <v>242</v>
       </c>
       <c r="H246" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>#define  VAR_BMS2_CELL7_C  242</v>
       </c>
       <c r="I246" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>public const byte VAR_BMS2_CELL7_C = 242;</v>
       </c>
       <c r="J246">
@@ -8280,18 +8349,18 @@
         <v>243</v>
       </c>
       <c r="D247" s="1" t="str">
-        <f t="shared" si="43"/>
-        <v>F3</v>
+        <f t="shared" si="41"/>
+        <v>00F3</v>
       </c>
       <c r="E247" t="s">
         <v>243</v>
       </c>
       <c r="H247" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>#define  VAR_BMS2_CELL8_C  243</v>
       </c>
       <c r="I247" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>public const byte VAR_BMS2_CELL8_C = 243;</v>
       </c>
       <c r="J247">
@@ -8315,18 +8384,18 @@
         <v>244</v>
       </c>
       <c r="D248" s="1" t="str">
-        <f t="shared" si="43"/>
-        <v>F4</v>
+        <f t="shared" si="41"/>
+        <v>00F4</v>
       </c>
       <c r="E248" t="s">
         <v>244</v>
       </c>
       <c r="H248" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>#define  VAR_BMS2_CELL9_C  244</v>
       </c>
       <c r="I248" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>public const byte VAR_BMS2_CELL9_C = 244;</v>
       </c>
       <c r="J248">
@@ -8350,18 +8419,18 @@
         <v>245</v>
       </c>
       <c r="D249" s="1" t="str">
-        <f t="shared" si="43"/>
-        <v>F5</v>
+        <f t="shared" si="41"/>
+        <v>00F5</v>
       </c>
       <c r="E249" t="s">
         <v>245</v>
       </c>
       <c r="H249" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>#define  VAR_BMS2_CELL10_C  245</v>
       </c>
       <c r="I249" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>public const byte VAR_BMS2_CELL10_C = 245;</v>
       </c>
       <c r="J249">
@@ -8385,18 +8454,18 @@
         <v>246</v>
       </c>
       <c r="D250" s="1" t="str">
-        <f t="shared" si="43"/>
-        <v>F6</v>
+        <f t="shared" si="41"/>
+        <v>00F6</v>
       </c>
       <c r="E250" t="s">
         <v>246</v>
       </c>
       <c r="H250" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>#define  VAR_BMS2_CELL11_C  246</v>
       </c>
       <c r="I250" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>public const byte VAR_BMS2_CELL11_C = 246;</v>
       </c>
       <c r="J250">
@@ -8420,18 +8489,18 @@
         <v>247</v>
       </c>
       <c r="D251" s="1" t="str">
-        <f t="shared" si="43"/>
-        <v>F7</v>
+        <f t="shared" si="41"/>
+        <v>00F7</v>
       </c>
       <c r="E251" t="s">
         <v>247</v>
       </c>
       <c r="H251" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>#define  VAR_BMS2_CELL12_C  247</v>
       </c>
       <c r="I251" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>public const byte VAR_BMS2_CELL12_C = 247;</v>
       </c>
       <c r="J251">
@@ -8455,18 +8524,18 @@
         <v>248</v>
       </c>
       <c r="D252" s="1" t="str">
-        <f t="shared" si="43"/>
-        <v>F8</v>
+        <f t="shared" si="41"/>
+        <v>00F8</v>
       </c>
       <c r="E252" t="s">
         <v>248</v>
       </c>
       <c r="H252" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>#define  VAR_BMS2_CELL13_C  248</v>
       </c>
       <c r="I252" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>public const byte VAR_BMS2_CELL13_C = 248;</v>
       </c>
       <c r="J252">
@@ -8490,18 +8559,18 @@
         <v>249</v>
       </c>
       <c r="D253" s="1" t="str">
-        <f t="shared" si="43"/>
-        <v>F9</v>
+        <f t="shared" si="41"/>
+        <v>00F9</v>
       </c>
       <c r="E253" t="s">
         <v>249</v>
       </c>
       <c r="H253" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>#define  VAR_BMS2_CELL14_C  249</v>
       </c>
       <c r="I253" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>public const byte VAR_BMS2_CELL14_C = 249;</v>
       </c>
       <c r="J253">
@@ -8525,18 +8594,18 @@
         <v>250</v>
       </c>
       <c r="D254" s="1" t="str">
-        <f t="shared" si="43"/>
-        <v>FA</v>
+        <f t="shared" si="41"/>
+        <v>00FA</v>
       </c>
       <c r="E254" t="s">
         <v>250</v>
       </c>
       <c r="H254" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>#define  VAR_BMS2_CELL15_C  250</v>
       </c>
       <c r="I254" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>public const byte VAR_BMS2_CELL15_C = 250;</v>
       </c>
       <c r="J254">
@@ -8560,18 +8629,18 @@
         <v>251</v>
       </c>
       <c r="D255" s="1" t="str">
-        <f t="shared" si="43"/>
-        <v>FB</v>
+        <f t="shared" si="41"/>
+        <v>00FB</v>
       </c>
       <c r="E255" t="s">
         <v>251</v>
       </c>
       <c r="H255" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>#define  VAR_BMS2_CELL16_C  251</v>
       </c>
       <c r="I255" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>public const byte VAR_BMS2_CELL16_C = 251;</v>
       </c>
       <c r="J255">
@@ -8595,35 +8664,1192 @@
         <v>252</v>
       </c>
       <c r="D256" s="1" t="str">
-        <f t="shared" si="43"/>
-        <v>FC</v>
-      </c>
-    </row>
-    <row r="257" spans="3:4">
+        <f t="shared" si="41"/>
+        <v>00FC</v>
+      </c>
+      <c r="H256" t="str">
+        <f t="shared" ref="H256:H281" si="48">CONCATENATE("#define  ",E256,"  ",C256)</f>
+        <v>#define    252</v>
+      </c>
+      <c r="I256" t="str">
+        <f t="shared" ref="I256:I281" si="49">CONCATENATE("public const byte ",E256," = ",C256,";")</f>
+        <v>public const byte  = 252;</v>
+      </c>
+      <c r="J256">
+        <v>16</v>
+      </c>
+      <c r="L256" t="str">
+        <f t="shared" ref="L256:L281" si="50">CONCATENATE("UpdateScanList(",E256, ", 3000);")</f>
+        <v>UpdateScanList(, 3000);</v>
+      </c>
+      <c r="M256" t="str">
+        <f t="shared" ref="M256:M281" si="51">CONCATENATE("VAR_SetVariable(",E256,", Cells[",J256,"].Temp_C", ", validflag);")</f>
+        <v>VAR_SetVariable(, Cells[16].Temp_C, validflag);</v>
+      </c>
+      <c r="P256" t="str">
+        <f t="shared" ref="P256:P281" si="52">CONCATENATE("cJSON_AddItemToObject(Uha, ","""",E256,"""",", cJSON_CreateNumber(mVars[",C256,"]));")</f>
+        <v>cJSON_AddItemToObject(Uha, "", cJSON_CreateNumber(mVars[252]));</v>
+      </c>
+    </row>
+    <row r="257" spans="1:16">
       <c r="C257" s="1">
         <v>253</v>
       </c>
       <c r="D257" s="1" t="str">
-        <f t="shared" si="43"/>
-        <v>FD</v>
-      </c>
-    </row>
-    <row r="258" spans="3:4">
+        <f t="shared" si="41"/>
+        <v>00FD</v>
+      </c>
+      <c r="H257" t="str">
+        <f t="shared" si="48"/>
+        <v>#define    253</v>
+      </c>
+      <c r="I257" t="str">
+        <f t="shared" si="49"/>
+        <v>public const byte  = 253;</v>
+      </c>
+      <c r="J257">
+        <v>17</v>
+      </c>
+      <c r="L257" t="str">
+        <f t="shared" si="50"/>
+        <v>UpdateScanList(, 3000);</v>
+      </c>
+      <c r="M257" t="str">
+        <f t="shared" si="51"/>
+        <v>VAR_SetVariable(, Cells[17].Temp_C, validflag);</v>
+      </c>
+      <c r="P257" t="str">
+        <f t="shared" si="52"/>
+        <v>cJSON_AddItemToObject(Uha, "", cJSON_CreateNumber(mVars[253]));</v>
+      </c>
+    </row>
+    <row r="258" spans="1:16">
       <c r="C258" s="1">
         <v>254</v>
       </c>
       <c r="D258" s="1" t="str">
-        <f t="shared" si="43"/>
-        <v>FE</v>
-      </c>
-    </row>
-    <row r="259" spans="3:4">
+        <f t="shared" si="41"/>
+        <v>00FE</v>
+      </c>
+      <c r="H258" t="str">
+        <f t="shared" si="48"/>
+        <v>#define    254</v>
+      </c>
+      <c r="I258" t="str">
+        <f t="shared" si="49"/>
+        <v>public const byte  = 254;</v>
+      </c>
+      <c r="J258">
+        <v>18</v>
+      </c>
+      <c r="L258" t="str">
+        <f t="shared" si="50"/>
+        <v>UpdateScanList(, 3000);</v>
+      </c>
+      <c r="M258" t="str">
+        <f t="shared" si="51"/>
+        <v>VAR_SetVariable(, Cells[18].Temp_C, validflag);</v>
+      </c>
+      <c r="P258" t="str">
+        <f t="shared" si="52"/>
+        <v>cJSON_AddItemToObject(Uha, "", cJSON_CreateNumber(mVars[254]));</v>
+      </c>
+    </row>
+    <row r="259" spans="1:16">
       <c r="C259" s="1">
         <v>255</v>
       </c>
       <c r="D259" s="1" t="str">
-        <f t="shared" si="43"/>
-        <v>FF</v>
+        <f t="shared" si="41"/>
+        <v>00FF</v>
+      </c>
+      <c r="H259" t="str">
+        <f t="shared" si="48"/>
+        <v>#define    255</v>
+      </c>
+      <c r="I259" t="str">
+        <f t="shared" si="49"/>
+        <v>public const byte  = 255;</v>
+      </c>
+      <c r="J259">
+        <v>19</v>
+      </c>
+      <c r="L259" t="str">
+        <f t="shared" si="50"/>
+        <v>UpdateScanList(, 3000);</v>
+      </c>
+      <c r="M259" t="str">
+        <f t="shared" si="51"/>
+        <v>VAR_SetVariable(, Cells[19].Temp_C, validflag);</v>
+      </c>
+      <c r="P259" t="str">
+        <f t="shared" si="52"/>
+        <v>cJSON_AddItemToObject(Uha, "", cJSON_CreateNumber(mVars[255]));</v>
+      </c>
+    </row>
+    <row r="260" spans="1:16">
+      <c r="C260" s="1">
+        <v>256</v>
+      </c>
+      <c r="D260" s="1" t="str">
+        <f>DEC2HEX(C260,4)</f>
+        <v>0100</v>
+      </c>
+      <c r="H260" t="str">
+        <f t="shared" si="48"/>
+        <v>#define    256</v>
+      </c>
+      <c r="I260" t="str">
+        <f t="shared" si="49"/>
+        <v>public const byte  = 256;</v>
+      </c>
+      <c r="J260">
+        <v>20</v>
+      </c>
+      <c r="L260" t="str">
+        <f t="shared" si="50"/>
+        <v>UpdateScanList(, 3000);</v>
+      </c>
+      <c r="M260" t="str">
+        <f t="shared" si="51"/>
+        <v>VAR_SetVariable(, Cells[20].Temp_C, validflag);</v>
+      </c>
+      <c r="P260" t="str">
+        <f t="shared" si="52"/>
+        <v>cJSON_AddItemToObject(Uha, "", cJSON_CreateNumber(mVars[256]));</v>
+      </c>
+    </row>
+    <row r="261" spans="1:16">
+      <c r="C261" s="1">
+        <v>257</v>
+      </c>
+      <c r="D261" s="1" t="str">
+        <f t="shared" ref="D261:D304" si="53">DEC2HEX(C261,4)</f>
+        <v>0101</v>
+      </c>
+      <c r="H261" t="str">
+        <f t="shared" si="48"/>
+        <v>#define    257</v>
+      </c>
+      <c r="I261" t="str">
+        <f t="shared" si="49"/>
+        <v>public const byte  = 257;</v>
+      </c>
+      <c r="J261">
+        <v>21</v>
+      </c>
+      <c r="L261" t="str">
+        <f t="shared" si="50"/>
+        <v>UpdateScanList(, 3000);</v>
+      </c>
+      <c r="M261" t="str">
+        <f t="shared" si="51"/>
+        <v>VAR_SetVariable(, Cells[21].Temp_C, validflag);</v>
+      </c>
+      <c r="P261" t="str">
+        <f t="shared" si="52"/>
+        <v>cJSON_AddItemToObject(Uha, "", cJSON_CreateNumber(mVars[257]));</v>
+      </c>
+    </row>
+    <row r="262" spans="1:16">
+      <c r="C262" s="1">
+        <v>258</v>
+      </c>
+      <c r="D262" s="1" t="str">
+        <f t="shared" si="53"/>
+        <v>0102</v>
+      </c>
+      <c r="H262" t="str">
+        <f t="shared" si="48"/>
+        <v>#define    258</v>
+      </c>
+      <c r="I262" t="str">
+        <f t="shared" si="49"/>
+        <v>public const byte  = 258;</v>
+      </c>
+      <c r="J262">
+        <v>22</v>
+      </c>
+      <c r="L262" t="str">
+        <f t="shared" si="50"/>
+        <v>UpdateScanList(, 3000);</v>
+      </c>
+      <c r="M262" t="str">
+        <f t="shared" si="51"/>
+        <v>VAR_SetVariable(, Cells[22].Temp_C, validflag);</v>
+      </c>
+      <c r="P262" t="str">
+        <f t="shared" si="52"/>
+        <v>cJSON_AddItemToObject(Uha, "", cJSON_CreateNumber(mVars[258]));</v>
+      </c>
+    </row>
+    <row r="263" spans="1:16">
+      <c r="C263" s="1">
+        <v>259</v>
+      </c>
+      <c r="D263" s="1" t="str">
+        <f t="shared" si="53"/>
+        <v>0103</v>
+      </c>
+      <c r="H263" t="str">
+        <f t="shared" si="48"/>
+        <v>#define    259</v>
+      </c>
+      <c r="I263" t="str">
+        <f t="shared" si="49"/>
+        <v>public const byte  = 259;</v>
+      </c>
+      <c r="J263">
+        <v>23</v>
+      </c>
+      <c r="L263" t="str">
+        <f t="shared" si="50"/>
+        <v>UpdateScanList(, 3000);</v>
+      </c>
+      <c r="M263" t="str">
+        <f t="shared" si="51"/>
+        <v>VAR_SetVariable(, Cells[23].Temp_C, validflag);</v>
+      </c>
+      <c r="P263" t="str">
+        <f t="shared" si="52"/>
+        <v>cJSON_AddItemToObject(Uha, "", cJSON_CreateNumber(mVars[259]));</v>
+      </c>
+    </row>
+    <row r="264" spans="1:16">
+      <c r="C264" s="1">
+        <v>260</v>
+      </c>
+      <c r="D264" s="1" t="str">
+        <f t="shared" si="53"/>
+        <v>0104</v>
+      </c>
+      <c r="E264" t="s">
+        <v>342</v>
+      </c>
+      <c r="H264" t="str">
+        <f t="shared" si="48"/>
+        <v>#define  VAR_CONS_AXPERT_WH  260</v>
+      </c>
+      <c r="I264" t="str">
+        <f t="shared" si="49"/>
+        <v>public const byte VAR_CONS_AXPERT_WH = 260;</v>
+      </c>
+      <c r="J264">
+        <v>24</v>
+      </c>
+      <c r="L264" t="str">
+        <f t="shared" si="50"/>
+        <v>UpdateScanList(VAR_CONS_AXPERT_WH, 3000);</v>
+      </c>
+      <c r="M264" t="str">
+        <f t="shared" si="51"/>
+        <v>VAR_SetVariable(VAR_CONS_AXPERT_WH, Cells[24].Temp_C, validflag);</v>
+      </c>
+      <c r="P264" t="str">
+        <f t="shared" si="52"/>
+        <v>cJSON_AddItemToObject(Uha, "VAR_CONS_AXPERT_WH", cJSON_CreateNumber(mVars[260]));</v>
+      </c>
+    </row>
+    <row r="265" spans="1:16">
+      <c r="C265" s="1">
+        <v>261</v>
+      </c>
+      <c r="D265" s="1" t="str">
+        <f t="shared" si="53"/>
+        <v>0105</v>
+      </c>
+      <c r="E265" t="s">
+        <v>344</v>
+      </c>
+      <c r="H265" t="str">
+        <f t="shared" si="48"/>
+        <v>#define  VAR_CONS_EVSE_WH  261</v>
+      </c>
+      <c r="I265" t="str">
+        <f t="shared" si="49"/>
+        <v>public const byte VAR_CONS_EVSE_WH = 261;</v>
+      </c>
+      <c r="J265">
+        <v>25</v>
+      </c>
+      <c r="L265" t="str">
+        <f t="shared" si="50"/>
+        <v>UpdateScanList(VAR_CONS_EVSE_WH, 3000);</v>
+      </c>
+      <c r="M265" t="str">
+        <f t="shared" si="51"/>
+        <v>VAR_SetVariable(VAR_CONS_EVSE_WH, Cells[25].Temp_C, validflag);</v>
+      </c>
+      <c r="P265" t="str">
+        <f t="shared" si="52"/>
+        <v>cJSON_AddItemToObject(Uha, "VAR_CONS_EVSE_WH", cJSON_CreateNumber(mVars[261]));</v>
+      </c>
+    </row>
+    <row r="266" spans="1:16">
+      <c r="A266" t="s">
+        <v>346</v>
+      </c>
+      <c r="C266" s="1">
+        <v>262</v>
+      </c>
+      <c r="D266" s="1" t="str">
+        <f t="shared" si="53"/>
+        <v>0106</v>
+      </c>
+      <c r="E266" t="s">
+        <v>345</v>
+      </c>
+      <c r="H266" t="str">
+        <f t="shared" si="48"/>
+        <v>#define  VAR_CONS_WS_HEATING_WH  262</v>
+      </c>
+      <c r="I266" t="str">
+        <f t="shared" si="49"/>
+        <v>public const byte VAR_CONS_WS_HEATING_WH = 262;</v>
+      </c>
+      <c r="J266">
+        <v>26</v>
+      </c>
+      <c r="L266" t="str">
+        <f t="shared" si="50"/>
+        <v>UpdateScanList(VAR_CONS_WS_HEATING_WH, 3000);</v>
+      </c>
+      <c r="M266" t="str">
+        <f t="shared" si="51"/>
+        <v>VAR_SetVariable(VAR_CONS_WS_HEATING_WH, Cells[26].Temp_C, validflag);</v>
+      </c>
+      <c r="P266" t="str">
+        <f t="shared" si="52"/>
+        <v>cJSON_AddItemToObject(Uha, "VAR_CONS_WS_HEATING_WH", cJSON_CreateNumber(mVars[262]));</v>
+      </c>
+    </row>
+    <row r="267" spans="1:16">
+      <c r="C267" s="1">
+        <v>263</v>
+      </c>
+      <c r="D267" s="1" t="str">
+        <f t="shared" si="53"/>
+        <v>0107</v>
+      </c>
+      <c r="H267" t="str">
+        <f t="shared" si="48"/>
+        <v>#define    263</v>
+      </c>
+      <c r="I267" t="str">
+        <f t="shared" si="49"/>
+        <v>public const byte  = 263;</v>
+      </c>
+      <c r="J267">
+        <v>27</v>
+      </c>
+      <c r="L267" t="str">
+        <f t="shared" si="50"/>
+        <v>UpdateScanList(, 3000);</v>
+      </c>
+      <c r="M267" t="str">
+        <f t="shared" si="51"/>
+        <v>VAR_SetVariable(, Cells[27].Temp_C, validflag);</v>
+      </c>
+      <c r="P267" t="str">
+        <f t="shared" si="52"/>
+        <v>cJSON_AddItemToObject(Uha, "", cJSON_CreateNumber(mVars[263]));</v>
+      </c>
+    </row>
+    <row r="268" spans="1:16">
+      <c r="C268" s="1">
+        <v>264</v>
+      </c>
+      <c r="D268" s="1" t="str">
+        <f t="shared" si="53"/>
+        <v>0108</v>
+      </c>
+      <c r="H268" t="str">
+        <f t="shared" si="48"/>
+        <v>#define    264</v>
+      </c>
+      <c r="I268" t="str">
+        <f t="shared" si="49"/>
+        <v>public const byte  = 264;</v>
+      </c>
+      <c r="J268">
+        <v>28</v>
+      </c>
+      <c r="L268" t="str">
+        <f t="shared" si="50"/>
+        <v>UpdateScanList(, 3000);</v>
+      </c>
+      <c r="M268" t="str">
+        <f t="shared" si="51"/>
+        <v>VAR_SetVariable(, Cells[28].Temp_C, validflag);</v>
+      </c>
+      <c r="P268" t="str">
+        <f t="shared" si="52"/>
+        <v>cJSON_AddItemToObject(Uha, "", cJSON_CreateNumber(mVars[264]));</v>
+      </c>
+    </row>
+    <row r="269" spans="1:16">
+      <c r="C269" s="1">
+        <v>265</v>
+      </c>
+      <c r="D269" s="1" t="str">
+        <f t="shared" si="53"/>
+        <v>0109</v>
+      </c>
+      <c r="H269" t="str">
+        <f t="shared" si="48"/>
+        <v>#define    265</v>
+      </c>
+      <c r="I269" t="str">
+        <f t="shared" si="49"/>
+        <v>public const byte  = 265;</v>
+      </c>
+      <c r="J269">
+        <v>29</v>
+      </c>
+      <c r="L269" t="str">
+        <f t="shared" si="50"/>
+        <v>UpdateScanList(, 3000);</v>
+      </c>
+      <c r="M269" t="str">
+        <f t="shared" si="51"/>
+        <v>VAR_SetVariable(, Cells[29].Temp_C, validflag);</v>
+      </c>
+      <c r="P269" t="str">
+        <f t="shared" si="52"/>
+        <v>cJSON_AddItemToObject(Uha, "", cJSON_CreateNumber(mVars[265]));</v>
+      </c>
+    </row>
+    <row r="270" spans="1:16">
+      <c r="C270" s="1">
+        <v>266</v>
+      </c>
+      <c r="D270" s="1" t="str">
+        <f t="shared" si="53"/>
+        <v>010A</v>
+      </c>
+      <c r="H270" t="str">
+        <f t="shared" si="48"/>
+        <v>#define    266</v>
+      </c>
+      <c r="I270" t="str">
+        <f t="shared" si="49"/>
+        <v>public const byte  = 266;</v>
+      </c>
+      <c r="J270">
+        <v>30</v>
+      </c>
+      <c r="L270" t="str">
+        <f t="shared" si="50"/>
+        <v>UpdateScanList(, 3000);</v>
+      </c>
+      <c r="M270" t="str">
+        <f t="shared" si="51"/>
+        <v>VAR_SetVariable(, Cells[30].Temp_C, validflag);</v>
+      </c>
+      <c r="P270" t="str">
+        <f t="shared" si="52"/>
+        <v>cJSON_AddItemToObject(Uha, "", cJSON_CreateNumber(mVars[266]));</v>
+      </c>
+    </row>
+    <row r="271" spans="1:16">
+      <c r="C271" s="1">
+        <v>267</v>
+      </c>
+      <c r="D271" s="1" t="str">
+        <f t="shared" si="53"/>
+        <v>010B</v>
+      </c>
+      <c r="H271" t="str">
+        <f t="shared" si="48"/>
+        <v>#define    267</v>
+      </c>
+      <c r="I271" t="str">
+        <f t="shared" si="49"/>
+        <v>public const byte  = 267;</v>
+      </c>
+      <c r="J271">
+        <v>31</v>
+      </c>
+      <c r="L271" t="str">
+        <f t="shared" si="50"/>
+        <v>UpdateScanList(, 3000);</v>
+      </c>
+      <c r="M271" t="str">
+        <f t="shared" si="51"/>
+        <v>VAR_SetVariable(, Cells[31].Temp_C, validflag);</v>
+      </c>
+      <c r="P271" t="str">
+        <f t="shared" si="52"/>
+        <v>cJSON_AddItemToObject(Uha, "", cJSON_CreateNumber(mVars[267]));</v>
+      </c>
+    </row>
+    <row r="272" spans="1:16">
+      <c r="C272" s="1">
+        <v>268</v>
+      </c>
+      <c r="D272" s="1" t="str">
+        <f t="shared" si="53"/>
+        <v>010C</v>
+      </c>
+      <c r="H272" t="str">
+        <f t="shared" si="48"/>
+        <v>#define    268</v>
+      </c>
+      <c r="I272" t="str">
+        <f t="shared" si="49"/>
+        <v>public const byte  = 268;</v>
+      </c>
+      <c r="J272">
+        <v>32</v>
+      </c>
+      <c r="L272" t="str">
+        <f t="shared" si="50"/>
+        <v>UpdateScanList(, 3000);</v>
+      </c>
+      <c r="M272" t="str">
+        <f t="shared" si="51"/>
+        <v>VAR_SetVariable(, Cells[32].Temp_C, validflag);</v>
+      </c>
+      <c r="P272" t="str">
+        <f t="shared" si="52"/>
+        <v>cJSON_AddItemToObject(Uha, "", cJSON_CreateNumber(mVars[268]));</v>
+      </c>
+    </row>
+    <row r="273" spans="3:16">
+      <c r="C273" s="1">
+        <v>269</v>
+      </c>
+      <c r="D273" s="1" t="str">
+        <f t="shared" si="53"/>
+        <v>010D</v>
+      </c>
+      <c r="H273" t="str">
+        <f t="shared" si="48"/>
+        <v>#define    269</v>
+      </c>
+      <c r="I273" t="str">
+        <f t="shared" si="49"/>
+        <v>public const byte  = 269;</v>
+      </c>
+      <c r="J273">
+        <v>33</v>
+      </c>
+      <c r="L273" t="str">
+        <f t="shared" si="50"/>
+        <v>UpdateScanList(, 3000);</v>
+      </c>
+      <c r="M273" t="str">
+        <f t="shared" si="51"/>
+        <v>VAR_SetVariable(, Cells[33].Temp_C, validflag);</v>
+      </c>
+      <c r="P273" t="str">
+        <f t="shared" si="52"/>
+        <v>cJSON_AddItemToObject(Uha, "", cJSON_CreateNumber(mVars[269]));</v>
+      </c>
+    </row>
+    <row r="274" spans="3:16">
+      <c r="C274" s="1">
+        <v>270</v>
+      </c>
+      <c r="D274" s="1" t="str">
+        <f t="shared" si="53"/>
+        <v>010E</v>
+      </c>
+      <c r="E274" t="s">
+        <v>343</v>
+      </c>
+      <c r="H274" t="str">
+        <f t="shared" si="48"/>
+        <v>#define  VAR_POW_AXPERT_W  270</v>
+      </c>
+      <c r="I274" t="str">
+        <f t="shared" si="49"/>
+        <v>public const byte VAR_POW_AXPERT_W = 270;</v>
+      </c>
+      <c r="J274">
+        <v>34</v>
+      </c>
+      <c r="L274" t="str">
+        <f t="shared" si="50"/>
+        <v>UpdateScanList(VAR_POW_AXPERT_W, 3000);</v>
+      </c>
+      <c r="M274" t="str">
+        <f t="shared" si="51"/>
+        <v>VAR_SetVariable(VAR_POW_AXPERT_W, Cells[34].Temp_C, validflag);</v>
+      </c>
+      <c r="P274" t="str">
+        <f t="shared" si="52"/>
+        <v>cJSON_AddItemToObject(Uha, "VAR_POW_AXPERT_W", cJSON_CreateNumber(mVars[270]));</v>
+      </c>
+    </row>
+    <row r="275" spans="3:16">
+      <c r="C275" s="1">
+        <v>271</v>
+      </c>
+      <c r="D275" s="1" t="str">
+        <f t="shared" si="53"/>
+        <v>010F</v>
+      </c>
+      <c r="E275" t="s">
+        <v>347</v>
+      </c>
+      <c r="H275" t="str">
+        <f t="shared" si="48"/>
+        <v>#define  VAR_POW_EVSE_W  271</v>
+      </c>
+      <c r="I275" t="str">
+        <f t="shared" si="49"/>
+        <v>public const byte VAR_POW_EVSE_W = 271;</v>
+      </c>
+      <c r="J275">
+        <v>35</v>
+      </c>
+      <c r="L275" t="str">
+        <f t="shared" si="50"/>
+        <v>UpdateScanList(VAR_POW_EVSE_W, 3000);</v>
+      </c>
+      <c r="M275" t="str">
+        <f t="shared" si="51"/>
+        <v>VAR_SetVariable(VAR_POW_EVSE_W, Cells[35].Temp_C, validflag);</v>
+      </c>
+      <c r="P275" t="str">
+        <f t="shared" si="52"/>
+        <v>cJSON_AddItemToObject(Uha, "VAR_POW_EVSE_W", cJSON_CreateNumber(mVars[271]));</v>
+      </c>
+    </row>
+    <row r="276" spans="3:16">
+      <c r="C276" s="1">
+        <v>272</v>
+      </c>
+      <c r="D276" s="1" t="str">
+        <f t="shared" si="53"/>
+        <v>0110</v>
+      </c>
+      <c r="E276" t="s">
+        <v>348</v>
+      </c>
+      <c r="H276" t="str">
+        <f t="shared" si="48"/>
+        <v>#define  VAR_POW_WS_HEATING_W  272</v>
+      </c>
+      <c r="I276" t="str">
+        <f t="shared" si="49"/>
+        <v>public const byte VAR_POW_WS_HEATING_W = 272;</v>
+      </c>
+      <c r="J276">
+        <v>36</v>
+      </c>
+      <c r="L276" t="str">
+        <f t="shared" si="50"/>
+        <v>UpdateScanList(VAR_POW_WS_HEATING_W, 3000);</v>
+      </c>
+      <c r="M276" t="str">
+        <f t="shared" si="51"/>
+        <v>VAR_SetVariable(VAR_POW_WS_HEATING_W, Cells[36].Temp_C, validflag);</v>
+      </c>
+      <c r="P276" t="str">
+        <f t="shared" si="52"/>
+        <v>cJSON_AddItemToObject(Uha, "VAR_POW_WS_HEATING_W", cJSON_CreateNumber(mVars[272]));</v>
+      </c>
+    </row>
+    <row r="277" spans="3:16">
+      <c r="C277" s="1">
+        <v>273</v>
+      </c>
+      <c r="D277" s="1" t="str">
+        <f t="shared" si="53"/>
+        <v>0111</v>
+      </c>
+      <c r="H277" t="str">
+        <f t="shared" si="48"/>
+        <v>#define    273</v>
+      </c>
+      <c r="I277" t="str">
+        <f t="shared" si="49"/>
+        <v>public const byte  = 273;</v>
+      </c>
+      <c r="J277">
+        <v>37</v>
+      </c>
+      <c r="L277" t="str">
+        <f t="shared" si="50"/>
+        <v>UpdateScanList(, 3000);</v>
+      </c>
+      <c r="M277" t="str">
+        <f t="shared" si="51"/>
+        <v>VAR_SetVariable(, Cells[37].Temp_C, validflag);</v>
+      </c>
+      <c r="P277" t="str">
+        <f t="shared" si="52"/>
+        <v>cJSON_AddItemToObject(Uha, "", cJSON_CreateNumber(mVars[273]));</v>
+      </c>
+    </row>
+    <row r="278" spans="3:16">
+      <c r="C278" s="1">
+        <v>274</v>
+      </c>
+      <c r="D278" s="1" t="str">
+        <f t="shared" si="53"/>
+        <v>0112</v>
+      </c>
+      <c r="H278" t="str">
+        <f t="shared" si="48"/>
+        <v>#define    274</v>
+      </c>
+      <c r="I278" t="str">
+        <f t="shared" si="49"/>
+        <v>public const byte  = 274;</v>
+      </c>
+      <c r="J278">
+        <v>38</v>
+      </c>
+      <c r="L278" t="str">
+        <f t="shared" si="50"/>
+        <v>UpdateScanList(, 3000);</v>
+      </c>
+      <c r="M278" t="str">
+        <f t="shared" si="51"/>
+        <v>VAR_SetVariable(, Cells[38].Temp_C, validflag);</v>
+      </c>
+      <c r="P278" t="str">
+        <f t="shared" si="52"/>
+        <v>cJSON_AddItemToObject(Uha, "", cJSON_CreateNumber(mVars[274]));</v>
+      </c>
+    </row>
+    <row r="279" spans="3:16">
+      <c r="C279" s="1">
+        <v>275</v>
+      </c>
+      <c r="D279" s="1" t="str">
+        <f t="shared" si="53"/>
+        <v>0113</v>
+      </c>
+      <c r="H279" t="str">
+        <f t="shared" si="48"/>
+        <v>#define    275</v>
+      </c>
+      <c r="I279" t="str">
+        <f t="shared" si="49"/>
+        <v>public const byte  = 275;</v>
+      </c>
+      <c r="J279">
+        <v>39</v>
+      </c>
+      <c r="L279" t="str">
+        <f t="shared" si="50"/>
+        <v>UpdateScanList(, 3000);</v>
+      </c>
+      <c r="M279" t="str">
+        <f t="shared" si="51"/>
+        <v>VAR_SetVariable(, Cells[39].Temp_C, validflag);</v>
+      </c>
+      <c r="P279" t="str">
+        <f t="shared" si="52"/>
+        <v>cJSON_AddItemToObject(Uha, "", cJSON_CreateNumber(mVars[275]));</v>
+      </c>
+    </row>
+    <row r="280" spans="3:16">
+      <c r="C280" s="1">
+        <v>276</v>
+      </c>
+      <c r="D280" s="1" t="str">
+        <f t="shared" si="53"/>
+        <v>0114</v>
+      </c>
+      <c r="H280" t="str">
+        <f t="shared" si="48"/>
+        <v>#define    276</v>
+      </c>
+      <c r="I280" t="str">
+        <f t="shared" si="49"/>
+        <v>public const byte  = 276;</v>
+      </c>
+      <c r="J280">
+        <v>40</v>
+      </c>
+      <c r="L280" t="str">
+        <f t="shared" si="50"/>
+        <v>UpdateScanList(, 3000);</v>
+      </c>
+      <c r="M280" t="str">
+        <f t="shared" si="51"/>
+        <v>VAR_SetVariable(, Cells[40].Temp_C, validflag);</v>
+      </c>
+      <c r="P280" t="str">
+        <f t="shared" si="52"/>
+        <v>cJSON_AddItemToObject(Uha, "", cJSON_CreateNumber(mVars[276]));</v>
+      </c>
+    </row>
+    <row r="281" spans="3:16">
+      <c r="C281" s="1">
+        <v>277</v>
+      </c>
+      <c r="D281" s="1" t="str">
+        <f t="shared" si="53"/>
+        <v>0115</v>
+      </c>
+      <c r="H281" t="str">
+        <f t="shared" si="48"/>
+        <v>#define    277</v>
+      </c>
+      <c r="I281" t="str">
+        <f t="shared" si="49"/>
+        <v>public const byte  = 277;</v>
+      </c>
+      <c r="J281">
+        <v>41</v>
+      </c>
+      <c r="L281" t="str">
+        <f t="shared" si="50"/>
+        <v>UpdateScanList(, 3000);</v>
+      </c>
+      <c r="M281" t="str">
+        <f t="shared" si="51"/>
+        <v>VAR_SetVariable(, Cells[41].Temp_C, validflag);</v>
+      </c>
+      <c r="P281" t="str">
+        <f t="shared" si="52"/>
+        <v>cJSON_AddItemToObject(Uha, "", cJSON_CreateNumber(mVars[277]));</v>
+      </c>
+    </row>
+    <row r="282" spans="3:16">
+      <c r="C282" s="1">
+        <v>278</v>
+      </c>
+      <c r="D282" s="1" t="str">
+        <f t="shared" si="53"/>
+        <v>0116</v>
+      </c>
+      <c r="H282" t="str">
+        <f t="shared" ref="H282:H303" si="54">CONCATENATE("#define  ",E282,"  ",C282)</f>
+        <v>#define    278</v>
+      </c>
+      <c r="I282" t="str">
+        <f t="shared" ref="I282:I303" si="55">CONCATENATE("public const byte ",E282," = ",C282,";")</f>
+        <v>public const byte  = 278;</v>
+      </c>
+      <c r="J282">
+        <v>42</v>
+      </c>
+      <c r="L282" t="str">
+        <f t="shared" ref="L282:L303" si="56">CONCATENATE("UpdateScanList(",E282, ", 3000);")</f>
+        <v>UpdateScanList(, 3000);</v>
+      </c>
+      <c r="M282" t="str">
+        <f t="shared" ref="M282:M303" si="57">CONCATENATE("VAR_SetVariable(",E282,", Cells[",J282,"].Temp_C", ", validflag);")</f>
+        <v>VAR_SetVariable(, Cells[42].Temp_C, validflag);</v>
+      </c>
+      <c r="P282" t="str">
+        <f t="shared" ref="P282:P303" si="58">CONCATENATE("cJSON_AddItemToObject(Uha, ","""",E282,"""",", cJSON_CreateNumber(mVars[",C282,"]));")</f>
+        <v>cJSON_AddItemToObject(Uha, "", cJSON_CreateNumber(mVars[278]));</v>
+      </c>
+    </row>
+    <row r="283" spans="3:16">
+      <c r="C283" s="1">
+        <v>279</v>
+      </c>
+      <c r="D283" s="1" t="str">
+        <f t="shared" si="53"/>
+        <v>0117</v>
+      </c>
+      <c r="H283" t="str">
+        <f t="shared" si="54"/>
+        <v>#define    279</v>
+      </c>
+      <c r="I283" t="str">
+        <f t="shared" si="55"/>
+        <v>public const byte  = 279;</v>
+      </c>
+      <c r="J283">
+        <v>43</v>
+      </c>
+      <c r="L283" t="str">
+        <f t="shared" si="56"/>
+        <v>UpdateScanList(, 3000);</v>
+      </c>
+      <c r="M283" t="str">
+        <f t="shared" si="57"/>
+        <v>VAR_SetVariable(, Cells[43].Temp_C, validflag);</v>
+      </c>
+      <c r="P283" t="str">
+        <f t="shared" si="58"/>
+        <v>cJSON_AddItemToObject(Uha, "", cJSON_CreateNumber(mVars[279]));</v>
+      </c>
+    </row>
+    <row r="284" spans="3:16">
+      <c r="C284" s="1">
+        <v>280</v>
+      </c>
+      <c r="D284" s="1" t="str">
+        <f t="shared" si="53"/>
+        <v>0118</v>
+      </c>
+      <c r="E284" t="s">
+        <v>349</v>
+      </c>
+      <c r="F284" t="s">
+        <v>351</v>
+      </c>
+      <c r="H284" t="str">
+        <f t="shared" si="54"/>
+        <v>#define  VAR_TEMP_DILNA  280</v>
+      </c>
+      <c r="I284" t="str">
+        <f t="shared" si="55"/>
+        <v>public const byte VAR_TEMP_DILNA = 280;</v>
+      </c>
+      <c r="J284">
+        <v>44</v>
+      </c>
+      <c r="L284" t="str">
+        <f t="shared" si="56"/>
+        <v>UpdateScanList(VAR_TEMP_DILNA, 3000);</v>
+      </c>
+      <c r="M284" t="str">
+        <f t="shared" si="57"/>
+        <v>VAR_SetVariable(VAR_TEMP_DILNA, Cells[44].Temp_C, validflag);</v>
+      </c>
+      <c r="P284" t="str">
+        <f t="shared" si="58"/>
+        <v>cJSON_AddItemToObject(Uha, "VAR_TEMP_DILNA", cJSON_CreateNumber(mVars[280]));</v>
+      </c>
+    </row>
+    <row r="285" spans="3:16">
+      <c r="C285" s="1">
+        <v>281</v>
+      </c>
+      <c r="D285" s="1" t="str">
+        <f t="shared" si="53"/>
+        <v>0119</v>
+      </c>
+      <c r="E285" t="s">
+        <v>350</v>
+      </c>
+      <c r="F285" t="s">
+        <v>352</v>
+      </c>
+      <c r="H285" t="str">
+        <f t="shared" si="54"/>
+        <v>#define  VAR_TEMP_AKUPACK1  281</v>
+      </c>
+      <c r="I285" t="str">
+        <f t="shared" si="55"/>
+        <v>public const byte VAR_TEMP_AKUPACK1 = 281;</v>
+      </c>
+      <c r="J285">
+        <v>45</v>
+      </c>
+      <c r="L285" t="str">
+        <f t="shared" si="56"/>
+        <v>UpdateScanList(VAR_TEMP_AKUPACK1, 3000);</v>
+      </c>
+      <c r="M285" t="str">
+        <f t="shared" si="57"/>
+        <v>VAR_SetVariable(VAR_TEMP_AKUPACK1, Cells[45].Temp_C, validflag);</v>
+      </c>
+      <c r="P285" t="str">
+        <f t="shared" si="58"/>
+        <v>cJSON_AddItemToObject(Uha, "VAR_TEMP_AKUPACK1", cJSON_CreateNumber(mVars[281]));</v>
+      </c>
+    </row>
+    <row r="286" spans="3:16">
+      <c r="C286" s="1">
+        <v>282</v>
+      </c>
+      <c r="D286" s="1" t="str">
+        <f t="shared" si="53"/>
+        <v>011A</v>
+      </c>
+      <c r="E286" t="s">
+        <v>354</v>
+      </c>
+      <c r="F286" t="s">
+        <v>353</v>
+      </c>
+      <c r="H286" t="str">
+        <f t="shared" si="54"/>
+        <v>#define  VAR_TEMP_BOARD_ELECON_D  282</v>
+      </c>
+      <c r="I286" t="str">
+        <f t="shared" si="55"/>
+        <v>public const byte VAR_TEMP_BOARD_ELECON_D = 282;</v>
+      </c>
+      <c r="J286">
+        <v>46</v>
+      </c>
+      <c r="L286" t="str">
+        <f t="shared" si="56"/>
+        <v>UpdateScanList(VAR_TEMP_BOARD_ELECON_D, 3000);</v>
+      </c>
+      <c r="M286" t="str">
+        <f t="shared" si="57"/>
+        <v>VAR_SetVariable(VAR_TEMP_BOARD_ELECON_D, Cells[46].Temp_C, validflag);</v>
+      </c>
+      <c r="P286" t="str">
+        <f t="shared" si="58"/>
+        <v>cJSON_AddItemToObject(Uha, "VAR_TEMP_BOARD_ELECON_D", cJSON_CreateNumber(mVars[282]));</v>
+      </c>
+    </row>
+    <row r="287" spans="3:16">
+      <c r="C287" s="1">
+        <v>283</v>
+      </c>
+      <c r="D287" s="1" t="str">
+        <f t="shared" si="53"/>
+        <v>011B</v>
+      </c>
+    </row>
+    <row r="288" spans="3:16">
+      <c r="C288" s="1">
+        <v>284</v>
+      </c>
+      <c r="D288" s="1" t="str">
+        <f t="shared" si="53"/>
+        <v>011C</v>
+      </c>
+    </row>
+    <row r="289" spans="3:4">
+      <c r="C289" s="1">
+        <v>285</v>
+      </c>
+      <c r="D289" s="1" t="str">
+        <f t="shared" si="53"/>
+        <v>011D</v>
+      </c>
+    </row>
+    <row r="290" spans="3:4">
+      <c r="C290" s="1">
+        <v>286</v>
+      </c>
+      <c r="D290" s="1" t="str">
+        <f t="shared" si="53"/>
+        <v>011E</v>
+      </c>
+    </row>
+    <row r="291" spans="3:4">
+      <c r="C291" s="1">
+        <v>287</v>
+      </c>
+      <c r="D291" s="1" t="str">
+        <f t="shared" si="53"/>
+        <v>011F</v>
+      </c>
+    </row>
+    <row r="292" spans="3:4">
+      <c r="C292" s="1">
+        <v>288</v>
+      </c>
+      <c r="D292" s="1" t="str">
+        <f t="shared" si="53"/>
+        <v>0120</v>
+      </c>
+    </row>
+    <row r="293" spans="3:4">
+      <c r="C293" s="1">
+        <v>289</v>
+      </c>
+      <c r="D293" s="1" t="str">
+        <f t="shared" si="53"/>
+        <v>0121</v>
+      </c>
+    </row>
+    <row r="294" spans="3:4">
+      <c r="C294" s="1">
+        <v>290</v>
+      </c>
+      <c r="D294" s="1" t="str">
+        <f t="shared" si="53"/>
+        <v>0122</v>
+      </c>
+    </row>
+    <row r="295" spans="3:4">
+      <c r="C295" s="1">
+        <v>291</v>
+      </c>
+      <c r="D295" s="1" t="str">
+        <f t="shared" si="53"/>
+        <v>0123</v>
+      </c>
+    </row>
+    <row r="296" spans="3:4">
+      <c r="C296" s="1">
+        <v>292</v>
+      </c>
+      <c r="D296" s="1" t="str">
+        <f t="shared" si="53"/>
+        <v>0124</v>
+      </c>
+    </row>
+    <row r="297" spans="3:4">
+      <c r="C297" s="1">
+        <v>293</v>
+      </c>
+      <c r="D297" s="1" t="str">
+        <f t="shared" si="53"/>
+        <v>0125</v>
+      </c>
+    </row>
+    <row r="298" spans="3:4">
+      <c r="C298" s="1">
+        <v>294</v>
+      </c>
+      <c r="D298" s="1" t="str">
+        <f t="shared" si="53"/>
+        <v>0126</v>
+      </c>
+    </row>
+    <row r="299" spans="3:4">
+      <c r="C299" s="1">
+        <v>295</v>
+      </c>
+      <c r="D299" s="1" t="str">
+        <f t="shared" si="53"/>
+        <v>0127</v>
+      </c>
+    </row>
+    <row r="300" spans="3:4">
+      <c r="C300" s="1">
+        <v>296</v>
+      </c>
+      <c r="D300" s="1" t="str">
+        <f t="shared" si="53"/>
+        <v>0128</v>
+      </c>
+    </row>
+    <row r="301" spans="3:4">
+      <c r="C301" s="1">
+        <v>297</v>
+      </c>
+      <c r="D301" s="1" t="str">
+        <f t="shared" si="53"/>
+        <v>0129</v>
+      </c>
+    </row>
+    <row r="302" spans="3:4">
+      <c r="C302" s="1">
+        <v>298</v>
+      </c>
+      <c r="D302" s="1" t="str">
+        <f t="shared" si="53"/>
+        <v>012A</v>
+      </c>
+    </row>
+    <row r="303" spans="3:4">
+      <c r="C303" s="1">
+        <v>299</v>
+      </c>
+      <c r="D303" s="1" t="str">
+        <f t="shared" si="53"/>
+        <v>012B</v>
+      </c>
+    </row>
+    <row r="304" spans="3:4">
+      <c r="C304" s="1">
+        <v>300</v>
+      </c>
+      <c r="D304" s="1" t="str">
+        <f t="shared" si="53"/>
+        <v>012C</v>
       </c>
     </row>
   </sheetData>
@@ -8641,16 +9867,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:I48"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48:H48"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="11.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" customWidth="1"/>
     <col min="5" max="5" width="36" customWidth="1"/>
-    <col min="8" max="8" width="46.42578125" customWidth="1"/>
-    <col min="9" max="9" width="46.140625" customWidth="1"/>
+    <col min="8" max="8" width="46.44140625" customWidth="1"/>
+    <col min="9" max="9" width="46.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:9">
@@ -9242,9 +10468,9 @@
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="4" max="4" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="21.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -9319,17 +10545,17 @@
       <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="3" max="3" width="16.140625" customWidth="1"/>
-    <col min="5" max="5" width="27.28515625" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" customWidth="1"/>
-    <col min="13" max="13" width="22.5703125" customWidth="1"/>
-    <col min="14" max="14" width="21.5703125" customWidth="1"/>
+    <col min="3" max="3" width="16.109375" customWidth="1"/>
+    <col min="5" max="5" width="27.33203125" customWidth="1"/>
+    <col min="10" max="10" width="14.5546875" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" customWidth="1"/>
+    <col min="13" max="13" width="22.5546875" customWidth="1"/>
+    <col min="14" max="14" width="21.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" ht="15.75" thickBot="1">
+    <row r="2" spans="1:14" ht="15" thickBot="1">
       <c r="A2" s="8"/>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
@@ -9374,7 +10600,7 @@
       <c r="B4" s="3">
         <v>0</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="17" t="s">
         <v>95</v>
       </c>
       <c r="D4" s="2">
@@ -9389,7 +10615,7 @@
       <c r="J4" s="3">
         <v>0</v>
       </c>
-      <c r="K4" s="16" t="s">
+      <c r="K4" s="17" t="s">
         <v>95</v>
       </c>
       <c r="L4" s="2">
@@ -9404,7 +10630,7 @@
       <c r="B5" s="3">
         <v>1</v>
       </c>
-      <c r="C5" s="16"/>
+      <c r="C5" s="17"/>
       <c r="D5" s="2">
         <v>2</v>
       </c>
@@ -9417,7 +10643,7 @@
       <c r="J5" s="3">
         <v>1</v>
       </c>
-      <c r="K5" s="16"/>
+      <c r="K5" s="17"/>
       <c r="L5" s="2">
         <v>2</v>
       </c>
@@ -9430,7 +10656,7 @@
       <c r="B6" s="3">
         <v>2</v>
       </c>
-      <c r="C6" s="16"/>
+      <c r="C6" s="17"/>
       <c r="D6" s="2">
         <v>3</v>
       </c>
@@ -9443,7 +10669,7 @@
       <c r="J6" s="3">
         <v>2</v>
       </c>
-      <c r="K6" s="16"/>
+      <c r="K6" s="17"/>
       <c r="L6" s="2">
         <v>3</v>
       </c>
@@ -9454,7 +10680,7 @@
       <c r="B7" s="3">
         <v>3</v>
       </c>
-      <c r="C7" s="16"/>
+      <c r="C7" s="17"/>
       <c r="D7" s="2">
         <v>4</v>
       </c>
@@ -9467,7 +10693,7 @@
       <c r="J7" s="3">
         <v>3</v>
       </c>
-      <c r="K7" s="16"/>
+      <c r="K7" s="17"/>
       <c r="L7" s="2">
         <v>4</v>
       </c>
@@ -9478,7 +10704,7 @@
       <c r="B8" s="3">
         <v>4</v>
       </c>
-      <c r="C8" s="16"/>
+      <c r="C8" s="17"/>
       <c r="D8" s="2">
         <v>5</v>
       </c>
@@ -9491,7 +10717,7 @@
       <c r="J8" s="3">
         <v>4</v>
       </c>
-      <c r="K8" s="16"/>
+      <c r="K8" s="17"/>
       <c r="L8" s="2">
         <v>5</v>
       </c>
@@ -9507,7 +10733,7 @@
       <c r="B9" s="3">
         <v>5</v>
       </c>
-      <c r="C9" s="16"/>
+      <c r="C9" s="17"/>
       <c r="D9" s="2">
         <v>6</v>
       </c>
@@ -9520,7 +10746,7 @@
       <c r="J9" s="3">
         <v>5</v>
       </c>
-      <c r="K9" s="16"/>
+      <c r="K9" s="17"/>
       <c r="L9" s="2">
         <v>6</v>
       </c>
@@ -9536,7 +10762,7 @@
       <c r="B10" s="3">
         <v>6</v>
       </c>
-      <c r="C10" s="16"/>
+      <c r="C10" s="17"/>
       <c r="D10" s="2">
         <v>7</v>
       </c>
@@ -9549,7 +10775,7 @@
       <c r="J10" s="3">
         <v>6</v>
       </c>
-      <c r="K10" s="16"/>
+      <c r="K10" s="17"/>
       <c r="L10" s="2">
         <v>7</v>
       </c>
@@ -9560,7 +10786,7 @@
       <c r="B11" s="3">
         <v>7</v>
       </c>
-      <c r="C11" s="16"/>
+      <c r="C11" s="17"/>
       <c r="D11" s="2">
         <v>8</v>
       </c>
@@ -9573,7 +10799,7 @@
       <c r="J11" s="3">
         <v>7</v>
       </c>
-      <c r="K11" s="16"/>
+      <c r="K11" s="17"/>
       <c r="L11" s="2">
         <v>8</v>
       </c>
@@ -9584,7 +10810,7 @@
       <c r="B12" s="3">
         <v>8</v>
       </c>
-      <c r="C12" s="16"/>
+      <c r="C12" s="17"/>
       <c r="D12" s="2">
         <v>9</v>
       </c>
@@ -9597,7 +10823,7 @@
       <c r="J12" s="3">
         <v>8</v>
       </c>
-      <c r="K12" s="16"/>
+      <c r="K12" s="17"/>
       <c r="L12" s="2">
         <v>9</v>
       </c>
@@ -9608,7 +10834,7 @@
       <c r="B13" s="3">
         <v>9</v>
       </c>
-      <c r="C13" s="16"/>
+      <c r="C13" s="17"/>
       <c r="D13" s="2">
         <v>10</v>
       </c>
@@ -9621,7 +10847,7 @@
       <c r="J13" s="3">
         <v>9</v>
       </c>
-      <c r="K13" s="16"/>
+      <c r="K13" s="17"/>
       <c r="L13" s="2">
         <v>10</v>
       </c>
@@ -9632,7 +10858,7 @@
       <c r="B14" s="3">
         <v>10</v>
       </c>
-      <c r="C14" s="16"/>
+      <c r="C14" s="17"/>
       <c r="D14" s="2">
         <v>11</v>
       </c>
@@ -9645,7 +10871,7 @@
       <c r="J14" s="3">
         <v>10</v>
       </c>
-      <c r="K14" s="16"/>
+      <c r="K14" s="17"/>
       <c r="L14" s="2">
         <v>11</v>
       </c>
@@ -9655,7 +10881,7 @@
       <c r="B15" s="3">
         <v>11</v>
       </c>
-      <c r="C15" s="16"/>
+      <c r="C15" s="17"/>
       <c r="D15" s="2">
         <v>12</v>
       </c>
@@ -9668,7 +10894,7 @@
       <c r="J15" s="3">
         <v>11</v>
       </c>
-      <c r="K15" s="16"/>
+      <c r="K15" s="17"/>
       <c r="L15" s="2">
         <v>12</v>
       </c>
@@ -9678,7 +10904,7 @@
       <c r="B16" s="3">
         <v>12</v>
       </c>
-      <c r="C16" s="16"/>
+      <c r="C16" s="17"/>
       <c r="D16" s="2">
         <v>13</v>
       </c>
@@ -9691,7 +10917,7 @@
       <c r="J16" s="3">
         <v>12</v>
       </c>
-      <c r="K16" s="16" t="s">
+      <c r="K16" s="17" t="s">
         <v>96</v>
       </c>
       <c r="L16" s="2">
@@ -9709,7 +10935,7 @@
       <c r="B17" s="3">
         <v>13</v>
       </c>
-      <c r="C17" s="16"/>
+      <c r="C17" s="17"/>
       <c r="D17" s="2">
         <v>14</v>
       </c>
@@ -9722,7 +10948,7 @@
       <c r="J17" s="3">
         <v>13</v>
       </c>
-      <c r="K17" s="16"/>
+      <c r="K17" s="17"/>
       <c r="L17" s="2">
         <v>2</v>
       </c>
@@ -9738,7 +10964,7 @@
       <c r="B18" s="3">
         <v>14</v>
       </c>
-      <c r="C18" s="16"/>
+      <c r="C18" s="17"/>
       <c r="D18" s="2">
         <v>15</v>
       </c>
@@ -9751,7 +10977,7 @@
       <c r="J18" s="3">
         <v>14</v>
       </c>
-      <c r="K18" s="16"/>
+      <c r="K18" s="17"/>
       <c r="L18" s="2">
         <v>3</v>
       </c>
@@ -9767,7 +10993,7 @@
       <c r="B19" s="3">
         <v>15</v>
       </c>
-      <c r="C19" s="16"/>
+      <c r="C19" s="17"/>
       <c r="D19" s="2">
         <v>16</v>
       </c>
@@ -9780,7 +11006,7 @@
       <c r="J19" s="3">
         <v>15</v>
       </c>
-      <c r="K19" s="16"/>
+      <c r="K19" s="17"/>
       <c r="L19" s="2">
         <v>4</v>
       </c>
@@ -9796,7 +11022,7 @@
       <c r="B20" s="3">
         <v>16</v>
       </c>
-      <c r="C20" s="16"/>
+      <c r="C20" s="17"/>
       <c r="D20" s="2">
         <v>17</v>
       </c>
@@ -9809,7 +11035,7 @@
       <c r="J20" s="3">
         <v>16</v>
       </c>
-      <c r="K20" s="16"/>
+      <c r="K20" s="17"/>
       <c r="L20" s="2">
         <v>5</v>
       </c>
@@ -9825,7 +11051,7 @@
       <c r="B21" s="3">
         <v>17</v>
       </c>
-      <c r="C21" s="16"/>
+      <c r="C21" s="17"/>
       <c r="D21" s="2">
         <v>18</v>
       </c>
@@ -9838,7 +11064,7 @@
       <c r="J21" s="3">
         <v>17</v>
       </c>
-      <c r="K21" s="16"/>
+      <c r="K21" s="17"/>
       <c r="L21" s="2">
         <v>6</v>
       </c>
@@ -9854,7 +11080,7 @@
       <c r="B22" s="3">
         <v>18</v>
       </c>
-      <c r="C22" s="16"/>
+      <c r="C22" s="17"/>
       <c r="D22" s="2">
         <v>19</v>
       </c>
@@ -9867,7 +11093,7 @@
       <c r="J22" s="3">
         <v>18</v>
       </c>
-      <c r="K22" s="16"/>
+      <c r="K22" s="17"/>
       <c r="L22" s="2">
         <v>7</v>
       </c>
@@ -9883,7 +11109,7 @@
       <c r="B23" s="3">
         <v>19</v>
       </c>
-      <c r="C23" s="16"/>
+      <c r="C23" s="17"/>
       <c r="D23" s="2">
         <v>20</v>
       </c>
@@ -9896,7 +11122,7 @@
       <c r="J23" s="3">
         <v>19</v>
       </c>
-      <c r="K23" s="16"/>
+      <c r="K23" s="17"/>
       <c r="L23" s="2">
         <v>8</v>
       </c>
@@ -9912,7 +11138,7 @@
       <c r="B24" s="3">
         <v>20</v>
       </c>
-      <c r="C24" s="16" t="s">
+      <c r="C24" s="17" t="s">
         <v>96</v>
       </c>
       <c r="D24" s="2">
@@ -9925,7 +11151,7 @@
       <c r="J24" s="3">
         <v>20</v>
       </c>
-      <c r="K24" s="16"/>
+      <c r="K24" s="17"/>
       <c r="L24" s="2">
         <v>9</v>
       </c>
@@ -9941,7 +11167,7 @@
       <c r="B25" s="3">
         <v>21</v>
       </c>
-      <c r="C25" s="16"/>
+      <c r="C25" s="17"/>
       <c r="D25" s="2">
         <v>2</v>
       </c>
@@ -9952,7 +11178,7 @@
       <c r="J25" s="3">
         <v>21</v>
       </c>
-      <c r="K25" s="16"/>
+      <c r="K25" s="17"/>
       <c r="L25" s="2">
         <v>10</v>
       </c>
@@ -9968,7 +11194,7 @@
       <c r="B26" s="3">
         <v>22</v>
       </c>
-      <c r="C26" s="16"/>
+      <c r="C26" s="17"/>
       <c r="D26" s="2">
         <v>3</v>
       </c>
@@ -9979,7 +11205,7 @@
       <c r="J26" s="3">
         <v>22</v>
       </c>
-      <c r="K26" s="16"/>
+      <c r="K26" s="17"/>
       <c r="L26" s="2">
         <v>11</v>
       </c>
@@ -9995,7 +11221,7 @@
       <c r="B27" s="3">
         <v>23</v>
       </c>
-      <c r="C27" s="16"/>
+      <c r="C27" s="17"/>
       <c r="D27" s="2">
         <v>4</v>
       </c>
@@ -10006,7 +11232,7 @@
       <c r="J27" s="3">
         <v>23</v>
       </c>
-      <c r="K27" s="16"/>
+      <c r="K27" s="17"/>
       <c r="L27" s="2">
         <v>12</v>
       </c>
@@ -10022,7 +11248,7 @@
       <c r="B28" s="3">
         <v>24</v>
       </c>
-      <c r="C28" s="16"/>
+      <c r="C28" s="17"/>
       <c r="D28" s="2">
         <v>5</v>
       </c>
@@ -10033,7 +11259,7 @@
       <c r="J28" s="3">
         <v>24</v>
       </c>
-      <c r="K28" s="16" t="s">
+      <c r="K28" s="17" t="s">
         <v>117</v>
       </c>
       <c r="L28" s="2">
@@ -10046,7 +11272,7 @@
       <c r="B29" s="3">
         <v>25</v>
       </c>
-      <c r="C29" s="16"/>
+      <c r="C29" s="17"/>
       <c r="D29" s="2">
         <v>6</v>
       </c>
@@ -10057,7 +11283,7 @@
       <c r="J29" s="3">
         <v>25</v>
       </c>
-      <c r="K29" s="16"/>
+      <c r="K29" s="17"/>
       <c r="L29" s="2">
         <v>2</v>
       </c>
@@ -10068,7 +11294,7 @@
       <c r="B30" s="3">
         <v>26</v>
       </c>
-      <c r="C30" s="16"/>
+      <c r="C30" s="17"/>
       <c r="D30" s="2">
         <v>7</v>
       </c>
@@ -10079,18 +11305,18 @@
       <c r="J30" s="3">
         <v>26</v>
       </c>
-      <c r="K30" s="16"/>
+      <c r="K30" s="17"/>
       <c r="L30" s="2">
         <v>3</v>
       </c>
       <c r="M30" s="4"/>
     </row>
-    <row r="31" spans="1:14" ht="15.75" thickBot="1">
+    <row r="31" spans="1:14" ht="15" thickBot="1">
       <c r="A31" s="8"/>
       <c r="B31" s="3">
         <v>27</v>
       </c>
-      <c r="C31" s="16"/>
+      <c r="C31" s="17"/>
       <c r="D31" s="2">
         <v>8</v>
       </c>
@@ -10101,7 +11327,7 @@
       <c r="J31" s="5">
         <v>27</v>
       </c>
-      <c r="K31" s="17"/>
+      <c r="K31" s="18"/>
       <c r="L31" s="6">
         <v>4</v>
       </c>
@@ -10112,7 +11338,7 @@
       <c r="B32" s="3">
         <v>28</v>
       </c>
-      <c r="C32" s="16"/>
+      <c r="C32" s="17"/>
       <c r="D32" s="2">
         <v>9</v>
       </c>
@@ -10126,7 +11352,7 @@
       <c r="B33" s="3">
         <v>29</v>
       </c>
-      <c r="C33" s="16"/>
+      <c r="C33" s="17"/>
       <c r="D33" s="2">
         <v>10</v>
       </c>
@@ -10140,7 +11366,7 @@
       <c r="B34" s="3">
         <v>30</v>
       </c>
-      <c r="C34" s="16"/>
+      <c r="C34" s="17"/>
       <c r="D34" s="2">
         <v>11</v>
       </c>
@@ -10154,7 +11380,7 @@
       <c r="B35" s="3">
         <v>31</v>
       </c>
-      <c r="C35" s="16"/>
+      <c r="C35" s="17"/>
       <c r="D35" s="2">
         <v>12</v>
       </c>
@@ -10168,7 +11394,7 @@
       <c r="B36" s="3">
         <v>32</v>
       </c>
-      <c r="C36" s="16"/>
+      <c r="C36" s="17"/>
       <c r="D36" s="2">
         <v>13</v>
       </c>
@@ -10182,7 +11408,7 @@
       <c r="B37" s="3">
         <v>33</v>
       </c>
-      <c r="C37" s="16"/>
+      <c r="C37" s="17"/>
       <c r="D37" s="2">
         <v>14</v>
       </c>
@@ -10196,7 +11422,7 @@
       <c r="B38" s="3">
         <v>34</v>
       </c>
-      <c r="C38" s="16"/>
+      <c r="C38" s="17"/>
       <c r="D38" s="2">
         <v>15</v>
       </c>
@@ -10210,7 +11436,7 @@
       <c r="B39" s="3">
         <v>35</v>
       </c>
-      <c r="C39" s="16"/>
+      <c r="C39" s="17"/>
       <c r="D39" s="2">
         <v>16</v>
       </c>
@@ -10224,7 +11450,7 @@
       <c r="B40" s="3">
         <v>36</v>
       </c>
-      <c r="C40" s="16"/>
+      <c r="C40" s="17"/>
       <c r="D40" s="2">
         <v>17</v>
       </c>
@@ -10240,7 +11466,7 @@
       <c r="B41" s="3">
         <v>37</v>
       </c>
-      <c r="C41" s="16"/>
+      <c r="C41" s="17"/>
       <c r="D41" s="2">
         <v>18</v>
       </c>
@@ -10256,7 +11482,7 @@
       <c r="B42" s="3">
         <v>38</v>
       </c>
-      <c r="C42" s="16"/>
+      <c r="C42" s="17"/>
       <c r="D42" s="2">
         <v>19</v>
       </c>
@@ -10272,7 +11498,7 @@
       <c r="B43" s="3">
         <v>39</v>
       </c>
-      <c r="C43" s="16"/>
+      <c r="C43" s="17"/>
       <c r="D43" s="2">
         <v>20</v>
       </c>
@@ -10356,7 +11582,7 @@
       <c r="D52" s="2"/>
       <c r="E52" s="4"/>
     </row>
-    <row r="53" spans="2:5" ht="15.75" thickBot="1">
+    <row r="53" spans="2:5" ht="15" thickBot="1">
       <c r="B53" s="5">
         <v>49</v>
       </c>
@@ -10381,76 +11607,76 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C2:S11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17:L18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="3" max="3" width="24" customWidth="1"/>
-    <col min="4" max="4" width="27.42578125" customWidth="1"/>
-    <col min="6" max="6" width="24.7109375" customWidth="1"/>
-    <col min="7" max="7" width="5.85546875" customWidth="1"/>
+    <col min="4" max="4" width="27.44140625" customWidth="1"/>
+    <col min="6" max="6" width="24.6640625" customWidth="1"/>
+    <col min="7" max="7" width="5.88671875" customWidth="1"/>
     <col min="8" max="8" width="5" customWidth="1"/>
-    <col min="9" max="9" width="41.7109375" customWidth="1"/>
+    <col min="9" max="9" width="41.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:19">
-      <c r="K2" s="20" t="s">
-        <v>335</v>
-      </c>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="20"/>
-      <c r="S2" s="20"/>
+      <c r="K2" s="19" t="s">
+        <v>333</v>
+      </c>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
     </row>
     <row r="3" spans="3:19">
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="15" t="s">
+        <v>312</v>
+      </c>
+      <c r="D3" s="15" t="s">
         <v>313</v>
       </c>
-      <c r="D3" s="18" t="s">
-        <v>314</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>316</v>
-      </c>
-      <c r="F3" s="18" t="s">
-        <v>320</v>
-      </c>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18" t="s">
+      <c r="E3" s="15" t="s">
+        <v>315</v>
+      </c>
+      <c r="F3" s="15" t="s">
         <v>319</v>
       </c>
-      <c r="K3" s="18">
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15" t="s">
+        <v>318</v>
+      </c>
+      <c r="K3" s="15">
         <v>0</v>
       </c>
-      <c r="L3" s="18">
+      <c r="L3" s="15">
         <v>1</v>
       </c>
-      <c r="M3" s="18">
+      <c r="M3" s="15">
         <v>2</v>
       </c>
-      <c r="N3" s="18">
+      <c r="N3" s="15">
         <v>3</v>
       </c>
-      <c r="O3" s="18">
+      <c r="O3" s="15">
         <v>4</v>
       </c>
-      <c r="P3" s="18">
+      <c r="P3" s="15">
         <v>5</v>
       </c>
-      <c r="Q3" s="18">
+      <c r="Q3" s="15">
         <v>6</v>
       </c>
-      <c r="R3" s="18">
+      <c r="R3" s="15">
         <v>7</v>
       </c>
-      <c r="S3" s="18">
+      <c r="S3" s="15">
         <v>8</v>
       </c>
     </row>
@@ -10474,7 +11700,7 @@
     </row>
     <row r="5" spans="3:19">
       <c r="D5" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E5" t="s">
         <v>143</v>
@@ -10492,7 +11718,7 @@
         <v>117</v>
       </c>
       <c r="D6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E6" t="s">
         <v>288</v>
@@ -10507,10 +11733,10 @@
     </row>
     <row r="7" spans="3:19">
       <c r="C7" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D7" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E7" t="s">
         <v>285</v>
@@ -10525,16 +11751,16 @@
     </row>
     <row r="8" spans="3:19">
       <c r="C8" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D8" t="s">
         <v>117</v>
       </c>
       <c r="E8" t="s">
+        <v>316</v>
+      </c>
+      <c r="F8" t="s">
         <v>317</v>
-      </c>
-      <c r="F8" t="s">
-        <v>318</v>
       </c>
       <c r="I8" t="str">
         <f t="shared" si="0"/>
@@ -10543,16 +11769,16 @@
     </row>
     <row r="9" spans="3:19">
       <c r="C9" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D9" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F9" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I9" t="str">
         <f t="shared" si="0"/>
@@ -10564,13 +11790,13 @@
         <v>117</v>
       </c>
       <c r="D10" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E10" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F10" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="I10" t="str">
         <f t="shared" si="0"/>
@@ -10579,31 +11805,31 @@
     </row>
     <row r="11" spans="3:19">
       <c r="C11" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D11" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E11" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F11" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="I11" t="str">
         <f t="shared" si="0"/>
         <v>#define  CMD_RECU_REMOTE_REQ  0x140</v>
       </c>
-      <c r="K11" s="19" t="s">
-        <v>337</v>
-      </c>
-      <c r="L11" s="19"/>
-      <c r="M11" s="19" t="s">
-        <v>336</v>
-      </c>
-      <c r="N11" s="19"/>
-      <c r="O11" s="19"/>
-      <c r="P11" s="19"/>
+      <c r="K11" s="20" t="s">
+        <v>335</v>
+      </c>
+      <c r="L11" s="20"/>
+      <c r="M11" s="20" t="s">
+        <v>334</v>
+      </c>
+      <c r="N11" s="20"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -10622,24 +11848,24 @@
   <dimension ref="D3:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="5" max="5" width="25.7109375" customWidth="1"/>
+    <col min="5" max="5" width="25.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="4:7">
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="15" t="s">
+        <v>323</v>
+      </c>
+      <c r="E3" s="15" t="s">
         <v>324</v>
       </c>
-      <c r="E3" s="18" t="s">
-        <v>325</v>
-      </c>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18" t="s">
-        <v>319</v>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="4" spans="4:7">
@@ -10647,7 +11873,7 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="5" spans="4:7">
@@ -10655,7 +11881,7 @@
         <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="6" spans="4:7">
@@ -10679,7 +11905,7 @@
         <v>5</v>
       </c>
       <c r="E8" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="9" spans="4:7">
@@ -10687,7 +11913,7 @@
         <v>6</v>
       </c>
       <c r="E9" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="10" spans="4:7">
@@ -10695,7 +11921,7 @@
         <v>7</v>
       </c>
       <c r="E10" t="s">
-        <v>330</v>
+        <v>341</v>
       </c>
     </row>
     <row r="11" spans="4:7">
@@ -10721,21 +11947,21 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="3" max="3" width="20.140625" customWidth="1"/>
-    <col min="5" max="5" width="48.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.109375" customWidth="1"/>
+    <col min="5" max="5" width="48.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="3:5">
       <c r="C3" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="4" spans="3:5">
@@ -10743,7 +11969,7 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="5" spans="3:5">
@@ -10751,7 +11977,7 @@
         <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="6" spans="3:5">
@@ -10759,7 +11985,7 @@
         <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="7" spans="3:5">
@@ -10767,7 +11993,7 @@
         <v>4</v>
       </c>
       <c r="E7" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
   </sheetData>

--- a/UHA.xlsx
+++ b/UHA.xlsx
@@ -210,7 +210,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="476">
   <si>
     <t>dec</t>
   </si>
@@ -1583,9 +1583,6 @@
     <t>VAR_STRG2_POWER_W</t>
   </si>
   <si>
-    <t>VAR_STRG2_CURRENT_A20</t>
-  </si>
-  <si>
     <t>VAR_STRG2_ENERGY_WH</t>
   </si>
   <si>
@@ -1632,13 +1629,22 @@
   </si>
   <si>
     <t>VAR_STRG2_BALANCED_TODAY</t>
+  </si>
+  <si>
+    <t>VAR_STRG1_VOLTAGE_V10</t>
+  </si>
+  <si>
+    <t>VAR_STRG2_VOLTAGE_V10</t>
+  </si>
+  <si>
+    <t>VAR_STRG2_CURRENT_A10</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1724,6 +1730,15 @@
       <strike/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
@@ -2016,7 +2031,7 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -2091,6 +2106,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="20 % – Zvýraznění6" xfId="7" builtinId="50"/>
@@ -14177,142 +14193,182 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="I9:J24"/>
+  <dimension ref="I9:N26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="10" max="10" width="32.42578125" customWidth="1"/>
+    <col min="14" max="14" width="45.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="9" spans="9:10">
+    <row r="9" spans="9:14">
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="10" spans="9:10">
+      <c r="N9" s="27" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="10" spans="9:14">
       <c r="I10">
         <v>2</v>
       </c>
       <c r="J10" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="11" spans="9:10">
+      <c r="N10" s="27" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="11" spans="9:14">
       <c r="I11">
         <v>3</v>
       </c>
       <c r="J11" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="12" spans="9:10">
+      <c r="N11" s="27" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="12" spans="9:14">
       <c r="I12">
         <v>4</v>
       </c>
       <c r="J12" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="13" spans="9:10">
+      <c r="N12" s="27" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="13" spans="9:14">
       <c r="I13">
         <v>5</v>
       </c>
-      <c r="J13" t="s">
+      <c r="J13" s="27" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="14" spans="9:10">
+      <c r="N13" s="36"/>
+    </row>
+    <row r="14" spans="9:14">
       <c r="I14">
         <v>6</v>
       </c>
       <c r="J14" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="15" spans="9:10">
+        <v>469</v>
+      </c>
+      <c r="N14" s="36"/>
+    </row>
+    <row r="15" spans="9:14">
       <c r="I15">
         <v>7</v>
       </c>
-      <c r="J15" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="16" spans="9:10">
+      <c r="J15" s="27" t="s">
+        <v>471</v>
+      </c>
+      <c r="N15" s="27" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="16" spans="9:14">
       <c r="I16">
         <v>8</v>
       </c>
       <c r="J16" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="17" spans="9:10">
+        <v>473</v>
+      </c>
+      <c r="N16" s="27" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="17" spans="9:14">
       <c r="I17">
         <v>9</v>
       </c>
       <c r="J17" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="18" spans="9:10">
+        <v>445</v>
+      </c>
+      <c r="N17" s="27" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="18" spans="9:14">
       <c r="I18">
         <v>10</v>
       </c>
       <c r="J18" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="19" spans="9:10">
+        <v>446</v>
+      </c>
+      <c r="N18" s="27" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="19" spans="9:14">
       <c r="I19">
         <v>11</v>
       </c>
       <c r="J19" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="20" spans="9:10">
+        <v>447</v>
+      </c>
+      <c r="N19" s="27" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="20" spans="9:14">
       <c r="I20">
         <v>12</v>
       </c>
       <c r="J20" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="21" spans="9:10">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="21" spans="9:14">
       <c r="I21">
         <v>13</v>
       </c>
       <c r="J21" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="22" spans="9:10">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="22" spans="9:14">
       <c r="I22">
         <v>14</v>
       </c>
       <c r="J22" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="23" spans="9:10">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="23" spans="9:14">
       <c r="I23">
         <v>15</v>
       </c>
       <c r="J23" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="24" spans="9:10">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="24" spans="9:14">
       <c r="I24">
         <v>16</v>
       </c>
       <c r="J24" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="25" spans="9:14">
+      <c r="J25" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="26" spans="9:14">
+      <c r="J26" t="s">
         <v>454</v>
       </c>
     </row>
@@ -14325,8 +14381,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P352"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A290" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I321" sqref="I321"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K73" sqref="K73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14517,7 +14573,7 @@
         <f t="shared" si="0"/>
         <v>0008</v>
       </c>
-      <c r="E10" s="25" t="s">
+      <c r="E10" s="27" t="s">
         <v>415</v>
       </c>
       <c r="H10" t="str">
@@ -14546,7 +14602,7 @@
         <f t="shared" si="0"/>
         <v>0009</v>
       </c>
-      <c r="E11" s="25" t="s">
+      <c r="E11" s="27" t="s">
         <v>439</v>
       </c>
       <c r="H11" t="str">
@@ -14575,7 +14631,7 @@
         <f t="shared" si="0"/>
         <v>000A</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="27" t="s">
         <v>137</v>
       </c>
       <c r="H12" t="str">
@@ -14608,7 +14664,7 @@
         <f t="shared" si="0"/>
         <v>000B</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="27" t="s">
         <v>138</v>
       </c>
       <c r="H13" t="str">
@@ -14707,7 +14763,7 @@
         <f t="shared" si="0"/>
         <v>000E</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="27" t="s">
         <v>168</v>
       </c>
       <c r="H16" t="str">
@@ -14740,7 +14796,7 @@
         <f t="shared" si="0"/>
         <v>000F</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="27" t="s">
         <v>252</v>
       </c>
       <c r="H17" t="str">
@@ -14773,7 +14829,7 @@
         <f t="shared" si="0"/>
         <v>0010</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="27" t="s">
         <v>253</v>
       </c>
       <c r="H18" t="str">
@@ -14806,7 +14862,7 @@
         <f t="shared" si="0"/>
         <v>0011</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="27" t="s">
         <v>254</v>
       </c>
       <c r="H19" t="str">
@@ -14839,7 +14895,7 @@
         <f t="shared" si="0"/>
         <v>0012</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="27" t="s">
         <v>409</v>
       </c>
       <c r="H20" t="str">
@@ -15821,7 +15877,7 @@
         <f t="shared" si="0"/>
         <v>0031</v>
       </c>
-      <c r="E51" s="25" t="s">
+      <c r="E51" t="s">
         <v>424</v>
       </c>
       <c r="H51" t="str">
@@ -15883,7 +15939,7 @@
         <f t="shared" si="0"/>
         <v>0033</v>
       </c>
-      <c r="E53" s="25" t="s">
+      <c r="E53" t="s">
         <v>354</v>
       </c>
       <c r="H53" t="str">
@@ -15912,24 +15968,8 @@
         <f t="shared" si="0"/>
         <v>0034</v>
       </c>
-      <c r="E54" s="25" t="s">
+      <c r="E54" s="50" t="s">
         <v>411</v>
-      </c>
-      <c r="H54" t="str">
-        <f t="shared" si="1"/>
-        <v>#define  VAR_BATPACK1_POWER_W  52</v>
-      </c>
-      <c r="I54" t="str">
-        <f t="shared" si="2"/>
-        <v>public const byte VAR_BATPACK1_POWER_W = 52;</v>
-      </c>
-      <c r="L54" t="str">
-        <f t="shared" si="5"/>
-        <v>UpdateScanList(VAR_BATPACK1_POWER_W, 5000);</v>
-      </c>
-      <c r="O54" t="str">
-        <f t="shared" si="4"/>
-        <v>cJSON_AddItemToObject(Uha, "VAR_BATPACK1_POWER_W", cJSON_CreateNumber(mVars[VAR_BATPACK1_POWER_W]));</v>
       </c>
     </row>
     <row r="55" spans="2:16">
@@ -15941,24 +15981,8 @@
         <f t="shared" si="0"/>
         <v>0035</v>
       </c>
-      <c r="E55" s="25" t="s">
+      <c r="E55" s="50" t="s">
         <v>400</v>
-      </c>
-      <c r="H55" t="str">
-        <f t="shared" si="1"/>
-        <v>#define  VAR_BATPACK1_SOC  53</v>
-      </c>
-      <c r="I55" t="str">
-        <f t="shared" si="2"/>
-        <v>public const byte VAR_BATPACK1_SOC = 53;</v>
-      </c>
-      <c r="L55" t="str">
-        <f t="shared" si="5"/>
-        <v>UpdateScanList(VAR_BATPACK1_SOC, 5000);</v>
-      </c>
-      <c r="O55" t="str">
-        <f t="shared" si="4"/>
-        <v>cJSON_AddItemToObject(Uha, "VAR_BATPACK1_SOC", cJSON_CreateNumber(mVars[VAR_BATPACK1_SOC]));</v>
       </c>
     </row>
     <row r="56" spans="2:16">
@@ -15970,24 +15994,8 @@
         <f t="shared" si="0"/>
         <v>0036</v>
       </c>
-      <c r="E56" s="25" t="s">
+      <c r="E56" s="50" t="s">
         <v>401</v>
-      </c>
-      <c r="H56" t="str">
-        <f t="shared" si="1"/>
-        <v>#define  VAR_BATPACK1_CURRENT_A10  54</v>
-      </c>
-      <c r="I56" t="str">
-        <f t="shared" si="2"/>
-        <v>public const byte VAR_BATPACK1_CURRENT_A10 = 54;</v>
-      </c>
-      <c r="L56" t="str">
-        <f t="shared" si="5"/>
-        <v>UpdateScanList(VAR_BATPACK1_CURRENT_A10, 5000);</v>
-      </c>
-      <c r="O56" t="str">
-        <f t="shared" si="4"/>
-        <v>cJSON_AddItemToObject(Uha, "VAR_BATPACK1_CURRENT_A10", cJSON_CreateNumber(mVars[VAR_BATPACK1_CURRENT_A10]));</v>
       </c>
     </row>
     <row r="57" spans="2:16">
@@ -15999,24 +16007,8 @@
         <f t="shared" si="0"/>
         <v>0037</v>
       </c>
-      <c r="E57" s="25" t="s">
+      <c r="E57" s="50" t="s">
         <v>402</v>
-      </c>
-      <c r="H57" t="str">
-        <f t="shared" si="1"/>
-        <v>#define  VAR_BATPACK1_ENERGY_WH  55</v>
-      </c>
-      <c r="I57" t="str">
-        <f t="shared" si="2"/>
-        <v>public const byte VAR_BATPACK1_ENERGY_WH = 55;</v>
-      </c>
-      <c r="L57" t="str">
-        <f t="shared" si="5"/>
-        <v>UpdateScanList(VAR_BATPACK1_ENERGY_WH, 5000);</v>
-      </c>
-      <c r="O57" t="str">
-        <f t="shared" si="4"/>
-        <v>cJSON_AddItemToObject(Uha, "VAR_BATPACK1_ENERGY_WH", cJSON_CreateNumber(mVars[VAR_BATPACK1_ENERGY_WH]));</v>
       </c>
     </row>
     <row r="58" spans="2:16">
@@ -16028,24 +16020,8 @@
         <f t="shared" si="0"/>
         <v>0038</v>
       </c>
-      <c r="E58" s="25" t="s">
+      <c r="E58" s="50" t="s">
         <v>410</v>
-      </c>
-      <c r="H58" t="str">
-        <f t="shared" si="1"/>
-        <v>#define  VAR_BATPACK2_POWER_W  56</v>
-      </c>
-      <c r="I58" t="str">
-        <f t="shared" si="2"/>
-        <v>public const byte VAR_BATPACK2_POWER_W = 56;</v>
-      </c>
-      <c r="L58" t="str">
-        <f t="shared" si="5"/>
-        <v>UpdateScanList(VAR_BATPACK2_POWER_W, 5000);</v>
-      </c>
-      <c r="O58" t="str">
-        <f t="shared" si="4"/>
-        <v>cJSON_AddItemToObject(Uha, "VAR_BATPACK2_POWER_W", cJSON_CreateNumber(mVars[VAR_BATPACK2_POWER_W]));</v>
       </c>
     </row>
     <row r="59" spans="2:16">
@@ -16057,24 +16033,8 @@
         <f t="shared" si="0"/>
         <v>0039</v>
       </c>
-      <c r="E59" s="25" t="s">
+      <c r="E59" s="50" t="s">
         <v>403</v>
-      </c>
-      <c r="H59" t="str">
-        <f t="shared" si="1"/>
-        <v>#define  VAR_BATPACK2_SOC  57</v>
-      </c>
-      <c r="I59" t="str">
-        <f t="shared" si="2"/>
-        <v>public const byte VAR_BATPACK2_SOC = 57;</v>
-      </c>
-      <c r="L59" t="str">
-        <f t="shared" si="5"/>
-        <v>UpdateScanList(VAR_BATPACK2_SOC, 5000);</v>
-      </c>
-      <c r="O59" t="str">
-        <f t="shared" si="4"/>
-        <v>cJSON_AddItemToObject(Uha, "VAR_BATPACK2_SOC", cJSON_CreateNumber(mVars[VAR_BATPACK2_SOC]));</v>
       </c>
     </row>
     <row r="60" spans="2:16">
@@ -16086,24 +16046,8 @@
         <f t="shared" si="0"/>
         <v>003A</v>
       </c>
-      <c r="E60" s="25" t="s">
+      <c r="E60" s="50" t="s">
         <v>404</v>
-      </c>
-      <c r="H60" t="str">
-        <f t="shared" si="1"/>
-        <v>#define  VAR_BATPACK2_CURRENT_A10  58</v>
-      </c>
-      <c r="I60" t="str">
-        <f t="shared" si="2"/>
-        <v>public const byte VAR_BATPACK2_CURRENT_A10 = 58;</v>
-      </c>
-      <c r="L60" t="str">
-        <f t="shared" si="5"/>
-        <v>UpdateScanList(VAR_BATPACK2_CURRENT_A10, 5000);</v>
-      </c>
-      <c r="O60" t="str">
-        <f t="shared" si="4"/>
-        <v>cJSON_AddItemToObject(Uha, "VAR_BATPACK2_CURRENT_A10", cJSON_CreateNumber(mVars[VAR_BATPACK2_CURRENT_A10]));</v>
       </c>
     </row>
     <row r="61" spans="2:16">
@@ -16115,24 +16059,8 @@
         <f t="shared" si="0"/>
         <v>003B</v>
       </c>
-      <c r="E61" s="25" t="s">
+      <c r="E61" s="50" t="s">
         <v>405</v>
-      </c>
-      <c r="H61" t="str">
-        <f t="shared" si="1"/>
-        <v>#define  VAR_BATPACK2_ENERGY_WH  59</v>
-      </c>
-      <c r="I61" t="str">
-        <f t="shared" si="2"/>
-        <v>public const byte VAR_BATPACK2_ENERGY_WH = 59;</v>
-      </c>
-      <c r="L61" t="str">
-        <f t="shared" si="5"/>
-        <v>UpdateScanList(VAR_BATPACK2_ENERGY_WH, 5000);</v>
-      </c>
-      <c r="O61" t="str">
-        <f t="shared" si="4"/>
-        <v>cJSON_AddItemToObject(Uha, "VAR_BATPACK2_ENERGY_WH", cJSON_CreateNumber(mVars[VAR_BATPACK2_ENERGY_WH]));</v>
       </c>
     </row>
     <row r="62" spans="2:16">
@@ -22652,7 +22580,7 @@
         <v>UpdateScanList(VAR_BMS2_CELL2_C, 5000);</v>
       </c>
       <c r="M239" t="str">
-        <f t="shared" ref="M239:M302" si="35">CONCATENATE("VAR_SetVariable(",E239,", Cells[",J239,"].Temp_C", ", validflag);")</f>
+        <f t="shared" ref="M239:M297" si="35">CONCATENATE("VAR_SetVariable(",E239,", Cells[",J239,"].Temp_C", ", validflag);")</f>
         <v>VAR_SetVariable(VAR_BMS2_CELL2_C, Cells[1].Temp_C, validflag);</v>
       </c>
       <c r="O239" t="str">
@@ -23699,11 +23627,11 @@
         <v>0109</v>
       </c>
       <c r="H267" t="str">
-        <f t="shared" ref="H267:H315" si="37">CONCATENATE("#define  ",E267,"  ",C267)</f>
+        <f t="shared" ref="H267:H297" si="37">CONCATENATE("#define  ",E267,"  ",C267)</f>
         <v>#define    265</v>
       </c>
       <c r="I267" t="str">
-        <f t="shared" ref="I267:I308" si="38">CONCATENATE("public const byte ",E267," = ",C267,";")</f>
+        <f t="shared" ref="I267:I297" si="38">CONCATENATE("public const byte ",E267," = ",C267,";")</f>
         <v>public const byte  = 265;</v>
       </c>
       <c r="J267">
@@ -23718,11 +23646,11 @@
         <v>VAR_SetVariable(, Cells[29].Temp_C, validflag);</v>
       </c>
       <c r="O267" t="str">
-        <f t="shared" ref="O267:O309" si="39">IF(ISBLANK(E267),"",CONCATENATE("cJSON_AddItemToObject(Uha, ","""",E267,"""",", cJSON_CreateNumber(mVars[",E267,"]));"))</f>
+        <f t="shared" ref="O267:O297" si="39">IF(ISBLANK(E267),"",CONCATENATE("cJSON_AddItemToObject(Uha, ","""",E267,"""",", cJSON_CreateNumber(mVars[",E267,"]));"))</f>
         <v/>
       </c>
       <c r="P267" t="str">
-        <f t="shared" ref="P267:P308" si="40">CONCATENATE("cJSON_AddItemToObject(Uha, ","""",E267,"""",", cJSON_CreateNumber(mVars[",C267,"]));")</f>
+        <f t="shared" ref="P267:P297" si="40">CONCATENATE("cJSON_AddItemToObject(Uha, ","""",E267,"""",", cJSON_CreateNumber(mVars[",C267,"]));")</f>
         <v>cJSON_AddItemToObject(Uha, "", cJSON_CreateNumber(mVars[265]));</v>
       </c>
     </row>
@@ -23782,7 +23710,7 @@
         <v>31</v>
       </c>
       <c r="L269" t="str">
-        <f t="shared" ref="L269:L308" si="41">CONCATENATE("UpdateScanList(",E269, ", 5000);")</f>
+        <f t="shared" ref="L269:L297" si="41">CONCATENATE("UpdateScanList(",E269, ", 5000);")</f>
         <v>UpdateScanList(, 5000);</v>
       </c>
       <c r="M269" t="str">
@@ -24910,34 +24838,34 @@
         <f t="shared" si="36"/>
         <v>012C</v>
       </c>
-      <c r="E302" t="s">
+      <c r="E302" s="25" t="s">
         <v>440</v>
       </c>
       <c r="H302" t="str">
-        <f t="shared" ref="H298:H338" si="42">CONCATENATE("#define  ",E302,"  ",C302)</f>
+        <f>CONCATENATE("#define  ",E302,"  ",C302)</f>
         <v>#define  VAR_STRG1_SOC  300</v>
       </c>
       <c r="I302" t="str">
-        <f t="shared" ref="I298:I338" si="43">CONCATENATE("public const byte ",E302," = ",C302,";")</f>
+        <f t="shared" ref="I302:I338" si="42">CONCATENATE("public const byte ",E302," = ",C302,";")</f>
         <v>public const byte VAR_STRG1_SOC = 300;</v>
       </c>
       <c r="J302">
         <v>64</v>
       </c>
       <c r="L302" t="str">
-        <f t="shared" ref="L298:L338" si="44">CONCATENATE("UpdateScanList(",E302, ", 5000);")</f>
+        <f t="shared" ref="L302:L338" si="43">CONCATENATE("UpdateScanList(",E302, ", 5000);")</f>
         <v>UpdateScanList(VAR_STRG1_SOC, 5000);</v>
       </c>
       <c r="M302" t="str">
-        <f t="shared" ref="M298:M338" si="45">CONCATENATE("VAR_SetVariable(",E302,", Cells[",J302,"].Temp_C", ", validflag);")</f>
+        <f t="shared" ref="M302:M338" si="44">CONCATENATE("VAR_SetVariable(",E302,", Cells[",J302,"].Temp_C", ", validflag);")</f>
         <v>VAR_SetVariable(VAR_STRG1_SOC, Cells[64].Temp_C, validflag);</v>
       </c>
       <c r="O302" t="str">
-        <f t="shared" ref="O298:O338" si="46">IF(ISBLANK(E302),"",CONCATENATE("cJSON_AddItemToObject(Uha, ","""",E302,"""",", cJSON_CreateNumber(mVars[",E302,"]));"))</f>
+        <f t="shared" ref="O302:O338" si="45">IF(ISBLANK(E302),"",CONCATENATE("cJSON_AddItemToObject(Uha, ","""",E302,"""",", cJSON_CreateNumber(mVars[",E302,"]));"))</f>
         <v>cJSON_AddItemToObject(Uha, "VAR_STRG1_SOC", cJSON_CreateNumber(mVars[VAR_STRG1_SOC]));</v>
       </c>
       <c r="P302" t="str">
-        <f t="shared" ref="P298:P338" si="47">CONCATENATE("cJSON_AddItemToObject(Uha, ","""",E302,"""",", cJSON_CreateNumber(mVars[",C302,"]));")</f>
+        <f t="shared" ref="P302:P338" si="46">CONCATENATE("cJSON_AddItemToObject(Uha, ","""",E302,"""",", cJSON_CreateNumber(mVars[",C302,"]));")</f>
         <v>cJSON_AddItemToObject(Uha, "VAR_STRG1_SOC", cJSON_CreateNumber(mVars[300]));</v>
       </c>
     </row>
@@ -24949,34 +24877,34 @@
         <f t="shared" si="36"/>
         <v>012D</v>
       </c>
-      <c r="E303" t="s">
+      <c r="E303" s="25" t="s">
         <v>441</v>
       </c>
       <c r="H303" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" ref="H303:H339" si="47">CONCATENATE("#define  ",E303,"  ",C303)</f>
         <v>#define  VAR_STRG1_POWER_W  301</v>
       </c>
       <c r="I303" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" ref="I303:I339" si="48">CONCATENATE("public const byte ",E303," = ",C303,";")</f>
         <v>public const byte VAR_STRG1_POWER_W = 301;</v>
       </c>
       <c r="J303">
         <v>65</v>
       </c>
       <c r="L303" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" ref="L303:L339" si="49">CONCATENATE("UpdateScanList(",E303, ", 5000);")</f>
         <v>UpdateScanList(VAR_STRG1_POWER_W, 5000);</v>
       </c>
       <c r="M303" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" ref="M303:M339" si="50">CONCATENATE("VAR_SetVariable(",E303,", Cells[",J303,"].Temp_C", ", validflag);")</f>
         <v>VAR_SetVariable(VAR_STRG1_POWER_W, Cells[65].Temp_C, validflag);</v>
       </c>
       <c r="O303" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" ref="O303:O339" si="51">IF(ISBLANK(E303),"",CONCATENATE("cJSON_AddItemToObject(Uha, ","""",E303,"""",", cJSON_CreateNumber(mVars[",E303,"]));"))</f>
         <v>cJSON_AddItemToObject(Uha, "VAR_STRG1_POWER_W", cJSON_CreateNumber(mVars[VAR_STRG1_POWER_W]));</v>
       </c>
       <c r="P303" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" ref="P303:P339" si="52">CONCATENATE("cJSON_AddItemToObject(Uha, ","""",E303,"""",", cJSON_CreateNumber(mVars[",C303,"]));")</f>
         <v>cJSON_AddItemToObject(Uha, "VAR_STRG1_POWER_W", cJSON_CreateNumber(mVars[301]));</v>
       </c>
     </row>
@@ -24988,34 +24916,34 @@
         <f t="shared" si="36"/>
         <v>012E</v>
       </c>
-      <c r="E304" t="s">
+      <c r="E304" s="25" t="s">
         <v>442</v>
       </c>
       <c r="H304" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="47"/>
         <v>#define  VAR_STRG1_CURRENT_A10  302</v>
       </c>
       <c r="I304" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="48"/>
         <v>public const byte VAR_STRG1_CURRENT_A10 = 302;</v>
       </c>
       <c r="J304">
         <v>66</v>
       </c>
       <c r="L304" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="49"/>
         <v>UpdateScanList(VAR_STRG1_CURRENT_A10, 5000);</v>
       </c>
       <c r="M304" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v>VAR_SetVariable(VAR_STRG1_CURRENT_A10, Cells[66].Temp_C, validflag);</v>
       </c>
       <c r="O304" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_STRG1_CURRENT_A10", cJSON_CreateNumber(mVars[VAR_STRG1_CURRENT_A10]));</v>
       </c>
       <c r="P304" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_STRG1_CURRENT_A10", cJSON_CreateNumber(mVars[302]));</v>
       </c>
     </row>
@@ -25027,34 +24955,34 @@
         <f t="shared" si="36"/>
         <v>012F</v>
       </c>
-      <c r="E305" t="s">
+      <c r="E305" s="25" t="s">
         <v>443</v>
       </c>
       <c r="H305" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="47"/>
         <v>#define  VAR_STRG1_ENERGY_WH  303</v>
       </c>
       <c r="I305" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="48"/>
         <v>public const byte VAR_STRG1_ENERGY_WH = 303;</v>
       </c>
       <c r="J305">
         <v>67</v>
       </c>
       <c r="L305" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="49"/>
         <v>UpdateScanList(VAR_STRG1_ENERGY_WH, 5000);</v>
       </c>
       <c r="M305" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v>VAR_SetVariable(VAR_STRG1_ENERGY_WH, Cells[67].Temp_C, validflag);</v>
       </c>
       <c r="O305" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_STRG1_ENERGY_WH", cJSON_CreateNumber(mVars[VAR_STRG1_ENERGY_WH]));</v>
       </c>
       <c r="P305" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_STRG1_ENERGY_WH", cJSON_CreateNumber(mVars[303]));</v>
       </c>
     </row>
@@ -25066,34 +24994,34 @@
         <f t="shared" si="36"/>
         <v>0130</v>
       </c>
-      <c r="E306" t="s">
+      <c r="E306" s="25" t="s">
         <v>444</v>
       </c>
       <c r="H306" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="47"/>
         <v>#define  VAR_STRG1_OPT_CHARGING_A  304</v>
       </c>
       <c r="I306" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="48"/>
         <v>public const byte VAR_STRG1_OPT_CHARGING_A = 304;</v>
       </c>
       <c r="J306">
         <v>68</v>
       </c>
       <c r="L306" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="49"/>
         <v>UpdateScanList(VAR_STRG1_OPT_CHARGING_A, 5000);</v>
       </c>
       <c r="M306" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v>VAR_SetVariable(VAR_STRG1_OPT_CHARGING_A, Cells[68].Temp_C, validflag);</v>
       </c>
       <c r="O306" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_STRG1_OPT_CHARGING_A", cJSON_CreateNumber(mVars[VAR_STRG1_OPT_CHARGING_A]));</v>
       </c>
       <c r="P306" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_STRG1_OPT_CHARGING_A", cJSON_CreateNumber(mVars[304]));</v>
       </c>
     </row>
@@ -25105,34 +25033,34 @@
         <f t="shared" si="36"/>
         <v>0131</v>
       </c>
-      <c r="E307" t="s">
-        <v>470</v>
+      <c r="E307" s="25" t="s">
+        <v>469</v>
       </c>
       <c r="H307" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="47"/>
         <v>#define  VAR_STRG1_CAPACITY_AH  305</v>
       </c>
       <c r="I307" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="48"/>
         <v>public const byte VAR_STRG1_CAPACITY_AH = 305;</v>
       </c>
       <c r="J307">
         <v>69</v>
       </c>
       <c r="L307" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="49"/>
         <v>UpdateScanList(VAR_STRG1_CAPACITY_AH, 5000);</v>
       </c>
       <c r="M307" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v>VAR_SetVariable(VAR_STRG1_CAPACITY_AH, Cells[69].Temp_C, validflag);</v>
       </c>
       <c r="O307" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_STRG1_CAPACITY_AH", cJSON_CreateNumber(mVars[VAR_STRG1_CAPACITY_AH]));</v>
       </c>
       <c r="P307" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_STRG1_CAPACITY_AH", cJSON_CreateNumber(mVars[305]));</v>
       </c>
     </row>
@@ -25144,34 +25072,34 @@
         <f t="shared" si="36"/>
         <v>0132</v>
       </c>
-      <c r="E308" t="s">
-        <v>472</v>
+      <c r="E308" s="25" t="s">
+        <v>471</v>
       </c>
       <c r="H308" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="47"/>
         <v>#define  VAR_STRG1_BALANCED_TODAY  306</v>
       </c>
       <c r="I308" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="48"/>
         <v>public const byte VAR_STRG1_BALANCED_TODAY = 306;</v>
       </c>
       <c r="J308">
         <v>70</v>
       </c>
       <c r="L308" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="49"/>
         <v>UpdateScanList(VAR_STRG1_BALANCED_TODAY, 5000);</v>
       </c>
       <c r="M308" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v>VAR_SetVariable(VAR_STRG1_BALANCED_TODAY, Cells[70].Temp_C, validflag);</v>
       </c>
       <c r="O308" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_STRG1_BALANCED_TODAY", cJSON_CreateNumber(mVars[VAR_STRG1_BALANCED_TODAY]));</v>
       </c>
       <c r="P308" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_STRG1_BALANCED_TODAY", cJSON_CreateNumber(mVars[306]));</v>
       </c>
     </row>
@@ -25184,34 +25112,34 @@
         <v>0133</v>
       </c>
       <c r="E309" t="s">
-        <v>445</v>
+        <v>473</v>
       </c>
       <c r="H309" t="str">
-        <f t="shared" si="42"/>
-        <v>#define  VAR_LLOAD1_POWER_W  307</v>
+        <f t="shared" si="47"/>
+        <v>#define  VAR_STRG1_VOLTAGE_V10  307</v>
       </c>
       <c r="I309" t="str">
-        <f t="shared" si="43"/>
-        <v>public const byte VAR_LLOAD1_POWER_W = 307;</v>
+        <f t="shared" si="48"/>
+        <v>public const byte VAR_STRG1_VOLTAGE_V10 = 307;</v>
       </c>
       <c r="J309">
         <v>71</v>
       </c>
       <c r="L309" t="str">
-        <f t="shared" si="44"/>
-        <v>UpdateScanList(VAR_LLOAD1_POWER_W, 5000);</v>
+        <f t="shared" si="49"/>
+        <v>UpdateScanList(VAR_STRG1_VOLTAGE_V10, 5000);</v>
       </c>
       <c r="M309" t="str">
-        <f t="shared" si="45"/>
-        <v>VAR_SetVariable(VAR_LLOAD1_POWER_W, Cells[71].Temp_C, validflag);</v>
+        <f t="shared" si="50"/>
+        <v>VAR_SetVariable(VAR_STRG1_VOLTAGE_V10, Cells[71].Temp_C, validflag);</v>
       </c>
       <c r="O309" t="str">
-        <f t="shared" si="46"/>
-        <v>cJSON_AddItemToObject(Uha, "VAR_LLOAD1_POWER_W", cJSON_CreateNumber(mVars[VAR_LLOAD1_POWER_W]));</v>
+        <f t="shared" si="51"/>
+        <v>cJSON_AddItemToObject(Uha, "VAR_STRG1_VOLTAGE_V10", cJSON_CreateNumber(mVars[VAR_STRG1_VOLTAGE_V10]));</v>
       </c>
       <c r="P309" t="str">
-        <f t="shared" si="47"/>
-        <v>cJSON_AddItemToObject(Uha, "VAR_LLOAD1_POWER_W", cJSON_CreateNumber(mVars[307]));</v>
+        <f t="shared" si="52"/>
+        <v>cJSON_AddItemToObject(Uha, "VAR_STRG1_VOLTAGE_V10", cJSON_CreateNumber(mVars[307]));</v>
       </c>
     </row>
     <row r="310" spans="3:16">
@@ -25222,35 +25150,35 @@
         <f t="shared" si="36"/>
         <v>0134</v>
       </c>
-      <c r="E310" t="s">
-        <v>446</v>
+      <c r="E310" s="25" t="s">
+        <v>445</v>
       </c>
       <c r="H310" t="str">
-        <f t="shared" si="42"/>
-        <v>#define  VAR_LLOAD1_CONS_WH  308</v>
+        <f t="shared" si="47"/>
+        <v>#define  VAR_LLOAD1_POWER_W  308</v>
       </c>
       <c r="I310" t="str">
-        <f t="shared" si="43"/>
-        <v>public const byte VAR_LLOAD1_CONS_WH = 308;</v>
+        <f t="shared" si="48"/>
+        <v>public const byte VAR_LLOAD1_POWER_W = 308;</v>
       </c>
       <c r="J310">
         <v>72</v>
       </c>
       <c r="L310" t="str">
-        <f t="shared" si="44"/>
-        <v>UpdateScanList(VAR_LLOAD1_CONS_WH, 5000);</v>
+        <f t="shared" si="49"/>
+        <v>UpdateScanList(VAR_LLOAD1_POWER_W, 5000);</v>
       </c>
       <c r="M310" t="str">
-        <f t="shared" si="45"/>
-        <v>VAR_SetVariable(VAR_LLOAD1_CONS_WH, Cells[72].Temp_C, validflag);</v>
+        <f t="shared" si="50"/>
+        <v>VAR_SetVariable(VAR_LLOAD1_POWER_W, Cells[72].Temp_C, validflag);</v>
       </c>
       <c r="O310" t="str">
-        <f t="shared" si="46"/>
-        <v>cJSON_AddItemToObject(Uha, "VAR_LLOAD1_CONS_WH", cJSON_CreateNumber(mVars[VAR_LLOAD1_CONS_WH]));</v>
+        <f t="shared" si="51"/>
+        <v>cJSON_AddItemToObject(Uha, "VAR_LLOAD1_POWER_W", cJSON_CreateNumber(mVars[VAR_LLOAD1_POWER_W]));</v>
       </c>
       <c r="P310" t="str">
-        <f t="shared" si="47"/>
-        <v>cJSON_AddItemToObject(Uha, "VAR_LLOAD1_CONS_WH", cJSON_CreateNumber(mVars[308]));</v>
+        <f t="shared" si="52"/>
+        <v>cJSON_AddItemToObject(Uha, "VAR_LLOAD1_POWER_W", cJSON_CreateNumber(mVars[308]));</v>
       </c>
     </row>
     <row r="311" spans="3:16">
@@ -25261,35 +25189,35 @@
         <f t="shared" si="36"/>
         <v>0135</v>
       </c>
-      <c r="E311" t="s">
-        <v>447</v>
+      <c r="E311" s="25" t="s">
+        <v>446</v>
       </c>
       <c r="H311" t="str">
-        <f t="shared" si="42"/>
-        <v>#define  VAR_LPV1_POWER_W  309</v>
+        <f t="shared" si="47"/>
+        <v>#define  VAR_LLOAD1_CONS_WH  309</v>
       </c>
       <c r="I311" t="str">
-        <f t="shared" si="43"/>
-        <v>public const byte VAR_LPV1_POWER_W = 309;</v>
+        <f t="shared" si="48"/>
+        <v>public const byte VAR_LLOAD1_CONS_WH = 309;</v>
       </c>
       <c r="J311">
         <v>73</v>
       </c>
       <c r="L311" t="str">
-        <f t="shared" si="44"/>
-        <v>UpdateScanList(VAR_LPV1_POWER_W, 5000);</v>
+        <f t="shared" si="49"/>
+        <v>UpdateScanList(VAR_LLOAD1_CONS_WH, 5000);</v>
       </c>
       <c r="M311" t="str">
-        <f t="shared" si="45"/>
-        <v>VAR_SetVariable(VAR_LPV1_POWER_W, Cells[73].Temp_C, validflag);</v>
+        <f t="shared" si="50"/>
+        <v>VAR_SetVariable(VAR_LLOAD1_CONS_WH, Cells[73].Temp_C, validflag);</v>
       </c>
       <c r="O311" t="str">
-        <f t="shared" si="46"/>
-        <v>cJSON_AddItemToObject(Uha, "VAR_LPV1_POWER_W", cJSON_CreateNumber(mVars[VAR_LPV1_POWER_W]));</v>
+        <f t="shared" si="51"/>
+        <v>cJSON_AddItemToObject(Uha, "VAR_LLOAD1_CONS_WH", cJSON_CreateNumber(mVars[VAR_LLOAD1_CONS_WH]));</v>
       </c>
       <c r="P311" t="str">
-        <f t="shared" si="47"/>
-        <v>cJSON_AddItemToObject(Uha, "VAR_LPV1_POWER_W", cJSON_CreateNumber(mVars[309]));</v>
+        <f t="shared" si="52"/>
+        <v>cJSON_AddItemToObject(Uha, "VAR_LLOAD1_CONS_WH", cJSON_CreateNumber(mVars[309]));</v>
       </c>
     </row>
     <row r="312" spans="3:16">
@@ -25300,35 +25228,35 @@
         <f t="shared" si="36"/>
         <v>0136</v>
       </c>
-      <c r="E312" t="s">
-        <v>448</v>
+      <c r="E312" s="25" t="s">
+        <v>447</v>
       </c>
       <c r="H312" t="str">
-        <f t="shared" si="42"/>
-        <v>#define  VAR_LPV1_PROD_WH  310</v>
+        <f t="shared" si="47"/>
+        <v>#define  VAR_LPV1_POWER_W  310</v>
       </c>
       <c r="I312" t="str">
-        <f t="shared" si="43"/>
-        <v>public const byte VAR_LPV1_PROD_WH = 310;</v>
+        <f t="shared" si="48"/>
+        <v>public const byte VAR_LPV1_POWER_W = 310;</v>
       </c>
       <c r="J312">
         <v>74</v>
       </c>
       <c r="L312" t="str">
-        <f t="shared" si="44"/>
-        <v>UpdateScanList(VAR_LPV1_PROD_WH, 5000);</v>
+        <f t="shared" si="49"/>
+        <v>UpdateScanList(VAR_LPV1_POWER_W, 5000);</v>
       </c>
       <c r="M312" t="str">
-        <f t="shared" si="45"/>
-        <v>VAR_SetVariable(VAR_LPV1_PROD_WH, Cells[74].Temp_C, validflag);</v>
+        <f t="shared" si="50"/>
+        <v>VAR_SetVariable(VAR_LPV1_POWER_W, Cells[74].Temp_C, validflag);</v>
       </c>
       <c r="O312" t="str">
-        <f t="shared" si="46"/>
-        <v>cJSON_AddItemToObject(Uha, "VAR_LPV1_PROD_WH", cJSON_CreateNumber(mVars[VAR_LPV1_PROD_WH]));</v>
+        <f t="shared" si="51"/>
+        <v>cJSON_AddItemToObject(Uha, "VAR_LPV1_POWER_W", cJSON_CreateNumber(mVars[VAR_LPV1_POWER_W]));</v>
       </c>
       <c r="P312" t="str">
-        <f t="shared" si="47"/>
-        <v>cJSON_AddItemToObject(Uha, "VAR_LPV1_PROD_WH", cJSON_CreateNumber(mVars[310]));</v>
+        <f t="shared" si="52"/>
+        <v>cJSON_AddItemToObject(Uha, "VAR_LPV1_POWER_W", cJSON_CreateNumber(mVars[310]));</v>
       </c>
     </row>
     <row r="313" spans="3:16">
@@ -25339,35 +25267,35 @@
         <f t="shared" si="36"/>
         <v>0137</v>
       </c>
-      <c r="E313" t="s">
-        <v>451</v>
+      <c r="E313" s="25" t="s">
+        <v>448</v>
       </c>
       <c r="H313" t="str">
-        <f t="shared" si="42"/>
-        <v>#define  VAR_LPV1_S1_POWER_W  311</v>
+        <f t="shared" si="47"/>
+        <v>#define  VAR_LPV1_PROD_WH  311</v>
       </c>
       <c r="I313" t="str">
-        <f t="shared" si="43"/>
-        <v>public const byte VAR_LPV1_S1_POWER_W = 311;</v>
+        <f t="shared" si="48"/>
+        <v>public const byte VAR_LPV1_PROD_WH = 311;</v>
       </c>
       <c r="J313">
         <v>75</v>
       </c>
       <c r="L313" t="str">
-        <f t="shared" si="44"/>
-        <v>UpdateScanList(VAR_LPV1_S1_POWER_W, 5000);</v>
+        <f t="shared" si="49"/>
+        <v>UpdateScanList(VAR_LPV1_PROD_WH, 5000);</v>
       </c>
       <c r="M313" t="str">
-        <f t="shared" si="45"/>
-        <v>VAR_SetVariable(VAR_LPV1_S1_POWER_W, Cells[75].Temp_C, validflag);</v>
+        <f t="shared" si="50"/>
+        <v>VAR_SetVariable(VAR_LPV1_PROD_WH, Cells[75].Temp_C, validflag);</v>
       </c>
       <c r="O313" t="str">
-        <f t="shared" si="46"/>
-        <v>cJSON_AddItemToObject(Uha, "VAR_LPV1_S1_POWER_W", cJSON_CreateNumber(mVars[VAR_LPV1_S1_POWER_W]));</v>
+        <f t="shared" si="51"/>
+        <v>cJSON_AddItemToObject(Uha, "VAR_LPV1_PROD_WH", cJSON_CreateNumber(mVars[VAR_LPV1_PROD_WH]));</v>
       </c>
       <c r="P313" t="str">
-        <f t="shared" si="47"/>
-        <v>cJSON_AddItemToObject(Uha, "VAR_LPV1_S1_POWER_W", cJSON_CreateNumber(mVars[311]));</v>
+        <f t="shared" si="52"/>
+        <v>cJSON_AddItemToObject(Uha, "VAR_LPV1_PROD_WH", cJSON_CreateNumber(mVars[311]));</v>
       </c>
     </row>
     <row r="314" spans="3:16">
@@ -25378,35 +25306,35 @@
         <f t="shared" si="36"/>
         <v>0138</v>
       </c>
-      <c r="E314" t="s">
-        <v>450</v>
+      <c r="E314" s="25" t="s">
+        <v>451</v>
       </c>
       <c r="H314" t="str">
-        <f t="shared" si="42"/>
-        <v>#define  VAR_LPV1_S1_CURRENT_A10  312</v>
+        <f t="shared" si="47"/>
+        <v>#define  VAR_LPV1_S1_POWER_W  312</v>
       </c>
       <c r="I314" t="str">
-        <f t="shared" si="43"/>
-        <v>public const byte VAR_LPV1_S1_CURRENT_A10 = 312;</v>
+        <f t="shared" si="48"/>
+        <v>public const byte VAR_LPV1_S1_POWER_W = 312;</v>
       </c>
       <c r="J314">
         <v>76</v>
       </c>
       <c r="L314" t="str">
-        <f t="shared" si="44"/>
-        <v>UpdateScanList(VAR_LPV1_S1_CURRENT_A10, 5000);</v>
+        <f t="shared" si="49"/>
+        <v>UpdateScanList(VAR_LPV1_S1_POWER_W, 5000);</v>
       </c>
       <c r="M314" t="str">
-        <f t="shared" si="45"/>
-        <v>VAR_SetVariable(VAR_LPV1_S1_CURRENT_A10, Cells[76].Temp_C, validflag);</v>
+        <f t="shared" si="50"/>
+        <v>VAR_SetVariable(VAR_LPV1_S1_POWER_W, Cells[76].Temp_C, validflag);</v>
       </c>
       <c r="O314" t="str">
-        <f t="shared" si="46"/>
-        <v>cJSON_AddItemToObject(Uha, "VAR_LPV1_S1_CURRENT_A10", cJSON_CreateNumber(mVars[VAR_LPV1_S1_CURRENT_A10]));</v>
+        <f t="shared" si="51"/>
+        <v>cJSON_AddItemToObject(Uha, "VAR_LPV1_S1_POWER_W", cJSON_CreateNumber(mVars[VAR_LPV1_S1_POWER_W]));</v>
       </c>
       <c r="P314" t="str">
-        <f t="shared" si="47"/>
-        <v>cJSON_AddItemToObject(Uha, "VAR_LPV1_S1_CURRENT_A10", cJSON_CreateNumber(mVars[312]));</v>
+        <f t="shared" si="52"/>
+        <v>cJSON_AddItemToObject(Uha, "VAR_LPV1_S1_POWER_W", cJSON_CreateNumber(mVars[312]));</v>
       </c>
     </row>
     <row r="315" spans="3:16">
@@ -25417,35 +25345,35 @@
         <f t="shared" si="36"/>
         <v>0139</v>
       </c>
-      <c r="E315" t="s">
-        <v>449</v>
+      <c r="E315" s="25" t="s">
+        <v>450</v>
       </c>
       <c r="H315" t="str">
-        <f t="shared" si="42"/>
-        <v>#define  VAR_LPV1_S1_VOLTAGE_V  313</v>
+        <f t="shared" si="47"/>
+        <v>#define  VAR_LPV1_S1_CURRENT_A10  313</v>
       </c>
       <c r="I315" t="str">
-        <f t="shared" si="43"/>
-        <v>public const byte VAR_LPV1_S1_VOLTAGE_V = 313;</v>
+        <f t="shared" si="48"/>
+        <v>public const byte VAR_LPV1_S1_CURRENT_A10 = 313;</v>
       </c>
       <c r="J315">
         <v>77</v>
       </c>
       <c r="L315" t="str">
-        <f t="shared" si="44"/>
-        <v>UpdateScanList(VAR_LPV1_S1_VOLTAGE_V, 5000);</v>
+        <f t="shared" si="49"/>
+        <v>UpdateScanList(VAR_LPV1_S1_CURRENT_A10, 5000);</v>
       </c>
       <c r="M315" t="str">
-        <f t="shared" si="45"/>
-        <v>VAR_SetVariable(VAR_LPV1_S1_VOLTAGE_V, Cells[77].Temp_C, validflag);</v>
+        <f t="shared" si="50"/>
+        <v>VAR_SetVariable(VAR_LPV1_S1_CURRENT_A10, Cells[77].Temp_C, validflag);</v>
       </c>
       <c r="O315" t="str">
-        <f t="shared" si="46"/>
-        <v>cJSON_AddItemToObject(Uha, "VAR_LPV1_S1_VOLTAGE_V", cJSON_CreateNumber(mVars[VAR_LPV1_S1_VOLTAGE_V]));</v>
+        <f t="shared" si="51"/>
+        <v>cJSON_AddItemToObject(Uha, "VAR_LPV1_S1_CURRENT_A10", cJSON_CreateNumber(mVars[VAR_LPV1_S1_CURRENT_A10]));</v>
       </c>
       <c r="P315" t="str">
-        <f t="shared" si="47"/>
-        <v>cJSON_AddItemToObject(Uha, "VAR_LPV1_S1_VOLTAGE_V", cJSON_CreateNumber(mVars[313]));</v>
+        <f t="shared" si="52"/>
+        <v>cJSON_AddItemToObject(Uha, "VAR_LPV1_S1_CURRENT_A10", cJSON_CreateNumber(mVars[313]));</v>
       </c>
     </row>
     <row r="316" spans="3:16">
@@ -25456,8 +25384,35 @@
         <f t="shared" si="36"/>
         <v>013A</v>
       </c>
-      <c r="E316" s="36" t="s">
-        <v>452</v>
+      <c r="E316" s="25" t="s">
+        <v>449</v>
+      </c>
+      <c r="H316" t="str">
+        <f t="shared" si="47"/>
+        <v>#define  VAR_LPV1_S1_VOLTAGE_V  314</v>
+      </c>
+      <c r="I316" t="str">
+        <f t="shared" si="48"/>
+        <v>public const byte VAR_LPV1_S1_VOLTAGE_V = 314;</v>
+      </c>
+      <c r="J316">
+        <v>78</v>
+      </c>
+      <c r="L316" t="str">
+        <f t="shared" si="49"/>
+        <v>UpdateScanList(VAR_LPV1_S1_VOLTAGE_V, 5000);</v>
+      </c>
+      <c r="M316" t="str">
+        <f t="shared" si="50"/>
+        <v>VAR_SetVariable(VAR_LPV1_S1_VOLTAGE_V, Cells[78].Temp_C, validflag);</v>
+      </c>
+      <c r="O316" t="str">
+        <f t="shared" si="51"/>
+        <v>cJSON_AddItemToObject(Uha, "VAR_LPV1_S1_VOLTAGE_V", cJSON_CreateNumber(mVars[VAR_LPV1_S1_VOLTAGE_V]));</v>
+      </c>
+      <c r="P316" t="str">
+        <f t="shared" si="52"/>
+        <v>cJSON_AddItemToObject(Uha, "VAR_LPV1_S1_VOLTAGE_V", cJSON_CreateNumber(mVars[314]));</v>
       </c>
     </row>
     <row r="317" spans="3:16">
@@ -25468,8 +25423,35 @@
         <f t="shared" si="36"/>
         <v>013B</v>
       </c>
-      <c r="E317" s="36" t="s">
-        <v>453</v>
+      <c r="E317" s="25" t="s">
+        <v>452</v>
+      </c>
+      <c r="H317" t="str">
+        <f t="shared" si="47"/>
+        <v>#define  VAR_LPV1_S2_POWER_W  315</v>
+      </c>
+      <c r="I317" t="str">
+        <f t="shared" si="48"/>
+        <v>public const byte VAR_LPV1_S2_POWER_W = 315;</v>
+      </c>
+      <c r="J317">
+        <v>79</v>
+      </c>
+      <c r="L317" t="str">
+        <f t="shared" si="49"/>
+        <v>UpdateScanList(VAR_LPV1_S2_POWER_W, 5000);</v>
+      </c>
+      <c r="M317" t="str">
+        <f t="shared" si="50"/>
+        <v>VAR_SetVariable(VAR_LPV1_S2_POWER_W, Cells[79].Temp_C, validflag);</v>
+      </c>
+      <c r="O317" t="str">
+        <f t="shared" si="51"/>
+        <v>cJSON_AddItemToObject(Uha, "VAR_LPV1_S2_POWER_W", cJSON_CreateNumber(mVars[VAR_LPV1_S2_POWER_W]));</v>
+      </c>
+      <c r="P317" t="str">
+        <f t="shared" si="52"/>
+        <v>cJSON_AddItemToObject(Uha, "VAR_LPV1_S2_POWER_W", cJSON_CreateNumber(mVars[315]));</v>
       </c>
     </row>
     <row r="318" spans="3:16">
@@ -25480,8 +25462,35 @@
         <f t="shared" si="36"/>
         <v>013C</v>
       </c>
-      <c r="E318" s="36" t="s">
-        <v>454</v>
+      <c r="E318" s="25" t="s">
+        <v>453</v>
+      </c>
+      <c r="H318" t="str">
+        <f t="shared" si="47"/>
+        <v>#define  VAR_LPV1_S2_CURRENT_A10  316</v>
+      </c>
+      <c r="I318" t="str">
+        <f t="shared" si="48"/>
+        <v>public const byte VAR_LPV1_S2_CURRENT_A10 = 316;</v>
+      </c>
+      <c r="J318">
+        <v>80</v>
+      </c>
+      <c r="L318" t="str">
+        <f t="shared" si="49"/>
+        <v>UpdateScanList(VAR_LPV1_S2_CURRENT_A10, 5000);</v>
+      </c>
+      <c r="M318" t="str">
+        <f t="shared" si="50"/>
+        <v>VAR_SetVariable(VAR_LPV1_S2_CURRENT_A10, Cells[80].Temp_C, validflag);</v>
+      </c>
+      <c r="O318" t="str">
+        <f t="shared" si="51"/>
+        <v>cJSON_AddItemToObject(Uha, "VAR_LPV1_S2_CURRENT_A10", cJSON_CreateNumber(mVars[VAR_LPV1_S2_CURRENT_A10]));</v>
+      </c>
+      <c r="P318" t="str">
+        <f t="shared" si="52"/>
+        <v>cJSON_AddItemToObject(Uha, "VAR_LPV1_S2_CURRENT_A10", cJSON_CreateNumber(mVars[316]));</v>
       </c>
     </row>
     <row r="319" spans="3:16">
@@ -25492,6 +25501,36 @@
         <f t="shared" si="36"/>
         <v>013D</v>
       </c>
+      <c r="E319" s="25" t="s">
+        <v>454</v>
+      </c>
+      <c r="H319" t="str">
+        <f t="shared" si="47"/>
+        <v>#define  VAR_LPV1_S2_VOLTAGE_V  317</v>
+      </c>
+      <c r="I319" t="str">
+        <f t="shared" si="48"/>
+        <v>public const byte VAR_LPV1_S2_VOLTAGE_V = 317;</v>
+      </c>
+      <c r="J319">
+        <v>81</v>
+      </c>
+      <c r="L319" t="str">
+        <f t="shared" si="49"/>
+        <v>UpdateScanList(VAR_LPV1_S2_VOLTAGE_V, 5000);</v>
+      </c>
+      <c r="M319" t="str">
+        <f t="shared" si="50"/>
+        <v>VAR_SetVariable(VAR_LPV1_S2_VOLTAGE_V, Cells[81].Temp_C, validflag);</v>
+      </c>
+      <c r="O319" t="str">
+        <f t="shared" si="51"/>
+        <v>cJSON_AddItemToObject(Uha, "VAR_LPV1_S2_VOLTAGE_V", cJSON_CreateNumber(mVars[VAR_LPV1_S2_VOLTAGE_V]));</v>
+      </c>
+      <c r="P319" t="str">
+        <f t="shared" si="52"/>
+        <v>cJSON_AddItemToObject(Uha, "VAR_LPV1_S2_VOLTAGE_V", cJSON_CreateNumber(mVars[317]));</v>
+      </c>
     </row>
     <row r="320" spans="3:16">
       <c r="C320" s="1">
@@ -25501,6 +25540,7 @@
         <f t="shared" si="36"/>
         <v>013E</v>
       </c>
+      <c r="E320" s="25"/>
     </row>
     <row r="321" spans="3:16">
       <c r="C321" s="1">
@@ -25510,6 +25550,7 @@
         <f t="shared" si="36"/>
         <v>013F</v>
       </c>
+      <c r="E321" s="25"/>
     </row>
     <row r="322" spans="3:16">
       <c r="C322" s="1">
@@ -25519,34 +25560,34 @@
         <f t="shared" si="36"/>
         <v>0140</v>
       </c>
-      <c r="E322" t="s">
+      <c r="E322" s="25" t="s">
         <v>455</v>
       </c>
       <c r="H322" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="47"/>
         <v>#define  VAR_STRG2_SOC  320</v>
       </c>
       <c r="I322" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="48"/>
         <v>public const byte VAR_STRG2_SOC = 320;</v>
       </c>
       <c r="J322">
         <v>84</v>
       </c>
       <c r="L322" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="49"/>
         <v>UpdateScanList(VAR_STRG2_SOC, 5000);</v>
       </c>
       <c r="M322" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v>VAR_SetVariable(VAR_STRG2_SOC, Cells[84].Temp_C, validflag);</v>
       </c>
       <c r="O322" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_STRG2_SOC", cJSON_CreateNumber(mVars[VAR_STRG2_SOC]));</v>
       </c>
       <c r="P322" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_STRG2_SOC", cJSON_CreateNumber(mVars[320]));</v>
       </c>
     </row>
@@ -25555,37 +25596,37 @@
         <v>321</v>
       </c>
       <c r="D323" s="1" t="str">
-        <f t="shared" ref="D323:D352" si="48">DEC2HEX(C323,4)</f>
+        <f t="shared" ref="D323:D352" si="53">DEC2HEX(C323,4)</f>
         <v>0141</v>
       </c>
-      <c r="E323" t="s">
+      <c r="E323" s="25" t="s">
         <v>456</v>
       </c>
       <c r="H323" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="47"/>
         <v>#define  VAR_STRG2_POWER_W  321</v>
       </c>
       <c r="I323" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="48"/>
         <v>public const byte VAR_STRG2_POWER_W = 321;</v>
       </c>
       <c r="J323">
         <v>85</v>
       </c>
       <c r="L323" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="49"/>
         <v>UpdateScanList(VAR_STRG2_POWER_W, 5000);</v>
       </c>
       <c r="M323" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v>VAR_SetVariable(VAR_STRG2_POWER_W, Cells[85].Temp_C, validflag);</v>
       </c>
       <c r="O323" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_STRG2_POWER_W", cJSON_CreateNumber(mVars[VAR_STRG2_POWER_W]));</v>
       </c>
       <c r="P323" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_STRG2_POWER_W", cJSON_CreateNumber(mVars[321]));</v>
       </c>
     </row>
@@ -25594,38 +25635,38 @@
         <v>322</v>
       </c>
       <c r="D324" s="1" t="str">
+        <f t="shared" si="53"/>
+        <v>0142</v>
+      </c>
+      <c r="E324" s="25" t="s">
+        <v>475</v>
+      </c>
+      <c r="H324" t="str">
+        <f t="shared" si="47"/>
+        <v>#define  VAR_STRG2_CURRENT_A10  322</v>
+      </c>
+      <c r="I324" t="str">
         <f t="shared" si="48"/>
-        <v>0142</v>
-      </c>
-      <c r="E324" t="s">
-        <v>457</v>
-      </c>
-      <c r="H324" t="str">
-        <f t="shared" si="42"/>
-        <v>#define  VAR_STRG2_CURRENT_A20  322</v>
-      </c>
-      <c r="I324" t="str">
-        <f t="shared" si="43"/>
-        <v>public const byte VAR_STRG2_CURRENT_A20 = 322;</v>
+        <v>public const byte VAR_STRG2_CURRENT_A10 = 322;</v>
       </c>
       <c r="J324">
         <v>86</v>
       </c>
       <c r="L324" t="str">
-        <f t="shared" si="44"/>
-        <v>UpdateScanList(VAR_STRG2_CURRENT_A20, 5000);</v>
+        <f t="shared" si="49"/>
+        <v>UpdateScanList(VAR_STRG2_CURRENT_A10, 5000);</v>
       </c>
       <c r="M324" t="str">
-        <f t="shared" si="45"/>
-        <v>VAR_SetVariable(VAR_STRG2_CURRENT_A20, Cells[86].Temp_C, validflag);</v>
+        <f t="shared" si="50"/>
+        <v>VAR_SetVariable(VAR_STRG2_CURRENT_A10, Cells[86].Temp_C, validflag);</v>
       </c>
       <c r="O324" t="str">
-        <f t="shared" si="46"/>
-        <v>cJSON_AddItemToObject(Uha, "VAR_STRG2_CURRENT_A20", cJSON_CreateNumber(mVars[VAR_STRG2_CURRENT_A20]));</v>
+        <f t="shared" si="51"/>
+        <v>cJSON_AddItemToObject(Uha, "VAR_STRG2_CURRENT_A10", cJSON_CreateNumber(mVars[VAR_STRG2_CURRENT_A10]));</v>
       </c>
       <c r="P324" t="str">
-        <f t="shared" si="47"/>
-        <v>cJSON_AddItemToObject(Uha, "VAR_STRG2_CURRENT_A20", cJSON_CreateNumber(mVars[322]));</v>
+        <f t="shared" si="52"/>
+        <v>cJSON_AddItemToObject(Uha, "VAR_STRG2_CURRENT_A10", cJSON_CreateNumber(mVars[322]));</v>
       </c>
     </row>
     <row r="325" spans="3:16">
@@ -25633,37 +25674,37 @@
         <v>323</v>
       </c>
       <c r="D325" s="1" t="str">
+        <f t="shared" si="53"/>
+        <v>0143</v>
+      </c>
+      <c r="E325" s="25" t="s">
+        <v>457</v>
+      </c>
+      <c r="H325" t="str">
+        <f t="shared" si="47"/>
+        <v>#define  VAR_STRG2_ENERGY_WH  323</v>
+      </c>
+      <c r="I325" t="str">
         <f t="shared" si="48"/>
-        <v>0143</v>
-      </c>
-      <c r="E325" t="s">
-        <v>458</v>
-      </c>
-      <c r="H325" t="str">
-        <f t="shared" si="42"/>
-        <v>#define  VAR_STRG2_ENERGY_WH  323</v>
-      </c>
-      <c r="I325" t="str">
-        <f t="shared" si="43"/>
         <v>public const byte VAR_STRG2_ENERGY_WH = 323;</v>
       </c>
       <c r="J325">
         <v>87</v>
       </c>
       <c r="L325" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="49"/>
         <v>UpdateScanList(VAR_STRG2_ENERGY_WH, 5000);</v>
       </c>
       <c r="M325" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v>VAR_SetVariable(VAR_STRG2_ENERGY_WH, Cells[87].Temp_C, validflag);</v>
       </c>
       <c r="O325" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_STRG2_ENERGY_WH", cJSON_CreateNumber(mVars[VAR_STRG2_ENERGY_WH]));</v>
       </c>
       <c r="P325" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_STRG2_ENERGY_WH", cJSON_CreateNumber(mVars[323]));</v>
       </c>
     </row>
@@ -25672,37 +25713,37 @@
         <v>324</v>
       </c>
       <c r="D326" s="1" t="str">
+        <f t="shared" si="53"/>
+        <v>0144</v>
+      </c>
+      <c r="E326" s="25" t="s">
+        <v>458</v>
+      </c>
+      <c r="H326" t="str">
+        <f t="shared" si="47"/>
+        <v>#define  VAR_STRG2_OPT_CHARGING_A  324</v>
+      </c>
+      <c r="I326" t="str">
         <f t="shared" si="48"/>
-        <v>0144</v>
-      </c>
-      <c r="E326" t="s">
-        <v>459</v>
-      </c>
-      <c r="H326" t="str">
-        <f t="shared" si="42"/>
-        <v>#define  VAR_STRG2_OPT_CHARGING_A  324</v>
-      </c>
-      <c r="I326" t="str">
-        <f t="shared" si="43"/>
         <v>public const byte VAR_STRG2_OPT_CHARGING_A = 324;</v>
       </c>
       <c r="J326">
         <v>88</v>
       </c>
       <c r="L326" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="49"/>
         <v>UpdateScanList(VAR_STRG2_OPT_CHARGING_A, 5000);</v>
       </c>
       <c r="M326" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v>VAR_SetVariable(VAR_STRG2_OPT_CHARGING_A, Cells[88].Temp_C, validflag);</v>
       </c>
       <c r="O326" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_STRG2_OPT_CHARGING_A", cJSON_CreateNumber(mVars[VAR_STRG2_OPT_CHARGING_A]));</v>
       </c>
       <c r="P326" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_STRG2_OPT_CHARGING_A", cJSON_CreateNumber(mVars[324]));</v>
       </c>
     </row>
@@ -25711,37 +25752,37 @@
         <v>325</v>
       </c>
       <c r="D327" s="1" t="str">
+        <f t="shared" si="53"/>
+        <v>0145</v>
+      </c>
+      <c r="E327" s="25" t="s">
+        <v>470</v>
+      </c>
+      <c r="H327" t="str">
+        <f t="shared" si="47"/>
+        <v>#define  VAR_STRG2_CAPACITY_AH  325</v>
+      </c>
+      <c r="I327" t="str">
         <f t="shared" si="48"/>
-        <v>0145</v>
-      </c>
-      <c r="E327" t="s">
-        <v>471</v>
-      </c>
-      <c r="H327" t="str">
-        <f t="shared" si="42"/>
-        <v>#define  VAR_STRG2_CAPACITY_AH  325</v>
-      </c>
-      <c r="I327" t="str">
-        <f t="shared" si="43"/>
         <v>public const byte VAR_STRG2_CAPACITY_AH = 325;</v>
       </c>
       <c r="J327">
         <v>89</v>
       </c>
       <c r="L327" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="49"/>
         <v>UpdateScanList(VAR_STRG2_CAPACITY_AH, 5000);</v>
       </c>
       <c r="M327" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v>VAR_SetVariable(VAR_STRG2_CAPACITY_AH, Cells[89].Temp_C, validflag);</v>
       </c>
       <c r="O327" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_STRG2_CAPACITY_AH", cJSON_CreateNumber(mVars[VAR_STRG2_CAPACITY_AH]));</v>
       </c>
       <c r="P327" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_STRG2_CAPACITY_AH", cJSON_CreateNumber(mVars[325]));</v>
       </c>
     </row>
@@ -25750,37 +25791,37 @@
         <v>326</v>
       </c>
       <c r="D328" s="1" t="str">
+        <f t="shared" si="53"/>
+        <v>0146</v>
+      </c>
+      <c r="E328" s="25" t="s">
+        <v>472</v>
+      </c>
+      <c r="H328" t="str">
+        <f t="shared" si="47"/>
+        <v>#define  VAR_STRG2_BALANCED_TODAY  326</v>
+      </c>
+      <c r="I328" t="str">
         <f t="shared" si="48"/>
-        <v>0146</v>
-      </c>
-      <c r="E328" t="s">
-        <v>473</v>
-      </c>
-      <c r="H328" t="str">
-        <f t="shared" si="42"/>
-        <v>#define  VAR_STRG2_BALANCED_TODAY  326</v>
-      </c>
-      <c r="I328" t="str">
-        <f t="shared" si="43"/>
         <v>public const byte VAR_STRG2_BALANCED_TODAY = 326;</v>
       </c>
       <c r="J328">
         <v>90</v>
       </c>
       <c r="L328" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="49"/>
         <v>UpdateScanList(VAR_STRG2_BALANCED_TODAY, 5000);</v>
       </c>
       <c r="M328" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v>VAR_SetVariable(VAR_STRG2_BALANCED_TODAY, Cells[90].Temp_C, validflag);</v>
       </c>
       <c r="O328" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_STRG2_BALANCED_TODAY", cJSON_CreateNumber(mVars[VAR_STRG2_BALANCED_TODAY]));</v>
       </c>
       <c r="P328" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_STRG2_BALANCED_TODAY", cJSON_CreateNumber(mVars[326]));</v>
       </c>
     </row>
@@ -25789,38 +25830,38 @@
         <v>327</v>
       </c>
       <c r="D329" s="1" t="str">
+        <f t="shared" si="53"/>
+        <v>0147</v>
+      </c>
+      <c r="E329" t="s">
+        <v>474</v>
+      </c>
+      <c r="H329" t="str">
+        <f t="shared" si="47"/>
+        <v>#define  VAR_STRG2_VOLTAGE_V10  327</v>
+      </c>
+      <c r="I329" t="str">
         <f t="shared" si="48"/>
-        <v>0147</v>
-      </c>
-      <c r="E329" t="s">
-        <v>460</v>
-      </c>
-      <c r="H329" t="str">
-        <f t="shared" si="42"/>
-        <v>#define  VAR_LLOAD2_POWER_W  327</v>
-      </c>
-      <c r="I329" t="str">
-        <f t="shared" si="43"/>
-        <v>public const byte VAR_LLOAD2_POWER_W = 327;</v>
+        <v>public const byte VAR_STRG2_VOLTAGE_V10 = 327;</v>
       </c>
       <c r="J329">
         <v>91</v>
       </c>
       <c r="L329" t="str">
-        <f t="shared" si="44"/>
-        <v>UpdateScanList(VAR_LLOAD2_POWER_W, 5000);</v>
+        <f t="shared" si="49"/>
+        <v>UpdateScanList(VAR_STRG2_VOLTAGE_V10, 5000);</v>
       </c>
       <c r="M329" t="str">
-        <f t="shared" si="45"/>
-        <v>VAR_SetVariable(VAR_LLOAD2_POWER_W, Cells[91].Temp_C, validflag);</v>
+        <f t="shared" si="50"/>
+        <v>VAR_SetVariable(VAR_STRG2_VOLTAGE_V10, Cells[91].Temp_C, validflag);</v>
       </c>
       <c r="O329" t="str">
-        <f t="shared" si="46"/>
-        <v>cJSON_AddItemToObject(Uha, "VAR_LLOAD2_POWER_W", cJSON_CreateNumber(mVars[VAR_LLOAD2_POWER_W]));</v>
+        <f t="shared" si="51"/>
+        <v>cJSON_AddItemToObject(Uha, "VAR_STRG2_VOLTAGE_V10", cJSON_CreateNumber(mVars[VAR_STRG2_VOLTAGE_V10]));</v>
       </c>
       <c r="P329" t="str">
-        <f t="shared" si="47"/>
-        <v>cJSON_AddItemToObject(Uha, "VAR_LLOAD2_POWER_W", cJSON_CreateNumber(mVars[327]));</v>
+        <f t="shared" si="52"/>
+        <v>cJSON_AddItemToObject(Uha, "VAR_STRG2_VOLTAGE_V10", cJSON_CreateNumber(mVars[327]));</v>
       </c>
     </row>
     <row r="330" spans="3:16">
@@ -25828,38 +25869,38 @@
         <v>328</v>
       </c>
       <c r="D330" s="1" t="str">
+        <f t="shared" si="53"/>
+        <v>0148</v>
+      </c>
+      <c r="E330" s="25" t="s">
+        <v>459</v>
+      </c>
+      <c r="H330" t="str">
+        <f t="shared" si="47"/>
+        <v>#define  VAR_LLOAD2_POWER_W  328</v>
+      </c>
+      <c r="I330" t="str">
         <f t="shared" si="48"/>
-        <v>0148</v>
-      </c>
-      <c r="E330" t="s">
-        <v>461</v>
-      </c>
-      <c r="H330" t="str">
-        <f t="shared" si="42"/>
-        <v>#define  VAR_LLOAD2_CONS_WH  328</v>
-      </c>
-      <c r="I330" t="str">
-        <f t="shared" si="43"/>
-        <v>public const byte VAR_LLOAD2_CONS_WH = 328;</v>
+        <v>public const byte VAR_LLOAD2_POWER_W = 328;</v>
       </c>
       <c r="J330">
         <v>92</v>
       </c>
       <c r="L330" t="str">
-        <f t="shared" si="44"/>
-        <v>UpdateScanList(VAR_LLOAD2_CONS_WH, 5000);</v>
+        <f t="shared" si="49"/>
+        <v>UpdateScanList(VAR_LLOAD2_POWER_W, 5000);</v>
       </c>
       <c r="M330" t="str">
-        <f t="shared" si="45"/>
-        <v>VAR_SetVariable(VAR_LLOAD2_CONS_WH, Cells[92].Temp_C, validflag);</v>
+        <f t="shared" si="50"/>
+        <v>VAR_SetVariable(VAR_LLOAD2_POWER_W, Cells[92].Temp_C, validflag);</v>
       </c>
       <c r="O330" t="str">
-        <f t="shared" si="46"/>
-        <v>cJSON_AddItemToObject(Uha, "VAR_LLOAD2_CONS_WH", cJSON_CreateNumber(mVars[VAR_LLOAD2_CONS_WH]));</v>
+        <f t="shared" si="51"/>
+        <v>cJSON_AddItemToObject(Uha, "VAR_LLOAD2_POWER_W", cJSON_CreateNumber(mVars[VAR_LLOAD2_POWER_W]));</v>
       </c>
       <c r="P330" t="str">
-        <f t="shared" si="47"/>
-        <v>cJSON_AddItemToObject(Uha, "VAR_LLOAD2_CONS_WH", cJSON_CreateNumber(mVars[328]));</v>
+        <f t="shared" si="52"/>
+        <v>cJSON_AddItemToObject(Uha, "VAR_LLOAD2_POWER_W", cJSON_CreateNumber(mVars[328]));</v>
       </c>
     </row>
     <row r="331" spans="3:16">
@@ -25867,38 +25908,38 @@
         <v>329</v>
       </c>
       <c r="D331" s="1" t="str">
+        <f t="shared" si="53"/>
+        <v>0149</v>
+      </c>
+      <c r="E331" s="25" t="s">
+        <v>460</v>
+      </c>
+      <c r="H331" t="str">
+        <f t="shared" si="47"/>
+        <v>#define  VAR_LLOAD2_CONS_WH  329</v>
+      </c>
+      <c r="I331" t="str">
         <f t="shared" si="48"/>
-        <v>0149</v>
-      </c>
-      <c r="E331" t="s">
-        <v>462</v>
-      </c>
-      <c r="H331" t="str">
-        <f t="shared" si="42"/>
-        <v>#define  VAR_LPV2_POWER_W  329</v>
-      </c>
-      <c r="I331" t="str">
-        <f t="shared" si="43"/>
-        <v>public const byte VAR_LPV2_POWER_W = 329;</v>
+        <v>public const byte VAR_LLOAD2_CONS_WH = 329;</v>
       </c>
       <c r="J331">
         <v>93</v>
       </c>
       <c r="L331" t="str">
-        <f t="shared" si="44"/>
-        <v>UpdateScanList(VAR_LPV2_POWER_W, 5000);</v>
+        <f t="shared" si="49"/>
+        <v>UpdateScanList(VAR_LLOAD2_CONS_WH, 5000);</v>
       </c>
       <c r="M331" t="str">
-        <f t="shared" si="45"/>
-        <v>VAR_SetVariable(VAR_LPV2_POWER_W, Cells[93].Temp_C, validflag);</v>
+        <f t="shared" si="50"/>
+        <v>VAR_SetVariable(VAR_LLOAD2_CONS_WH, Cells[93].Temp_C, validflag);</v>
       </c>
       <c r="O331" t="str">
-        <f t="shared" si="46"/>
-        <v>cJSON_AddItemToObject(Uha, "VAR_LPV2_POWER_W", cJSON_CreateNumber(mVars[VAR_LPV2_POWER_W]));</v>
+        <f t="shared" si="51"/>
+        <v>cJSON_AddItemToObject(Uha, "VAR_LLOAD2_CONS_WH", cJSON_CreateNumber(mVars[VAR_LLOAD2_CONS_WH]));</v>
       </c>
       <c r="P331" t="str">
-        <f t="shared" si="47"/>
-        <v>cJSON_AddItemToObject(Uha, "VAR_LPV2_POWER_W", cJSON_CreateNumber(mVars[329]));</v>
+        <f t="shared" si="52"/>
+        <v>cJSON_AddItemToObject(Uha, "VAR_LLOAD2_CONS_WH", cJSON_CreateNumber(mVars[329]));</v>
       </c>
     </row>
     <row r="332" spans="3:16">
@@ -25906,38 +25947,38 @@
         <v>330</v>
       </c>
       <c r="D332" s="1" t="str">
+        <f t="shared" si="53"/>
+        <v>014A</v>
+      </c>
+      <c r="E332" s="25" t="s">
+        <v>461</v>
+      </c>
+      <c r="H332" t="str">
+        <f t="shared" si="47"/>
+        <v>#define  VAR_LPV2_POWER_W  330</v>
+      </c>
+      <c r="I332" t="str">
         <f t="shared" si="48"/>
-        <v>014A</v>
-      </c>
-      <c r="E332" t="s">
-        <v>463</v>
-      </c>
-      <c r="H332" t="str">
-        <f t="shared" si="42"/>
-        <v>#define  VAR_LPV2_PROD_WH  330</v>
-      </c>
-      <c r="I332" t="str">
-        <f t="shared" si="43"/>
-        <v>public const byte VAR_LPV2_PROD_WH = 330;</v>
+        <v>public const byte VAR_LPV2_POWER_W = 330;</v>
       </c>
       <c r="J332">
         <v>94</v>
       </c>
       <c r="L332" t="str">
-        <f t="shared" si="44"/>
-        <v>UpdateScanList(VAR_LPV2_PROD_WH, 5000);</v>
+        <f t="shared" si="49"/>
+        <v>UpdateScanList(VAR_LPV2_POWER_W, 5000);</v>
       </c>
       <c r="M332" t="str">
-        <f t="shared" si="45"/>
-        <v>VAR_SetVariable(VAR_LPV2_PROD_WH, Cells[94].Temp_C, validflag);</v>
+        <f t="shared" si="50"/>
+        <v>VAR_SetVariable(VAR_LPV2_POWER_W, Cells[94].Temp_C, validflag);</v>
       </c>
       <c r="O332" t="str">
-        <f t="shared" si="46"/>
-        <v>cJSON_AddItemToObject(Uha, "VAR_LPV2_PROD_WH", cJSON_CreateNumber(mVars[VAR_LPV2_PROD_WH]));</v>
+        <f t="shared" si="51"/>
+        <v>cJSON_AddItemToObject(Uha, "VAR_LPV2_POWER_W", cJSON_CreateNumber(mVars[VAR_LPV2_POWER_W]));</v>
       </c>
       <c r="P332" t="str">
-        <f t="shared" si="47"/>
-        <v>cJSON_AddItemToObject(Uha, "VAR_LPV2_PROD_WH", cJSON_CreateNumber(mVars[330]));</v>
+        <f t="shared" si="52"/>
+        <v>cJSON_AddItemToObject(Uha, "VAR_LPV2_POWER_W", cJSON_CreateNumber(mVars[330]));</v>
       </c>
     </row>
     <row r="333" spans="3:16">
@@ -25945,38 +25986,38 @@
         <v>331</v>
       </c>
       <c r="D333" s="1" t="str">
+        <f t="shared" si="53"/>
+        <v>014B</v>
+      </c>
+      <c r="E333" s="25" t="s">
+        <v>462</v>
+      </c>
+      <c r="H333" t="str">
+        <f t="shared" si="47"/>
+        <v>#define  VAR_LPV2_PROD_WH  331</v>
+      </c>
+      <c r="I333" t="str">
         <f t="shared" si="48"/>
-        <v>014B</v>
-      </c>
-      <c r="E333" t="s">
-        <v>467</v>
-      </c>
-      <c r="H333" t="str">
-        <f t="shared" si="42"/>
-        <v>#define  VAR_LPV2_S1_POWER_W  331</v>
-      </c>
-      <c r="I333" t="str">
-        <f t="shared" si="43"/>
-        <v>public const byte VAR_LPV2_S1_POWER_W = 331;</v>
+        <v>public const byte VAR_LPV2_PROD_WH = 331;</v>
       </c>
       <c r="J333">
         <v>95</v>
       </c>
       <c r="L333" t="str">
-        <f t="shared" si="44"/>
-        <v>UpdateScanList(VAR_LPV2_S1_POWER_W, 5000);</v>
+        <f t="shared" si="49"/>
+        <v>UpdateScanList(VAR_LPV2_PROD_WH, 5000);</v>
       </c>
       <c r="M333" t="str">
-        <f t="shared" si="45"/>
-        <v>VAR_SetVariable(VAR_LPV2_S1_POWER_W, Cells[95].Temp_C, validflag);</v>
+        <f t="shared" si="50"/>
+        <v>VAR_SetVariable(VAR_LPV2_PROD_WH, Cells[95].Temp_C, validflag);</v>
       </c>
       <c r="O333" t="str">
-        <f t="shared" si="46"/>
-        <v>cJSON_AddItemToObject(Uha, "VAR_LPV2_S1_POWER_W", cJSON_CreateNumber(mVars[VAR_LPV2_S1_POWER_W]));</v>
+        <f t="shared" si="51"/>
+        <v>cJSON_AddItemToObject(Uha, "VAR_LPV2_PROD_WH", cJSON_CreateNumber(mVars[VAR_LPV2_PROD_WH]));</v>
       </c>
       <c r="P333" t="str">
-        <f t="shared" si="47"/>
-        <v>cJSON_AddItemToObject(Uha, "VAR_LPV2_S1_POWER_W", cJSON_CreateNumber(mVars[331]));</v>
+        <f t="shared" si="52"/>
+        <v>cJSON_AddItemToObject(Uha, "VAR_LPV2_PROD_WH", cJSON_CreateNumber(mVars[331]));</v>
       </c>
     </row>
     <row r="334" spans="3:16">
@@ -25984,38 +26025,38 @@
         <v>332</v>
       </c>
       <c r="D334" s="1" t="str">
+        <f t="shared" si="53"/>
+        <v>014C</v>
+      </c>
+      <c r="E334" s="25" t="s">
+        <v>466</v>
+      </c>
+      <c r="H334" t="str">
+        <f t="shared" si="47"/>
+        <v>#define  VAR_LPV2_S1_POWER_W  332</v>
+      </c>
+      <c r="I334" t="str">
         <f t="shared" si="48"/>
-        <v>014C</v>
-      </c>
-      <c r="E334" t="s">
-        <v>468</v>
-      </c>
-      <c r="H334" t="str">
-        <f t="shared" si="42"/>
-        <v>#define  VAR_LPV2_S1_CURRENT_A20  332</v>
-      </c>
-      <c r="I334" t="str">
-        <f t="shared" si="43"/>
-        <v>public const byte VAR_LPV2_S1_CURRENT_A20 = 332;</v>
+        <v>public const byte VAR_LPV2_S1_POWER_W = 332;</v>
       </c>
       <c r="J334">
         <v>96</v>
       </c>
       <c r="L334" t="str">
-        <f t="shared" si="44"/>
-        <v>UpdateScanList(VAR_LPV2_S1_CURRENT_A20, 5000);</v>
+        <f t="shared" si="49"/>
+        <v>UpdateScanList(VAR_LPV2_S1_POWER_W, 5000);</v>
       </c>
       <c r="M334" t="str">
-        <f t="shared" si="45"/>
-        <v>VAR_SetVariable(VAR_LPV2_S1_CURRENT_A20, Cells[96].Temp_C, validflag);</v>
+        <f t="shared" si="50"/>
+        <v>VAR_SetVariable(VAR_LPV2_S1_POWER_W, Cells[96].Temp_C, validflag);</v>
       </c>
       <c r="O334" t="str">
-        <f t="shared" si="46"/>
-        <v>cJSON_AddItemToObject(Uha, "VAR_LPV2_S1_CURRENT_A20", cJSON_CreateNumber(mVars[VAR_LPV2_S1_CURRENT_A20]));</v>
+        <f t="shared" si="51"/>
+        <v>cJSON_AddItemToObject(Uha, "VAR_LPV2_S1_POWER_W", cJSON_CreateNumber(mVars[VAR_LPV2_S1_POWER_W]));</v>
       </c>
       <c r="P334" t="str">
-        <f t="shared" si="47"/>
-        <v>cJSON_AddItemToObject(Uha, "VAR_LPV2_S1_CURRENT_A20", cJSON_CreateNumber(mVars[332]));</v>
+        <f t="shared" si="52"/>
+        <v>cJSON_AddItemToObject(Uha, "VAR_LPV2_S1_POWER_W", cJSON_CreateNumber(mVars[332]));</v>
       </c>
     </row>
     <row r="335" spans="3:16">
@@ -26023,38 +26064,38 @@
         <v>333</v>
       </c>
       <c r="D335" s="1" t="str">
+        <f t="shared" si="53"/>
+        <v>014D</v>
+      </c>
+      <c r="E335" s="25" t="s">
+        <v>467</v>
+      </c>
+      <c r="H335" t="str">
+        <f t="shared" si="47"/>
+        <v>#define  VAR_LPV2_S1_CURRENT_A20  333</v>
+      </c>
+      <c r="I335" t="str">
         <f t="shared" si="48"/>
-        <v>014D</v>
-      </c>
-      <c r="E335" t="s">
-        <v>469</v>
-      </c>
-      <c r="H335" t="str">
-        <f t="shared" si="42"/>
-        <v>#define  VAR_LPV2_S1_VOLTAGE_V  333</v>
-      </c>
-      <c r="I335" t="str">
-        <f t="shared" si="43"/>
-        <v>public const byte VAR_LPV2_S1_VOLTAGE_V = 333;</v>
+        <v>public const byte VAR_LPV2_S1_CURRENT_A20 = 333;</v>
       </c>
       <c r="J335">
         <v>97</v>
       </c>
       <c r="L335" t="str">
-        <f t="shared" si="44"/>
-        <v>UpdateScanList(VAR_LPV2_S1_VOLTAGE_V, 5000);</v>
+        <f t="shared" si="49"/>
+        <v>UpdateScanList(VAR_LPV2_S1_CURRENT_A20, 5000);</v>
       </c>
       <c r="M335" t="str">
-        <f t="shared" si="45"/>
-        <v>VAR_SetVariable(VAR_LPV2_S1_VOLTAGE_V, Cells[97].Temp_C, validflag);</v>
+        <f t="shared" si="50"/>
+        <v>VAR_SetVariable(VAR_LPV2_S1_CURRENT_A20, Cells[97].Temp_C, validflag);</v>
       </c>
       <c r="O335" t="str">
-        <f t="shared" si="46"/>
-        <v>cJSON_AddItemToObject(Uha, "VAR_LPV2_S1_VOLTAGE_V", cJSON_CreateNumber(mVars[VAR_LPV2_S1_VOLTAGE_V]));</v>
+        <f t="shared" si="51"/>
+        <v>cJSON_AddItemToObject(Uha, "VAR_LPV2_S1_CURRENT_A20", cJSON_CreateNumber(mVars[VAR_LPV2_S1_CURRENT_A20]));</v>
       </c>
       <c r="P335" t="str">
-        <f t="shared" si="47"/>
-        <v>cJSON_AddItemToObject(Uha, "VAR_LPV2_S1_VOLTAGE_V", cJSON_CreateNumber(mVars[333]));</v>
+        <f t="shared" si="52"/>
+        <v>cJSON_AddItemToObject(Uha, "VAR_LPV2_S1_CURRENT_A20", cJSON_CreateNumber(mVars[333]));</v>
       </c>
     </row>
     <row r="336" spans="3:16">
@@ -26062,38 +26103,38 @@
         <v>334</v>
       </c>
       <c r="D336" s="1" t="str">
+        <f t="shared" si="53"/>
+        <v>014E</v>
+      </c>
+      <c r="E336" s="25" t="s">
+        <v>468</v>
+      </c>
+      <c r="H336" t="str">
+        <f t="shared" si="47"/>
+        <v>#define  VAR_LPV2_S1_VOLTAGE_V  334</v>
+      </c>
+      <c r="I336" t="str">
         <f t="shared" si="48"/>
-        <v>014E</v>
-      </c>
-      <c r="E336" t="s">
-        <v>464</v>
-      </c>
-      <c r="H336" t="str">
-        <f t="shared" si="42"/>
-        <v>#define  VAR_LPV2_S2_POWER_W  334</v>
-      </c>
-      <c r="I336" t="str">
-        <f t="shared" si="43"/>
-        <v>public const byte VAR_LPV2_S2_POWER_W = 334;</v>
+        <v>public const byte VAR_LPV2_S1_VOLTAGE_V = 334;</v>
       </c>
       <c r="J336">
         <v>98</v>
       </c>
       <c r="L336" t="str">
-        <f t="shared" si="44"/>
-        <v>UpdateScanList(VAR_LPV2_S2_POWER_W, 5000);</v>
+        <f t="shared" si="49"/>
+        <v>UpdateScanList(VAR_LPV2_S1_VOLTAGE_V, 5000);</v>
       </c>
       <c r="M336" t="str">
-        <f t="shared" si="45"/>
-        <v>VAR_SetVariable(VAR_LPV2_S2_POWER_W, Cells[98].Temp_C, validflag);</v>
+        <f t="shared" si="50"/>
+        <v>VAR_SetVariable(VAR_LPV2_S1_VOLTAGE_V, Cells[98].Temp_C, validflag);</v>
       </c>
       <c r="O336" t="str">
-        <f t="shared" si="46"/>
-        <v>cJSON_AddItemToObject(Uha, "VAR_LPV2_S2_POWER_W", cJSON_CreateNumber(mVars[VAR_LPV2_S2_POWER_W]));</v>
+        <f t="shared" si="51"/>
+        <v>cJSON_AddItemToObject(Uha, "VAR_LPV2_S1_VOLTAGE_V", cJSON_CreateNumber(mVars[VAR_LPV2_S1_VOLTAGE_V]));</v>
       </c>
       <c r="P336" t="str">
-        <f t="shared" si="47"/>
-        <v>cJSON_AddItemToObject(Uha, "VAR_LPV2_S2_POWER_W", cJSON_CreateNumber(mVars[334]));</v>
+        <f t="shared" si="52"/>
+        <v>cJSON_AddItemToObject(Uha, "VAR_LPV2_S1_VOLTAGE_V", cJSON_CreateNumber(mVars[334]));</v>
       </c>
     </row>
     <row r="337" spans="3:16">
@@ -26101,38 +26142,38 @@
         <v>335</v>
       </c>
       <c r="D337" s="1" t="str">
+        <f t="shared" si="53"/>
+        <v>014F</v>
+      </c>
+      <c r="E337" s="25" t="s">
+        <v>463</v>
+      </c>
+      <c r="H337" t="str">
+        <f t="shared" si="47"/>
+        <v>#define  VAR_LPV2_S2_POWER_W  335</v>
+      </c>
+      <c r="I337" t="str">
         <f t="shared" si="48"/>
-        <v>014F</v>
-      </c>
-      <c r="E337" t="s">
-        <v>465</v>
-      </c>
-      <c r="H337" t="str">
-        <f t="shared" si="42"/>
-        <v>#define  VAR_LPV2_S2_CURRENT_A20  335</v>
-      </c>
-      <c r="I337" t="str">
-        <f t="shared" si="43"/>
-        <v>public const byte VAR_LPV2_S2_CURRENT_A20 = 335;</v>
+        <v>public const byte VAR_LPV2_S2_POWER_W = 335;</v>
       </c>
       <c r="J337">
         <v>99</v>
       </c>
       <c r="L337" t="str">
-        <f t="shared" si="44"/>
-        <v>UpdateScanList(VAR_LPV2_S2_CURRENT_A20, 5000);</v>
+        <f t="shared" si="49"/>
+        <v>UpdateScanList(VAR_LPV2_S2_POWER_W, 5000);</v>
       </c>
       <c r="M337" t="str">
-        <f t="shared" si="45"/>
-        <v>VAR_SetVariable(VAR_LPV2_S2_CURRENT_A20, Cells[99].Temp_C, validflag);</v>
+        <f t="shared" si="50"/>
+        <v>VAR_SetVariable(VAR_LPV2_S2_POWER_W, Cells[99].Temp_C, validflag);</v>
       </c>
       <c r="O337" t="str">
-        <f t="shared" si="46"/>
-        <v>cJSON_AddItemToObject(Uha, "VAR_LPV2_S2_CURRENT_A20", cJSON_CreateNumber(mVars[VAR_LPV2_S2_CURRENT_A20]));</v>
+        <f t="shared" si="51"/>
+        <v>cJSON_AddItemToObject(Uha, "VAR_LPV2_S2_POWER_W", cJSON_CreateNumber(mVars[VAR_LPV2_S2_POWER_W]));</v>
       </c>
       <c r="P337" t="str">
-        <f t="shared" si="47"/>
-        <v>cJSON_AddItemToObject(Uha, "VAR_LPV2_S2_CURRENT_A20", cJSON_CreateNumber(mVars[335]));</v>
+        <f t="shared" si="52"/>
+        <v>cJSON_AddItemToObject(Uha, "VAR_LPV2_S2_POWER_W", cJSON_CreateNumber(mVars[335]));</v>
       </c>
     </row>
     <row r="338" spans="3:16">
@@ -26140,38 +26181,38 @@
         <v>336</v>
       </c>
       <c r="D338" s="1" t="str">
+        <f t="shared" si="53"/>
+        <v>0150</v>
+      </c>
+      <c r="E338" s="25" t="s">
+        <v>464</v>
+      </c>
+      <c r="H338" t="str">
+        <f t="shared" si="47"/>
+        <v>#define  VAR_LPV2_S2_CURRENT_A20  336</v>
+      </c>
+      <c r="I338" t="str">
         <f t="shared" si="48"/>
-        <v>0150</v>
-      </c>
-      <c r="E338" t="s">
-        <v>466</v>
-      </c>
-      <c r="H338" t="str">
-        <f t="shared" si="42"/>
-        <v>#define  VAR_LPV2_S2_VOLTAGE_V  336</v>
-      </c>
-      <c r="I338" t="str">
-        <f t="shared" si="43"/>
-        <v>public const byte VAR_LPV2_S2_VOLTAGE_V = 336;</v>
+        <v>public const byte VAR_LPV2_S2_CURRENT_A20 = 336;</v>
       </c>
       <c r="J338">
         <v>100</v>
       </c>
       <c r="L338" t="str">
-        <f t="shared" si="44"/>
-        <v>UpdateScanList(VAR_LPV2_S2_VOLTAGE_V, 5000);</v>
+        <f t="shared" si="49"/>
+        <v>UpdateScanList(VAR_LPV2_S2_CURRENT_A20, 5000);</v>
       </c>
       <c r="M338" t="str">
-        <f t="shared" si="45"/>
-        <v>VAR_SetVariable(VAR_LPV2_S2_VOLTAGE_V, Cells[100].Temp_C, validflag);</v>
+        <f t="shared" si="50"/>
+        <v>VAR_SetVariable(VAR_LPV2_S2_CURRENT_A20, Cells[100].Temp_C, validflag);</v>
       </c>
       <c r="O338" t="str">
-        <f t="shared" si="46"/>
-        <v>cJSON_AddItemToObject(Uha, "VAR_LPV2_S2_VOLTAGE_V", cJSON_CreateNumber(mVars[VAR_LPV2_S2_VOLTAGE_V]));</v>
+        <f t="shared" si="51"/>
+        <v>cJSON_AddItemToObject(Uha, "VAR_LPV2_S2_CURRENT_A20", cJSON_CreateNumber(mVars[VAR_LPV2_S2_CURRENT_A20]));</v>
       </c>
       <c r="P338" t="str">
-        <f t="shared" si="47"/>
-        <v>cJSON_AddItemToObject(Uha, "VAR_LPV2_S2_VOLTAGE_V", cJSON_CreateNumber(mVars[336]));</v>
+        <f t="shared" si="52"/>
+        <v>cJSON_AddItemToObject(Uha, "VAR_LPV2_S2_CURRENT_A20", cJSON_CreateNumber(mVars[336]));</v>
       </c>
     </row>
     <row r="339" spans="3:16">
@@ -26179,8 +26220,38 @@
         <v>337</v>
       </c>
       <c r="D339" s="1" t="str">
+        <f t="shared" si="53"/>
+        <v>0151</v>
+      </c>
+      <c r="E339" s="25" t="s">
+        <v>465</v>
+      </c>
+      <c r="H339" t="str">
+        <f t="shared" si="47"/>
+        <v>#define  VAR_LPV2_S2_VOLTAGE_V  337</v>
+      </c>
+      <c r="I339" t="str">
         <f t="shared" si="48"/>
-        <v>0151</v>
+        <v>public const byte VAR_LPV2_S2_VOLTAGE_V = 337;</v>
+      </c>
+      <c r="J339">
+        <v>101</v>
+      </c>
+      <c r="L339" t="str">
+        <f t="shared" si="49"/>
+        <v>UpdateScanList(VAR_LPV2_S2_VOLTAGE_V, 5000);</v>
+      </c>
+      <c r="M339" t="str">
+        <f t="shared" si="50"/>
+        <v>VAR_SetVariable(VAR_LPV2_S2_VOLTAGE_V, Cells[101].Temp_C, validflag);</v>
+      </c>
+      <c r="O339" t="str">
+        <f t="shared" si="51"/>
+        <v>cJSON_AddItemToObject(Uha, "VAR_LPV2_S2_VOLTAGE_V", cJSON_CreateNumber(mVars[VAR_LPV2_S2_VOLTAGE_V]));</v>
+      </c>
+      <c r="P339" t="str">
+        <f t="shared" si="52"/>
+        <v>cJSON_AddItemToObject(Uha, "VAR_LPV2_S2_VOLTAGE_V", cJSON_CreateNumber(mVars[337]));</v>
       </c>
     </row>
     <row r="340" spans="3:16">
@@ -26188,7 +26259,7 @@
         <v>338</v>
       </c>
       <c r="D340" s="1" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="53"/>
         <v>0152</v>
       </c>
     </row>
@@ -26197,7 +26268,7 @@
         <v>339</v>
       </c>
       <c r="D341" s="1" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="53"/>
         <v>0153</v>
       </c>
     </row>
@@ -26206,37 +26277,37 @@
         <v>340</v>
       </c>
       <c r="D342" s="1" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="53"/>
         <v>0154</v>
       </c>
       <c r="E342" s="34" t="s">
         <v>427</v>
       </c>
       <c r="H342" t="str">
-        <f t="shared" ref="H309:H346" si="49">CONCATENATE("#define  ",E342,"  ",C342)</f>
+        <f t="shared" ref="H342:H346" si="54">CONCATENATE("#define  ",E342,"  ",C342)</f>
         <v>#define  VAR_LVDC_VDIFF_V100  340</v>
       </c>
       <c r="I342" t="str">
-        <f t="shared" ref="I309:I346" si="50">CONCATENATE("public const byte ",E342," = ",C342,";")</f>
+        <f t="shared" ref="I342:I346" si="55">CONCATENATE("public const byte ",E342," = ",C342,";")</f>
         <v>public const byte VAR_LVDC_VDIFF_V100 = 340;</v>
       </c>
       <c r="J342">
         <v>104</v>
       </c>
       <c r="L342" t="str">
-        <f t="shared" ref="L309:L346" si="51">CONCATENATE("UpdateScanList(",E342, ", 5000);")</f>
+        <f t="shared" ref="L342:L346" si="56">CONCATENATE("UpdateScanList(",E342, ", 5000);")</f>
         <v>UpdateScanList(VAR_LVDC_VDIFF_V100, 5000);</v>
       </c>
       <c r="M342" t="str">
-        <f t="shared" ref="M309:M346" si="52">CONCATENATE("VAR_SetVariable(",E342,", Cells[",J342,"].Temp_C", ", validflag);")</f>
+        <f t="shared" ref="M342:M346" si="57">CONCATENATE("VAR_SetVariable(",E342,", Cells[",J342,"].Temp_C", ", validflag);")</f>
         <v>VAR_SetVariable(VAR_LVDC_VDIFF_V100, Cells[104].Temp_C, validflag);</v>
       </c>
       <c r="O342" t="str">
-        <f t="shared" ref="O309:O346" si="53">IF(ISBLANK(E342),"",CONCATENATE("cJSON_AddItemToObject(Uha, ","""",E342,"""",", cJSON_CreateNumber(mVars[",E342,"]));"))</f>
+        <f t="shared" ref="O342:O346" si="58">IF(ISBLANK(E342),"",CONCATENATE("cJSON_AddItemToObject(Uha, ","""",E342,"""",", cJSON_CreateNumber(mVars[",E342,"]));"))</f>
         <v>cJSON_AddItemToObject(Uha, "VAR_LVDC_VDIFF_V100", cJSON_CreateNumber(mVars[VAR_LVDC_VDIFF_V100]));</v>
       </c>
       <c r="P342" t="str">
-        <f t="shared" ref="P309:P346" si="54">CONCATENATE("cJSON_AddItemToObject(Uha, ","""",E342,"""",", cJSON_CreateNumber(mVars[",C342,"]));")</f>
+        <f t="shared" ref="P342:P346" si="59">CONCATENATE("cJSON_AddItemToObject(Uha, ","""",E342,"""",", cJSON_CreateNumber(mVars[",C342,"]));")</f>
         <v>cJSON_AddItemToObject(Uha, "VAR_LVDC_VDIFF_V100", cJSON_CreateNumber(mVars[340]));</v>
       </c>
     </row>
@@ -26245,37 +26316,37 @@
         <v>341</v>
       </c>
       <c r="D343" s="1" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="53"/>
         <v>0155</v>
       </c>
       <c r="E343" s="34" t="s">
         <v>429</v>
       </c>
       <c r="H343" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v>#define  VAR_LVDC_VDIFF_MAX  341</v>
       </c>
       <c r="I343" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v>public const byte VAR_LVDC_VDIFF_MAX = 341;</v>
       </c>
       <c r="J343">
         <v>105</v>
       </c>
       <c r="L343" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="56"/>
         <v>UpdateScanList(VAR_LVDC_VDIFF_MAX, 5000);</v>
       </c>
       <c r="M343" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>VAR_SetVariable(VAR_LVDC_VDIFF_MAX, Cells[105].Temp_C, validflag);</v>
       </c>
       <c r="O343" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_LVDC_VDIFF_MAX", cJSON_CreateNumber(mVars[VAR_LVDC_VDIFF_MAX]));</v>
       </c>
       <c r="P343" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_LVDC_VDIFF_MAX", cJSON_CreateNumber(mVars[341]));</v>
       </c>
     </row>
@@ -26284,37 +26355,37 @@
         <v>342</v>
       </c>
       <c r="D344" s="1" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="53"/>
         <v>0156</v>
       </c>
       <c r="E344" s="34" t="s">
         <v>430</v>
       </c>
       <c r="H344" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v>#define  VAR_LVDC_CURRENT_A  342</v>
       </c>
       <c r="I344" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v>public const byte VAR_LVDC_CURRENT_A = 342;</v>
       </c>
       <c r="J344">
         <v>106</v>
       </c>
       <c r="L344" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="56"/>
         <v>UpdateScanList(VAR_LVDC_CURRENT_A, 5000);</v>
       </c>
       <c r="M344" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>VAR_SetVariable(VAR_LVDC_CURRENT_A, Cells[106].Temp_C, validflag);</v>
       </c>
       <c r="O344" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_LVDC_CURRENT_A", cJSON_CreateNumber(mVars[VAR_LVDC_CURRENT_A]));</v>
       </c>
       <c r="P344" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_LVDC_CURRENT_A", cJSON_CreateNumber(mVars[342]));</v>
       </c>
     </row>
@@ -26323,37 +26394,37 @@
         <v>343</v>
       </c>
       <c r="D345" s="1" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="53"/>
         <v>0157</v>
       </c>
       <c r="E345" s="34" t="s">
         <v>432</v>
       </c>
       <c r="H345" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v>#define  VAR_LVDC_LOSS_W  343</v>
       </c>
       <c r="I345" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v>public const byte VAR_LVDC_LOSS_W = 343;</v>
       </c>
       <c r="J345">
         <v>107</v>
       </c>
       <c r="L345" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="56"/>
         <v>UpdateScanList(VAR_LVDC_LOSS_W, 5000);</v>
       </c>
       <c r="M345" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>VAR_SetVariable(VAR_LVDC_LOSS_W, Cells[107].Temp_C, validflag);</v>
       </c>
       <c r="O345" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_LVDC_LOSS_W", cJSON_CreateNumber(mVars[VAR_LVDC_LOSS_W]));</v>
       </c>
       <c r="P345" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_LVDC_LOSS_W", cJSON_CreateNumber(mVars[343]));</v>
       </c>
     </row>
@@ -26362,37 +26433,37 @@
         <v>344</v>
       </c>
       <c r="D346" s="1" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="53"/>
         <v>0158</v>
       </c>
       <c r="E346" s="34" t="s">
         <v>434</v>
       </c>
       <c r="H346" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v>#define  VAR_LVDC_LOSS_CONS_WH  344</v>
       </c>
       <c r="I346" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v>public const byte VAR_LVDC_LOSS_CONS_WH = 344;</v>
       </c>
       <c r="J346">
         <v>108</v>
       </c>
       <c r="L346" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="56"/>
         <v>UpdateScanList(VAR_LVDC_LOSS_CONS_WH, 5000);</v>
       </c>
       <c r="M346" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>VAR_SetVariable(VAR_LVDC_LOSS_CONS_WH, Cells[108].Temp_C, validflag);</v>
       </c>
       <c r="O346" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_LVDC_LOSS_CONS_WH", cJSON_CreateNumber(mVars[VAR_LVDC_LOSS_CONS_WH]));</v>
       </c>
       <c r="P346" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v>cJSON_AddItemToObject(Uha, "VAR_LVDC_LOSS_CONS_WH", cJSON_CreateNumber(mVars[344]));</v>
       </c>
     </row>
@@ -26401,7 +26472,7 @@
         <v>345</v>
       </c>
       <c r="D347" s="1" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="53"/>
         <v>0159</v>
       </c>
     </row>
@@ -26410,7 +26481,7 @@
         <v>346</v>
       </c>
       <c r="D348" s="1" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="53"/>
         <v>015A</v>
       </c>
     </row>
@@ -26419,7 +26490,7 @@
         <v>347</v>
       </c>
       <c r="D349" s="1" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="53"/>
         <v>015B</v>
       </c>
     </row>
@@ -26428,7 +26499,7 @@
         <v>348</v>
       </c>
       <c r="D350" s="1" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="53"/>
         <v>015C</v>
       </c>
     </row>
@@ -26437,7 +26508,7 @@
         <v>349</v>
       </c>
       <c r="D351" s="1" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="53"/>
         <v>015D</v>
       </c>
     </row>
@@ -26446,7 +26517,7 @@
         <v>350</v>
       </c>
       <c r="D352" s="1" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="53"/>
         <v>015E</v>
       </c>
     </row>

--- a/UHA.xlsx
+++ b/UHA.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="0" windowWidth="9390" windowHeight="1185" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="0" windowWidth="9390" windowHeight="1185"/>
   </bookViews>
   <sheets>
     <sheet name="UHA meas values" sheetId="1" r:id="rId1"/>
@@ -210,7 +210,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="479">
   <si>
     <t>dec</t>
   </si>
@@ -1641,6 +1641,12 @@
   </si>
   <si>
     <t>VAR_MPPT_TEMP_C</t>
+  </si>
+  <si>
+    <t>0x620</t>
+  </si>
+  <si>
+    <t>CMD_LOG_MSG</t>
   </si>
 </sst>
 </file>
@@ -2414,7 +2420,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:P354"/>
   <sheetViews>
-    <sheetView topLeftCell="B15" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B15" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="F72" sqref="A3:P354"/>
     </sheetView>
   </sheetViews>
@@ -14384,7 +14390,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P352"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="A136" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
@@ -27206,10 +27212,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:I48"/>
+  <dimension ref="B2:I52"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E58" sqref="E58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -27438,7 +27444,7 @@
         <v>86</v>
       </c>
       <c r="H18" t="str">
-        <f t="shared" ref="H18:H48" si="2">CONCATENATE("#define  ",E18,"  ",D18)</f>
+        <f t="shared" ref="H18:H52" si="2">CONCATENATE("#define  ",E18,"  ",D18)</f>
         <v>#define  CMD_MASTER_HB  0x777</v>
       </c>
       <c r="I18" t="str">
@@ -27794,6 +27800,36 @@
       <c r="H48" t="str">
         <f t="shared" si="2"/>
         <v>#define  CMD_BALANCE_INFO  0x310</v>
+      </c>
+    </row>
+    <row r="49" spans="4:8">
+      <c r="H49" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">#define    </v>
+      </c>
+    </row>
+    <row r="50" spans="4:8">
+      <c r="H50" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">#define    </v>
+      </c>
+    </row>
+    <row r="51" spans="4:8">
+      <c r="D51" t="s">
+        <v>477</v>
+      </c>
+      <c r="E51" t="s">
+        <v>478</v>
+      </c>
+      <c r="H51" t="str">
+        <f t="shared" si="2"/>
+        <v>#define  CMD_LOG_MSG  0x620</v>
+      </c>
+    </row>
+    <row r="52" spans="4:8">
+      <c r="H52" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">#define    </v>
       </c>
     </row>
   </sheetData>
